--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="170">
   <si>
     <t>Plug</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Prongs</t>
   </si>
   <si>
-    <t>Wall wart</t>
-  </si>
-  <si>
     <t>Inside Measurements</t>
   </si>
   <si>
@@ -466,6 +463,69 @@
   </si>
   <si>
     <t>Surge strip #2</t>
+  </si>
+  <si>
+    <t>Max Comp.</t>
+  </si>
+  <si>
+    <t>Min Comp.</t>
+  </si>
+  <si>
+    <t>Span Values</t>
+  </si>
+  <si>
+    <t>Pin Body (in)</t>
+  </si>
+  <si>
+    <t>Var 3</t>
+  </si>
+  <si>
+    <t>Var 4</t>
+  </si>
+  <si>
+    <t>Model: Vars OK</t>
+  </si>
+  <si>
+    <t>Model: Vars Close</t>
+  </si>
+  <si>
+    <t>Close factor (in)</t>
+  </si>
+  <si>
+    <t>Yes/Are</t>
+  </si>
+  <si>
+    <t>No/Not</t>
+  </si>
+  <si>
+    <t>Devices that work on the #4 model:</t>
+  </si>
+  <si>
+    <t>Devices that work on the #3 model:</t>
+  </si>
+  <si>
+    <t>Devices that work really great on #3</t>
+  </si>
+  <si>
+    <t>Wart</t>
+  </si>
+  <si>
+    <t>Devices that work really great on #4</t>
+  </si>
+  <si>
+    <t>New (5)</t>
+  </si>
+  <si>
+    <t>Var 5</t>
+  </si>
+  <si>
+    <t>Total Devices</t>
+  </si>
+  <si>
+    <t>Devices that work really great on #5:</t>
+  </si>
+  <si>
+    <t>Devices that work on the #5 model:</t>
   </si>
 </sst>
 </file>
@@ -505,7 +565,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -594,6 +654,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -613,11 +719,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -628,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -636,6 +804,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,7 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,24 +837,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +928,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Y$17</c:f>
+              <c:f>Data!$AF$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -752,67 +940,115 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$V$19:$V$34</c:f>
+              <c:f>Data!$AC$19:$AC$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Z$19:$Z$34</c:f>
+              <c:f>Data!$AG$19:$AG$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -841,7 +1077,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -850,15 +1086,63 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -870,7 +1154,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$V$17</c:f>
+              <c:f>Data!$AC$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -880,12 +1164,117 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$AC$19:$AC$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$19:$W$34</c:f>
+              <c:f>Data!$AD$19:$AD$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -893,28 +1282,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -932,6 +1321,54 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1361,47 +1798,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O32"/>
+  <dimension ref="B2:O166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="10"/>
-    </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.378</v>
-      </c>
-      <c r="D3" s="20">
-        <f>C3-0.29</f>
-        <v>8.8000000000000023E-2</v>
+      <c r="E3" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>2</v>
@@ -1412,176 +1851,358 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>0.378</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f>C4-0.29</f>
         <v>8.8000000000000023E-2</v>
       </c>
+      <c r="E4" s="5">
+        <f>2*(C4-(D$9-D$10))</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F4" s="6">
+        <f>2*(C4-(D$9-D$11))</f>
+        <v>0.60399999999999998</v>
+      </c>
       <c r="J4" s="7">
-        <f>MAX(Data!T19:T1053)</f>
+        <f>MAX(Data!AA19:AA1000)</f>
         <v>73.499999999999957</v>
       </c>
       <c r="K4" s="9">
-        <f>MIN(Data!S19:S1053)</f>
+        <f>MIN(Data!Z19:Z1000)</f>
         <v>67.500000000000057</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.378</v>
+      </c>
+      <c r="D5" s="19">
+        <f>C5-0.29</f>
+        <v>8.8000000000000023E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E7" si="0">2*(C5-(D$9-D$10))</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F7" si="1">2*(C5-(D$9-D$11))</f>
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="5">
         <v>0.373</v>
       </c>
-      <c r="D5" s="21">
-        <f>C5-0.29</f>
+      <c r="D6" s="19">
+        <f>C6-0.29</f>
         <v>8.3000000000000018E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.59399999999999997</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D7" s="20">
+        <f>C7-0.29</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
         <v>0.1</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="H9" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40">
+        <f>COUNT(Data!J19:J1000)</f>
+        <v>113</v>
+      </c>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <v>2E-3</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
-        <v>2.4E-2</v>
-      </c>
+      <c r="E10" s="5"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="23">
+      <c r="B12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
+        <f>D9-D11</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <f>COUNTIF(Data!P19:P1000,"Y")</f>
+        <v>39</v>
+      </c>
+      <c r="M12" s="43">
+        <f>COUNTIF(Data!P19:P1000,"N")</f>
+        <v>74</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="H13" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <f>COUNTIF(Data!S19:S1000,"Good")</f>
+        <v>9</v>
+      </c>
+      <c r="M13" s="43">
+        <f>L9-L13</f>
+        <v>104</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="42"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="27">
         <v>0.41</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="20">
-        <v>0.42</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="20">
-        <v>0.43</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="20">
-        <v>0.44</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="20">
-        <v>0.45</v>
+      <c r="H16" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <f>COUNTIF(Data!Q19:Q1000,"Y")</f>
+        <v>101</v>
+      </c>
+      <c r="M16" s="43">
+        <f>COUNTIF(Data!Q19:Q1000,"N")</f>
+        <v>12</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="20">
-        <v>0.46</v>
+      <c r="C17" s="5"/>
+      <c r="D17" s="22">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <f>COUNTIF(Data!T19:T1000,"Good")</f>
+        <v>75</v>
+      </c>
+      <c r="M17" s="43">
+        <f>L9-L17</f>
+        <v>38</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="20">
-        <v>0.47</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="22">
+        <v>0.42</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="20">
-        <v>0.48</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="33"/>
+      <c r="D19" s="22">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <f>COUNTIF(Data!R19:R1000,"Y")</f>
+        <v>112</v>
+      </c>
+      <c r="M19" s="43">
+        <f>COUNTIF(Data!R19:R1000,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="29">
-        <v>0.51</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="22">
+        <v>0.43</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45">
+        <f>COUNTIF(Data!U19:U1000,"Good")</f>
+        <v>112</v>
+      </c>
+      <c r="M20" s="46">
+        <f>L9-L20</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="29">
-        <v>0.52</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="22">
+        <v>0.435</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="29">
-        <v>0.53</v>
+      <c r="C22" s="33"/>
+      <c r="D22" s="22">
+        <v>0.44</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1589,71 +2210,803 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="29">
-        <v>0.54</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="D23" s="22">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="29">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="D24" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="29">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="D25" s="22">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="29">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="D26" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="30">
-        <v>0.57999999999999996</v>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="22">
+        <v>0.46500000000000002</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="22">
+        <v>0.47</v>
+      </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="22">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="22">
+        <v>0.48</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="22">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="22">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="22">
+        <v>0.52</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="22">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="22">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="22">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="22">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="22">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="22">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="22">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="22">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="23">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="19"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="34"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="34"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="34"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="34"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="34"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="34"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="34"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="34"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="34"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="34"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="34"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="34"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="34"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="34"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="34"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="34"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="34"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="34"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="34"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="34"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="34"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="34"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="34"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="34"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="34"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="34"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="34"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="34"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="34"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="34"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="34"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="34"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="34"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="34"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="34"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="34"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="34"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="34"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="34"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="34"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="34"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="34"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="34"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="34"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="34"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="34"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="34"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="34"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="34"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="34"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="34"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="34"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="34"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="34"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="34"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="34"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="34"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="34"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="34"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="34"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="34"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="34"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="34"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="34"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="34"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="34"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="34"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="34"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="34"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="34"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="34"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="34"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="34"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="34"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1662,131 +3015,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17:Z131"/>
+  <dimension ref="A17:AI175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
+    <col min="5" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" customWidth="1"/>
+    <col min="16" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="1.42578125" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="1.42578125" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="1.42578125" customWidth="1"/>
+    <col min="31" max="31" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17" t="s">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17" t="s">
+      <c r="X17" s="18"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="V17" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="W17" s="27"/>
-      <c r="Y17" s="13" t="s">
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="AD17" s="32"/>
+      <c r="AF17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG17" s="13"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16" t="s">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16" t="s">
+      <c r="O18" s="17"/>
+      <c r="P18" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="W18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="X18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16" t="s">
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="AA18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y18" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z18" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG18" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1802,36 +3188,61 @@
       <c r="J19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P19">
-        <f>J19/2+Constants!D$8-Constants!D$9</f>
+      <c r="P19" t="str">
+        <f>IF(AND(J19&lt;=Constants!F$5,J19&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(AND(J19&lt;=Constants!F$6,J19&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R19" t="str">
+        <f>IF(AND(J19&lt;=Constants!F$7,J19&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S19" t="str">
+        <f>IF(P19="N","N",IF(OR((J19+Constants!D$14)&gt;Constants!F$5,(J19-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T19" t="str">
+        <f>IF(Q19="N","N",IF(OR((J19+Constants!D$14)&gt;Constants!F$6,(J19-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U19" t="str">
+        <f>IF(R19="N","N",IF(OR((J19+Constants!D$14)&gt;Constants!F$7,(J19-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V19" s="28"/>
+      <c r="W19">
+        <f>J19/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
       </c>
-      <c r="Q19">
-        <f>H19/2+Constants!D$8-Constants!D$10</f>
+      <c r="X19">
+        <f>H19/2+Constants!D$9-Constants!D$11</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="S19">
-        <f>1000*(P19-0.29)</f>
+      <c r="Z19">
+        <f>1000*(W19-0.29)</f>
         <v>83.000000000000014</v>
       </c>
-      <c r="T19">
-        <f>1000*(Q19-0.29)</f>
+      <c r="AA19">
+        <f>1000*(X19-0.29)</f>
         <v>64</v>
       </c>
-      <c r="V19" s="24">
+      <c r="AC19" s="29">
         <v>0.41</v>
       </c>
-      <c r="W19" s="11">
+      <c r="AD19" s="11">
         <v>0</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="AF19" s="29">
         <v>0.41</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="AG19" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1847,36 +3258,61 @@
       <c r="J20">
         <v>0.51900000000000002</v>
       </c>
-      <c r="P20">
-        <f>J20/2+Constants!D$8-Constants!D$9</f>
+      <c r="P20" t="str">
+        <f>IF(AND(J20&lt;=Constants!F$5,J20&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>IF(AND(J20&lt;=Constants!F$6,J20&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R20" t="str">
+        <f>IF(AND(J20&lt;=Constants!F$7,J20&gt;=Constants!E$7),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="S20" t="str">
+        <f>IF(P20="N","N",IF(OR((J20+Constants!D$14)&gt;Constants!F$5,(J20-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T20" t="str">
+        <f>IF(Q20="N","N",IF(OR((J20+Constants!D$14)&gt;Constants!F$6,(J20-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U20" t="str">
+        <f>IF(R20="N","N",IF(OR((J20+Constants!D$14)&gt;Constants!F$7,(J20-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="V20" s="28"/>
+      <c r="W20">
+        <f>J20/2+Constants!D$9-Constants!D$10</f>
         <v>0.35750000000000004</v>
       </c>
-      <c r="Q20">
-        <f>H20/2+Constants!D$8-Constants!D$10</f>
+      <c r="X20">
+        <f>H20/2+Constants!D$9-Constants!D$11</f>
         <v>0.35350000000000004</v>
       </c>
-      <c r="S20">
-        <f>1000*(P20-0.29)</f>
+      <c r="Z20">
+        <f>1000*(W20-0.29)</f>
         <v>67.500000000000057</v>
       </c>
-      <c r="T20">
-        <f>1000*(Q20-0.29)</f>
+      <c r="AA20">
+        <f>1000*(X20-0.29)</f>
         <v>63.500000000000057</v>
       </c>
-      <c r="V20" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="W20" s="11">
+      <c r="AC20" s="29">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AD20" s="11">
         <v>1</v>
       </c>
-      <c r="Y20" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="Z20" s="11">
+      <c r="AF20" s="29">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AG20" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1892,36 +3328,61 @@
       <c r="J21">
         <v>0.55100000000000005</v>
       </c>
-      <c r="P21">
-        <f>J21/2+Constants!D$8-Constants!D$9</f>
+      <c r="P21" t="str">
+        <f>IF(AND(J21&lt;=Constants!F$5,J21&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF(AND(J21&lt;=Constants!F$6,J21&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IF(AND(J21&lt;=Constants!F$7,J21&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S21" t="str">
+        <f>IF(P21="N","N",IF(OR((J21+Constants!D$14)&gt;Constants!F$5,(J21-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T21" t="str">
+        <f>IF(Q21="N","N",IF(OR((J21+Constants!D$14)&gt;Constants!F$6,(J21-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U21" t="str">
+        <f>IF(R21="N","N",IF(OR((J21+Constants!D$14)&gt;Constants!F$7,(J21-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V21" s="28"/>
+      <c r="W21">
+        <f>J21/2+Constants!D$9-Constants!D$10</f>
         <v>0.37350000000000005</v>
       </c>
-      <c r="Q21">
-        <f>H21/2+Constants!D$8-Constants!D$10</f>
+      <c r="X21">
+        <f>H21/2+Constants!D$9-Constants!D$11</f>
         <v>0.35350000000000004</v>
       </c>
-      <c r="S21">
-        <f>1000*(P21-0.29)</f>
+      <c r="Z21">
+        <f>1000*(W21-0.29)</f>
         <v>83.500000000000071</v>
       </c>
-      <c r="T21">
-        <f>1000*(Q21-0.29)</f>
+      <c r="AA21">
+        <f>1000*(X21-0.29)</f>
         <v>63.500000000000057</v>
       </c>
-      <c r="V21" s="24">
-        <v>0.43</v>
-      </c>
-      <c r="W21" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="24">
-        <v>0.43</v>
-      </c>
-      <c r="Z21" s="11">
+      <c r="AC21" s="29">
+        <v>0.42</v>
+      </c>
+      <c r="AD21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AF21" s="29">
+        <v>0.42</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1937,36 +3398,61 @@
       <c r="J22">
         <v>0.55500000000000005</v>
       </c>
-      <c r="P22">
-        <f>J22/2+Constants!D$8-Constants!D$9</f>
+      <c r="P22" t="str">
+        <f>IF(AND(J22&lt;=Constants!F$5,J22&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF(AND(J22&lt;=Constants!F$6,J22&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R22" t="str">
+        <f>IF(AND(J22&lt;=Constants!F$7,J22&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S22" t="str">
+        <f>IF(P22="N","N",IF(OR((J22+Constants!D$14)&gt;Constants!F$5,(J22-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T22" t="str">
+        <f>IF(Q22="N","N",IF(OR((J22+Constants!D$14)&gt;Constants!F$6,(J22-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U22" t="str">
+        <f>IF(R22="N","N",IF(OR((J22+Constants!D$14)&gt;Constants!F$7,(J22-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V22" s="28"/>
+      <c r="W22">
+        <f>J22/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
       </c>
-      <c r="Q22">
-        <f>H22/2+Constants!D$8-Constants!D$10</f>
+      <c r="X22">
+        <f>H22/2+Constants!D$9-Constants!D$11</f>
         <v>0.35849999999999993</v>
       </c>
-      <c r="S22">
-        <f>1000*(P22-0.29)</f>
+      <c r="Z22">
+        <f>1000*(W22-0.29)</f>
         <v>85.500000000000071</v>
       </c>
-      <c r="T22">
-        <f>1000*(Q22-0.29)</f>
+      <c r="AA22">
+        <f>1000*(X22-0.29)</f>
         <v>68.499999999999943</v>
       </c>
-      <c r="V22" s="24">
-        <v>0.44</v>
-      </c>
-      <c r="W22" s="11">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="24">
-        <v>0.44</v>
-      </c>
-      <c r="Z22" s="11">
+      <c r="AC22" s="29">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="29">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AG22" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1982,36 +3468,61 @@
       <c r="J23">
         <v>0.56699999999999995</v>
       </c>
-      <c r="P23">
-        <f>J23/2+Constants!D$8-Constants!D$9</f>
+      <c r="P23" t="str">
+        <f>IF(AND(J23&lt;=Constants!F$5,J23&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF(AND(J23&lt;=Constants!F$6,J23&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R23" t="str">
+        <f>IF(AND(J23&lt;=Constants!F$7,J23&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S23" t="str">
+        <f>IF(P23="N","N",IF(OR((J23+Constants!D$14)&gt;Constants!F$5,(J23-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T23" t="str">
+        <f>IF(Q23="N","N",IF(OR((J23+Constants!D$14)&gt;Constants!F$6,(J23-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U23" t="str">
+        <f>IF(R23="N","N",IF(OR((J23+Constants!D$14)&gt;Constants!F$7,(J23-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V23" s="28"/>
+      <c r="W23">
+        <f>J23/2+Constants!D$9-Constants!D$10</f>
         <v>0.38149999999999995</v>
       </c>
-      <c r="Q23">
-        <f>H23/2+Constants!D$8-Constants!D$10</f>
+      <c r="X23">
+        <f>H23/2+Constants!D$9-Constants!D$11</f>
         <v>0.35949999999999993</v>
       </c>
-      <c r="S23">
-        <f>1000*(P23-0.29)</f>
+      <c r="Z23">
+        <f>1000*(W23-0.29)</f>
         <v>91.499999999999972</v>
       </c>
-      <c r="T23">
-        <f>1000*(Q23-0.29)</f>
+      <c r="AA23">
+        <f>1000*(X23-0.29)</f>
         <v>69.499999999999957</v>
       </c>
-      <c r="V23" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="W23" s="11">
-        <v>25</v>
-      </c>
-      <c r="Y23" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="Z23" s="11">
+      <c r="AC23" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF23" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="AG23" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2027,36 +3538,61 @@
       <c r="J24">
         <v>0.55500000000000005</v>
       </c>
-      <c r="P24">
-        <f>J24/2+Constants!D$8-Constants!D$9</f>
+      <c r="P24" t="str">
+        <f>IF(AND(J24&lt;=Constants!F$5,J24&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF(AND(J24&lt;=Constants!F$6,J24&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(AND(J24&lt;=Constants!F$7,J24&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S24" t="str">
+        <f>IF(P24="N","N",IF(OR((J24+Constants!D$14)&gt;Constants!F$5,(J24-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T24" t="str">
+        <f>IF(Q24="N","N",IF(OR((J24+Constants!D$14)&gt;Constants!F$6,(J24-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U24" t="str">
+        <f>IF(R24="N","N",IF(OR((J24+Constants!D$14)&gt;Constants!F$7,(J24-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V24" s="28"/>
+      <c r="W24">
+        <f>J24/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
       </c>
-      <c r="Q24">
-        <f>H24/2+Constants!D$8-Constants!D$10</f>
+      <c r="X24">
+        <f>H24/2+Constants!D$9-Constants!D$11</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="S24">
-        <f>1000*(P24-0.29)</f>
+      <c r="Z24">
+        <f>1000*(W24-0.29)</f>
         <v>85.500000000000071</v>
       </c>
-      <c r="T24">
-        <f>1000*(Q24-0.29)</f>
+      <c r="AA24">
+        <f>1000*(X24-0.29)</f>
         <v>64</v>
       </c>
-      <c r="V24" s="24">
-        <v>0.46</v>
-      </c>
-      <c r="W24" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="24">
-        <v>0.46</v>
-      </c>
-      <c r="Z24" s="11">
+      <c r="AC24" s="29">
+        <v>0.435</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="29">
+        <v>0.435</v>
+      </c>
+      <c r="AG24" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2072,36 +3608,61 @@
       <c r="J25">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P25">
-        <f>J25/2+Constants!D$8-Constants!D$9</f>
+      <c r="P25" t="str">
+        <f>IF(AND(J25&lt;=Constants!F$5,J25&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF(AND(J25&lt;=Constants!F$6,J25&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R25" t="str">
+        <f>IF(AND(J25&lt;=Constants!F$7,J25&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S25" t="str">
+        <f>IF(P25="N","N",IF(OR((J25+Constants!D$14)&gt;Constants!F$5,(J25-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T25" t="str">
+        <f>IF(Q25="N","N",IF(OR((J25+Constants!D$14)&gt;Constants!F$6,(J25-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U25" t="str">
+        <f>IF(R25="N","N",IF(OR((J25+Constants!D$14)&gt;Constants!F$7,(J25-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V25" s="28"/>
+      <c r="W25">
+        <f>J25/2+Constants!D$9-Constants!D$10</f>
         <v>0.378</v>
       </c>
-      <c r="Q25">
-        <f>H25/2+Constants!D$8-Constants!D$10</f>
+      <c r="X25">
+        <f>H25/2+Constants!D$9-Constants!D$11</f>
         <v>0.35599999999999998</v>
       </c>
-      <c r="S25">
-        <f>1000*(P25-0.29)</f>
+      <c r="Z25">
+        <f>1000*(W25-0.29)</f>
         <v>88.000000000000028</v>
       </c>
-      <c r="T25">
-        <f>1000*(Q25-0.29)</f>
+      <c r="AA25">
+        <f>1000*(X25-0.29)</f>
         <v>66</v>
       </c>
-      <c r="V25" s="24">
-        <v>0.47</v>
-      </c>
-      <c r="W25" s="11">
+      <c r="AC25" s="29">
+        <v>0.44</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="29">
+        <v>0.44</v>
+      </c>
+      <c r="AG25" s="11">
         <v>0</v>
       </c>
-      <c r="Y25" s="24">
-        <v>0.47</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2117,36 +3678,61 @@
       <c r="J26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P26">
-        <f>J26/2+Constants!D$8-Constants!D$9</f>
+      <c r="P26" t="str">
+        <f>IF(AND(J26&lt;=Constants!F$5,J26&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>IF(AND(J26&lt;=Constants!F$6,J26&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R26" t="str">
+        <f>IF(AND(J26&lt;=Constants!F$7,J26&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S26" t="str">
+        <f>IF(P26="N","N",IF(OR((J26+Constants!D$14)&gt;Constants!F$5,(J26-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T26" t="str">
+        <f>IF(Q26="N","N",IF(OR((J26+Constants!D$14)&gt;Constants!F$6,(J26-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U26" t="str">
+        <f>IF(R26="N","N",IF(OR((J26+Constants!D$14)&gt;Constants!F$7,(J26-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V26" s="28"/>
+      <c r="W26">
+        <f>J26/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
       </c>
-      <c r="Q26">
-        <f>H26/2+Constants!D$8-Constants!D$10</f>
+      <c r="X26">
+        <f>H26/2+Constants!D$9-Constants!D$11</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="S26">
-        <f>1000*(P26-0.29)</f>
+      <c r="Z26">
+        <f>1000*(W26-0.29)</f>
         <v>83.000000000000014</v>
       </c>
-      <c r="T26">
-        <f>1000*(Q26-0.29)</f>
+      <c r="AA26">
+        <f>1000*(X26-0.29)</f>
         <v>61</v>
       </c>
-      <c r="V26" s="24">
-        <v>0.48</v>
-      </c>
-      <c r="W26" s="11">
+      <c r="AC26" s="29">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AD26" s="11">
+        <v>20</v>
+      </c>
+      <c r="AF26" s="29">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AG26" s="11">
         <v>0</v>
       </c>
-      <c r="Y26" s="24">
-        <v>0.48</v>
-      </c>
-      <c r="Z26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2162,36 +3748,61 @@
       <c r="J27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="P27">
-        <f>J27/2+Constants!D$8-Constants!D$9</f>
+      <c r="P27" t="str">
+        <f>IF(AND(J27&lt;=Constants!F$5,J27&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF(AND(J27&lt;=Constants!F$6,J27&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R27" t="str">
+        <f>IF(AND(J27&lt;=Constants!F$7,J27&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S27" t="str">
+        <f>IF(P27="N","N",IF(OR((J27+Constants!D$14)&gt;Constants!F$5,(J27-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T27" t="str">
+        <f>IF(Q27="N","N",IF(OR((J27+Constants!D$14)&gt;Constants!F$6,(J27-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U27" t="str">
+        <f>IF(R27="N","N",IF(OR((J27+Constants!D$14)&gt;Constants!F$7,(J27-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V27" s="28"/>
+      <c r="W27">
+        <f>J27/2+Constants!D$9-Constants!D$10</f>
         <v>0.376</v>
       </c>
-      <c r="Q27">
-        <f>H27/2+Constants!D$8-Constants!D$10</f>
+      <c r="X27">
+        <f>H27/2+Constants!D$9-Constants!D$11</f>
         <v>0.35450000000000004</v>
       </c>
-      <c r="S27">
-        <f>1000*(P27-0.29)</f>
+      <c r="Z27">
+        <f>1000*(W27-0.29)</f>
         <v>86.000000000000014</v>
       </c>
-      <c r="T27">
-        <f>1000*(Q27-0.29)</f>
+      <c r="AA27">
+        <f>1000*(X27-0.29)</f>
         <v>64.500000000000057</v>
       </c>
-      <c r="V27" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="W27" s="11">
+      <c r="AC27" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="AG27" s="11">
         <v>0</v>
       </c>
-      <c r="Y27" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2207,36 +3818,61 @@
       <c r="J28">
         <v>0.56499999999999995</v>
       </c>
-      <c r="P28">
-        <f>J28/2+Constants!D$8-Constants!D$9</f>
+      <c r="P28" t="str">
+        <f>IF(AND(J28&lt;=Constants!F$5,J28&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>IF(AND(J28&lt;=Constants!F$6,J28&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R28" t="str">
+        <f>IF(AND(J28&lt;=Constants!F$7,J28&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S28" t="str">
+        <f>IF(P28="N","N",IF(OR((J28+Constants!D$14)&gt;Constants!F$5,(J28-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T28" t="str">
+        <f>IF(Q28="N","N",IF(OR((J28+Constants!D$14)&gt;Constants!F$6,(J28-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U28" t="str">
+        <f>IF(R28="N","N",IF(OR((J28+Constants!D$14)&gt;Constants!F$7,(J28-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V28" s="28"/>
+      <c r="W28">
+        <f>J28/2+Constants!D$9-Constants!D$10</f>
         <v>0.38049999999999995</v>
       </c>
-      <c r="Q28">
-        <f>H28/2+Constants!D$8-Constants!D$10</f>
+      <c r="X28">
+        <f>H28/2+Constants!D$9-Constants!D$11</f>
         <v>0.35849999999999993</v>
       </c>
-      <c r="S28">
-        <f>1000*(P28-0.29)</f>
+      <c r="Z28">
+        <f>1000*(W28-0.29)</f>
         <v>90.499999999999972</v>
       </c>
-      <c r="T28">
-        <f>1000*(Q28-0.29)</f>
+      <c r="AA28">
+        <f>1000*(X28-0.29)</f>
         <v>68.499999999999943</v>
       </c>
-      <c r="V28" s="24">
-        <v>0.52</v>
-      </c>
-      <c r="W28" s="11">
+      <c r="AC28" s="29">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="29">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AG28" s="11">
         <v>0</v>
       </c>
-      <c r="Y28" s="24">
-        <v>0.52</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2252,36 +3888,61 @@
       <c r="J29">
         <v>0.55600000000000005</v>
       </c>
-      <c r="P29">
-        <f>J29/2+Constants!D$8-Constants!D$9</f>
+      <c r="P29" t="str">
+        <f>IF(AND(J29&lt;=Constants!F$5,J29&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>IF(AND(J29&lt;=Constants!F$6,J29&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R29" t="str">
+        <f>IF(AND(J29&lt;=Constants!F$7,J29&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S29" t="str">
+        <f>IF(P29="N","N",IF(OR((J29+Constants!D$14)&gt;Constants!F$5,(J29-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T29" t="str">
+        <f>IF(Q29="N","N",IF(OR((J29+Constants!D$14)&gt;Constants!F$6,(J29-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U29" t="str">
+        <f>IF(R29="N","N",IF(OR((J29+Constants!D$14)&gt;Constants!F$7,(J29-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V29" s="28"/>
+      <c r="W29">
+        <f>J29/2+Constants!D$9-Constants!D$10</f>
         <v>0.376</v>
       </c>
-      <c r="Q29">
-        <f>H29/2+Constants!D$8-Constants!D$10</f>
+      <c r="X29">
+        <f>H29/2+Constants!D$9-Constants!D$11</f>
         <v>0.36349999999999993</v>
       </c>
-      <c r="S29">
-        <f>1000*(P29-0.29)</f>
+      <c r="Z29">
+        <f>1000*(W29-0.29)</f>
         <v>86.000000000000014</v>
       </c>
-      <c r="T29">
-        <f>1000*(Q29-0.29)</f>
+      <c r="AA29">
+        <f>1000*(X29-0.29)</f>
         <v>73.499999999999957</v>
       </c>
-      <c r="V29" s="24">
-        <v>0.53</v>
-      </c>
-      <c r="W29" s="11">
+      <c r="AC29" s="29">
+        <v>0.46</v>
+      </c>
+      <c r="AD29" s="11">
         <v>0</v>
       </c>
-      <c r="Y29" s="24">
-        <v>0.53</v>
-      </c>
-      <c r="Z29" s="11">
+      <c r="AF29" s="29">
+        <v>0.46</v>
+      </c>
+      <c r="AG29" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2297,36 +3958,61 @@
       <c r="J30">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P30">
-        <f>J30/2+Constants!D$8-Constants!D$9</f>
+      <c r="P30" t="str">
+        <f>IF(AND(J30&lt;=Constants!F$5,J30&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>IF(AND(J30&lt;=Constants!F$6,J30&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R30" t="str">
+        <f>IF(AND(J30&lt;=Constants!F$7,J30&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S30" t="str">
+        <f>IF(P30="N","N",IF(OR((J30+Constants!D$14)&gt;Constants!F$5,(J30-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T30" t="str">
+        <f>IF(Q30="N","N",IF(OR((J30+Constants!D$14)&gt;Constants!F$6,(J30-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U30" t="str">
+        <f>IF(R30="N","N",IF(OR((J30+Constants!D$14)&gt;Constants!F$7,(J30-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V30" s="28"/>
+      <c r="W30">
+        <f>J30/2+Constants!D$9-Constants!D$10</f>
         <v>0.378</v>
       </c>
-      <c r="Q30">
-        <f>H30/2+Constants!D$8-Constants!D$10</f>
+      <c r="X30">
+        <f>H30/2+Constants!D$9-Constants!D$11</f>
         <v>0.35599999999999998</v>
       </c>
-      <c r="S30">
-        <f>1000*(P30-0.29)</f>
+      <c r="Z30">
+        <f>1000*(W30-0.29)</f>
         <v>88.000000000000028</v>
       </c>
-      <c r="T30">
-        <f>1000*(Q30-0.29)</f>
+      <c r="AA30">
+        <f>1000*(X30-0.29)</f>
         <v>66</v>
       </c>
-      <c r="V30" s="24">
-        <v>0.54</v>
-      </c>
-      <c r="W30" s="11">
+      <c r="AC30" s="29">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AD30" s="11">
         <v>0</v>
       </c>
-      <c r="Y30" s="24">
-        <v>0.54</v>
-      </c>
-      <c r="Z30" s="11">
+      <c r="AF30" s="29">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AG30" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2342,36 +4028,61 @@
       <c r="J31">
         <v>0.55900000000000005</v>
       </c>
-      <c r="P31">
-        <f>J31/2+Constants!D$8-Constants!D$9</f>
+      <c r="P31" t="str">
+        <f>IF(AND(J31&lt;=Constants!F$5,J31&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q31" t="str">
+        <f>IF(AND(J31&lt;=Constants!F$6,J31&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R31" t="str">
+        <f>IF(AND(J31&lt;=Constants!F$7,J31&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S31" t="str">
+        <f>IF(P31="N","N",IF(OR((J31+Constants!D$14)&gt;Constants!F$5,(J31-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T31" t="str">
+        <f>IF(Q31="N","N",IF(OR((J31+Constants!D$14)&gt;Constants!F$6,(J31-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U31" t="str">
+        <f>IF(R31="N","N",IF(OR((J31+Constants!D$14)&gt;Constants!F$7,(J31-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V31" s="28"/>
+      <c r="W31">
+        <f>J31/2+Constants!D$9-Constants!D$10</f>
         <v>0.37750000000000006</v>
       </c>
-      <c r="Q31">
-        <f>H31/2+Constants!D$8-Constants!D$10</f>
+      <c r="X31">
+        <f>H31/2+Constants!D$9-Constants!D$11</f>
         <v>0.35550000000000004</v>
       </c>
-      <c r="S31">
-        <f>1000*(P31-0.29)</f>
+      <c r="Z31">
+        <f>1000*(W31-0.29)</f>
         <v>87.500000000000071</v>
       </c>
-      <c r="T31">
-        <f>1000*(Q31-0.29)</f>
+      <c r="AA31">
+        <f>1000*(X31-0.29)</f>
         <v>65.500000000000057</v>
       </c>
-      <c r="V31" s="24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W31" s="11">
+      <c r="AC31" s="29">
+        <v>0.47</v>
+      </c>
+      <c r="AD31" s="11">
         <v>0</v>
       </c>
-      <c r="Y31" s="24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z31" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AF31" s="29">
+        <v>0.47</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2387,36 +4098,61 @@
       <c r="J32">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P32">
-        <f>J32/2+Constants!D$8-Constants!D$9</f>
+      <c r="P32" t="str">
+        <f>IF(AND(J32&lt;=Constants!F$5,J32&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>IF(AND(J32&lt;=Constants!F$6,J32&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R32" t="str">
+        <f>IF(AND(J32&lt;=Constants!F$7,J32&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S32" t="str">
+        <f>IF(P32="N","N",IF(OR((J32+Constants!D$14)&gt;Constants!F$5,(J32-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T32" t="str">
+        <f>IF(Q32="N","N",IF(OR((J32+Constants!D$14)&gt;Constants!F$6,(J32-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U32" t="str">
+        <f>IF(R32="N","N",IF(OR((J32+Constants!D$14)&gt;Constants!F$7,(J32-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V32" s="28"/>
+      <c r="W32">
+        <f>J32/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
       </c>
-      <c r="Q32">
-        <f>H32/2+Constants!D$8-Constants!D$10</f>
+      <c r="X32">
+        <f>H32/2+Constants!D$9-Constants!D$11</f>
         <v>0.36099999999999999</v>
       </c>
-      <c r="S32">
-        <f>1000*(P32-0.29)</f>
+      <c r="Z32">
+        <f>1000*(W32-0.29)</f>
         <v>83.000000000000014</v>
       </c>
-      <c r="T32">
-        <f>1000*(Q32-0.29)</f>
+      <c r="AA32">
+        <f>1000*(X32-0.29)</f>
         <v>71.000000000000014</v>
       </c>
-      <c r="V32" s="24">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="W32" s="11">
+      <c r="AC32" s="29">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AD32" s="11">
         <v>0</v>
       </c>
-      <c r="Y32" s="24">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Z32" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AF32" s="29">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2432,36 +4168,61 @@
       <c r="J33">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P33">
-        <f>J33/2+Constants!D$8-Constants!D$9</f>
+      <c r="P33" t="str">
+        <f>IF(AND(J33&lt;=Constants!F$5,J33&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q33" t="str">
+        <f>IF(AND(J33&lt;=Constants!F$6,J33&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R33" t="str">
+        <f>IF(AND(J33&lt;=Constants!F$7,J33&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S33" t="str">
+        <f>IF(P33="N","N",IF(OR((J33+Constants!D$14)&gt;Constants!F$5,(J33-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T33" t="str">
+        <f>IF(Q33="N","N",IF(OR((J33+Constants!D$14)&gt;Constants!F$6,(J33-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U33" t="str">
+        <f>IF(R33="N","N",IF(OR((J33+Constants!D$14)&gt;Constants!F$7,(J33-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V33" s="28"/>
+      <c r="W33">
+        <f>J33/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
       </c>
-      <c r="Q33">
-        <f>H33/2+Constants!D$8-Constants!D$10</f>
+      <c r="X33">
+        <f>H33/2+Constants!D$9-Constants!D$11</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="S33">
-        <f>1000*(P33-0.29)</f>
+      <c r="Z33">
+        <f>1000*(W33-0.29)</f>
         <v>83.000000000000014</v>
       </c>
-      <c r="T33">
-        <f>1000*(Q33-0.29)</f>
+      <c r="AA33">
+        <f>1000*(X33-0.29)</f>
         <v>61</v>
       </c>
-      <c r="V33" s="24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="W33" s="11">
+      <c r="AC33" s="29">
+        <v>0.48</v>
+      </c>
+      <c r="AD33" s="11">
         <v>0</v>
       </c>
-      <c r="Y33" s="24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AF33" s="29">
+        <v>0.48</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2477,36 +4238,61 @@
       <c r="J34">
         <v>0.55500000000000005</v>
       </c>
-      <c r="P34">
-        <f>J34/2+Constants!D$8-Constants!D$9</f>
+      <c r="P34" t="str">
+        <f>IF(AND(J34&lt;=Constants!F$5,J34&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>IF(AND(J34&lt;=Constants!F$6,J34&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R34" t="str">
+        <f>IF(AND(J34&lt;=Constants!F$7,J34&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S34" t="str">
+        <f>IF(P34="N","N",IF(OR((J34+Constants!D$14)&gt;Constants!F$5,(J34-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T34" t="str">
+        <f>IF(Q34="N","N",IF(OR((J34+Constants!D$14)&gt;Constants!F$6,(J34-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U34" t="str">
+        <f>IF(R34="N","N",IF(OR((J34+Constants!D$14)&gt;Constants!F$7,(J34-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V34" s="28"/>
+      <c r="W34">
+        <f>J34/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
       </c>
-      <c r="Q34">
-        <f>H34/2+Constants!D$8-Constants!D$10</f>
+      <c r="X34">
+        <f>H34/2+Constants!D$9-Constants!D$11</f>
         <v>0.35350000000000004</v>
       </c>
-      <c r="S34">
-        <f>1000*(P34-0.29)</f>
+      <c r="Z34">
+        <f>1000*(W34-0.29)</f>
         <v>85.500000000000071</v>
       </c>
-      <c r="T34">
-        <f>1000*(Q34-0.29)</f>
+      <c r="AA34">
+        <f>1000*(X34-0.29)</f>
         <v>63.500000000000057</v>
       </c>
-      <c r="V34" s="24">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="W34" s="11">
+      <c r="AC34" s="29">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AD34" s="11">
         <v>0</v>
       </c>
-      <c r="Y34" s="24">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Z34" s="11">
+      <c r="AF34" s="29">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AG34" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2522,36 +4308,61 @@
       <c r="J35">
         <v>0.56100000000000005</v>
       </c>
-      <c r="P35">
-        <f>J35/2+Constants!D$8-Constants!D$9</f>
+      <c r="P35" t="str">
+        <f>IF(AND(J35&lt;=Constants!F$5,J35&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>IF(AND(J35&lt;=Constants!F$6,J35&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R35" t="str">
+        <f>IF(AND(J35&lt;=Constants!F$7,J35&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S35" t="str">
+        <f>IF(P35="N","N",IF(OR((J35+Constants!D$14)&gt;Constants!F$5,(J35-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T35" t="str">
+        <f>IF(Q35="N","N",IF(OR((J35+Constants!D$14)&gt;Constants!F$6,(J35-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U35" t="str">
+        <f>IF(R35="N","N",IF(OR((J35+Constants!D$14)&gt;Constants!F$7,(J35-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V35" s="28"/>
+      <c r="W35">
+        <f>J35/2+Constants!D$9-Constants!D$10</f>
         <v>0.37850000000000006</v>
       </c>
-      <c r="Q35">
-        <f>H35/2+Constants!D$8-Constants!D$10</f>
+      <c r="X35">
+        <f>H35/2+Constants!D$9-Constants!D$11</f>
         <v>0.35749999999999993</v>
       </c>
-      <c r="S35">
-        <f>1000*(P35-0.29)</f>
+      <c r="Z35">
+        <f>1000*(W35-0.29)</f>
         <v>88.500000000000085</v>
       </c>
-      <c r="T35">
-        <f>1000*(Q35-0.29)</f>
+      <c r="AA35">
+        <f>1000*(X35-0.29)</f>
         <v>67.499999999999943</v>
       </c>
-      <c r="V35" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="W35" s="25">
+      <c r="AC35" s="29">
+        <v>0.51</v>
+      </c>
+      <c r="AD35" s="11">
         <v>0</v>
       </c>
-      <c r="Y35" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z35" s="25">
+      <c r="AF35" s="29">
+        <v>0.51</v>
+      </c>
+      <c r="AG35" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2567,26 +4378,61 @@
       <c r="J36">
         <v>0.56200000000000006</v>
       </c>
-      <c r="P36">
-        <f>J36/2+Constants!D$8-Constants!D$9</f>
+      <c r="P36" t="str">
+        <f>IF(AND(J36&lt;=Constants!F$5,J36&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q36" t="str">
+        <f>IF(AND(J36&lt;=Constants!F$6,J36&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R36" t="str">
+        <f>IF(AND(J36&lt;=Constants!F$7,J36&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S36" t="str">
+        <f>IF(P36="N","N",IF(OR((J36+Constants!D$14)&gt;Constants!F$5,(J36-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T36" t="str">
+        <f>IF(Q36="N","N",IF(OR((J36+Constants!D$14)&gt;Constants!F$6,(J36-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U36" t="str">
+        <f>IF(R36="N","N",IF(OR((J36+Constants!D$14)&gt;Constants!F$7,(J36-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V36" s="28"/>
+      <c r="W36">
+        <f>J36/2+Constants!D$9-Constants!D$10</f>
         <v>0.379</v>
       </c>
-      <c r="Q36">
-        <f>H36/2+Constants!D$8-Constants!D$10</f>
+      <c r="X36">
+        <f>H36/2+Constants!D$9-Constants!D$11</f>
         <v>0.35699999999999998</v>
       </c>
-      <c r="S36">
-        <f>1000*(P36-0.29)</f>
+      <c r="Z36">
+        <f>1000*(W36-0.29)</f>
         <v>89.000000000000028</v>
       </c>
-      <c r="T36">
-        <f>1000*(Q36-0.29)</f>
+      <c r="AA36">
+        <f>1000*(X36-0.29)</f>
         <v>67</v>
       </c>
-      <c r="V36" s="24"/>
-      <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC36" s="29">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="29">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2602,26 +4448,61 @@
       <c r="J37">
         <v>0.55400000000000005</v>
       </c>
-      <c r="P37">
-        <f>J37/2+Constants!D$8-Constants!D$9</f>
+      <c r="P37" t="str">
+        <f>IF(AND(J37&lt;=Constants!F$5,J37&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q37" t="str">
+        <f>IF(AND(J37&lt;=Constants!F$6,J37&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R37" t="str">
+        <f>IF(AND(J37&lt;=Constants!F$7,J37&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S37" t="str">
+        <f>IF(P37="N","N",IF(OR((J37+Constants!D$14)&gt;Constants!F$5,(J37-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T37" t="str">
+        <f>IF(Q37="N","N",IF(OR((J37+Constants!D$14)&gt;Constants!F$6,(J37-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U37" t="str">
+        <f>IF(R37="N","N",IF(OR((J37+Constants!D$14)&gt;Constants!F$7,(J37-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V37" s="28"/>
+      <c r="W37">
+        <f>J37/2+Constants!D$9-Constants!D$10</f>
         <v>0.375</v>
       </c>
-      <c r="Q37">
-        <f>H37/2+Constants!D$8-Constants!D$10</f>
+      <c r="X37">
+        <f>H37/2+Constants!D$9-Constants!D$11</f>
         <v>0.35299999999999998</v>
       </c>
-      <c r="S37">
-        <f>1000*(P37-0.29)</f>
+      <c r="Z37">
+        <f>1000*(W37-0.29)</f>
         <v>85.000000000000014</v>
       </c>
-      <c r="T37">
-        <f>1000*(Q37-0.29)</f>
+      <c r="AA37">
+        <f>1000*(X37-0.29)</f>
         <v>63</v>
       </c>
-      <c r="V37" s="24"/>
-      <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC37" s="29">
+        <v>0.52</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="29">
+        <v>0.52</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2637,26 +4518,61 @@
       <c r="J38">
         <v>0.55600000000000005</v>
       </c>
-      <c r="P38">
-        <f>J38/2+Constants!D$8-Constants!D$9</f>
+      <c r="P38" t="str">
+        <f>IF(AND(J38&lt;=Constants!F$5,J38&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q38" t="str">
+        <f>IF(AND(J38&lt;=Constants!F$6,J38&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R38" t="str">
+        <f>IF(AND(J38&lt;=Constants!F$7,J38&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S38" t="str">
+        <f>IF(P38="N","N",IF(OR((J38+Constants!D$14)&gt;Constants!F$5,(J38-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T38" t="str">
+        <f>IF(Q38="N","N",IF(OR((J38+Constants!D$14)&gt;Constants!F$6,(J38-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U38" t="str">
+        <f>IF(R38="N","N",IF(OR((J38+Constants!D$14)&gt;Constants!F$7,(J38-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V38" s="28"/>
+      <c r="W38">
+        <f>J38/2+Constants!D$9-Constants!D$10</f>
         <v>0.376</v>
       </c>
-      <c r="Q38">
-        <f>H38/2+Constants!D$8-Constants!D$10</f>
+      <c r="X38">
+        <f>H38/2+Constants!D$9-Constants!D$11</f>
         <v>0.36099999999999999</v>
       </c>
-      <c r="S38">
-        <f>1000*(P38-0.29)</f>
+      <c r="Z38">
+        <f>1000*(W38-0.29)</f>
         <v>86.000000000000014</v>
       </c>
-      <c r="T38">
-        <f>1000*(Q38-0.29)</f>
+      <c r="AA38">
+        <f>1000*(X38-0.29)</f>
         <v>71.000000000000014</v>
       </c>
-      <c r="V38" s="24"/>
-      <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC38" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="29">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2672,26 +4588,61 @@
       <c r="J39">
         <v>0.56499999999999995</v>
       </c>
-      <c r="P39">
-        <f>J39/2+Constants!D$8-Constants!D$9</f>
+      <c r="P39" t="str">
+        <f>IF(AND(J39&lt;=Constants!F$5,J39&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q39" t="str">
+        <f>IF(AND(J39&lt;=Constants!F$6,J39&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R39" t="str">
+        <f>IF(AND(J39&lt;=Constants!F$7,J39&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S39" t="str">
+        <f>IF(P39="N","N",IF(OR((J39+Constants!D$14)&gt;Constants!F$5,(J39-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T39" t="str">
+        <f>IF(Q39="N","N",IF(OR((J39+Constants!D$14)&gt;Constants!F$6,(J39-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U39" t="str">
+        <f>IF(R39="N","N",IF(OR((J39+Constants!D$14)&gt;Constants!F$7,(J39-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V39" s="28"/>
+      <c r="W39">
+        <f>J39/2+Constants!D$9-Constants!D$10</f>
         <v>0.38049999999999995</v>
       </c>
-      <c r="Q39">
-        <f>H39/2+Constants!D$8-Constants!D$10</f>
+      <c r="X39">
+        <f>H39/2+Constants!D$9-Constants!D$11</f>
         <v>0.35849999999999993</v>
       </c>
-      <c r="S39">
-        <f>1000*(P39-0.29)</f>
+      <c r="Z39">
+        <f>1000*(W39-0.29)</f>
         <v>90.499999999999972</v>
       </c>
-      <c r="T39">
-        <f>1000*(Q39-0.29)</f>
+      <c r="AA39">
+        <f>1000*(X39-0.29)</f>
         <v>68.499999999999943</v>
       </c>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC39" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2707,24 +4658,61 @@
       <c r="J40">
         <v>0.55500000000000005</v>
       </c>
-      <c r="P40">
-        <f>J40/2+Constants!D$8-Constants!D$9</f>
+      <c r="P40" t="str">
+        <f>IF(AND(J40&lt;=Constants!F$5,J40&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q40" t="str">
+        <f>IF(AND(J40&lt;=Constants!F$6,J40&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R40" t="str">
+        <f>IF(AND(J40&lt;=Constants!F$7,J40&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S40" t="str">
+        <f>IF(P40="N","N",IF(OR((J40+Constants!D$14)&gt;Constants!F$5,(J40-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T40" t="str">
+        <f>IF(Q40="N","N",IF(OR((J40+Constants!D$14)&gt;Constants!F$6,(J40-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U40" t="str">
+        <f>IF(R40="N","N",IF(OR((J40+Constants!D$14)&gt;Constants!F$7,(J40-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V40" s="28"/>
+      <c r="W40">
+        <f>J40/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
       </c>
-      <c r="Q40">
-        <f>H40/2+Constants!D$8-Constants!D$10</f>
+      <c r="X40">
+        <f>H40/2+Constants!D$9-Constants!D$11</f>
         <v>0.35350000000000004</v>
       </c>
-      <c r="S40">
-        <f>1000*(P40-0.29)</f>
+      <c r="Z40">
+        <f>1000*(W40-0.29)</f>
         <v>85.500000000000071</v>
       </c>
-      <c r="T40">
-        <f>1000*(Q40-0.29)</f>
+      <c r="AA40">
+        <f>1000*(X40-0.29)</f>
         <v>63.500000000000057</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC40" s="29">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="29">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2740,24 +4728,61 @@
       <c r="J41">
         <v>0.56299999999999994</v>
       </c>
-      <c r="P41">
-        <f>J41/2+Constants!D$8-Constants!D$9</f>
+      <c r="P41" t="str">
+        <f>IF(AND(J41&lt;=Constants!F$5,J41&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q41" t="str">
+        <f>IF(AND(J41&lt;=Constants!F$6,J41&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R41" t="str">
+        <f>IF(AND(J41&lt;=Constants!F$7,J41&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S41" t="str">
+        <f>IF(P41="N","N",IF(OR((J41+Constants!D$14)&gt;Constants!F$5,(J41-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T41" t="str">
+        <f>IF(Q41="N","N",IF(OR((J41+Constants!D$14)&gt;Constants!F$6,(J41-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U41" t="str">
+        <f>IF(R41="N","N",IF(OR((J41+Constants!D$14)&gt;Constants!F$7,(J41-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V41" s="28"/>
+      <c r="W41">
+        <f>J41/2+Constants!D$9-Constants!D$10</f>
         <v>0.37949999999999995</v>
       </c>
-      <c r="Q41">
-        <f>H41/2+Constants!D$8-Constants!D$10</f>
+      <c r="X41">
+        <f>H41/2+Constants!D$9-Constants!D$11</f>
         <v>0.35749999999999993</v>
       </c>
-      <c r="S41">
-        <f>1000*(P41-0.29)</f>
+      <c r="Z41">
+        <f>1000*(W41-0.29)</f>
         <v>89.499999999999972</v>
       </c>
-      <c r="T41">
-        <f>1000*(Q41-0.29)</f>
+      <c r="AA41">
+        <f>1000*(X41-0.29)</f>
         <v>67.499999999999943</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC41" s="29">
+        <v>0.54</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="29">
+        <v>0.54</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2773,24 +4798,61 @@
       <c r="J42">
         <v>0.56699999999999995</v>
       </c>
-      <c r="P42">
-        <f>J42/2+Constants!D$8-Constants!D$9</f>
+      <c r="P42" t="str">
+        <f>IF(AND(J42&lt;=Constants!F$5,J42&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q42" t="str">
+        <f>IF(AND(J42&lt;=Constants!F$6,J42&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R42" t="str">
+        <f>IF(AND(J42&lt;=Constants!F$7,J42&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S42" t="str">
+        <f>IF(P42="N","N",IF(OR((J42+Constants!D$14)&gt;Constants!F$5,(J42-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T42" t="str">
+        <f>IF(Q42="N","N",IF(OR((J42+Constants!D$14)&gt;Constants!F$6,(J42-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U42" t="str">
+        <f>IF(R42="N","N",IF(OR((J42+Constants!D$14)&gt;Constants!F$7,(J42-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V42" s="28"/>
+      <c r="W42">
+        <f>J42/2+Constants!D$9-Constants!D$10</f>
         <v>0.38149999999999995</v>
       </c>
-      <c r="Q42">
-        <f>H42/2+Constants!D$8-Constants!D$10</f>
+      <c r="X42">
+        <f>H42/2+Constants!D$9-Constants!D$11</f>
         <v>0.35949999999999993</v>
       </c>
-      <c r="S42">
-        <f>1000*(P42-0.29)</f>
+      <c r="Z42">
+        <f>1000*(W42-0.29)</f>
         <v>91.499999999999972</v>
       </c>
-      <c r="T42">
-        <f>1000*(Q42-0.29)</f>
+      <c r="AA42">
+        <f>1000*(X42-0.29)</f>
         <v>69.499999999999957</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC42" s="29">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AD42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="29">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2806,24 +4868,61 @@
       <c r="J43">
         <v>0.55900000000000005</v>
       </c>
-      <c r="P43">
-        <f>J43/2+Constants!D$8-Constants!D$9</f>
+      <c r="P43" t="str">
+        <f>IF(AND(J43&lt;=Constants!F$5,J43&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q43" t="str">
+        <f>IF(AND(J43&lt;=Constants!F$6,J43&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R43" t="str">
+        <f>IF(AND(J43&lt;=Constants!F$7,J43&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S43" t="str">
+        <f>IF(P43="N","N",IF(OR((J43+Constants!D$14)&gt;Constants!F$5,(J43-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T43" t="str">
+        <f>IF(Q43="N","N",IF(OR((J43+Constants!D$14)&gt;Constants!F$6,(J43-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U43" t="str">
+        <f>IF(R43="N","N",IF(OR((J43+Constants!D$14)&gt;Constants!F$7,(J43-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V43" s="28"/>
+      <c r="W43">
+        <f>J43/2+Constants!D$9-Constants!D$10</f>
         <v>0.37750000000000006</v>
       </c>
-      <c r="Q43">
-        <f>H43/2+Constants!D$8-Constants!D$10</f>
+      <c r="X43">
+        <f>H43/2+Constants!D$9-Constants!D$11</f>
         <v>0.35550000000000004</v>
       </c>
-      <c r="S43">
-        <f>1000*(P43-0.29)</f>
+      <c r="Z43">
+        <f>1000*(W43-0.29)</f>
         <v>87.500000000000071</v>
       </c>
-      <c r="T43">
-        <f>1000*(Q43-0.29)</f>
+      <c r="AA43">
+        <f>1000*(X43-0.29)</f>
         <v>65.500000000000057</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC43" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2839,24 +4938,61 @@
       <c r="J44">
         <v>0.55100000000000005</v>
       </c>
-      <c r="P44">
-        <f>J44/2+Constants!D$8-Constants!D$9</f>
+      <c r="P44" t="str">
+        <f>IF(AND(J44&lt;=Constants!F$5,J44&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q44" t="str">
+        <f>IF(AND(J44&lt;=Constants!F$6,J44&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R44" t="str">
+        <f>IF(AND(J44&lt;=Constants!F$7,J44&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S44" t="str">
+        <f>IF(P44="N","N",IF(OR((J44+Constants!D$14)&gt;Constants!F$5,(J44-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T44" t="str">
+        <f>IF(Q44="N","N",IF(OR((J44+Constants!D$14)&gt;Constants!F$6,(J44-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U44" t="str">
+        <f>IF(R44="N","N",IF(OR((J44+Constants!D$14)&gt;Constants!F$7,(J44-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V44" s="28"/>
+      <c r="W44">
+        <f>J44/2+Constants!D$9-Constants!D$10</f>
         <v>0.37350000000000005</v>
       </c>
-      <c r="Q44">
-        <f>H44/2+Constants!D$8-Constants!D$10</f>
+      <c r="X44">
+        <f>H44/2+Constants!D$9-Constants!D$11</f>
         <v>0.35150000000000003</v>
       </c>
-      <c r="S44">
-        <f>1000*(P44-0.29)</f>
+      <c r="Z44">
+        <f>1000*(W44-0.29)</f>
         <v>83.500000000000071</v>
       </c>
-      <c r="T44">
-        <f>1000*(Q44-0.29)</f>
+      <c r="AA44">
+        <f>1000*(X44-0.29)</f>
         <v>61.500000000000057</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC44" s="29">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AD44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="29">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2872,24 +5008,61 @@
       <c r="J45">
         <v>0.56699999999999995</v>
       </c>
-      <c r="P45">
-        <f>J45/2+Constants!D$8-Constants!D$9</f>
+      <c r="P45" t="str">
+        <f>IF(AND(J45&lt;=Constants!F$5,J45&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q45" t="str">
+        <f>IF(AND(J45&lt;=Constants!F$6,J45&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R45" t="str">
+        <f>IF(AND(J45&lt;=Constants!F$7,J45&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S45" t="str">
+        <f>IF(P45="N","N",IF(OR((J45+Constants!D$14)&gt;Constants!F$5,(J45-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T45" t="str">
+        <f>IF(Q45="N","N",IF(OR((J45+Constants!D$14)&gt;Constants!F$6,(J45-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U45" t="str">
+        <f>IF(R45="N","N",IF(OR((J45+Constants!D$14)&gt;Constants!F$7,(J45-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V45" s="28"/>
+      <c r="W45">
+        <f>J45/2+Constants!D$9-Constants!D$10</f>
         <v>0.38149999999999995</v>
       </c>
-      <c r="Q45">
-        <f>H45/2+Constants!D$8-Constants!D$10</f>
+      <c r="X45">
+        <f>H45/2+Constants!D$9-Constants!D$11</f>
         <v>0.35949999999999993</v>
       </c>
-      <c r="S45">
-        <f>1000*(P45-0.29)</f>
+      <c r="Z45">
+        <f>1000*(W45-0.29)</f>
         <v>91.499999999999972</v>
       </c>
-      <c r="T45">
-        <f>1000*(Q45-0.29)</f>
+      <c r="AA45">
+        <f>1000*(X45-0.29)</f>
         <v>69.499999999999957</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC45" s="29">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="29">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -2905,24 +5078,61 @@
       <c r="J46">
         <v>0.56799999999999995</v>
       </c>
-      <c r="P46">
-        <f>J46/2+Constants!D$8-Constants!D$9</f>
+      <c r="P46" t="str">
+        <f>IF(AND(J46&lt;=Constants!F$5,J46&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q46" t="str">
+        <f>IF(AND(J46&lt;=Constants!F$6,J46&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R46" t="str">
+        <f>IF(AND(J46&lt;=Constants!F$7,J46&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S46" t="str">
+        <f>IF(P46="N","N",IF(OR((J46+Constants!D$14)&gt;Constants!F$5,(J46-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T46" t="str">
+        <f>IF(Q46="N","N",IF(OR((J46+Constants!D$14)&gt;Constants!F$6,(J46-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U46" t="str">
+        <f>IF(R46="N","N",IF(OR((J46+Constants!D$14)&gt;Constants!F$7,(J46-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V46" s="28"/>
+      <c r="W46">
+        <f>J46/2+Constants!D$9-Constants!D$10</f>
         <v>0.38200000000000001</v>
       </c>
-      <c r="Q46">
-        <f>H46/2+Constants!D$8-Constants!D$10</f>
+      <c r="X46">
+        <f>H46/2+Constants!D$9-Constants!D$11</f>
         <v>0.36</v>
       </c>
-      <c r="S46">
-        <f>1000*(P46-0.29)</f>
+      <c r="Z46">
+        <f>1000*(W46-0.29)</f>
         <v>92.000000000000028</v>
       </c>
-      <c r="T46">
-        <f>1000*(Q46-0.29)</f>
+      <c r="AA46">
+        <f>1000*(X46-0.29)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC46" s="29">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="29">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2938,24 +5148,61 @@
       <c r="J47">
         <v>0.56100000000000005</v>
       </c>
-      <c r="P47">
-        <f>J47/2+Constants!D$8-Constants!D$9</f>
+      <c r="P47" t="str">
+        <f>IF(AND(J47&lt;=Constants!F$5,J47&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q47" t="str">
+        <f>IF(AND(J47&lt;=Constants!F$6,J47&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R47" t="str">
+        <f>IF(AND(J47&lt;=Constants!F$7,J47&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S47" t="str">
+        <f>IF(P47="N","N",IF(OR((J47+Constants!D$14)&gt;Constants!F$5,(J47-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T47" t="str">
+        <f>IF(Q47="N","N",IF(OR((J47+Constants!D$14)&gt;Constants!F$6,(J47-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U47" t="str">
+        <f>IF(R47="N","N",IF(OR((J47+Constants!D$14)&gt;Constants!F$7,(J47-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V47" s="28"/>
+      <c r="W47">
+        <f>J47/2+Constants!D$9-Constants!D$10</f>
         <v>0.37850000000000006</v>
       </c>
-      <c r="Q47">
-        <f>H47/2+Constants!D$8-Constants!D$10</f>
+      <c r="X47">
+        <f>H47/2+Constants!D$9-Constants!D$11</f>
         <v>0.36349999999999993</v>
       </c>
-      <c r="S47">
-        <f>1000*(P47-0.29)</f>
+      <c r="Z47">
+        <f>1000*(W47-0.29)</f>
         <v>88.500000000000085</v>
       </c>
-      <c r="T47">
-        <f>1000*(Q47-0.29)</f>
+      <c r="AA47">
+        <f>1000*(X47-0.29)</f>
         <v>73.499999999999957</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC47" s="29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2971,24 +5218,61 @@
       <c r="J48">
         <v>0.56200000000000006</v>
       </c>
-      <c r="P48">
-        <f>J48/2+Constants!D$8-Constants!D$9</f>
+      <c r="P48" t="str">
+        <f>IF(AND(J48&lt;=Constants!F$5,J48&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q48" t="str">
+        <f>IF(AND(J48&lt;=Constants!F$6,J48&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R48" t="str">
+        <f>IF(AND(J48&lt;=Constants!F$7,J48&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S48" t="str">
+        <f>IF(P48="N","N",IF(OR((J48+Constants!D$14)&gt;Constants!F$5,(J48-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T48" t="str">
+        <f>IF(Q48="N","N",IF(OR((J48+Constants!D$14)&gt;Constants!F$6,(J48-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U48" t="str">
+        <f>IF(R48="N","N",IF(OR((J48+Constants!D$14)&gt;Constants!F$7,(J48-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V48" s="28"/>
+      <c r="W48">
+        <f>J48/2+Constants!D$9-Constants!D$10</f>
         <v>0.379</v>
       </c>
-      <c r="Q48">
-        <f>H48/2+Constants!D$8-Constants!D$10</f>
+      <c r="X48">
+        <f>H48/2+Constants!D$9-Constants!D$11</f>
         <v>0.35699999999999998</v>
       </c>
-      <c r="S48">
-        <f>1000*(P48-0.29)</f>
+      <c r="Z48">
+        <f>1000*(W48-0.29)</f>
         <v>89.000000000000028</v>
       </c>
-      <c r="T48">
-        <f>1000*(Q48-0.29)</f>
+      <c r="AA48">
+        <f>1000*(X48-0.29)</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC48" s="29">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="29">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3004,24 +5288,61 @@
       <c r="J49">
         <v>0.54100000000000004</v>
       </c>
-      <c r="P49">
-        <f>J49/2+Constants!D$8-Constants!D$9</f>
+      <c r="P49" t="str">
+        <f>IF(AND(J49&lt;=Constants!F$5,J49&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q49" t="str">
+        <f>IF(AND(J49&lt;=Constants!F$6,J49&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R49" t="str">
+        <f>IF(AND(J49&lt;=Constants!F$7,J49&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S49" t="str">
+        <f>IF(P49="N","N",IF(OR((J49+Constants!D$14)&gt;Constants!F$5,(J49-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T49" t="str">
+        <f>IF(Q49="N","N",IF(OR((J49+Constants!D$14)&gt;Constants!F$6,(J49-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U49" t="str">
+        <f>IF(R49="N","N",IF(OR((J49+Constants!D$14)&gt;Constants!F$7,(J49-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="V49" s="28"/>
+      <c r="W49">
+        <f>J49/2+Constants!D$9-Constants!D$10</f>
         <v>0.36850000000000005</v>
       </c>
-      <c r="Q49">
-        <f>H49/2+Constants!D$8-Constants!D$10</f>
+      <c r="X49">
+        <f>H49/2+Constants!D$9-Constants!D$11</f>
         <v>0.34799999999999998</v>
       </c>
-      <c r="S49">
-        <f>1000*(P49-0.29)</f>
+      <c r="Z49">
+        <f>1000*(W49-0.29)</f>
         <v>78.500000000000071</v>
       </c>
-      <c r="T49">
-        <f>1000*(Q49-0.29)</f>
+      <c r="AA49">
+        <f>1000*(X49-0.29)</f>
         <v>57.999999999999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC49" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3037,24 +5358,60 @@
       <c r="J50">
         <v>0.54600000000000004</v>
       </c>
-      <c r="P50">
-        <f>J50/2+Constants!D$8-Constants!D$9</f>
+      <c r="P50" t="str">
+        <f>IF(AND(J50&lt;=Constants!F$5,J50&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q50" t="str">
+        <f>IF(AND(J50&lt;=Constants!F$6,J50&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R50" t="str">
+        <f>IF(AND(J50&lt;=Constants!F$7,J50&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S50" t="str">
+        <f>IF(P50="N","N",IF(OR((J50+Constants!D$14)&gt;Constants!F$5,(J50-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T50" t="str">
+        <f>IF(Q50="N","N",IF(OR((J50+Constants!D$14)&gt;Constants!F$6,(J50-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U50" t="str">
+        <f>IF(R50="N","N",IF(OR((J50+Constants!D$14)&gt;Constants!F$7,(J50-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W50">
+        <f>J50/2+Constants!D$9-Constants!D$10</f>
         <v>0.371</v>
       </c>
-      <c r="Q50">
-        <f>H50/2+Constants!D$8-Constants!D$10</f>
+      <c r="X50">
+        <f>H50/2+Constants!D$9-Constants!D$11</f>
         <v>0.34899999999999998</v>
       </c>
-      <c r="S50">
-        <f>1000*(P50-0.29)</f>
+      <c r="Z50">
+        <f>1000*(W50-0.29)</f>
         <v>81.000000000000014</v>
       </c>
-      <c r="T50">
-        <f>1000*(Q50-0.29)</f>
+      <c r="AA50">
+        <f>1000*(X50-0.29)</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC50" s="29">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AD50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="29">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AG50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3070,24 +5427,60 @@
       <c r="J51">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P51">
-        <f>J51/2+Constants!D$8-Constants!D$9</f>
+      <c r="P51" t="str">
+        <f>IF(AND(J51&lt;=Constants!F$5,J51&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q51" t="str">
+        <f>IF(AND(J51&lt;=Constants!F$6,J51&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R51" t="str">
+        <f>IF(AND(J51&lt;=Constants!F$7,J51&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S51" t="str">
+        <f>IF(P51="N","N",IF(OR((J51+Constants!D$14)&gt;Constants!F$5,(J51-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T51" t="str">
+        <f>IF(Q51="N","N",IF(OR((J51+Constants!D$14)&gt;Constants!F$6,(J51-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U51" t="str">
+        <f>IF(R51="N","N",IF(OR((J51+Constants!D$14)&gt;Constants!F$7,(J51-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W51">
+        <f>J51/2+Constants!D$9-Constants!D$10</f>
         <v>0.378</v>
       </c>
-      <c r="Q51">
-        <f>H51/2+Constants!D$8-Constants!D$10</f>
+      <c r="X51">
+        <f>H51/2+Constants!D$9-Constants!D$11</f>
         <v>0.35599999999999998</v>
       </c>
-      <c r="S51">
-        <f>1000*(P51-0.29)</f>
+      <c r="Z51">
+        <f>1000*(W51-0.29)</f>
         <v>88.000000000000028</v>
       </c>
-      <c r="T51">
-        <f>1000*(Q51-0.29)</f>
+      <c r="AA51">
+        <f>1000*(X51-0.29)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD51" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG51" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3103,24 +5496,52 @@
       <c r="J52">
         <v>0.54200000000000004</v>
       </c>
-      <c r="P52">
-        <f>J52/2+Constants!D$8-Constants!D$9</f>
+      <c r="P52" t="str">
+        <f>IF(AND(J52&lt;=Constants!F$5,J52&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q52" t="str">
+        <f>IF(AND(J52&lt;=Constants!F$6,J52&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R52" t="str">
+        <f>IF(AND(J52&lt;=Constants!F$7,J52&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S52" t="str">
+        <f>IF(P52="N","N",IF(OR((J52+Constants!D$14)&gt;Constants!F$5,(J52-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T52" t="str">
+        <f>IF(Q52="N","N",IF(OR((J52+Constants!D$14)&gt;Constants!F$6,(J52-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U52" t="str">
+        <f>IF(R52="N","N",IF(OR((J52+Constants!D$14)&gt;Constants!F$7,(J52-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W52">
+        <f>J52/2+Constants!D$9-Constants!D$10</f>
         <v>0.36899999999999999</v>
       </c>
-      <c r="Q52">
-        <f>H52/2+Constants!D$8-Constants!D$10</f>
+      <c r="X52">
+        <f>H52/2+Constants!D$9-Constants!D$11</f>
         <v>0.34699999999999998</v>
       </c>
-      <c r="S52">
-        <f>1000*(P52-0.29)</f>
+      <c r="Z52">
+        <f>1000*(W52-0.29)</f>
         <v>79.000000000000014</v>
       </c>
-      <c r="T52">
-        <f>1000*(Q52-0.29)</f>
+      <c r="AA52">
+        <f>1000*(X52-0.29)</f>
         <v>56.999999999999993</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="11"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="11"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3136,24 +5557,52 @@
       <c r="J53">
         <v>0.54500000000000004</v>
       </c>
-      <c r="P53">
-        <f>J53/2+Constants!D$8-Constants!D$9</f>
+      <c r="P53" t="str">
+        <f>IF(AND(J53&lt;=Constants!F$5,J53&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q53" t="str">
+        <f>IF(AND(J53&lt;=Constants!F$6,J53&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R53" t="str">
+        <f>IF(AND(J53&lt;=Constants!F$7,J53&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S53" t="str">
+        <f>IF(P53="N","N",IF(OR((J53+Constants!D$14)&gt;Constants!F$5,(J53-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T53" t="str">
+        <f>IF(Q53="N","N",IF(OR((J53+Constants!D$14)&gt;Constants!F$6,(J53-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U53" t="str">
+        <f>IF(R53="N","N",IF(OR((J53+Constants!D$14)&gt;Constants!F$7,(J53-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W53">
+        <f>J53/2+Constants!D$9-Constants!D$10</f>
         <v>0.37050000000000005</v>
       </c>
-      <c r="Q53">
-        <f>H53/2+Constants!D$8-Constants!D$10</f>
+      <c r="X53">
+        <f>H53/2+Constants!D$9-Constants!D$11</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="S53">
-        <f>1000*(P53-0.29)</f>
+      <c r="Z53">
+        <f>1000*(W53-0.29)</f>
         <v>80.500000000000071</v>
       </c>
-      <c r="T53">
-        <f>1000*(Q53-0.29)</f>
+      <c r="AA53">
+        <f>1000*(X53-0.29)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="11"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="11"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3167,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54">
         <v>0.56299999999999994</v>
@@ -3187,8 +5636,36 @@
       <c r="N54">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P54" t="str">
+        <f>IF(AND(J54&lt;=Constants!F$5,J54&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q54" t="str">
+        <f>IF(AND(J54&lt;=Constants!F$6,J54&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R54" t="str">
+        <f>IF(AND(J54&lt;=Constants!F$7,J54&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S54" t="str">
+        <f>IF(P54="N","N",IF(OR((J54+Constants!D$14)&gt;Constants!F$5,(J54-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T54" t="str">
+        <f>IF(Q54="N","N",IF(OR((J54+Constants!D$14)&gt;Constants!F$6,(J54-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U54" t="str">
+        <f>IF(R54="N","N",IF(OR((J54+Constants!D$14)&gt;Constants!F$7,(J54-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="11"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="11"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -3196,13 +5673,13 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55">
         <v>0.55600000000000005</v>
@@ -3222,8 +5699,36 @@
       <c r="N55">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P55" t="str">
+        <f>IF(AND(J55&lt;=Constants!F$5,J55&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q55" t="str">
+        <f>IF(AND(J55&lt;=Constants!F$6,J55&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R55" t="str">
+        <f>IF(AND(J55&lt;=Constants!F$7,J55&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S55" t="str">
+        <f>IF(P55="N","N",IF(OR((J55+Constants!D$14)&gt;Constants!F$5,(J55-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T55" t="str">
+        <f>IF(Q55="N","N",IF(OR((J55+Constants!D$14)&gt;Constants!F$6,(J55-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U55" t="str">
+        <f>IF(R55="N","N",IF(OR((J55+Constants!D$14)&gt;Constants!F$7,(J55-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="11"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="11"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3237,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56">
         <v>0.55000000000000004</v>
@@ -3257,8 +5762,36 @@
       <c r="N56">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P56" t="str">
+        <f>IF(AND(J56&lt;=Constants!F$5,J56&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q56" t="str">
+        <f>IF(AND(J56&lt;=Constants!F$6,J56&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R56" t="str">
+        <f>IF(AND(J56&lt;=Constants!F$7,J56&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S56" t="str">
+        <f>IF(P56="N","N",IF(OR((J56+Constants!D$14)&gt;Constants!F$5,(J56-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T56" t="str">
+        <f>IF(Q56="N","N",IF(OR((J56+Constants!D$14)&gt;Constants!F$6,(J56-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U56" t="str">
+        <f>IF(R56="N","N",IF(OR((J56+Constants!D$14)&gt;Constants!F$7,(J56-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="11"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="11"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3266,13 +5799,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57">
         <v>0.55300000000000005</v>
@@ -3292,8 +5825,36 @@
       <c r="N57">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P57" t="str">
+        <f>IF(AND(J57&lt;=Constants!F$5,J57&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q57" t="str">
+        <f>IF(AND(J57&lt;=Constants!F$6,J57&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R57" t="str">
+        <f>IF(AND(J57&lt;=Constants!F$7,J57&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S57" t="str">
+        <f>IF(P57="N","N",IF(OR((J57+Constants!D$14)&gt;Constants!F$5,(J57-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T57" t="str">
+        <f>IF(Q57="N","N",IF(OR((J57+Constants!D$14)&gt;Constants!F$6,(J57-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U57" t="str">
+        <f>IF(R57="N","N",IF(OR((J57+Constants!D$14)&gt;Constants!F$7,(J57-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="11"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="11"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -3301,13 +5862,13 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58">
         <v>0.54500000000000004</v>
@@ -3327,8 +5888,36 @@
       <c r="N58">
         <v>0.41099999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P58" t="str">
+        <f>IF(AND(J58&lt;=Constants!F$5,J58&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q58" t="str">
+        <f>IF(AND(J58&lt;=Constants!F$6,J58&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R58" t="str">
+        <f>IF(AND(J58&lt;=Constants!F$7,J58&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S58" t="str">
+        <f>IF(P58="N","N",IF(OR((J58+Constants!D$14)&gt;Constants!F$5,(J58-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T58" t="str">
+        <f>IF(Q58="N","N",IF(OR((J58+Constants!D$14)&gt;Constants!F$6,(J58-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U58" t="str">
+        <f>IF(R58="N","N",IF(OR((J58+Constants!D$14)&gt;Constants!F$7,(J58-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="11"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="11"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3336,13 +5925,13 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59">
         <v>0.54500000000000004</v>
@@ -3362,8 +5951,36 @@
       <c r="N59">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P59" t="str">
+        <f>IF(AND(J59&lt;=Constants!F$5,J59&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q59" t="str">
+        <f>IF(AND(J59&lt;=Constants!F$6,J59&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R59" t="str">
+        <f>IF(AND(J59&lt;=Constants!F$7,J59&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S59" t="str">
+        <f>IF(P59="N","N",IF(OR((J59+Constants!D$14)&gt;Constants!F$5,(J59-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T59" t="str">
+        <f>IF(Q59="N","N",IF(OR((J59+Constants!D$14)&gt;Constants!F$6,(J59-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U59" t="str">
+        <f>IF(R59="N","N",IF(OR((J59+Constants!D$14)&gt;Constants!F$7,(J59-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="11"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="11"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3371,13 +5988,13 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60">
         <v>0.55500000000000005</v>
@@ -3397,8 +6014,36 @@
       <c r="N60">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P60" t="str">
+        <f>IF(AND(J60&lt;=Constants!F$5,J60&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q60" t="str">
+        <f>IF(AND(J60&lt;=Constants!F$6,J60&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R60" t="str">
+        <f>IF(AND(J60&lt;=Constants!F$7,J60&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S60" t="str">
+        <f>IF(P60="N","N",IF(OR((J60+Constants!D$14)&gt;Constants!F$5,(J60-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T60" t="str">
+        <f>IF(Q60="N","N",IF(OR((J60+Constants!D$14)&gt;Constants!F$6,(J60-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U60" t="str">
+        <f>IF(R60="N","N",IF(OR((J60+Constants!D$14)&gt;Constants!F$7,(J60-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="11"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="11"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3406,13 +6051,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61">
         <v>0.56399999999999995</v>
@@ -3432,8 +6077,36 @@
       <c r="N61">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P61" t="str">
+        <f>IF(AND(J61&lt;=Constants!F$5,J61&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q61" t="str">
+        <f>IF(AND(J61&lt;=Constants!F$6,J61&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R61" t="str">
+        <f>IF(AND(J61&lt;=Constants!F$7,J61&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S61" t="str">
+        <f>IF(P61="N","N",IF(OR((J61+Constants!D$14)&gt;Constants!F$5,(J61-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T61" t="str">
+        <f>IF(Q61="N","N",IF(OR((J61+Constants!D$14)&gt;Constants!F$6,(J61-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U61" t="str">
+        <f>IF(R61="N","N",IF(OR((J61+Constants!D$14)&gt;Constants!F$7,(J61-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="11"/>
+      <c r="AF61" s="29"/>
+      <c r="AG61" s="11"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -3441,13 +6114,13 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62">
         <v>0.55500000000000005</v>
@@ -3467,8 +6140,36 @@
       <c r="N62">
         <v>0.43099999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P62" t="str">
+        <f>IF(AND(J62&lt;=Constants!F$5,J62&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q62" t="str">
+        <f>IF(AND(J62&lt;=Constants!F$6,J62&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R62" t="str">
+        <f>IF(AND(J62&lt;=Constants!F$7,J62&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S62" t="str">
+        <f>IF(P62="N","N",IF(OR((J62+Constants!D$14)&gt;Constants!F$5,(J62-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T62" t="str">
+        <f>IF(Q62="N","N",IF(OR((J62+Constants!D$14)&gt;Constants!F$6,(J62-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U62" t="str">
+        <f>IF(R62="N","N",IF(OR((J62+Constants!D$14)&gt;Constants!F$7,(J62-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="11"/>
+      <c r="AF62" s="29"/>
+      <c r="AG62" s="11"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3476,13 +6177,13 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H63">
         <v>0.56200000000000006</v>
@@ -3502,8 +6203,36 @@
       <c r="N63">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P63" t="str">
+        <f>IF(AND(J63&lt;=Constants!F$5,J63&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q63" t="str">
+        <f>IF(AND(J63&lt;=Constants!F$6,J63&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R63" t="str">
+        <f>IF(AND(J63&lt;=Constants!F$7,J63&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S63" t="str">
+        <f>IF(P63="N","N",IF(OR((J63+Constants!D$14)&gt;Constants!F$5,(J63-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T63" t="str">
+        <f>IF(Q63="N","N",IF(OR((J63+Constants!D$14)&gt;Constants!F$6,(J63-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U63" t="str">
+        <f>IF(R63="N","N",IF(OR((J63+Constants!D$14)&gt;Constants!F$7,(J63-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="11"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="11"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -3511,13 +6240,13 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64">
         <v>0.56299999999999994</v>
@@ -3537,8 +6266,36 @@
       <c r="N64">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P64" t="str">
+        <f>IF(AND(J64&lt;=Constants!F$5,J64&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q64" t="str">
+        <f>IF(AND(J64&lt;=Constants!F$6,J64&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R64" t="str">
+        <f>IF(AND(J64&lt;=Constants!F$7,J64&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S64" t="str">
+        <f>IF(P64="N","N",IF(OR((J64+Constants!D$14)&gt;Constants!F$5,(J64-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T64" t="str">
+        <f>IF(Q64="N","N",IF(OR((J64+Constants!D$14)&gt;Constants!F$6,(J64-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U64" t="str">
+        <f>IF(R64="N","N",IF(OR((J64+Constants!D$14)&gt;Constants!F$7,(J64-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="11"/>
+      <c r="AF64" s="29"/>
+      <c r="AG64" s="11"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -3546,13 +6303,13 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65">
         <v>0.55800000000000005</v>
@@ -3572,8 +6329,36 @@
       <c r="N65">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P65" t="str">
+        <f>IF(AND(J65&lt;=Constants!F$5,J65&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q65" t="str">
+        <f>IF(AND(J65&lt;=Constants!F$6,J65&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R65" t="str">
+        <f>IF(AND(J65&lt;=Constants!F$7,J65&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S65" t="str">
+        <f>IF(P65="N","N",IF(OR((J65+Constants!D$14)&gt;Constants!F$5,(J65-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T65" t="str">
+        <f>IF(Q65="N","N",IF(OR((J65+Constants!D$14)&gt;Constants!F$6,(J65-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U65" t="str">
+        <f>IF(R65="N","N",IF(OR((J65+Constants!D$14)&gt;Constants!F$7,(J65-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="11"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="11"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -3581,13 +6366,13 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66">
         <v>0.56499999999999995</v>
@@ -3607,8 +6392,36 @@
       <c r="N66">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P66" t="str">
+        <f>IF(AND(J66&lt;=Constants!F$5,J66&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q66" t="str">
+        <f>IF(AND(J66&lt;=Constants!F$6,J66&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R66" t="str">
+        <f>IF(AND(J66&lt;=Constants!F$7,J66&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S66" t="str">
+        <f>IF(P66="N","N",IF(OR((J66+Constants!D$14)&gt;Constants!F$5,(J66-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T66" t="str">
+        <f>IF(Q66="N","N",IF(OR((J66+Constants!D$14)&gt;Constants!F$6,(J66-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U66" t="str">
+        <f>IF(R66="N","N",IF(OR((J66+Constants!D$14)&gt;Constants!F$7,(J66-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="11"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="11"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -3616,13 +6429,13 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67">
         <v>0.55200000000000005</v>
@@ -3642,8 +6455,36 @@
       <c r="N67">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P67" t="str">
+        <f>IF(AND(J67&lt;=Constants!F$5,J67&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q67" t="str">
+        <f>IF(AND(J67&lt;=Constants!F$6,J67&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R67" t="str">
+        <f>IF(AND(J67&lt;=Constants!F$7,J67&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S67" t="str">
+        <f>IF(P67="N","N",IF(OR((J67+Constants!D$14)&gt;Constants!F$5,(J67-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T67" t="str">
+        <f>IF(Q67="N","N",IF(OR((J67+Constants!D$14)&gt;Constants!F$6,(J67-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U67" t="str">
+        <f>IF(R67="N","N",IF(OR((J67+Constants!D$14)&gt;Constants!F$7,(J67-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="11"/>
+      <c r="AF67" s="29"/>
+      <c r="AG67" s="11"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -3651,13 +6492,13 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68">
         <v>0.55700000000000005</v>
@@ -3677,8 +6518,36 @@
       <c r="N68">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P68" t="str">
+        <f>IF(AND(J68&lt;=Constants!F$5,J68&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q68" t="str">
+        <f>IF(AND(J68&lt;=Constants!F$6,J68&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R68" t="str">
+        <f>IF(AND(J68&lt;=Constants!F$7,J68&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S68" t="str">
+        <f>IF(P68="N","N",IF(OR((J68+Constants!D$14)&gt;Constants!F$5,(J68-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T68" t="str">
+        <f>IF(Q68="N","N",IF(OR((J68+Constants!D$14)&gt;Constants!F$6,(J68-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U68" t="str">
+        <f>IF(R68="N","N",IF(OR((J68+Constants!D$14)&gt;Constants!F$7,(J68-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="11"/>
+      <c r="AF68" s="29"/>
+      <c r="AG68" s="11"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -3686,13 +6555,13 @@
         <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H69">
         <v>0.55700000000000005</v>
@@ -3712,8 +6581,36 @@
       <c r="N69">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P69" t="str">
+        <f>IF(AND(J69&lt;=Constants!F$5,J69&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q69" t="str">
+        <f>IF(AND(J69&lt;=Constants!F$6,J69&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R69" t="str">
+        <f>IF(AND(J69&lt;=Constants!F$7,J69&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S69" t="str">
+        <f>IF(P69="N","N",IF(OR((J69+Constants!D$14)&gt;Constants!F$5,(J69-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T69" t="str">
+        <f>IF(Q69="N","N",IF(OR((J69+Constants!D$14)&gt;Constants!F$6,(J69-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U69" t="str">
+        <f>IF(R69="N","N",IF(OR((J69+Constants!D$14)&gt;Constants!F$7,(J69-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="11"/>
+      <c r="AF69" s="29"/>
+      <c r="AG69" s="11"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -3721,13 +6618,13 @@
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H70">
         <v>0.56399999999999995</v>
@@ -3747,8 +6644,36 @@
       <c r="N70">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P70" t="str">
+        <f>IF(AND(J70&lt;=Constants!F$5,J70&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q70" t="str">
+        <f>IF(AND(J70&lt;=Constants!F$6,J70&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R70" t="str">
+        <f>IF(AND(J70&lt;=Constants!F$7,J70&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S70" t="str">
+        <f>IF(P70="N","N",IF(OR((J70+Constants!D$14)&gt;Constants!F$5,(J70-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T70" t="str">
+        <f>IF(Q70="N","N",IF(OR((J70+Constants!D$14)&gt;Constants!F$6,(J70-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U70" t="str">
+        <f>IF(R70="N","N",IF(OR((J70+Constants!D$14)&gt;Constants!F$7,(J70-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="11"/>
+      <c r="AF70" s="29"/>
+      <c r="AG70" s="11"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -3756,13 +6681,13 @@
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71">
         <v>0.56299999999999994</v>
@@ -3782,8 +6707,36 @@
       <c r="N71">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P71" t="str">
+        <f>IF(AND(J71&lt;=Constants!F$5,J71&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q71" t="str">
+        <f>IF(AND(J71&lt;=Constants!F$6,J71&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R71" t="str">
+        <f>IF(AND(J71&lt;=Constants!F$7,J71&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S71" t="str">
+        <f>IF(P71="N","N",IF(OR((J71+Constants!D$14)&gt;Constants!F$5,(J71-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T71" t="str">
+        <f>IF(Q71="N","N",IF(OR((J71+Constants!D$14)&gt;Constants!F$6,(J71-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U71" t="str">
+        <f>IF(R71="N","N",IF(OR((J71+Constants!D$14)&gt;Constants!F$7,(J71-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="11"/>
+      <c r="AF71" s="29"/>
+      <c r="AG71" s="11"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -3791,13 +6744,13 @@
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72">
         <v>0.55500000000000005</v>
@@ -3817,22 +6770,50 @@
       <c r="N72">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P72" t="str">
+        <f>IF(AND(J72&lt;=Constants!F$5,J72&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q72" t="str">
+        <f>IF(AND(J72&lt;=Constants!F$6,J72&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R72" t="str">
+        <f>IF(AND(J72&lt;=Constants!F$7,J72&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S72" t="str">
+        <f>IF(P72="N","N",IF(OR((J72+Constants!D$14)&gt;Constants!F$5,(J72-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T72" t="str">
+        <f>IF(Q72="N","N",IF(OR((J72+Constants!D$14)&gt;Constants!F$6,(J72-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U72" t="str">
+        <f>IF(R72="N","N",IF(OR((J72+Constants!D$14)&gt;Constants!F$7,(J72-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="11"/>
+      <c r="AF72" s="29"/>
+      <c r="AG72" s="11"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
       <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
         <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73">
         <v>0.57699999999999996</v>
@@ -3852,22 +6833,50 @@
       <c r="N73">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P73" t="str">
+        <f>IF(AND(J73&lt;=Constants!F$5,J73&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q73" t="str">
+        <f>IF(AND(J73&lt;=Constants!F$6,J73&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R73" t="str">
+        <f>IF(AND(J73&lt;=Constants!F$7,J73&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S73" t="str">
+        <f>IF(P73="N","N",IF(OR((J73+Constants!D$14)&gt;Constants!F$5,(J73-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T73" t="str">
+        <f>IF(Q73="N","N",IF(OR((J73+Constants!D$14)&gt;Constants!F$6,(J73-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U73" t="str">
+        <f>IF(R73="N","N",IF(OR((J73+Constants!D$14)&gt;Constants!F$7,(J73-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="11"/>
+      <c r="AF73" s="29"/>
+      <c r="AG73" s="11"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H74">
         <v>0.57299999999999995</v>
@@ -3887,22 +6896,50 @@
       <c r="N74">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P74" t="str">
+        <f>IF(AND(J74&lt;=Constants!F$5,J74&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q74" t="str">
+        <f>IF(AND(J74&lt;=Constants!F$6,J74&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R74" t="str">
+        <f>IF(AND(J74&lt;=Constants!F$7,J74&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S74" t="str">
+        <f>IF(P74="N","N",IF(OR((J74+Constants!D$14)&gt;Constants!F$5,(J74-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T74" t="str">
+        <f>IF(Q74="N","N",IF(OR((J74+Constants!D$14)&gt;Constants!F$6,(J74-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U74" t="str">
+        <f>IF(R74="N","N",IF(OR((J74+Constants!D$14)&gt;Constants!F$7,(J74-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="11"/>
+      <c r="AF74" s="29"/>
+      <c r="AG74" s="11"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H75">
         <v>0.56699999999999995</v>
@@ -3922,22 +6959,50 @@
       <c r="N75">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P75" t="str">
+        <f>IF(AND(J75&lt;=Constants!F$5,J75&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q75" t="str">
+        <f>IF(AND(J75&lt;=Constants!F$6,J75&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R75" t="str">
+        <f>IF(AND(J75&lt;=Constants!F$7,J75&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S75" t="str">
+        <f>IF(P75="N","N",IF(OR((J75+Constants!D$14)&gt;Constants!F$5,(J75-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T75" t="str">
+        <f>IF(Q75="N","N",IF(OR((J75+Constants!D$14)&gt;Constants!F$6,(J75-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U75" t="str">
+        <f>IF(R75="N","N",IF(OR((J75+Constants!D$14)&gt;Constants!F$7,(J75-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="11"/>
+      <c r="AF75" s="29"/>
+      <c r="AG75" s="11"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H76">
         <v>0.57299999999999995</v>
@@ -3957,22 +7022,50 @@
       <c r="N76">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P76" t="str">
+        <f>IF(AND(J76&lt;=Constants!F$5,J76&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q76" t="str">
+        <f>IF(AND(J76&lt;=Constants!F$6,J76&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R76" t="str">
+        <f>IF(AND(J76&lt;=Constants!F$7,J76&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S76" t="str">
+        <f>IF(P76="N","N",IF(OR((J76+Constants!D$14)&gt;Constants!F$5,(J76-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T76" t="str">
+        <f>IF(Q76="N","N",IF(OR((J76+Constants!D$14)&gt;Constants!F$6,(J76-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U76" t="str">
+        <f>IF(R76="N","N",IF(OR((J76+Constants!D$14)&gt;Constants!F$7,(J76-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="11"/>
+      <c r="AF76" s="29"/>
+      <c r="AG76" s="11"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H77">
         <v>0.55900000000000005</v>
@@ -3992,22 +7085,50 @@
       <c r="N77">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P77" t="str">
+        <f>IF(AND(J77&lt;=Constants!F$5,J77&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q77" t="str">
+        <f>IF(AND(J77&lt;=Constants!F$6,J77&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R77" t="str">
+        <f>IF(AND(J77&lt;=Constants!F$7,J77&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S77" t="str">
+        <f>IF(P77="N","N",IF(OR((J77+Constants!D$14)&gt;Constants!F$5,(J77-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T77" t="str">
+        <f>IF(Q77="N","N",IF(OR((J77+Constants!D$14)&gt;Constants!F$6,(J77-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U77" t="str">
+        <f>IF(R77="N","N",IF(OR((J77+Constants!D$14)&gt;Constants!F$7,(J77-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="11"/>
+      <c r="AF77" s="29"/>
+      <c r="AG77" s="11"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H78">
         <v>0.55500000000000005</v>
@@ -4027,22 +7148,50 @@
       <c r="N78">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P78" t="str">
+        <f>IF(AND(J78&lt;=Constants!F$5,J78&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q78" t="str">
+        <f>IF(AND(J78&lt;=Constants!F$6,J78&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R78" t="str">
+        <f>IF(AND(J78&lt;=Constants!F$7,J78&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S78" t="str">
+        <f>IF(P78="N","N",IF(OR((J78+Constants!D$14)&gt;Constants!F$5,(J78-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T78" t="str">
+        <f>IF(Q78="N","N",IF(OR((J78+Constants!D$14)&gt;Constants!F$6,(J78-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U78" t="str">
+        <f>IF(R78="N","N",IF(OR((J78+Constants!D$14)&gt;Constants!F$7,(J78-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="11"/>
+      <c r="AF78" s="29"/>
+      <c r="AG78" s="11"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79">
         <v>0.56200000000000006</v>
@@ -4062,22 +7211,50 @@
       <c r="N79">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P79" t="str">
+        <f>IF(AND(J79&lt;=Constants!F$5,J79&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q79" t="str">
+        <f>IF(AND(J79&lt;=Constants!F$6,J79&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R79" t="str">
+        <f>IF(AND(J79&lt;=Constants!F$7,J79&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S79" t="str">
+        <f>IF(P79="N","N",IF(OR((J79+Constants!D$14)&gt;Constants!F$5,(J79-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T79" t="str">
+        <f>IF(Q79="N","N",IF(OR((J79+Constants!D$14)&gt;Constants!F$6,(J79-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U79" t="str">
+        <f>IF(R79="N","N",IF(OR((J79+Constants!D$14)&gt;Constants!F$7,(J79-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="11"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="11"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H80">
         <v>0.56399999999999995</v>
@@ -4097,22 +7274,50 @@
       <c r="N80">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P80" t="str">
+        <f>IF(AND(J80&lt;=Constants!F$5,J80&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q80" t="str">
+        <f>IF(AND(J80&lt;=Constants!F$6,J80&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R80" t="str">
+        <f>IF(AND(J80&lt;=Constants!F$7,J80&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S80" t="str">
+        <f>IF(P80="N","N",IF(OR((J80+Constants!D$14)&gt;Constants!F$5,(J80-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T80" t="str">
+        <f>IF(Q80="N","N",IF(OR((J80+Constants!D$14)&gt;Constants!F$6,(J80-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U80" t="str">
+        <f>IF(R80="N","N",IF(OR((J80+Constants!D$14)&gt;Constants!F$7,(J80-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="11"/>
+      <c r="AF80" s="29"/>
+      <c r="AG80" s="11"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H81">
         <v>0.56899999999999995</v>
@@ -4132,22 +7337,50 @@
       <c r="N81">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P81" t="str">
+        <f>IF(AND(J81&lt;=Constants!F$5,J81&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q81" t="str">
+        <f>IF(AND(J81&lt;=Constants!F$6,J81&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R81" t="str">
+        <f>IF(AND(J81&lt;=Constants!F$7,J81&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S81" t="str">
+        <f>IF(P81="N","N",IF(OR((J81+Constants!D$14)&gt;Constants!F$5,(J81-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T81" t="str">
+        <f>IF(Q81="N","N",IF(OR((J81+Constants!D$14)&gt;Constants!F$6,(J81-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U81" t="str">
+        <f>IF(R81="N","N",IF(OR((J81+Constants!D$14)&gt;Constants!F$7,(J81-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="11"/>
+      <c r="AF81" s="29"/>
+      <c r="AG81" s="11"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H82">
         <v>0.56699999999999995</v>
@@ -4167,22 +7400,50 @@
       <c r="N82">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P82" t="str">
+        <f>IF(AND(J82&lt;=Constants!F$5,J82&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q82" t="str">
+        <f>IF(AND(J82&lt;=Constants!F$6,J82&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R82" t="str">
+        <f>IF(AND(J82&lt;=Constants!F$7,J82&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S82" t="str">
+        <f>IF(P82="N","N",IF(OR((J82+Constants!D$14)&gt;Constants!F$5,(J82-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T82" t="str">
+        <f>IF(Q82="N","N",IF(OR((J82+Constants!D$14)&gt;Constants!F$6,(J82-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U82" t="str">
+        <f>IF(R82="N","N",IF(OR((J82+Constants!D$14)&gt;Constants!F$7,(J82-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="11"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="11"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H83">
         <v>0.56599999999999995</v>
@@ -4202,22 +7463,50 @@
       <c r="N83">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P83" t="str">
+        <f>IF(AND(J83&lt;=Constants!F$5,J83&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q83" t="str">
+        <f>IF(AND(J83&lt;=Constants!F$6,J83&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R83" t="str">
+        <f>IF(AND(J83&lt;=Constants!F$7,J83&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S83" t="str">
+        <f>IF(P83="N","N",IF(OR((J83+Constants!D$14)&gt;Constants!F$5,(J83-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T83" t="str">
+        <f>IF(Q83="N","N",IF(OR((J83+Constants!D$14)&gt;Constants!F$6,(J83-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U83" t="str">
+        <f>IF(R83="N","N",IF(OR((J83+Constants!D$14)&gt;Constants!F$7,(J83-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="11"/>
+      <c r="AF83" s="29"/>
+      <c r="AG83" s="11"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H84">
         <v>0.57999999999999996</v>
@@ -4237,22 +7526,50 @@
       <c r="N84">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P84" t="str">
+        <f>IF(AND(J84&lt;=Constants!F$5,J84&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q84" t="str">
+        <f>IF(AND(J84&lt;=Constants!F$6,J84&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R84" t="str">
+        <f>IF(AND(J84&lt;=Constants!F$7,J84&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S84" t="str">
+        <f>IF(P84="N","N",IF(OR((J84+Constants!D$14)&gt;Constants!F$5,(J84-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T84" t="str">
+        <f>IF(Q84="N","N",IF(OR((J84+Constants!D$14)&gt;Constants!F$6,(J84-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U84" t="str">
+        <f>IF(R84="N","N",IF(OR((J84+Constants!D$14)&gt;Constants!F$7,(J84-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="11"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="11"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H85">
         <v>0.55300000000000005</v>
@@ -4272,22 +7589,50 @@
       <c r="N85">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P85" t="str">
+        <f>IF(AND(J85&lt;=Constants!F$5,J85&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q85" t="str">
+        <f>IF(AND(J85&lt;=Constants!F$6,J85&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R85" t="str">
+        <f>IF(AND(J85&lt;=Constants!F$7,J85&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S85" t="str">
+        <f>IF(P85="N","N",IF(OR((J85+Constants!D$14)&gt;Constants!F$5,(J85-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T85" t="str">
+        <f>IF(Q85="N","N",IF(OR((J85+Constants!D$14)&gt;Constants!F$6,(J85-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U85" t="str">
+        <f>IF(R85="N","N",IF(OR((J85+Constants!D$14)&gt;Constants!F$7,(J85-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="11"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="11"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H86">
         <v>0.55600000000000005</v>
@@ -4307,22 +7652,50 @@
       <c r="N86">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P86" t="str">
+        <f>IF(AND(J86&lt;=Constants!F$5,J86&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q86" t="str">
+        <f>IF(AND(J86&lt;=Constants!F$6,J86&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R86" t="str">
+        <f>IF(AND(J86&lt;=Constants!F$7,J86&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S86" t="str">
+        <f>IF(P86="N","N",IF(OR((J86+Constants!D$14)&gt;Constants!F$5,(J86-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T86" t="str">
+        <f>IF(Q86="N","N",IF(OR((J86+Constants!D$14)&gt;Constants!F$6,(J86-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U86" t="str">
+        <f>IF(R86="N","N",IF(OR((J86+Constants!D$14)&gt;Constants!F$7,(J86-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="11"/>
+      <c r="AF86" s="29"/>
+      <c r="AG86" s="11"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H87">
         <v>0.55500000000000005</v>
@@ -4342,22 +7715,50 @@
       <c r="N87">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P87" t="str">
+        <f>IF(AND(J87&lt;=Constants!F$5,J87&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q87" t="str">
+        <f>IF(AND(J87&lt;=Constants!F$6,J87&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R87" t="str">
+        <f>IF(AND(J87&lt;=Constants!F$7,J87&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S87" t="str">
+        <f>IF(P87="N","N",IF(OR((J87+Constants!D$14)&gt;Constants!F$5,(J87-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T87" t="str">
+        <f>IF(Q87="N","N",IF(OR((J87+Constants!D$14)&gt;Constants!F$6,(J87-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U87" t="str">
+        <f>IF(R87="N","N",IF(OR((J87+Constants!D$14)&gt;Constants!F$7,(J87-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="11"/>
+      <c r="AF87" s="29"/>
+      <c r="AG87" s="11"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H88">
         <v>0.57899999999999996</v>
@@ -4377,22 +7778,50 @@
       <c r="N88">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P88" t="str">
+        <f>IF(AND(J88&lt;=Constants!F$5,J88&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q88" t="str">
+        <f>IF(AND(J88&lt;=Constants!F$6,J88&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R88" t="str">
+        <f>IF(AND(J88&lt;=Constants!F$7,J88&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S88" t="str">
+        <f>IF(P88="N","N",IF(OR((J88+Constants!D$14)&gt;Constants!F$5,(J88-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T88" t="str">
+        <f>IF(Q88="N","N",IF(OR((J88+Constants!D$14)&gt;Constants!F$6,(J88-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U88" t="str">
+        <f>IF(R88="N","N",IF(OR((J88+Constants!D$14)&gt;Constants!F$7,(J88-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="11"/>
+      <c r="AF88" s="29"/>
+      <c r="AG88" s="11"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H89">
         <v>0.57199999999999995</v>
@@ -4412,22 +7841,50 @@
       <c r="N89">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P89" t="str">
+        <f>IF(AND(J89&lt;=Constants!F$5,J89&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q89" t="str">
+        <f>IF(AND(J89&lt;=Constants!F$6,J89&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R89" t="str">
+        <f>IF(AND(J89&lt;=Constants!F$7,J89&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S89" t="str">
+        <f>IF(P89="N","N",IF(OR((J89+Constants!D$14)&gt;Constants!F$5,(J89-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T89" t="str">
+        <f>IF(Q89="N","N",IF(OR((J89+Constants!D$14)&gt;Constants!F$6,(J89-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U89" t="str">
+        <f>IF(R89="N","N",IF(OR((J89+Constants!D$14)&gt;Constants!F$7,(J89-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="11"/>
+      <c r="AF89" s="29"/>
+      <c r="AG89" s="11"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H90">
         <v>0.56100000000000005</v>
@@ -4447,22 +7904,50 @@
       <c r="N90">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P90" t="str">
+        <f>IF(AND(J90&lt;=Constants!F$5,J90&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q90" t="str">
+        <f>IF(AND(J90&lt;=Constants!F$6,J90&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R90" t="str">
+        <f>IF(AND(J90&lt;=Constants!F$7,J90&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S90" t="str">
+        <f>IF(P90="N","N",IF(OR((J90+Constants!D$14)&gt;Constants!F$5,(J90-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T90" t="str">
+        <f>IF(Q90="N","N",IF(OR((J90+Constants!D$14)&gt;Constants!F$6,(J90-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U90" t="str">
+        <f>IF(R90="N","N",IF(OR((J90+Constants!D$14)&gt;Constants!F$7,(J90-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="11"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="11"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>59</v>
       </c>
       <c r="B91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" t="s">
         <v>85</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H91">
         <v>0.57599999999999996</v>
@@ -4482,22 +7967,50 @@
       <c r="N91">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P91" t="str">
+        <f>IF(AND(J91&lt;=Constants!F$5,J91&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q91" t="str">
+        <f>IF(AND(J91&lt;=Constants!F$6,J91&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R91" t="str">
+        <f>IF(AND(J91&lt;=Constants!F$7,J91&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S91" t="str">
+        <f>IF(P91="N","N",IF(OR((J91+Constants!D$14)&gt;Constants!F$5,(J91-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T91" t="str">
+        <f>IF(Q91="N","N",IF(OR((J91+Constants!D$14)&gt;Constants!F$6,(J91-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U91" t="str">
+        <f>IF(R91="N","N",IF(OR((J91+Constants!D$14)&gt;Constants!F$7,(J91-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="11"/>
+      <c r="AF91" s="29"/>
+      <c r="AG91" s="11"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H92">
         <v>0.54800000000000004</v>
@@ -4517,22 +8030,50 @@
       <c r="N92">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P92" t="str">
+        <f>IF(AND(J92&lt;=Constants!F$5,J92&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q92" t="str">
+        <f>IF(AND(J92&lt;=Constants!F$6,J92&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R92" t="str">
+        <f>IF(AND(J92&lt;=Constants!F$7,J92&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S92" t="str">
+        <f>IF(P92="N","N",IF(OR((J92+Constants!D$14)&gt;Constants!F$5,(J92-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T92" t="str">
+        <f>IF(Q92="N","N",IF(OR((J92+Constants!D$14)&gt;Constants!F$6,(J92-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U92" t="str">
+        <f>IF(R92="N","N",IF(OR((J92+Constants!D$14)&gt;Constants!F$7,(J92-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="11"/>
+      <c r="AF92" s="29"/>
+      <c r="AG92" s="11"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H93">
         <v>0.55000000000000004</v>
@@ -4552,22 +8093,50 @@
       <c r="N93">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P93" t="str">
+        <f>IF(AND(J93&lt;=Constants!F$5,J93&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q93" t="str">
+        <f>IF(AND(J93&lt;=Constants!F$6,J93&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R93" t="str">
+        <f>IF(AND(J93&lt;=Constants!F$7,J93&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S93" t="str">
+        <f>IF(P93="N","N",IF(OR((J93+Constants!D$14)&gt;Constants!F$5,(J93-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T93" t="str">
+        <f>IF(Q93="N","N",IF(OR((J93+Constants!D$14)&gt;Constants!F$6,(J93-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U93" t="str">
+        <f>IF(R93="N","N",IF(OR((J93+Constants!D$14)&gt;Constants!F$7,(J93-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="11"/>
+      <c r="AF93" s="29"/>
+      <c r="AG93" s="11"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H94">
         <v>0.55500000000000005</v>
@@ -4587,22 +8156,50 @@
       <c r="N94">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P94" t="str">
+        <f>IF(AND(J94&lt;=Constants!F$5,J94&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q94" t="str">
+        <f>IF(AND(J94&lt;=Constants!F$6,J94&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R94" t="str">
+        <f>IF(AND(J94&lt;=Constants!F$7,J94&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S94" t="str">
+        <f>IF(P94="N","N",IF(OR((J94+Constants!D$14)&gt;Constants!F$5,(J94-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T94" t="str">
+        <f>IF(Q94="N","N",IF(OR((J94+Constants!D$14)&gt;Constants!F$6,(J94-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U94" t="str">
+        <f>IF(R94="N","N",IF(OR((J94+Constants!D$14)&gt;Constants!F$7,(J94-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="11"/>
+      <c r="AF94" s="29"/>
+      <c r="AG94" s="11"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H95">
         <v>0.56000000000000005</v>
@@ -4622,22 +8219,50 @@
       <c r="N95">
         <v>0.42699999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P95" t="str">
+        <f>IF(AND(J95&lt;=Constants!F$5,J95&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q95" t="str">
+        <f>IF(AND(J95&lt;=Constants!F$6,J95&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R95" t="str">
+        <f>IF(AND(J95&lt;=Constants!F$7,J95&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S95" t="str">
+        <f>IF(P95="N","N",IF(OR((J95+Constants!D$14)&gt;Constants!F$5,(J95-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T95" t="str">
+        <f>IF(Q95="N","N",IF(OR((J95+Constants!D$14)&gt;Constants!F$6,(J95-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U95" t="str">
+        <f>IF(R95="N","N",IF(OR((J95+Constants!D$14)&gt;Constants!F$7,(J95-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="11"/>
+      <c r="AF95" s="29"/>
+      <c r="AG95" s="11"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H96">
         <v>0.55900000000000005</v>
@@ -4657,22 +8282,50 @@
       <c r="N96">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P96" t="str">
+        <f>IF(AND(J96&lt;=Constants!F$5,J96&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q96" t="str">
+        <f>IF(AND(J96&lt;=Constants!F$6,J96&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R96" t="str">
+        <f>IF(AND(J96&lt;=Constants!F$7,J96&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S96" t="str">
+        <f>IF(P96="N","N",IF(OR((J96+Constants!D$14)&gt;Constants!F$5,(J96-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T96" t="str">
+        <f>IF(Q96="N","N",IF(OR((J96+Constants!D$14)&gt;Constants!F$6,(J96-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U96" t="str">
+        <f>IF(R96="N","N",IF(OR((J96+Constants!D$14)&gt;Constants!F$7,(J96-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="11"/>
+      <c r="AF96" s="29"/>
+      <c r="AG96" s="11"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H97">
         <v>0.55300000000000005</v>
@@ -4692,22 +8345,50 @@
       <c r="N97">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P97" t="str">
+        <f>IF(AND(J97&lt;=Constants!F$5,J97&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q97" t="str">
+        <f>IF(AND(J97&lt;=Constants!F$6,J97&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R97" t="str">
+        <f>IF(AND(J97&lt;=Constants!F$7,J97&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S97" t="str">
+        <f>IF(P97="N","N",IF(OR((J97+Constants!D$14)&gt;Constants!F$5,(J97-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T97" t="str">
+        <f>IF(Q97="N","N",IF(OR((J97+Constants!D$14)&gt;Constants!F$6,(J97-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U97" t="str">
+        <f>IF(R97="N","N",IF(OR((J97+Constants!D$14)&gt;Constants!F$7,(J97-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC97" s="29"/>
+      <c r="AD97" s="11"/>
+      <c r="AF97" s="29"/>
+      <c r="AG97" s="11"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H98">
         <v>0.56200000000000006</v>
@@ -4718,22 +8399,50 @@
       <c r="J98">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P98" t="str">
+        <f>IF(AND(J98&lt;=Constants!F$5,J98&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q98" t="str">
+        <f>IF(AND(J98&lt;=Constants!F$6,J98&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R98" t="str">
+        <f>IF(AND(J98&lt;=Constants!F$7,J98&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S98" t="str">
+        <f>IF(P98="N","N",IF(OR((J98+Constants!D$14)&gt;Constants!F$5,(J98-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T98" t="str">
+        <f>IF(Q98="N","N",IF(OR((J98+Constants!D$14)&gt;Constants!F$6,(J98-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U98" t="str">
+        <f>IF(R98="N","N",IF(OR((J98+Constants!D$14)&gt;Constants!F$7,(J98-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="11"/>
+      <c r="AF98" s="29"/>
+      <c r="AG98" s="11"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
       <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
         <v>94</v>
-      </c>
-      <c r="C99" t="s">
-        <v>95</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H99">
         <v>0.55700000000000005</v>
@@ -4753,22 +8462,50 @@
       <c r="N99">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P99" t="str">
+        <f>IF(AND(J99&lt;=Constants!F$5,J99&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q99" t="str">
+        <f>IF(AND(J99&lt;=Constants!F$6,J99&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R99" t="str">
+        <f>IF(AND(J99&lt;=Constants!F$7,J99&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S99" t="str">
+        <f>IF(P99="N","N",IF(OR((J99+Constants!D$14)&gt;Constants!F$5,(J99-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T99" t="str">
+        <f>IF(Q99="N","N",IF(OR((J99+Constants!D$14)&gt;Constants!F$6,(J99-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U99" t="str">
+        <f>IF(R99="N","N",IF(OR((J99+Constants!D$14)&gt;Constants!F$7,(J99-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="11"/>
+      <c r="AF99" s="29"/>
+      <c r="AG99" s="11"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H100">
         <v>0.56100000000000005</v>
@@ -4788,22 +8525,50 @@
       <c r="N100">
         <v>0.434</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P100" t="str">
+        <f>IF(AND(J100&lt;=Constants!F$5,J100&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q100" t="str">
+        <f>IF(AND(J100&lt;=Constants!F$6,J100&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R100" t="str">
+        <f>IF(AND(J100&lt;=Constants!F$7,J100&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S100" t="str">
+        <f>IF(P100="N","N",IF(OR((J100+Constants!D$14)&gt;Constants!F$5,(J100-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T100" t="str">
+        <f>IF(Q100="N","N",IF(OR((J100+Constants!D$14)&gt;Constants!F$6,(J100-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U100" t="str">
+        <f>IF(R100="N","N",IF(OR((J100+Constants!D$14)&gt;Constants!F$7,(J100-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="11"/>
+      <c r="AF100" s="29"/>
+      <c r="AG100" s="11"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H101">
         <v>0.56100000000000005</v>
@@ -4823,22 +8588,50 @@
       <c r="N101">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P101" t="str">
+        <f>IF(AND(J101&lt;=Constants!F$5,J101&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q101" t="str">
+        <f>IF(AND(J101&lt;=Constants!F$6,J101&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R101" t="str">
+        <f>IF(AND(J101&lt;=Constants!F$7,J101&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S101" t="str">
+        <f>IF(P101="N","N",IF(OR((J101+Constants!D$14)&gt;Constants!F$5,(J101-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T101" t="str">
+        <f>IF(Q101="N","N",IF(OR((J101+Constants!D$14)&gt;Constants!F$6,(J101-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U101" t="str">
+        <f>IF(R101="N","N",IF(OR((J101+Constants!D$14)&gt;Constants!F$7,(J101-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC101" s="29"/>
+      <c r="AD101" s="11"/>
+      <c r="AF101" s="29"/>
+      <c r="AG101" s="11"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H102">
         <v>0.55100000000000005</v>
@@ -4858,22 +8651,50 @@
       <c r="N102">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P102" t="str">
+        <f>IF(AND(J102&lt;=Constants!F$5,J102&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q102" t="str">
+        <f>IF(AND(J102&lt;=Constants!F$6,J102&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R102" t="str">
+        <f>IF(AND(J102&lt;=Constants!F$7,J102&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S102" t="str">
+        <f>IF(P102="N","N",IF(OR((J102+Constants!D$14)&gt;Constants!F$5,(J102-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T102" t="str">
+        <f>IF(Q102="N","N",IF(OR((J102+Constants!D$14)&gt;Constants!F$6,(J102-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U102" t="str">
+        <f>IF(R102="N","N",IF(OR((J102+Constants!D$14)&gt;Constants!F$7,(J102-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="11"/>
+      <c r="AF102" s="29"/>
+      <c r="AG102" s="11"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103">
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H103">
         <v>0.54400000000000004</v>
@@ -4893,22 +8714,50 @@
       <c r="N103">
         <v>0.42499999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P103" t="str">
+        <f>IF(AND(J103&lt;=Constants!F$5,J103&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q103" t="str">
+        <f>IF(AND(J103&lt;=Constants!F$6,J103&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R103" t="str">
+        <f>IF(AND(J103&lt;=Constants!F$7,J103&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S103" t="str">
+        <f>IF(P103="N","N",IF(OR((J103+Constants!D$14)&gt;Constants!F$5,(J103-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T103" t="str">
+        <f>IF(Q103="N","N",IF(OR((J103+Constants!D$14)&gt;Constants!F$6,(J103-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U103" t="str">
+        <f>IF(R103="N","N",IF(OR((J103+Constants!D$14)&gt;Constants!F$7,(J103-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="11"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="11"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>0.56000000000000005</v>
@@ -4928,22 +8777,50 @@
       <c r="N104">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P104" t="str">
+        <f>IF(AND(J104&lt;=Constants!F$5,J104&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q104" t="str">
+        <f>IF(AND(J104&lt;=Constants!F$6,J104&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R104" t="str">
+        <f>IF(AND(J104&lt;=Constants!F$7,J104&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S104" t="str">
+        <f>IF(P104="N","N",IF(OR((J104+Constants!D$14)&gt;Constants!F$5,(J104-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T104" t="str">
+        <f>IF(Q104="N","N",IF(OR((J104+Constants!D$14)&gt;Constants!F$6,(J104-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U104" t="str">
+        <f>IF(R104="N","N",IF(OR((J104+Constants!D$14)&gt;Constants!F$7,(J104-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC104" s="29"/>
+      <c r="AD104" s="11"/>
+      <c r="AF104" s="29"/>
+      <c r="AG104" s="11"/>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E105">
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H105">
         <v>0.55300000000000005</v>
@@ -4963,22 +8840,50 @@
       <c r="N105">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P105" t="str">
+        <f>IF(AND(J105&lt;=Constants!F$5,J105&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q105" t="str">
+        <f>IF(AND(J105&lt;=Constants!F$6,J105&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R105" t="str">
+        <f>IF(AND(J105&lt;=Constants!F$7,J105&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S105" t="str">
+        <f>IF(P105="N","N",IF(OR((J105+Constants!D$14)&gt;Constants!F$5,(J105-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T105" t="str">
+        <f>IF(Q105="N","N",IF(OR((J105+Constants!D$14)&gt;Constants!F$6,(J105-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U105" t="str">
+        <f>IF(R105="N","N",IF(OR((J105+Constants!D$14)&gt;Constants!F$7,(J105-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC105" s="29"/>
+      <c r="AD105" s="11"/>
+      <c r="AF105" s="29"/>
+      <c r="AG105" s="11"/>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H106">
         <v>0.56299999999999994</v>
@@ -4998,22 +8903,50 @@
       <c r="N106">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P106" t="str">
+        <f>IF(AND(J106&lt;=Constants!F$5,J106&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q106" t="str">
+        <f>IF(AND(J106&lt;=Constants!F$6,J106&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R106" t="str">
+        <f>IF(AND(J106&lt;=Constants!F$7,J106&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S106" t="str">
+        <f>IF(P106="N","N",IF(OR((J106+Constants!D$14)&gt;Constants!F$5,(J106-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T106" t="str">
+        <f>IF(Q106="N","N",IF(OR((J106+Constants!D$14)&gt;Constants!F$6,(J106-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U106" t="str">
+        <f>IF(R106="N","N",IF(OR((J106+Constants!D$14)&gt;Constants!F$7,(J106-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="11"/>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="11"/>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H107">
         <v>0.57799999999999996</v>
@@ -5033,22 +8966,50 @@
       <c r="N107">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P107" t="str">
+        <f>IF(AND(J107&lt;=Constants!F$5,J107&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q107" t="str">
+        <f>IF(AND(J107&lt;=Constants!F$6,J107&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R107" t="str">
+        <f>IF(AND(J107&lt;=Constants!F$7,J107&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S107" t="str">
+        <f>IF(P107="N","N",IF(OR((J107+Constants!D$14)&gt;Constants!F$5,(J107-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T107" t="str">
+        <f>IF(Q107="N","N",IF(OR((J107+Constants!D$14)&gt;Constants!F$6,(J107-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U107" t="str">
+        <f>IF(R107="N","N",IF(OR((J107+Constants!D$14)&gt;Constants!F$7,(J107-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="11"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="11"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H108">
         <v>0.56200000000000006</v>
@@ -5068,22 +9029,50 @@
       <c r="N108">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P108" t="str">
+        <f>IF(AND(J108&lt;=Constants!F$5,J108&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q108" t="str">
+        <f>IF(AND(J108&lt;=Constants!F$6,J108&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R108" t="str">
+        <f>IF(AND(J108&lt;=Constants!F$7,J108&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S108" t="str">
+        <f>IF(P108="N","N",IF(OR((J108+Constants!D$14)&gt;Constants!F$5,(J108-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T108" t="str">
+        <f>IF(Q108="N","N",IF(OR((J108+Constants!D$14)&gt;Constants!F$6,(J108-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U108" t="str">
+        <f>IF(R108="N","N",IF(OR((J108+Constants!D$14)&gt;Constants!F$7,(J108-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="11"/>
+      <c r="AF108" s="29"/>
+      <c r="AG108" s="11"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H109">
         <v>0.55900000000000005</v>
@@ -5103,22 +9092,50 @@
       <c r="N109">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P109" t="str">
+        <f>IF(AND(J109&lt;=Constants!F$5,J109&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q109" t="str">
+        <f>IF(AND(J109&lt;=Constants!F$6,J109&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R109" t="str">
+        <f>IF(AND(J109&lt;=Constants!F$7,J109&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S109" t="str">
+        <f>IF(P109="N","N",IF(OR((J109+Constants!D$14)&gt;Constants!F$5,(J109-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T109" t="str">
+        <f>IF(Q109="N","N",IF(OR((J109+Constants!D$14)&gt;Constants!F$6,(J109-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U109" t="str">
+        <f>IF(R109="N","N",IF(OR((J109+Constants!D$14)&gt;Constants!F$7,(J109-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="11"/>
+      <c r="AF109" s="29"/>
+      <c r="AG109" s="11"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H110">
         <v>0.56299999999999994</v>
@@ -5138,22 +9155,50 @@
       <c r="N110">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P110" t="str">
+        <f>IF(AND(J110&lt;=Constants!F$5,J110&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q110" t="str">
+        <f>IF(AND(J110&lt;=Constants!F$6,J110&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R110" t="str">
+        <f>IF(AND(J110&lt;=Constants!F$7,J110&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S110" t="str">
+        <f>IF(P110="N","N",IF(OR((J110+Constants!D$14)&gt;Constants!F$5,(J110-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T110" t="str">
+        <f>IF(Q110="N","N",IF(OR((J110+Constants!D$14)&gt;Constants!F$6,(J110-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U110" t="str">
+        <f>IF(R110="N","N",IF(OR((J110+Constants!D$14)&gt;Constants!F$7,(J110-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="11"/>
+      <c r="AF110" s="29"/>
+      <c r="AG110" s="11"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H111">
         <v>0.55500000000000005</v>
@@ -5173,22 +9218,50 @@
       <c r="N111">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P111" t="str">
+        <f>IF(AND(J111&lt;=Constants!F$5,J111&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q111" t="str">
+        <f>IF(AND(J111&lt;=Constants!F$6,J111&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R111" t="str">
+        <f>IF(AND(J111&lt;=Constants!F$7,J111&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S111" t="str">
+        <f>IF(P111="N","N",IF(OR((J111+Constants!D$14)&gt;Constants!F$5,(J111-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T111" t="str">
+        <f>IF(Q111="N","N",IF(OR((J111+Constants!D$14)&gt;Constants!F$6,(J111-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U111" t="str">
+        <f>IF(R111="N","N",IF(OR((J111+Constants!D$14)&gt;Constants!F$7,(J111-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC111" s="29"/>
+      <c r="AD111" s="11"/>
+      <c r="AF111" s="29"/>
+      <c r="AG111" s="11"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H112">
         <v>0.56299999999999994</v>
@@ -5208,22 +9281,50 @@
       <c r="N112">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P112" t="str">
+        <f>IF(AND(J112&lt;=Constants!F$5,J112&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q112" t="str">
+        <f>IF(AND(J112&lt;=Constants!F$6,J112&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R112" t="str">
+        <f>IF(AND(J112&lt;=Constants!F$7,J112&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S112" t="str">
+        <f>IF(P112="N","N",IF(OR((J112+Constants!D$14)&gt;Constants!F$5,(J112-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T112" t="str">
+        <f>IF(Q112="N","N",IF(OR((J112+Constants!D$14)&gt;Constants!F$6,(J112-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U112" t="str">
+        <f>IF(R112="N","N",IF(OR((J112+Constants!D$14)&gt;Constants!F$7,(J112-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="11"/>
+      <c r="AF112" s="29"/>
+      <c r="AG112" s="11"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H113">
         <v>0.56299999999999994</v>
@@ -5243,22 +9344,50 @@
       <c r="N113">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P113" t="str">
+        <f>IF(AND(J113&lt;=Constants!F$5,J113&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q113" t="str">
+        <f>IF(AND(J113&lt;=Constants!F$6,J113&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R113" t="str">
+        <f>IF(AND(J113&lt;=Constants!F$7,J113&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S113" t="str">
+        <f>IF(P113="N","N",IF(OR((J113+Constants!D$14)&gt;Constants!F$5,(J113-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T113" t="str">
+        <f>IF(Q113="N","N",IF(OR((J113+Constants!D$14)&gt;Constants!F$6,(J113-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U113" t="str">
+        <f>IF(R113="N","N",IF(OR((J113+Constants!D$14)&gt;Constants!F$7,(J113-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="11"/>
+      <c r="AF113" s="29"/>
+      <c r="AG113" s="11"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H114">
         <v>0.55500000000000005</v>
@@ -5278,22 +9407,50 @@
       <c r="N114">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P114" t="str">
+        <f>IF(AND(J114&lt;=Constants!F$5,J114&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q114" t="str">
+        <f>IF(AND(J114&lt;=Constants!F$6,J114&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R114" t="str">
+        <f>IF(AND(J114&lt;=Constants!F$7,J114&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S114" t="str">
+        <f>IF(P114="N","N",IF(OR((J114+Constants!D$14)&gt;Constants!F$5,(J114-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T114" t="str">
+        <f>IF(Q114="N","N",IF(OR((J114+Constants!D$14)&gt;Constants!F$6,(J114-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U114" t="str">
+        <f>IF(R114="N","N",IF(OR((J114+Constants!D$14)&gt;Constants!F$7,(J114-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="11"/>
+      <c r="AF114" s="29"/>
+      <c r="AG114" s="11"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H115">
         <v>0.57199999999999995</v>
@@ -5313,22 +9470,50 @@
       <c r="N115">
         <v>0.434</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P115" t="str">
+        <f>IF(AND(J115&lt;=Constants!F$5,J115&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q115" t="str">
+        <f>IF(AND(J115&lt;=Constants!F$6,J115&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R115" t="str">
+        <f>IF(AND(J115&lt;=Constants!F$7,J115&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S115" t="str">
+        <f>IF(P115="N","N",IF(OR((J115+Constants!D$14)&gt;Constants!F$5,(J115-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T115" t="str">
+        <f>IF(Q115="N","N",IF(OR((J115+Constants!D$14)&gt;Constants!F$6,(J115-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U115" t="str">
+        <f>IF(R115="N","N",IF(OR((J115+Constants!D$14)&gt;Constants!F$7,(J115-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC115" s="29"/>
+      <c r="AD115" s="11"/>
+      <c r="AF115" s="29"/>
+      <c r="AG115" s="11"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H116">
         <v>0.56000000000000005</v>
@@ -5348,13 +9533,41 @@
       <c r="N116">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P116" t="str">
+        <f>IF(AND(J116&lt;=Constants!F$5,J116&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q116" t="str">
+        <f>IF(AND(J116&lt;=Constants!F$6,J116&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R116" t="str">
+        <f>IF(AND(J116&lt;=Constants!F$7,J116&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S116" t="str">
+        <f>IF(P116="N","N",IF(OR((J116+Constants!D$14)&gt;Constants!F$5,(J116-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T116" t="str">
+        <f>IF(Q116="N","N",IF(OR((J116+Constants!D$14)&gt;Constants!F$6,(J116-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U116" t="str">
+        <f>IF(R116="N","N",IF(OR((J116+Constants!D$14)&gt;Constants!F$7,(J116-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="11"/>
+      <c r="AF116" s="29"/>
+      <c r="AG116" s="11"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>59</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -5363,7 +9576,7 @@
         <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H117">
         <v>0.57899999999999996</v>
@@ -5383,22 +9596,50 @@
       <c r="N117">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P117" t="str">
+        <f>IF(AND(J117&lt;=Constants!F$5,J117&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q117" t="str">
+        <f>IF(AND(J117&lt;=Constants!F$6,J117&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R117" t="str">
+        <f>IF(AND(J117&lt;=Constants!F$7,J117&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S117" t="str">
+        <f>IF(P117="N","N",IF(OR((J117+Constants!D$14)&gt;Constants!F$5,(J117-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T117" t="str">
+        <f>IF(Q117="N","N",IF(OR((J117+Constants!D$14)&gt;Constants!F$6,(J117-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U117" t="str">
+        <f>IF(R117="N","N",IF(OR((J117+Constants!D$14)&gt;Constants!F$7,(J117-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="11"/>
+      <c r="AF117" s="29"/>
+      <c r="AG117" s="11"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H118">
         <v>0.56000000000000005</v>
@@ -5418,22 +9659,50 @@
       <c r="N118">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P118" t="str">
+        <f>IF(AND(J118&lt;=Constants!F$5,J118&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q118" t="str">
+        <f>IF(AND(J118&lt;=Constants!F$6,J118&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R118" t="str">
+        <f>IF(AND(J118&lt;=Constants!F$7,J118&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S118" t="str">
+        <f>IF(P118="N","N",IF(OR((J118+Constants!D$14)&gt;Constants!F$5,(J118-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T118" t="str">
+        <f>IF(Q118="N","N",IF(OR((J118+Constants!D$14)&gt;Constants!F$6,(J118-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U118" t="str">
+        <f>IF(R118="N","N",IF(OR((J118+Constants!D$14)&gt;Constants!F$7,(J118-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC118" s="29"/>
+      <c r="AD118" s="11"/>
+      <c r="AF118" s="29"/>
+      <c r="AG118" s="11"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H119">
         <v>0.56399999999999995</v>
@@ -5453,22 +9722,50 @@
       <c r="N119">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P119" t="str">
+        <f>IF(AND(J119&lt;=Constants!F$5,J119&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q119" t="str">
+        <f>IF(AND(J119&lt;=Constants!F$6,J119&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R119" t="str">
+        <f>IF(AND(J119&lt;=Constants!F$7,J119&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S119" t="str">
+        <f>IF(P119="N","N",IF(OR((J119+Constants!D$14)&gt;Constants!F$5,(J119-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T119" t="str">
+        <f>IF(Q119="N","N",IF(OR((J119+Constants!D$14)&gt;Constants!F$6,(J119-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U119" t="str">
+        <f>IF(R119="N","N",IF(OR((J119+Constants!D$14)&gt;Constants!F$7,(J119-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC119" s="29"/>
+      <c r="AD119" s="11"/>
+      <c r="AF119" s="29"/>
+      <c r="AG119" s="11"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>59</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H120">
         <v>0.55900000000000005</v>
@@ -5488,22 +9785,50 @@
       <c r="N120">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P120" t="str">
+        <f>IF(AND(J120&lt;=Constants!F$5,J120&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q120" t="str">
+        <f>IF(AND(J120&lt;=Constants!F$6,J120&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R120" t="str">
+        <f>IF(AND(J120&lt;=Constants!F$7,J120&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S120" t="str">
+        <f>IF(P120="N","N",IF(OR((J120+Constants!D$14)&gt;Constants!F$5,(J120-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T120" t="str">
+        <f>IF(Q120="N","N",IF(OR((J120+Constants!D$14)&gt;Constants!F$6,(J120-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U120" t="str">
+        <f>IF(R120="N","N",IF(OR((J120+Constants!D$14)&gt;Constants!F$7,(J120-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC120" s="29"/>
+      <c r="AD120" s="11"/>
+      <c r="AF120" s="29"/>
+      <c r="AG120" s="11"/>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H121">
         <v>0.55800000000000005</v>
@@ -5523,22 +9848,50 @@
       <c r="N121">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P121" t="str">
+        <f>IF(AND(J121&lt;=Constants!F$5,J121&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q121" t="str">
+        <f>IF(AND(J121&lt;=Constants!F$6,J121&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R121" t="str">
+        <f>IF(AND(J121&lt;=Constants!F$7,J121&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S121" t="str">
+        <f>IF(P121="N","N",IF(OR((J121+Constants!D$14)&gt;Constants!F$5,(J121-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T121" t="str">
+        <f>IF(Q121="N","N",IF(OR((J121+Constants!D$14)&gt;Constants!F$6,(J121-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U121" t="str">
+        <f>IF(R121="N","N",IF(OR((J121+Constants!D$14)&gt;Constants!F$7,(J121-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC121" s="29"/>
+      <c r="AD121" s="11"/>
+      <c r="AF121" s="29"/>
+      <c r="AG121" s="11"/>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E122">
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H122">
         <v>0.56000000000000005</v>
@@ -5558,22 +9911,50 @@
       <c r="N122">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P122" t="str">
+        <f>IF(AND(J122&lt;=Constants!F$5,J122&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q122" t="str">
+        <f>IF(AND(J122&lt;=Constants!F$6,J122&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R122" t="str">
+        <f>IF(AND(J122&lt;=Constants!F$7,J122&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S122" t="str">
+        <f>IF(P122="N","N",IF(OR((J122+Constants!D$14)&gt;Constants!F$5,(J122-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T122" t="str">
+        <f>IF(Q122="N","N",IF(OR((J122+Constants!D$14)&gt;Constants!F$6,(J122-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U122" t="str">
+        <f>IF(R122="N","N",IF(OR((J122+Constants!D$14)&gt;Constants!F$7,(J122-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC122" s="29"/>
+      <c r="AD122" s="11"/>
+      <c r="AF122" s="29"/>
+      <c r="AG122" s="11"/>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>59</v>
       </c>
       <c r="B123" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" t="s">
         <v>113</v>
-      </c>
-      <c r="C123" t="s">
-        <v>114</v>
       </c>
       <c r="E123">
         <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H123">
         <v>0.55700000000000005</v>
@@ -5593,22 +9974,50 @@
       <c r="N123">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P123" t="str">
+        <f>IF(AND(J123&lt;=Constants!F$5,J123&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q123" t="str">
+        <f>IF(AND(J123&lt;=Constants!F$6,J123&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R123" t="str">
+        <f>IF(AND(J123&lt;=Constants!F$7,J123&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S123" t="str">
+        <f>IF(P123="N","N",IF(OR((J123+Constants!D$14)&gt;Constants!F$5,(J123-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T123" t="str">
+        <f>IF(Q123="N","N",IF(OR((J123+Constants!D$14)&gt;Constants!F$6,(J123-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U123" t="str">
+        <f>IF(R123="N","N",IF(OR((J123+Constants!D$14)&gt;Constants!F$7,(J123-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC123" s="29"/>
+      <c r="AD123" s="11"/>
+      <c r="AF123" s="29"/>
+      <c r="AG123" s="11"/>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>59</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E124">
         <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H124">
         <v>0.55400000000000005</v>
@@ -5628,22 +10037,50 @@
       <c r="N124">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P124" t="str">
+        <f>IF(AND(J124&lt;=Constants!F$5,J124&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q124" t="str">
+        <f>IF(AND(J124&lt;=Constants!F$6,J124&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R124" t="str">
+        <f>IF(AND(J124&lt;=Constants!F$7,J124&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S124" t="str">
+        <f>IF(P124="N","N",IF(OR((J124+Constants!D$14)&gt;Constants!F$5,(J124-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T124" t="str">
+        <f>IF(Q124="N","N",IF(OR((J124+Constants!D$14)&gt;Constants!F$6,(J124-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U124" t="str">
+        <f>IF(R124="N","N",IF(OR((J124+Constants!D$14)&gt;Constants!F$7,(J124-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC124" s="29"/>
+      <c r="AD124" s="11"/>
+      <c r="AF124" s="29"/>
+      <c r="AG124" s="11"/>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>59</v>
       </c>
       <c r="B125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" t="s">
         <v>118</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H125">
         <v>0.54400000000000004</v>
@@ -5663,22 +10100,50 @@
       <c r="N125">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P125" t="str">
+        <f>IF(AND(J125&lt;=Constants!F$5,J125&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q125" t="str">
+        <f>IF(AND(J125&lt;=Constants!F$6,J125&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R125" t="str">
+        <f>IF(AND(J125&lt;=Constants!F$7,J125&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S125" t="str">
+        <f>IF(P125="N","N",IF(OR((J125+Constants!D$14)&gt;Constants!F$5,(J125-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T125" t="str">
+        <f>IF(Q125="N","N",IF(OR((J125+Constants!D$14)&gt;Constants!F$6,(J125-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U125" t="str">
+        <f>IF(R125="N","N",IF(OR((J125+Constants!D$14)&gt;Constants!F$7,(J125-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC125" s="29"/>
+      <c r="AD125" s="11"/>
+      <c r="AF125" s="29"/>
+      <c r="AG125" s="11"/>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>59</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H126">
         <v>0.55300000000000005</v>
@@ -5698,22 +10163,50 @@
       <c r="N126">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P126" t="str">
+        <f>IF(AND(J126&lt;=Constants!F$5,J126&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q126" t="str">
+        <f>IF(AND(J126&lt;=Constants!F$6,J126&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R126" t="str">
+        <f>IF(AND(J126&lt;=Constants!F$7,J126&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S126" t="str">
+        <f>IF(P126="N","N",IF(OR((J126+Constants!D$14)&gt;Constants!F$5,(J126-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T126" t="str">
+        <f>IF(Q126="N","N",IF(OR((J126+Constants!D$14)&gt;Constants!F$6,(J126-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U126" t="str">
+        <f>IF(R126="N","N",IF(OR((J126+Constants!D$14)&gt;Constants!F$7,(J126-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC126" s="29"/>
+      <c r="AD126" s="11"/>
+      <c r="AF126" s="29"/>
+      <c r="AG126" s="11"/>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>59</v>
       </c>
       <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
         <v>137</v>
-      </c>
-      <c r="C127" t="s">
-        <v>138</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H127">
         <v>0.57799999999999996</v>
@@ -5733,22 +10226,50 @@
       <c r="N127">
         <v>0.434</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P127" t="str">
+        <f>IF(AND(J127&lt;=Constants!F$5,J127&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q127" t="str">
+        <f>IF(AND(J127&lt;=Constants!F$6,J127&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R127" t="str">
+        <f>IF(AND(J127&lt;=Constants!F$7,J127&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S127" t="str">
+        <f>IF(P127="N","N",IF(OR((J127+Constants!D$14)&gt;Constants!F$5,(J127-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T127" t="str">
+        <f>IF(Q127="N","N",IF(OR((J127+Constants!D$14)&gt;Constants!F$6,(J127-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U127" t="str">
+        <f>IF(R127="N","N",IF(OR((J127+Constants!D$14)&gt;Constants!F$7,(J127-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC127" s="29"/>
+      <c r="AD127" s="11"/>
+      <c r="AF127" s="29"/>
+      <c r="AG127" s="11"/>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>59</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H128">
         <v>0.56399999999999995</v>
@@ -5768,13 +10289,41 @@
       <c r="N128">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P128" t="str">
+        <f>IF(AND(J128&lt;=Constants!F$5,J128&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q128" t="str">
+        <f>IF(AND(J128&lt;=Constants!F$6,J128&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R128" t="str">
+        <f>IF(AND(J128&lt;=Constants!F$7,J128&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S128" t="str">
+        <f>IF(P128="N","N",IF(OR((J128+Constants!D$14)&gt;Constants!F$5,(J128-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T128" t="str">
+        <f>IF(Q128="N","N",IF(OR((J128+Constants!D$14)&gt;Constants!F$6,(J128-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U128" t="str">
+        <f>IF(R128="N","N",IF(OR((J128+Constants!D$14)&gt;Constants!F$7,(J128-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="11"/>
+      <c r="AF128" s="29"/>
+      <c r="AG128" s="11"/>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>59</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -5783,7 +10332,7 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H129">
         <v>0.57699999999999996</v>
@@ -5803,22 +10352,50 @@
       <c r="N129">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P129" t="str">
+        <f>IF(AND(J129&lt;=Constants!F$5,J129&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q129" t="str">
+        <f>IF(AND(J129&lt;=Constants!F$6,J129&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R129" t="str">
+        <f>IF(AND(J129&lt;=Constants!F$7,J129&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S129" t="str">
+        <f>IF(P129="N","N",IF(OR((J129+Constants!D$14)&gt;Constants!F$5,(J129-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T129" t="str">
+        <f>IF(Q129="N","N",IF(OR((J129+Constants!D$14)&gt;Constants!F$6,(J129-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U129" t="str">
+        <f>IF(R129="N","N",IF(OR((J129+Constants!D$14)&gt;Constants!F$7,(J129-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC129" s="29"/>
+      <c r="AD129" s="11"/>
+      <c r="AF129" s="29"/>
+      <c r="AG129" s="11"/>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>59</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H130">
         <v>0.57199999999999995</v>
@@ -5838,22 +10415,50 @@
       <c r="N130">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P130" t="str">
+        <f>IF(AND(J130&lt;=Constants!F$5,J130&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q130" t="str">
+        <f>IF(AND(J130&lt;=Constants!F$6,J130&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R130" t="str">
+        <f>IF(AND(J130&lt;=Constants!F$7,J130&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S130" t="str">
+        <f>IF(P130="N","N",IF(OR((J130+Constants!D$14)&gt;Constants!F$5,(J130-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T130" t="str">
+        <f>IF(Q130="N","N",IF(OR((J130+Constants!D$14)&gt;Constants!F$6,(J130-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U130" t="str">
+        <f>IF(R130="N","N",IF(OR((J130+Constants!D$14)&gt;Constants!F$7,(J130-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC130" s="29"/>
+      <c r="AD130" s="11"/>
+      <c r="AF130" s="29"/>
+      <c r="AG130" s="11"/>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H131">
         <v>0.54900000000000004</v>
@@ -5873,18 +10478,333 @@
       <c r="N131">
         <v>0.43</v>
       </c>
+      <c r="P131" t="str">
+        <f>IF(AND(J131&lt;=Constants!F$5,J131&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q131" t="str">
+        <f>IF(AND(J131&lt;=Constants!F$6,J131&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R131" t="str">
+        <f>IF(AND(J131&lt;=Constants!F$7,J131&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S131" t="str">
+        <f>IF(P131="N","N",IF(OR((J131+Constants!D$14)&gt;Constants!F$5,(J131-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T131" t="str">
+        <f>IF(Q131="N","N",IF(OR((J131+Constants!D$14)&gt;Constants!F$6,(J131-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U131" t="str">
+        <f>IF(R131="N","N",IF(OR((J131+Constants!D$14)&gt;Constants!F$7,(J131-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="AC131" s="29"/>
+      <c r="AD131" s="11"/>
+      <c r="AF131" s="29"/>
+      <c r="AG131" s="11"/>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC132" s="29"/>
+      <c r="AD132" s="11"/>
+      <c r="AF132" s="29"/>
+      <c r="AG132" s="11"/>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC133" s="29"/>
+      <c r="AD133" s="11"/>
+      <c r="AF133" s="29"/>
+      <c r="AG133" s="11"/>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC134" s="29"/>
+      <c r="AD134" s="11"/>
+      <c r="AF134" s="29"/>
+      <c r="AG134" s="11"/>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC135" s="29"/>
+      <c r="AD135" s="11"/>
+      <c r="AF135" s="29"/>
+      <c r="AG135" s="11"/>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC136" s="29"/>
+      <c r="AD136" s="11"/>
+      <c r="AF136" s="29"/>
+      <c r="AG136" s="11"/>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC137" s="29"/>
+      <c r="AD137" s="11"/>
+      <c r="AF137" s="29"/>
+      <c r="AG137" s="11"/>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC138" s="29"/>
+      <c r="AD138" s="11"/>
+      <c r="AF138" s="29"/>
+      <c r="AG138" s="11"/>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC139" s="29"/>
+      <c r="AD139" s="11"/>
+      <c r="AF139" s="29"/>
+      <c r="AG139" s="11"/>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC140" s="29"/>
+      <c r="AD140" s="11"/>
+      <c r="AF140" s="29"/>
+      <c r="AG140" s="11"/>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC141" s="29"/>
+      <c r="AD141" s="11"/>
+      <c r="AF141" s="29"/>
+      <c r="AG141" s="11"/>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC142" s="29"/>
+      <c r="AD142" s="11"/>
+      <c r="AF142" s="29"/>
+      <c r="AG142" s="11"/>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC143" s="29"/>
+      <c r="AD143" s="11"/>
+      <c r="AF143" s="29"/>
+      <c r="AG143" s="11"/>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC144" s="29"/>
+      <c r="AD144" s="11"/>
+      <c r="AF144" s="29"/>
+      <c r="AG144" s="11"/>
+    </row>
+    <row r="145" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC145" s="29"/>
+      <c r="AD145" s="11"/>
+      <c r="AF145" s="29"/>
+      <c r="AG145" s="11"/>
+    </row>
+    <row r="146" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC146" s="29"/>
+      <c r="AD146" s="11"/>
+      <c r="AF146" s="29"/>
+      <c r="AG146" s="11"/>
+    </row>
+    <row r="147" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC147" s="29"/>
+      <c r="AD147" s="11"/>
+      <c r="AF147" s="29"/>
+      <c r="AG147" s="11"/>
+    </row>
+    <row r="148" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC148" s="29"/>
+      <c r="AD148" s="11"/>
+      <c r="AF148" s="29"/>
+      <c r="AG148" s="11"/>
+    </row>
+    <row r="149" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC149" s="29"/>
+      <c r="AD149" s="11"/>
+      <c r="AF149" s="29"/>
+      <c r="AG149" s="11"/>
+    </row>
+    <row r="150" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC150" s="29"/>
+      <c r="AD150" s="11"/>
+      <c r="AF150" s="29"/>
+      <c r="AG150" s="11"/>
+    </row>
+    <row r="151" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC151" s="29"/>
+      <c r="AD151" s="11"/>
+      <c r="AF151" s="29"/>
+      <c r="AG151" s="11"/>
+    </row>
+    <row r="152" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC152" s="29"/>
+      <c r="AD152" s="11"/>
+      <c r="AF152" s="29"/>
+      <c r="AG152" s="11"/>
+    </row>
+    <row r="153" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC153" s="29"/>
+      <c r="AD153" s="11"/>
+      <c r="AF153" s="29"/>
+      <c r="AG153" s="11"/>
+    </row>
+    <row r="154" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC154" s="29"/>
+      <c r="AD154" s="11"/>
+      <c r="AF154" s="29"/>
+      <c r="AG154" s="11"/>
+    </row>
+    <row r="155" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC155" s="29"/>
+      <c r="AD155" s="11"/>
+      <c r="AF155" s="29"/>
+      <c r="AG155" s="11"/>
+    </row>
+    <row r="156" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC156" s="29"/>
+      <c r="AD156" s="11"/>
+      <c r="AF156" s="29"/>
+      <c r="AG156" s="11"/>
+    </row>
+    <row r="157" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC157" s="29"/>
+      <c r="AD157" s="11"/>
+      <c r="AF157" s="29"/>
+      <c r="AG157" s="11"/>
+    </row>
+    <row r="158" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC158" s="29"/>
+      <c r="AD158" s="11"/>
+      <c r="AF158" s="29"/>
+      <c r="AG158" s="11"/>
+    </row>
+    <row r="159" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC159" s="29"/>
+      <c r="AD159" s="11"/>
+      <c r="AF159" s="29"/>
+      <c r="AG159" s="11"/>
+    </row>
+    <row r="160" spans="29:33" x14ac:dyDescent="0.25">
+      <c r="AC160" s="29"/>
+      <c r="AD160" s="11"/>
+      <c r="AF160" s="29"/>
+      <c r="AG160" s="11"/>
+    </row>
+    <row r="161" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC161" s="29"/>
+      <c r="AD161" s="11"/>
+      <c r="AF161" s="29"/>
+      <c r="AG161" s="11"/>
+    </row>
+    <row r="162" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC162" s="29"/>
+      <c r="AD162" s="11"/>
+      <c r="AF162" s="29"/>
+      <c r="AG162" s="11"/>
+    </row>
+    <row r="163" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC163" s="29"/>
+      <c r="AD163" s="11"/>
+      <c r="AF163" s="29"/>
+      <c r="AG163" s="11"/>
+    </row>
+    <row r="164" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC164" s="29"/>
+      <c r="AD164" s="11"/>
+      <c r="AF164" s="29"/>
+      <c r="AG164" s="11"/>
+    </row>
+    <row r="165" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC165" s="29"/>
+      <c r="AD165" s="11"/>
+      <c r="AF165" s="29"/>
+      <c r="AG165" s="11"/>
+    </row>
+    <row r="166" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC166" s="29"/>
+      <c r="AD166" s="11"/>
+      <c r="AF166" s="29"/>
+      <c r="AG166" s="11"/>
+    </row>
+    <row r="167" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC167" s="29"/>
+      <c r="AD167" s="11"/>
+      <c r="AF167" s="29"/>
+      <c r="AG167" s="11"/>
+    </row>
+    <row r="168" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC168" s="29"/>
+      <c r="AD168" s="11"/>
+      <c r="AF168" s="29"/>
+      <c r="AG168" s="11"/>
+    </row>
+    <row r="169" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC169" s="29"/>
+      <c r="AD169" s="11"/>
+      <c r="AE169" s="5"/>
+      <c r="AF169" s="29"/>
+      <c r="AG169" s="11"/>
+      <c r="AH169" s="5"/>
+      <c r="AI169" s="5"/>
+    </row>
+    <row r="170" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC170" s="29"/>
+      <c r="AD170" s="11"/>
+      <c r="AE170" s="5"/>
+      <c r="AF170" s="29"/>
+      <c r="AG170" s="11"/>
+      <c r="AH170" s="5"/>
+      <c r="AI170" s="5"/>
+    </row>
+    <row r="171" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC171" s="11"/>
+      <c r="AD171" s="11"/>
+      <c r="AE171" s="5"/>
+      <c r="AF171" s="11"/>
+      <c r="AG171" s="11"/>
+      <c r="AH171" s="5"/>
+      <c r="AI171" s="5"/>
+    </row>
+    <row r="172" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC172" s="5"/>
+      <c r="AD172" s="5"/>
+      <c r="AE172" s="5"/>
+      <c r="AF172" s="5"/>
+      <c r="AG172" s="5"/>
+      <c r="AH172" s="5"/>
+      <c r="AI172" s="5"/>
+    </row>
+    <row r="173" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC173" s="5"/>
+      <c r="AD173" s="5"/>
+      <c r="AE173" s="5"/>
+      <c r="AF173" s="5"/>
+      <c r="AG173" s="5"/>
+      <c r="AH173" s="5"/>
+      <c r="AI173" s="5"/>
+    </row>
+    <row r="174" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC174" s="5"/>
+      <c r="AD174" s="5"/>
+      <c r="AE174" s="5"/>
+      <c r="AF174" s="5"/>
+      <c r="AG174" s="5"/>
+      <c r="AH174" s="5"/>
+      <c r="AI174" s="5"/>
+    </row>
+    <row r="175" spans="29:35" x14ac:dyDescent="0.25">
+      <c r="AC175" s="5"/>
+      <c r="AD175" s="5"/>
+      <c r="AE175" s="5"/>
+      <c r="AF175" s="5"/>
+      <c r="AG175" s="5"/>
+      <c r="AH175" s="5"/>
+      <c r="AI175" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="V19:V34">
-    <sortCondition ref="V19"/>
+  <sortState ref="AC19:AC50">
+    <sortCondition ref="AC19"/>
   </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="S17:T17"/>
+  <mergeCells count="8">
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="L17:N17"/>
-    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="AC17:AD17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brghena\Dropbox\repos\powerblade\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="1"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="204">
   <si>
     <t>Plug</t>
   </si>
@@ -526,12 +531,117 @@
   </si>
   <si>
     <t>Devices that work on the #5 model:</t>
+  </si>
+  <si>
+    <t>BBB 4901</t>
+  </si>
+  <si>
+    <t>Belkin Power Strip</t>
+  </si>
+  <si>
+    <t>Projector</t>
+  </si>
+  <si>
+    <t>1929 Plymouth</t>
+  </si>
+  <si>
+    <t>Rice Cooker</t>
+  </si>
+  <si>
+    <t>Sony AC Adapter</t>
+  </si>
+  <si>
+    <t>Macbook Charger</t>
+  </si>
+  <si>
+    <t>Stand Mixer</t>
+  </si>
+  <si>
+    <t>Tall Lamp</t>
+  </si>
+  <si>
+    <t>Left Power Strip</t>
+  </si>
+  <si>
+    <t>Blu Charger</t>
+  </si>
+  <si>
+    <t>Chromecast</t>
+  </si>
+  <si>
+    <t>Gamecube</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>External HD</t>
+  </si>
+  <si>
+    <t>Sound Adapter</t>
+  </si>
+  <si>
+    <t>Right Power Strip</t>
+  </si>
+  <si>
+    <t>Cable Modem</t>
+  </si>
+  <si>
+    <t>WiFi Router</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Phone Charger</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Alarm Clock</t>
+  </si>
+  <si>
+    <t>Wemo Hub</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Trimmer</t>
+  </si>
+  <si>
+    <t>Shaver</t>
+  </si>
+  <si>
+    <t>Extension Cord</t>
+  </si>
+  <si>
+    <t>Gold Lamp</t>
+  </si>
+  <si>
+    <t>Slow Cooker</t>
+  </si>
+  <si>
+    <t>OLD DATA</t>
+  </si>
+  <si>
+    <t>Less</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,12 +667,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -785,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -803,22 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -848,9 +955,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -869,6 +973,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,6 +1022,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -940,7 +1087,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$AC$19:$AC$50</c:f>
+              <c:f>Data!$AC$20:$AC$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1045,7 +1192,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$19:$AG$50</c:f>
+              <c:f>Data!$AG$20:$AG$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1101,40 +1248,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -1166,7 +1313,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$AC$19:$AC$50</c:f>
+              <c:f>Data!$AC$20:$AC$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1271,39 +1418,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$19:$AD$50</c:f>
+              <c:f>Data!$AD$20:$AD$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1384,11 +1531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53409664"/>
-        <c:axId val="56906496"/>
+        <c:axId val="345737504"/>
+        <c:axId val="345741424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53409664"/>
+        <c:axId val="345737504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56906496"/>
+        <c:crossAx val="345741424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1425,7 +1572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56906496"/>
+        <c:axId val="345741424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53409664"/>
+        <c:crossAx val="345737504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1554,7 +1701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1589,7 +1736,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1817,14 +1964,14 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="J2" s="16" t="s">
+      <c r="F2" s="42"/>
+      <c r="J2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1833,13 +1980,13 @@
       <c r="C3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="29" t="s">
         <v>149</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1856,7 +2003,7 @@
       <c r="C4" s="5">
         <v>0.378</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <f>C4-0.29</f>
         <v>8.8000000000000023E-2</v>
       </c>
@@ -1870,7 +2017,7 @@
       </c>
       <c r="J4" s="7">
         <f>MAX(Data!AA19:AA1000)</f>
-        <v>73.499999999999957</v>
+        <v>76.000000000000014</v>
       </c>
       <c r="K4" s="9">
         <f>MIN(Data!Z19:Z1000)</f>
@@ -1884,7 +2031,7 @@
       <c r="C5" s="5">
         <v>0.378</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <f>C5-0.29</f>
         <v>8.8000000000000023E-2</v>
       </c>
@@ -1904,7 +2051,7 @@
       <c r="C6" s="5">
         <v>0.373</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <f>C6-0.29</f>
         <v>8.3000000000000018E-2</v>
       </c>
@@ -1918,13 +2065,13 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="32">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <f>C7-0.29</f>
         <v>7.6000000000000012E-2</v>
       </c>
@@ -1949,17 +2096,17 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34">
         <f>COUNT(Data!J19:J1000)</f>
-        <v>113</v>
-      </c>
-      <c r="M9" s="41"/>
+        <v>147</v>
+      </c>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -1970,12 +2117,12 @@
         <v>2E-3</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="43"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
@@ -1987,14 +2134,14 @@
       <c r="D11" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="H11" s="42"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="37" t="s">
         <v>159</v>
       </c>
       <c r="N11" s="5"/>
@@ -2009,7 +2156,7 @@
         <f>D9-D11</f>
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="36" t="s">
         <v>161</v>
       </c>
       <c r="I12" s="5"/>
@@ -2017,11 +2164,11 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5">
         <f>COUNTIF(Data!P19:P1000,"Y")</f>
-        <v>39</v>
-      </c>
-      <c r="M12" s="43">
+        <v>43</v>
+      </c>
+      <c r="M12" s="37">
         <f>COUNTIF(Data!P19:P1000,"N")</f>
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -2030,7 +2177,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="36" t="s">
         <v>162</v>
       </c>
       <c r="I13" s="5"/>
@@ -2038,39 +2185,39 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5">
         <f>COUNTIF(Data!S19:S1000,"Good")</f>
-        <v>9</v>
-      </c>
-      <c r="M13" s="43">
+        <v>10</v>
+      </c>
+      <c r="M13" s="37">
         <f>L9-L13</f>
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="36">
+      <c r="C14" s="21"/>
+      <c r="D14" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="43"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H15" s="42"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
@@ -2079,10 +2226,10 @@
         <v>70</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="27">
+      <c r="D16" s="22">
         <v>0.41</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="36" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="5"/>
@@ -2090,11 +2237,11 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5">
         <f>COUNTIF(Data!Q19:Q1000,"Y")</f>
-        <v>101</v>
-      </c>
-      <c r="M16" s="43">
+        <v>128</v>
+      </c>
+      <c r="M16" s="37">
         <f>COUNTIF(Data!Q19:Q1000,"N")</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -2102,10 +2249,10 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="22">
+      <c r="D17" s="17">
         <v>0.41499999999999998</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="36" t="s">
         <v>164</v>
       </c>
       <c r="I17" s="5"/>
@@ -2113,11 +2260,11 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5">
         <f>COUNTIF(Data!T19:T1000,"Good")</f>
-        <v>75</v>
-      </c>
-      <c r="M17" s="43">
+        <v>95</v>
+      </c>
+      <c r="M17" s="37">
         <f>L9-L17</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -2125,25 +2272,25 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="22">
+      <c r="D18" s="17">
         <v>0.42</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="43"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="22">
+      <c r="C19" s="27"/>
+      <c r="D19" s="17">
         <v>0.42499999999999999</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="36" t="s">
         <v>169</v>
       </c>
       <c r="I19" s="5"/>
@@ -2151,42 +2298,42 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5">
         <f>COUNTIF(Data!R19:R1000,"Y")</f>
-        <v>112</v>
-      </c>
-      <c r="M19" s="43">
+        <v>144</v>
+      </c>
+      <c r="M19" s="37">
         <f>COUNTIF(Data!R19:R1000,"N")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="22">
+      <c r="C20" s="27"/>
+      <c r="D20" s="17">
         <v>0.43</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45">
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39">
         <f>COUNTIF(Data!U19:U1000,"Good")</f>
-        <v>112</v>
-      </c>
-      <c r="M20" s="46">
+        <v>143</v>
+      </c>
+      <c r="M20" s="40">
         <f>L9-L20</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="22">
+      <c r="C21" s="27"/>
+      <c r="D21" s="17">
         <v>0.435</v>
       </c>
       <c r="H21" s="5"/>
@@ -2200,8 +2347,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="22">
+      <c r="C22" s="27"/>
+      <c r="D22" s="17">
         <v>0.44</v>
       </c>
       <c r="N22" s="5"/>
@@ -2210,7 +2357,7 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="22">
+      <c r="D23" s="17">
         <v>0.44500000000000001</v>
       </c>
       <c r="N23" s="5"/>
@@ -2219,7 +2366,7 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="22">
+      <c r="D24" s="17">
         <v>0.45</v>
       </c>
       <c r="N24" s="5"/>
@@ -2228,7 +2375,7 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="22">
+      <c r="D25" s="17">
         <v>0.45500000000000002</v>
       </c>
       <c r="N25" s="5"/>
@@ -2237,7 +2384,7 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="22">
+      <c r="D26" s="17">
         <v>0.46</v>
       </c>
       <c r="N26" s="12"/>
@@ -2246,7 +2393,7 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="22">
+      <c r="D27" s="17">
         <v>0.46500000000000002</v>
       </c>
       <c r="N27" s="11"/>
@@ -2255,7 +2402,7 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="22">
+      <c r="D28" s="17">
         <v>0.47</v>
       </c>
       <c r="N28" s="11"/>
@@ -2264,7 +2411,7 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="22">
+      <c r="D29" s="17">
         <v>0.47499999999999998</v>
       </c>
       <c r="N29" s="11"/>
@@ -2273,7 +2420,7 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="22">
+      <c r="D30" s="17">
         <v>0.48</v>
       </c>
       <c r="N30" s="11"/>
@@ -2282,7 +2429,7 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="22">
+      <c r="D31" s="17">
         <v>0.48499999999999999</v>
       </c>
       <c r="N31" s="11"/>
@@ -2291,7 +2438,7 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="22">
+      <c r="D32" s="17">
         <v>0.51</v>
       </c>
       <c r="N32" s="11"/>
@@ -2300,7 +2447,7 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="22">
+      <c r="D33" s="17">
         <v>0.51500000000000001</v>
       </c>
       <c r="N33" s="5"/>
@@ -2309,7 +2456,7 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="22">
+      <c r="D34" s="17">
         <v>0.52</v>
       </c>
       <c r="N34" s="5"/>
@@ -2318,7 +2465,7 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="22">
+      <c r="D35" s="17">
         <v>0.52500000000000002</v>
       </c>
       <c r="N35" s="5"/>
@@ -2327,681 +2474,681 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="22">
+      <c r="D36" s="17">
         <v>0.53</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="22">
+      <c r="D37" s="17">
         <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="22">
+      <c r="D38" s="17">
         <v>0.54</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="22">
+      <c r="D39" s="17">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="22">
+      <c r="D40" s="17">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="22">
+      <c r="D41" s="17">
         <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="22">
+      <c r="D42" s="17">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="22">
+      <c r="D43" s="17">
         <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="22">
+      <c r="D44" s="17">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="22">
+      <c r="D45" s="17">
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="22">
+      <c r="D46" s="17">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="23">
+      <c r="D47" s="18">
         <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="19"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="19"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="19"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="19"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="19"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="19"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="19"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="19"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="19"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="19"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="19"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="19"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="19"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="19"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="19"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="19"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="19"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="19"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="19"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="19"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="19"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="19"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="19"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="19"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="19"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="19"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="19"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="19"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="19"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="19"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="19"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="19"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="19"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="19"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="19"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="19"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="19"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="19"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="19"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="19"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="19"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="19"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="34"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="34"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="34"/>
+      <c r="D93" s="28"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="34"/>
+      <c r="D94" s="28"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="34"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="34"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="34"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="34"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="34"/>
+      <c r="D99" s="28"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="34"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="34"/>
+      <c r="D101" s="28"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="34"/>
+      <c r="D102" s="28"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="34"/>
+      <c r="D103" s="28"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="34"/>
+      <c r="D104" s="28"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="34"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="34"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="34"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="34"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="34"/>
+      <c r="D109" s="28"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="34"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="34"/>
+      <c r="D111" s="28"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="34"/>
+      <c r="D112" s="28"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="34"/>
+      <c r="D113" s="28"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="34"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="34"/>
+      <c r="D115" s="28"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="34"/>
+      <c r="D116" s="28"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="34"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="34"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="34"/>
+      <c r="D119" s="28"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="34"/>
+      <c r="D120" s="28"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="34"/>
+      <c r="D121" s="28"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="34"/>
+      <c r="D122" s="28"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="34"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="34"/>
+      <c r="D124" s="28"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="34"/>
+      <c r="D125" s="28"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="34"/>
+      <c r="D126" s="28"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="34"/>
+      <c r="D127" s="28"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="34"/>
+      <c r="D128" s="28"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="34"/>
+      <c r="D129" s="28"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="34"/>
+      <c r="D130" s="28"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="34"/>
+      <c r="D131" s="28"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="34"/>
+      <c r="D132" s="28"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="34"/>
+      <c r="D133" s="28"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="34"/>
+      <c r="D134" s="28"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="34"/>
+      <c r="D135" s="28"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="34"/>
+      <c r="D136" s="28"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="34"/>
+      <c r="D137" s="28"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="34"/>
+      <c r="D138" s="28"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="34"/>
+      <c r="D139" s="28"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="34"/>
+      <c r="D140" s="28"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="34"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="34"/>
+      <c r="D142" s="28"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="34"/>
+      <c r="D143" s="28"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="34"/>
+      <c r="D144" s="28"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="34"/>
+      <c r="D145" s="28"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="34"/>
+      <c r="D146" s="28"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="34"/>
+      <c r="D147" s="28"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="34"/>
+      <c r="D148" s="28"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="34"/>
+      <c r="D149" s="28"/>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="34"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="34"/>
+      <c r="D151" s="28"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="34"/>
+      <c r="D152" s="28"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="34"/>
+      <c r="D153" s="28"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="34"/>
+      <c r="D154" s="28"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="34"/>
+      <c r="D155" s="28"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="34"/>
+      <c r="D156" s="28"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="34"/>
+      <c r="D157" s="28"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="34"/>
+      <c r="D158" s="28"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="34"/>
+      <c r="D159" s="28"/>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="34"/>
+      <c r="D160" s="28"/>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="34"/>
+      <c r="D161" s="28"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="34"/>
+      <c r="D162" s="28"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="34"/>
+      <c r="D163" s="28"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="34"/>
+      <c r="D164" s="28"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="34"/>
+      <c r="D165" s="28"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="34"/>
+      <c r="D166" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3015,12 +3162,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17:AI175"/>
+  <dimension ref="A17:AM176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,138 +3188,163 @@
     <col min="26" max="27" width="10.7109375" customWidth="1"/>
     <col min="28" max="28" width="1.42578125" customWidth="1"/>
     <col min="31" max="31" width="1.42578125" customWidth="1"/>
+    <col min="37" max="37" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18" t="s">
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="18" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="18" t="s">
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18" t="s">
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="18" t="s">
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="18" t="s">
+      <c r="X17" s="45"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AA17" s="18"/>
-      <c r="AC17" s="32" t="s">
+      <c r="AA17" s="45"/>
+      <c r="AC17" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" s="32"/>
-      <c r="AF17" s="13" t="s">
+      <c r="AD17" s="46"/>
+      <c r="AF17" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="AG17" s="13"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="AG17" s="44"/>
+      <c r="AI17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL17" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM17" s="53"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17" t="s">
+      <c r="O18" s="13"/>
+      <c r="P18" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="S18" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="T18" s="17" t="s">
+      <c r="T18" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="U18" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="W18" s="17" t="s">
+      <c r="W18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17" t="s">
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AA18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AC18" s="31" t="s">
+      <c r="AC18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AD18" s="31" t="s">
+      <c r="AD18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" s="31" t="s">
+      <c r="AF18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AG18" s="31" t="s">
+      <c r="AG18" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI18" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ18" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM18" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3212,7 +3384,7 @@
         <f>IF(R19="N","N",IF(OR((J19+Constants!D$14)&gt;Constants!F$7,(J19-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V19" s="28"/>
+      <c r="V19" s="23"/>
       <c r="W19">
         <f>J19/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
@@ -3222,27 +3394,42 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="Z19">
-        <f>1000*(W19-0.29)</f>
+        <f t="shared" ref="Z19:Z53" si="0">1000*(W19-0.29)</f>
         <v>83.000000000000014</v>
       </c>
       <c r="AA19">
-        <f>1000*(X19-0.29)</f>
+        <f t="shared" ref="AA19:AA53" si="1">1000*(X19-0.29)</f>
         <v>64</v>
       </c>
-      <c r="AC19" s="29">
+      <c r="AC19" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD19" s="11">
+        <f>COUNTIF($N$19:$N$165, "&lt;0.41")</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG19" s="50">
+        <f>COUNTIF($J$19:$J$165, "&lt;0.41")</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="56">
         <v>0.41</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AJ19" s="57">
         <v>0</v>
       </c>
-      <c r="AF19" s="29">
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="56">
         <v>0.41</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AM19" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3282,7 +3469,7 @@
         <f>IF(R20="N","N",IF(OR((J20+Constants!D$14)&gt;Constants!F$7,(J20-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>N</v>
       </c>
-      <c r="V20" s="28"/>
+      <c r="V20" s="23"/>
       <c r="W20">
         <f>J20/2+Constants!D$9-Constants!D$10</f>
         <v>0.35750000000000004</v>
@@ -3292,27 +3479,42 @@
         <v>0.35350000000000004</v>
       </c>
       <c r="Z20">
-        <f>1000*(W20-0.29)</f>
+        <f t="shared" si="0"/>
         <v>67.500000000000057</v>
       </c>
       <c r="AA20">
-        <f>1000*(X20-0.29)</f>
+        <f t="shared" si="1"/>
         <v>63.500000000000057</v>
       </c>
-      <c r="AC20" s="29">
+      <c r="AC20" s="24">
+        <v>0.41</v>
+      </c>
+      <c r="AD20" s="11">
+        <f>COUNTIF($N$19:$N$165, "&gt;="&amp;$AC20)-COUNTIF($N$19:$N$165,"&gt;="&amp;$AC21)</f>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="24">
+        <v>0.41</v>
+      </c>
+      <c r="AG20" s="11">
+        <f>COUNTIF($J$19:$J$165, "&gt;="&amp;$AC20)-COUNTIF($J$19:$J$165,"&gt;="&amp;$AC21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="56">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AJ20" s="57">
         <v>1</v>
       </c>
-      <c r="AF20" s="29">
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="56">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AM20" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3352,7 +3554,7 @@
         <f>IF(R21="N","N",IF(OR((J21+Constants!D$14)&gt;Constants!F$7,(J21-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V21" s="28"/>
+      <c r="V21" s="23"/>
       <c r="W21">
         <f>J21/2+Constants!D$9-Constants!D$10</f>
         <v>0.37350000000000005</v>
@@ -3362,27 +3564,42 @@
         <v>0.35350000000000004</v>
       </c>
       <c r="Z21">
-        <f>1000*(W21-0.29)</f>
+        <f t="shared" si="0"/>
         <v>83.500000000000071</v>
       </c>
       <c r="AA21">
-        <f>1000*(X21-0.29)</f>
+        <f t="shared" si="1"/>
         <v>63.500000000000057</v>
       </c>
-      <c r="AC21" s="29">
+      <c r="AC21" s="24">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AD21" s="11">
+        <f t="shared" ref="AD21:AD50" si="2">COUNTIF($N$19:$N$165, "&gt;="&amp;$AC21)-COUNTIF($N$19:$N$165,"&gt;="&amp;$AC22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="24">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AG21" s="11">
+        <f t="shared" ref="AG21:AG50" si="3">COUNTIF($J$19:$J$165, "&gt;="&amp;$AC21)-COUNTIF($J$19:$J$165,"&gt;="&amp;$AC22)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="56">
         <v>0.42</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AJ21" s="57">
         <v>0</v>
       </c>
-      <c r="AF21" s="29">
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="56">
         <v>0.42</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AM21" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3422,7 +3639,7 @@
         <f>IF(R22="N","N",IF(OR((J22+Constants!D$14)&gt;Constants!F$7,(J22-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V22" s="28"/>
+      <c r="V22" s="23"/>
       <c r="W22">
         <f>J22/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
@@ -3432,27 +3649,42 @@
         <v>0.35849999999999993</v>
       </c>
       <c r="Z22">
-        <f>1000*(W22-0.29)</f>
+        <f t="shared" si="0"/>
         <v>85.500000000000071</v>
       </c>
       <c r="AA22">
-        <f>1000*(X22-0.29)</f>
+        <f t="shared" si="1"/>
         <v>68.499999999999943</v>
       </c>
-      <c r="AC22" s="29">
+      <c r="AC22" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="AD22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="AG22" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="56">
         <v>0.42499999999999999</v>
       </c>
-      <c r="AD22" s="11">
+      <c r="AJ22" s="57">
         <v>1</v>
       </c>
-      <c r="AF22" s="29">
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="56">
         <v>0.42499999999999999</v>
       </c>
-      <c r="AG22" s="11">
+      <c r="AM22" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3492,7 +3724,7 @@
         <f>IF(R23="N","N",IF(OR((J23+Constants!D$14)&gt;Constants!F$7,(J23-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V23" s="28"/>
+      <c r="V23" s="23"/>
       <c r="W23">
         <f>J23/2+Constants!D$9-Constants!D$10</f>
         <v>0.38149999999999995</v>
@@ -3502,27 +3734,42 @@
         <v>0.35949999999999993</v>
       </c>
       <c r="Z23">
-        <f>1000*(W23-0.29)</f>
+        <f t="shared" si="0"/>
         <v>91.499999999999972</v>
       </c>
       <c r="AA23">
-        <f>1000*(X23-0.29)</f>
+        <f t="shared" si="1"/>
         <v>69.499999999999957</v>
       </c>
-      <c r="AC23" s="29">
+      <c r="AC23" s="24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AD23" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AF23" s="24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AG23" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="56">
         <v>0.43</v>
       </c>
-      <c r="AD23" s="11">
+      <c r="AJ23" s="57">
         <v>9</v>
       </c>
-      <c r="AF23" s="29">
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="56">
         <v>0.43</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AM23" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3562,7 +3809,7 @@
         <f>IF(R24="N","N",IF(OR((J24+Constants!D$14)&gt;Constants!F$7,(J24-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V24" s="28"/>
+      <c r="V24" s="23"/>
       <c r="W24">
         <f>J24/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
@@ -3572,27 +3819,42 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="Z24">
-        <f>1000*(W24-0.29)</f>
+        <f t="shared" si="0"/>
         <v>85.500000000000071</v>
       </c>
       <c r="AA24">
-        <f>1000*(X24-0.29)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="AC24" s="29">
+      <c r="AC24" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="AD24" s="11">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AF24" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="AG24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="56">
         <v>0.435</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AJ24" s="57">
         <v>10</v>
       </c>
-      <c r="AF24" s="29">
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="56">
         <v>0.435</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AM24" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3632,7 +3894,7 @@
         <f>IF(R25="N","N",IF(OR((J25+Constants!D$14)&gt;Constants!F$7,(J25-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V25" s="28"/>
+      <c r="V25" s="23"/>
       <c r="W25">
         <f>J25/2+Constants!D$9-Constants!D$10</f>
         <v>0.378</v>
@@ -3642,27 +3904,42 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="Z25">
-        <f>1000*(W25-0.29)</f>
+        <f t="shared" si="0"/>
         <v>88.000000000000028</v>
       </c>
       <c r="AA25">
-        <f>1000*(X25-0.29)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="AC25" s="29">
+      <c r="AC25" s="24">
+        <v>0.435</v>
+      </c>
+      <c r="AD25" s="11">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AF25" s="24">
+        <v>0.435</v>
+      </c>
+      <c r="AG25" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="56">
         <v>0.44</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AJ25" s="57">
         <v>30</v>
       </c>
-      <c r="AF25" s="29">
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="56">
         <v>0.44</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AM25" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3702,7 +3979,7 @@
         <f>IF(R26="N","N",IF(OR((J26+Constants!D$14)&gt;Constants!F$7,(J26-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V26" s="28"/>
+      <c r="V26" s="23"/>
       <c r="W26">
         <f>J26/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
@@ -3712,27 +3989,42 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="Z26">
-        <f>1000*(W26-0.29)</f>
+        <f t="shared" si="0"/>
         <v>83.000000000000014</v>
       </c>
       <c r="AA26">
-        <f>1000*(X26-0.29)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="AC26" s="29">
+      <c r="AC26" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="AD26" s="11">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="AF26" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="56">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AD26" s="11">
+      <c r="AJ26" s="57">
         <v>20</v>
       </c>
-      <c r="AF26" s="29">
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="56">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AG26" s="11">
+      <c r="AM26" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -3772,7 +4064,7 @@
         <f>IF(R27="N","N",IF(OR((J27+Constants!D$14)&gt;Constants!F$7,(J27-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V27" s="28"/>
+      <c r="V27" s="23"/>
       <c r="W27">
         <f>J27/2+Constants!D$9-Constants!D$10</f>
         <v>0.376</v>
@@ -3782,27 +4074,42 @@
         <v>0.35450000000000004</v>
       </c>
       <c r="Z27">
-        <f>1000*(W27-0.29)</f>
+        <f t="shared" si="0"/>
         <v>86.000000000000014</v>
       </c>
       <c r="AA27">
-        <f>1000*(X27-0.29)</f>
+        <f t="shared" si="1"/>
         <v>64.500000000000057</v>
       </c>
-      <c r="AC27" s="29">
+      <c r="AC27" s="24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AD27" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AF27" s="24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AG27" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="56">
         <v>0.45</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AJ27" s="57">
         <v>5</v>
       </c>
-      <c r="AF27" s="29">
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="56">
         <v>0.45</v>
       </c>
-      <c r="AG27" s="11">
+      <c r="AM27" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3842,7 +4149,7 @@
         <f>IF(R28="N","N",IF(OR((J28+Constants!D$14)&gt;Constants!F$7,(J28-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V28" s="28"/>
+      <c r="V28" s="23"/>
       <c r="W28">
         <f>J28/2+Constants!D$9-Constants!D$10</f>
         <v>0.38049999999999995</v>
@@ -3852,27 +4159,42 @@
         <v>0.35849999999999993</v>
       </c>
       <c r="Z28">
-        <f>1000*(W28-0.29)</f>
+        <f t="shared" si="0"/>
         <v>90.499999999999972</v>
       </c>
       <c r="AA28">
-        <f>1000*(X28-0.29)</f>
+        <f t="shared" si="1"/>
         <v>68.499999999999943</v>
       </c>
-      <c r="AC28" s="29">
+      <c r="AC28" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="AD28" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF28" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="AG28" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="56">
         <v>0.45500000000000002</v>
       </c>
-      <c r="AD28" s="11">
+      <c r="AJ28" s="57">
         <v>1</v>
       </c>
-      <c r="AF28" s="29">
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="56">
         <v>0.45500000000000002</v>
       </c>
-      <c r="AG28" s="11">
+      <c r="AM28" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3912,7 +4234,7 @@
         <f>IF(R29="N","N",IF(OR((J29+Constants!D$14)&gt;Constants!F$7,(J29-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V29" s="28"/>
+      <c r="V29" s="23"/>
       <c r="W29">
         <f>J29/2+Constants!D$9-Constants!D$10</f>
         <v>0.376</v>
@@ -3922,27 +4244,42 @@
         <v>0.36349999999999993</v>
       </c>
       <c r="Z29">
-        <f>1000*(W29-0.29)</f>
+        <f t="shared" si="0"/>
         <v>86.000000000000014</v>
       </c>
       <c r="AA29">
-        <f>1000*(X29-0.29)</f>
+        <f t="shared" si="1"/>
         <v>73.499999999999957</v>
       </c>
-      <c r="AC29" s="29">
+      <c r="AC29" s="24">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AD29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="24">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AG29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="56">
         <v>0.46</v>
       </c>
-      <c r="AD29" s="11">
+      <c r="AJ29" s="57">
         <v>0</v>
       </c>
-      <c r="AF29" s="29">
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="56">
         <v>0.46</v>
       </c>
-      <c r="AG29" s="11">
+      <c r="AM29" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3982,7 +4319,7 @@
         <f>IF(R30="N","N",IF(OR((J30+Constants!D$14)&gt;Constants!F$7,(J30-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V30" s="28"/>
+      <c r="V30" s="23"/>
       <c r="W30">
         <f>J30/2+Constants!D$9-Constants!D$10</f>
         <v>0.378</v>
@@ -3992,27 +4329,42 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="Z30">
-        <f>1000*(W30-0.29)</f>
+        <f t="shared" si="0"/>
         <v>88.000000000000028</v>
       </c>
       <c r="AA30">
-        <f>1000*(X30-0.29)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="AC30" s="29">
+      <c r="AC30" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="AD30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="AG30" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="56">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AD30" s="11">
+      <c r="AJ30" s="57">
         <v>0</v>
       </c>
-      <c r="AF30" s="29">
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="56">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AG30" s="11">
+      <c r="AM30" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4052,7 +4404,7 @@
         <f>IF(R31="N","N",IF(OR((J31+Constants!D$14)&gt;Constants!F$7,(J31-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V31" s="28"/>
+      <c r="V31" s="23"/>
       <c r="W31">
         <f>J31/2+Constants!D$9-Constants!D$10</f>
         <v>0.37750000000000006</v>
@@ -4062,27 +4414,42 @@
         <v>0.35550000000000004</v>
       </c>
       <c r="Z31">
-        <f>1000*(W31-0.29)</f>
+        <f t="shared" si="0"/>
         <v>87.500000000000071</v>
       </c>
       <c r="AA31">
-        <f>1000*(X31-0.29)</f>
+        <f t="shared" si="1"/>
         <v>65.500000000000057</v>
       </c>
-      <c r="AC31" s="29">
+      <c r="AC31" s="24">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AD31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="24">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AG31" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="56">
         <v>0.47</v>
       </c>
-      <c r="AD31" s="11">
+      <c r="AJ31" s="57">
         <v>0</v>
       </c>
-      <c r="AF31" s="29">
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="56">
         <v>0.47</v>
       </c>
-      <c r="AG31" s="11">
+      <c r="AM31" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4122,7 +4489,7 @@
         <f>IF(R32="N","N",IF(OR((J32+Constants!D$14)&gt;Constants!F$7,(J32-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V32" s="28"/>
+      <c r="V32" s="23"/>
       <c r="W32">
         <f>J32/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
@@ -4132,27 +4499,42 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="Z32">
-        <f>1000*(W32-0.29)</f>
+        <f t="shared" si="0"/>
         <v>83.000000000000014</v>
       </c>
       <c r="AA32">
-        <f>1000*(X32-0.29)</f>
+        <f t="shared" si="1"/>
         <v>71.000000000000014</v>
       </c>
-      <c r="AC32" s="29">
+      <c r="AC32" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="AD32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="AG32" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="56">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AJ32" s="57">
         <v>0</v>
       </c>
-      <c r="AF32" s="29">
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="56">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AG32" s="11">
+      <c r="AM32" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4192,7 +4574,7 @@
         <f>IF(R33="N","N",IF(OR((J33+Constants!D$14)&gt;Constants!F$7,(J33-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V33" s="28"/>
+      <c r="V33" s="23"/>
       <c r="W33">
         <f>J33/2+Constants!D$9-Constants!D$10</f>
         <v>0.373</v>
@@ -4202,27 +4584,42 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="Z33">
-        <f>1000*(W33-0.29)</f>
+        <f t="shared" si="0"/>
         <v>83.000000000000014</v>
       </c>
       <c r="AA33">
-        <f>1000*(X33-0.29)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="AC33" s="29">
+      <c r="AC33" s="24">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AD33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="24">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AG33" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="56">
         <v>0.48</v>
       </c>
-      <c r="AD33" s="11">
+      <c r="AJ33" s="57">
         <v>0</v>
       </c>
-      <c r="AF33" s="29">
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="56">
         <v>0.48</v>
       </c>
-      <c r="AG33" s="11">
+      <c r="AM33" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4262,7 +4659,7 @@
         <f>IF(R34="N","N",IF(OR((J34+Constants!D$14)&gt;Constants!F$7,(J34-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V34" s="28"/>
+      <c r="V34" s="23"/>
       <c r="W34">
         <f>J34/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
@@ -4272,27 +4669,42 @@
         <v>0.35350000000000004</v>
       </c>
       <c r="Z34">
-        <f>1000*(W34-0.29)</f>
+        <f t="shared" si="0"/>
         <v>85.500000000000071</v>
       </c>
       <c r="AA34">
-        <f>1000*(X34-0.29)</f>
+        <f t="shared" si="1"/>
         <v>63.500000000000057</v>
       </c>
-      <c r="AC34" s="29">
+      <c r="AC34" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="AD34" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="AG34" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="56">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AD34" s="11">
+      <c r="AJ34" s="57">
         <v>0</v>
       </c>
-      <c r="AF34" s="29">
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="56">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AG34" s="11">
+      <c r="AM34" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4332,7 +4744,7 @@
         <f>IF(R35="N","N",IF(OR((J35+Constants!D$14)&gt;Constants!F$7,(J35-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V35" s="28"/>
+      <c r="V35" s="23"/>
       <c r="W35">
         <f>J35/2+Constants!D$9-Constants!D$10</f>
         <v>0.37850000000000006</v>
@@ -4342,27 +4754,42 @@
         <v>0.35749999999999993</v>
       </c>
       <c r="Z35">
-        <f>1000*(W35-0.29)</f>
+        <f t="shared" si="0"/>
         <v>88.500000000000085</v>
       </c>
       <c r="AA35">
-        <f>1000*(X35-0.29)</f>
+        <f t="shared" si="1"/>
         <v>67.499999999999943</v>
       </c>
-      <c r="AC35" s="29">
+      <c r="AC35" s="24">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AD35" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="24">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AG35" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="56">
         <v>0.51</v>
       </c>
-      <c r="AD35" s="11">
+      <c r="AJ35" s="57">
         <v>0</v>
       </c>
-      <c r="AF35" s="29">
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="56">
         <v>0.51</v>
       </c>
-      <c r="AG35" s="11">
+      <c r="AM35" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +4829,7 @@
         <f>IF(R36="N","N",IF(OR((J36+Constants!D$14)&gt;Constants!F$7,(J36-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V36" s="28"/>
+      <c r="V36" s="23"/>
       <c r="W36">
         <f>J36/2+Constants!D$9-Constants!D$10</f>
         <v>0.379</v>
@@ -4412,27 +4839,42 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="Z36">
-        <f>1000*(W36-0.29)</f>
+        <f t="shared" si="0"/>
         <v>89.000000000000028</v>
       </c>
       <c r="AA36">
-        <f>1000*(X36-0.29)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="AC36" s="29">
+      <c r="AC36" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="AD36" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="AG36" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="56">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AD36" s="11">
+      <c r="AJ36" s="57">
         <v>0</v>
       </c>
-      <c r="AF36" s="29">
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="56">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AG36" s="11">
+      <c r="AM36" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4472,7 +4914,7 @@
         <f>IF(R37="N","N",IF(OR((J37+Constants!D$14)&gt;Constants!F$7,(J37-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V37" s="28"/>
+      <c r="V37" s="23"/>
       <c r="W37">
         <f>J37/2+Constants!D$9-Constants!D$10</f>
         <v>0.375</v>
@@ -4482,27 +4924,42 @@
         <v>0.35299999999999998</v>
       </c>
       <c r="Z37">
-        <f>1000*(W37-0.29)</f>
+        <f t="shared" si="0"/>
         <v>85.000000000000014</v>
       </c>
       <c r="AA37">
-        <f>1000*(X37-0.29)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="AC37" s="29">
+      <c r="AC37" s="24">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AD37" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="24">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AG37" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="56">
         <v>0.52</v>
       </c>
-      <c r="AD37" s="11">
+      <c r="AJ37" s="57">
         <v>0</v>
       </c>
-      <c r="AF37" s="29">
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="56">
         <v>0.52</v>
       </c>
-      <c r="AG37" s="11">
+      <c r="AM37" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -4542,7 +4999,7 @@
         <f>IF(R38="N","N",IF(OR((J38+Constants!D$14)&gt;Constants!F$7,(J38-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V38" s="28"/>
+      <c r="V38" s="23"/>
       <c r="W38">
         <f>J38/2+Constants!D$9-Constants!D$10</f>
         <v>0.376</v>
@@ -4552,27 +5009,42 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="Z38">
-        <f>1000*(W38-0.29)</f>
+        <f t="shared" si="0"/>
         <v>86.000000000000014</v>
       </c>
       <c r="AA38">
-        <f>1000*(X38-0.29)</f>
+        <f t="shared" si="1"/>
         <v>71.000000000000014</v>
       </c>
-      <c r="AC38" s="29">
+      <c r="AC38" s="24">
+        <v>0.52</v>
+      </c>
+      <c r="AD38" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="24">
+        <v>0.52</v>
+      </c>
+      <c r="AG38" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="56">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AD38" s="11">
+      <c r="AJ38" s="57">
         <v>0</v>
       </c>
-      <c r="AF38" s="29">
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="56">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AG38" s="11">
+      <c r="AM38" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -4612,7 +5084,7 @@
         <f>IF(R39="N","N",IF(OR((J39+Constants!D$14)&gt;Constants!F$7,(J39-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V39" s="28"/>
+      <c r="V39" s="23"/>
       <c r="W39">
         <f>J39/2+Constants!D$9-Constants!D$10</f>
         <v>0.38049999999999995</v>
@@ -4622,27 +5094,42 @@
         <v>0.35849999999999993</v>
       </c>
       <c r="Z39">
-        <f>1000*(W39-0.29)</f>
+        <f t="shared" si="0"/>
         <v>90.499999999999972</v>
       </c>
       <c r="AA39">
-        <f>1000*(X39-0.29)</f>
+        <f t="shared" si="1"/>
         <v>68.499999999999943</v>
       </c>
-      <c r="AC39" s="29">
+      <c r="AC39" s="24">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AD39" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="24">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="56">
         <v>0.53</v>
       </c>
-      <c r="AD39" s="11">
+      <c r="AJ39" s="57">
         <v>0</v>
       </c>
-      <c r="AF39" s="29">
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="56">
         <v>0.53</v>
       </c>
-      <c r="AG39" s="11">
+      <c r="AM39" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4682,7 +5169,7 @@
         <f>IF(R40="N","N",IF(OR((J40+Constants!D$14)&gt;Constants!F$7,(J40-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V40" s="28"/>
+      <c r="V40" s="23"/>
       <c r="W40">
         <f>J40/2+Constants!D$9-Constants!D$10</f>
         <v>0.37550000000000006</v>
@@ -4692,27 +5179,42 @@
         <v>0.35350000000000004</v>
       </c>
       <c r="Z40">
-        <f>1000*(W40-0.29)</f>
+        <f t="shared" si="0"/>
         <v>85.500000000000071</v>
       </c>
       <c r="AA40">
-        <f>1000*(X40-0.29)</f>
+        <f t="shared" si="1"/>
         <v>63.500000000000057</v>
       </c>
-      <c r="AC40" s="29">
+      <c r="AC40" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="AD40" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="AG40" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI40" s="56">
         <v>0.53500000000000003</v>
       </c>
-      <c r="AD40" s="11">
+      <c r="AJ40" s="57">
         <v>0</v>
       </c>
-      <c r="AF40" s="29">
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="56">
         <v>0.53500000000000003</v>
       </c>
-      <c r="AG40" s="11">
+      <c r="AM40" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -4752,7 +5254,7 @@
         <f>IF(R41="N","N",IF(OR((J41+Constants!D$14)&gt;Constants!F$7,(J41-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V41" s="28"/>
+      <c r="V41" s="23"/>
       <c r="W41">
         <f>J41/2+Constants!D$9-Constants!D$10</f>
         <v>0.37949999999999995</v>
@@ -4762,27 +5264,42 @@
         <v>0.35749999999999993</v>
       </c>
       <c r="Z41">
-        <f>1000*(W41-0.29)</f>
+        <f t="shared" si="0"/>
         <v>89.499999999999972</v>
       </c>
       <c r="AA41">
-        <f>1000*(X41-0.29)</f>
+        <f t="shared" si="1"/>
         <v>67.499999999999943</v>
       </c>
-      <c r="AC41" s="29">
+      <c r="AC41" s="24">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AD41" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="24">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AG41" s="11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AI41" s="56">
         <v>0.54</v>
       </c>
-      <c r="AD41" s="11">
+      <c r="AJ41" s="57">
         <v>0</v>
       </c>
-      <c r="AF41" s="29">
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="56">
         <v>0.54</v>
       </c>
-      <c r="AG41" s="11">
+      <c r="AM41" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4822,7 +5339,7 @@
         <f>IF(R42="N","N",IF(OR((J42+Constants!D$14)&gt;Constants!F$7,(J42-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V42" s="28"/>
+      <c r="V42" s="23"/>
       <c r="W42">
         <f>J42/2+Constants!D$9-Constants!D$10</f>
         <v>0.38149999999999995</v>
@@ -4832,27 +5349,42 @@
         <v>0.35949999999999993</v>
       </c>
       <c r="Z42">
-        <f>1000*(W42-0.29)</f>
+        <f t="shared" si="0"/>
         <v>91.499999999999972</v>
       </c>
       <c r="AA42">
-        <f>1000*(X42-0.29)</f>
+        <f t="shared" si="1"/>
         <v>69.499999999999957</v>
       </c>
-      <c r="AC42" s="29">
+      <c r="AC42" s="24">
+        <v>0.54</v>
+      </c>
+      <c r="AD42" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="24">
+        <v>0.54</v>
+      </c>
+      <c r="AG42" s="11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AI42" s="56">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AD42" s="11">
+      <c r="AJ42" s="57">
         <v>0</v>
       </c>
-      <c r="AF42" s="29">
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="56">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AG42" s="11">
+      <c r="AM42" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -4892,7 +5424,7 @@
         <f>IF(R43="N","N",IF(OR((J43+Constants!D$14)&gt;Constants!F$7,(J43-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V43" s="28"/>
+      <c r="V43" s="23"/>
       <c r="W43">
         <f>J43/2+Constants!D$9-Constants!D$10</f>
         <v>0.37750000000000006</v>
@@ -4902,27 +5434,42 @@
         <v>0.35550000000000004</v>
       </c>
       <c r="Z43">
-        <f>1000*(W43-0.29)</f>
+        <f t="shared" si="0"/>
         <v>87.500000000000071</v>
       </c>
       <c r="AA43">
-        <f>1000*(X43-0.29)</f>
+        <f t="shared" si="1"/>
         <v>65.500000000000057</v>
       </c>
-      <c r="AC43" s="29">
+      <c r="AC43" s="24">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AD43" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="24">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AG43" s="11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AI43" s="56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AD43" s="11">
+      <c r="AJ43" s="57">
         <v>0</v>
       </c>
-      <c r="AF43" s="29">
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AG43" s="11">
+      <c r="AM43" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -4962,7 +5509,7 @@
         <f>IF(R44="N","N",IF(OR((J44+Constants!D$14)&gt;Constants!F$7,(J44-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V44" s="28"/>
+      <c r="V44" s="23"/>
       <c r="W44">
         <f>J44/2+Constants!D$9-Constants!D$10</f>
         <v>0.37350000000000005</v>
@@ -4972,27 +5519,42 @@
         <v>0.35150000000000003</v>
       </c>
       <c r="Z44">
-        <f>1000*(W44-0.29)</f>
+        <f t="shared" si="0"/>
         <v>83.500000000000071</v>
       </c>
       <c r="AA44">
-        <f>1000*(X44-0.29)</f>
+        <f t="shared" si="1"/>
         <v>61.500000000000057</v>
       </c>
-      <c r="AC44" s="29">
+      <c r="AC44" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD44" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG44" s="11">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AI44" s="56">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AD44" s="11">
+      <c r="AJ44" s="57">
         <v>0</v>
       </c>
-      <c r="AF44" s="29">
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="56">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AG44" s="11">
+      <c r="AM44" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5032,7 +5594,7 @@
         <f>IF(R45="N","N",IF(OR((J45+Constants!D$14)&gt;Constants!F$7,(J45-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V45" s="28"/>
+      <c r="V45" s="23"/>
       <c r="W45">
         <f>J45/2+Constants!D$9-Constants!D$10</f>
         <v>0.38149999999999995</v>
@@ -5042,27 +5604,42 @@
         <v>0.35949999999999993</v>
       </c>
       <c r="Z45">
-        <f>1000*(W45-0.29)</f>
+        <f t="shared" si="0"/>
         <v>91.499999999999972</v>
       </c>
       <c r="AA45">
-        <f>1000*(X45-0.29)</f>
+        <f t="shared" si="1"/>
         <v>69.499999999999957</v>
       </c>
-      <c r="AC45" s="29">
+      <c r="AC45" s="24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AD45" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AG45" s="11">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="AI45" s="56">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AD45" s="11">
+      <c r="AJ45" s="57">
         <v>0</v>
       </c>
-      <c r="AF45" s="29">
+      <c r="AK45" s="55"/>
+      <c r="AL45" s="56">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AG45" s="11">
+      <c r="AM45" s="57">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5102,7 +5679,7 @@
         <f>IF(R46="N","N",IF(OR((J46+Constants!D$14)&gt;Constants!F$7,(J46-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V46" s="28"/>
+      <c r="V46" s="23"/>
       <c r="W46">
         <f>J46/2+Constants!D$9-Constants!D$10</f>
         <v>0.38200000000000001</v>
@@ -5112,27 +5689,42 @@
         <v>0.36</v>
       </c>
       <c r="Z46">
-        <f>1000*(W46-0.29)</f>
+        <f t="shared" si="0"/>
         <v>92.000000000000028</v>
       </c>
       <c r="AA46">
-        <f>1000*(X46-0.29)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AC46" s="29">
+      <c r="AC46" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD46" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG46" s="11">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AI46" s="56">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AD46" s="11">
+      <c r="AJ46" s="57">
         <v>0</v>
       </c>
-      <c r="AF46" s="29">
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="56">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AG46" s="11">
+      <c r="AM46" s="57">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5172,7 +5764,7 @@
         <f>IF(R47="N","N",IF(OR((J47+Constants!D$14)&gt;Constants!F$7,(J47-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V47" s="28"/>
+      <c r="V47" s="23"/>
       <c r="W47">
         <f>J47/2+Constants!D$9-Constants!D$10</f>
         <v>0.37850000000000006</v>
@@ -5182,27 +5774,42 @@
         <v>0.36349999999999993</v>
       </c>
       <c r="Z47">
-        <f>1000*(W47-0.29)</f>
+        <f t="shared" si="0"/>
         <v>88.500000000000085</v>
       </c>
       <c r="AA47">
-        <f>1000*(X47-0.29)</f>
+        <f t="shared" si="1"/>
         <v>73.499999999999957</v>
       </c>
-      <c r="AC47" s="29">
+      <c r="AC47" s="24">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AD47" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="24">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AG47" s="11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AI47" s="56">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AD47" s="11">
+      <c r="AJ47" s="57">
         <v>0</v>
       </c>
-      <c r="AF47" s="29">
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="56">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AG47" s="11">
+      <c r="AM47" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5242,7 +5849,7 @@
         <f>IF(R48="N","N",IF(OR((J48+Constants!D$14)&gt;Constants!F$7,(J48-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V48" s="28"/>
+      <c r="V48" s="23"/>
       <c r="W48">
         <f>J48/2+Constants!D$9-Constants!D$10</f>
         <v>0.379</v>
@@ -5252,27 +5859,42 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="Z48">
-        <f>1000*(W48-0.29)</f>
+        <f t="shared" si="0"/>
         <v>89.000000000000028</v>
       </c>
       <c r="AA48">
-        <f>1000*(X48-0.29)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="AC48" s="29">
+      <c r="AC48" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD48" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG48" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI48" s="56">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AD48" s="11">
+      <c r="AJ48" s="57">
         <v>0</v>
       </c>
-      <c r="AF48" s="29">
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="56">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AG48" s="11">
+      <c r="AM48" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5312,7 +5934,7 @@
         <f>IF(R49="N","N",IF(OR((J49+Constants!D$14)&gt;Constants!F$7,(J49-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="V49" s="28"/>
+      <c r="V49" s="23"/>
       <c r="W49">
         <f>J49/2+Constants!D$9-Constants!D$10</f>
         <v>0.36850000000000005</v>
@@ -5322,27 +5944,42 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="Z49">
-        <f>1000*(W49-0.29)</f>
+        <f t="shared" si="0"/>
         <v>78.500000000000071</v>
       </c>
       <c r="AA49">
-        <f>1000*(X49-0.29)</f>
+        <f t="shared" si="1"/>
         <v>57.999999999999993</v>
       </c>
-      <c r="AC49" s="29">
+      <c r="AC49" s="24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AD49" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AG49" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="56">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AD49" s="11">
+      <c r="AJ49" s="57">
         <v>0</v>
       </c>
-      <c r="AF49" s="29">
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="56">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AG49" s="11">
+      <c r="AM49" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5391,27 +6028,42 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="Z50">
-        <f>1000*(W50-0.29)</f>
+        <f t="shared" si="0"/>
         <v>81.000000000000014</v>
       </c>
       <c r="AA50">
-        <f>1000*(X50-0.29)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="AC50" s="29">
+      <c r="AC50" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AD50" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AG50" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="56">
         <v>0.58499999999999996</v>
       </c>
-      <c r="AD50" s="11">
+      <c r="AJ50" s="57">
         <v>0</v>
       </c>
-      <c r="AF50" s="29">
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="56">
         <v>0.58499999999999996</v>
       </c>
-      <c r="AG50" s="11">
+      <c r="AM50" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5460,27 +6112,42 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="Z51">
-        <f>1000*(W51-0.29)</f>
+        <f t="shared" si="0"/>
         <v>88.000000000000028</v>
       </c>
       <c r="AA51">
-        <f>1000*(X51-0.29)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="AC51" s="30" t="s">
+      <c r="AC51" s="24">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AD51" s="11">
+        <f>COUNTIF($N$19:$N$165, "&gt;="&amp;$AC51)-COUNTIF($N$19:$N$165,"&gt;=0.590")</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="24">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AG51" s="11">
+        <f>COUNTIF($J$19:$J$165, "&gt;="&amp;$AC51)-COUNTIF($J$19:$J$165,"&gt;=0.590")</f>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="AD51" s="30">
+      <c r="AJ51" s="58">
         <v>0</v>
       </c>
-      <c r="AF51" s="30" t="s">
+      <c r="AK51" s="55"/>
+      <c r="AL51" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="AG51" s="30">
+      <c r="AM51" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5529,19 +6196,29 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="Z52">
-        <f>1000*(W52-0.29)</f>
+        <f t="shared" si="0"/>
         <v>79.000000000000014</v>
       </c>
       <c r="AA52">
-        <f>1000*(X52-0.29)</f>
+        <f t="shared" si="1"/>
         <v>56.999999999999993</v>
       </c>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="11"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="11"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC52" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD52" s="11">
+        <f>COUNTIF($N$19:$N$165,"&gt;=0.590")</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG52" s="25">
+        <f>COUNTIF($J$19:$J$165,"&gt;=0.590")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5590,19 +6267,19 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="Z53">
-        <f>1000*(W53-0.29)</f>
+        <f t="shared" si="0"/>
         <v>80.500000000000071</v>
       </c>
       <c r="AA53">
-        <f>1000*(X53-0.29)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="AC53" s="29"/>
+      <c r="AC53" s="24"/>
       <c r="AD53" s="11"/>
-      <c r="AF53" s="29"/>
+      <c r="AF53" s="24"/>
       <c r="AG53" s="11"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -5660,12 +6337,28 @@
         <f>IF(R54="N","N",IF(OR((J54+Constants!D$14)&gt;Constants!F$7,(J54-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC54" s="29"/>
+      <c r="W54">
+        <f>J54/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X54">
+        <f>H54/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" ref="Z54:Z117" si="4">1000*(W54-0.29)</f>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" ref="AA54:AA117" si="5">1000*(X54-0.29)</f>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC54" s="24"/>
       <c r="AD54" s="11"/>
-      <c r="AF54" s="29"/>
+      <c r="AF54" s="24"/>
       <c r="AG54" s="11"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5723,12 +6416,28 @@
         <f>IF(R55="N","N",IF(OR((J55+Constants!D$14)&gt;Constants!F$7,(J55-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC55" s="29"/>
+      <c r="W55">
+        <f>J55/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X55">
+        <f>H55/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="AC55" s="24"/>
       <c r="AD55" s="11"/>
-      <c r="AF55" s="29"/>
+      <c r="AF55" s="24"/>
       <c r="AG55" s="11"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -5786,12 +6495,28 @@
         <f>IF(R56="N","N",IF(OR((J56+Constants!D$14)&gt;Constants!F$7,(J56-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC56" s="29"/>
+      <c r="W56">
+        <f>J56/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X56">
+        <f>H56/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="4"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="AC56" s="24"/>
       <c r="AD56" s="11"/>
-      <c r="AF56" s="29"/>
+      <c r="AF56" s="24"/>
       <c r="AG56" s="11"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5849,12 +6574,28 @@
         <f>IF(R57="N","N",IF(OR((J57+Constants!D$14)&gt;Constants!F$7,(J57-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC57" s="29"/>
+      <c r="W57">
+        <f>J57/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X57">
+        <f>H57/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="4"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="5"/>
+        <v>62.500000000000057</v>
+      </c>
+      <c r="AC57" s="24"/>
       <c r="AD57" s="11"/>
-      <c r="AF57" s="29"/>
+      <c r="AF57" s="24"/>
       <c r="AG57" s="11"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -5912,12 +6653,28 @@
         <f>IF(R58="N","N",IF(OR((J58+Constants!D$14)&gt;Constants!F$7,(J58-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC58" s="29"/>
+      <c r="W58">
+        <f>J58/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37050000000000005</v>
+      </c>
+      <c r="X58">
+        <f>H58/2+Constants!D$9-Constants!D$11</f>
+        <v>0.34850000000000003</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="4"/>
+        <v>80.500000000000071</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="5"/>
+        <v>58.50000000000005</v>
+      </c>
+      <c r="AC58" s="24"/>
       <c r="AD58" s="11"/>
-      <c r="AF58" s="29"/>
+      <c r="AF58" s="24"/>
       <c r="AG58" s="11"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5975,12 +6732,28 @@
         <f>IF(R59="N","N",IF(OR((J59+Constants!D$14)&gt;Constants!F$7,(J59-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC59" s="29"/>
+      <c r="W59">
+        <f>J59/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37050000000000005</v>
+      </c>
+      <c r="X59">
+        <f>H59/2+Constants!D$9-Constants!D$11</f>
+        <v>0.34850000000000003</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="4"/>
+        <v>80.500000000000071</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="5"/>
+        <v>58.50000000000005</v>
+      </c>
+      <c r="AC59" s="24"/>
       <c r="AD59" s="11"/>
-      <c r="AF59" s="29"/>
+      <c r="AF59" s="24"/>
       <c r="AG59" s="11"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6038,12 +6811,28 @@
         <f>IF(R60="N","N",IF(OR((J60+Constants!D$14)&gt;Constants!F$7,(J60-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC60" s="29"/>
+      <c r="W60">
+        <f>J60/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X60">
+        <f>H60/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC60" s="24"/>
       <c r="AD60" s="11"/>
-      <c r="AF60" s="29"/>
+      <c r="AF60" s="24"/>
       <c r="AG60" s="11"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -6101,12 +6890,28 @@
         <f>IF(R61="N","N",IF(OR((J61+Constants!D$14)&gt;Constants!F$7,(J61-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC61" s="29"/>
+      <c r="W61">
+        <f>J61/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X61">
+        <f>H61/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="4"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="AC61" s="24"/>
       <c r="AD61" s="11"/>
-      <c r="AF61" s="29"/>
+      <c r="AF61" s="24"/>
       <c r="AG61" s="11"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6164,12 +6969,28 @@
         <f>IF(R62="N","N",IF(OR((J62+Constants!D$14)&gt;Constants!F$7,(J62-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC62" s="29"/>
+      <c r="W62">
+        <f>J62/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37</v>
+      </c>
+      <c r="X62">
+        <f>H62/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="4"/>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC62" s="24"/>
       <c r="AD62" s="11"/>
-      <c r="AF62" s="29"/>
+      <c r="AF62" s="24"/>
       <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -6227,12 +7048,28 @@
         <f>IF(R63="N","N",IF(OR((J63+Constants!D$14)&gt;Constants!F$7,(J63-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC63" s="29"/>
+      <c r="W63">
+        <f>J63/2+Constants!D$9-Constants!D$10</f>
+        <v>0.379</v>
+      </c>
+      <c r="X63">
+        <f>H63/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="4"/>
+        <v>89.000000000000028</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="AC63" s="24"/>
       <c r="AD63" s="11"/>
-      <c r="AF63" s="29"/>
+      <c r="AF63" s="24"/>
       <c r="AG63" s="11"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -6290,9 +7127,25 @@
         <f>IF(R64="N","N",IF(OR((J64+Constants!D$14)&gt;Constants!F$7,(J64-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC64" s="29"/>
+      <c r="W64">
+        <f>J64/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X64">
+        <f>H64/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="4"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="5"/>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC64" s="24"/>
       <c r="AD64" s="11"/>
-      <c r="AF64" s="29"/>
+      <c r="AF64" s="24"/>
       <c r="AG64" s="11"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
@@ -6353,9 +7206,25 @@
         <f>IF(R65="N","N",IF(OR((J65+Constants!D$14)&gt;Constants!F$7,(J65-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC65" s="29"/>
+      <c r="W65">
+        <f>J65/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X65">
+        <f>H65/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="4"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="AC65" s="24"/>
       <c r="AD65" s="11"/>
-      <c r="AF65" s="29"/>
+      <c r="AF65" s="24"/>
       <c r="AG65" s="11"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
@@ -6416,9 +7285,25 @@
         <f>IF(R66="N","N",IF(OR((J66+Constants!D$14)&gt;Constants!F$7,(J66-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC66" s="29"/>
+      <c r="W66">
+        <f>J66/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X66">
+        <f>H66/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35849999999999993</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="4"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="5"/>
+        <v>68.499999999999943</v>
+      </c>
+      <c r="AC66" s="24"/>
       <c r="AD66" s="11"/>
-      <c r="AF66" s="29"/>
+      <c r="AF66" s="24"/>
       <c r="AG66" s="11"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
@@ -6479,9 +7364,25 @@
         <f>IF(R67="N","N",IF(OR((J67+Constants!D$14)&gt;Constants!F$7,(J67-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC67" s="29"/>
+      <c r="W67">
+        <f>J67/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X67">
+        <f>H67/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="AC67" s="24"/>
       <c r="AD67" s="11"/>
-      <c r="AF67" s="29"/>
+      <c r="AF67" s="24"/>
       <c r="AG67" s="11"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
@@ -6542,9 +7443,25 @@
         <f>IF(R68="N","N",IF(OR((J68+Constants!D$14)&gt;Constants!F$7,(J68-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC68" s="29"/>
+      <c r="W68">
+        <f>J68/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X68">
+        <f>H68/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="4"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="5"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC68" s="24"/>
       <c r="AD68" s="11"/>
-      <c r="AF68" s="29"/>
+      <c r="AF68" s="24"/>
       <c r="AG68" s="11"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
@@ -6605,9 +7522,25 @@
         <f>IF(R69="N","N",IF(OR((J69+Constants!D$14)&gt;Constants!F$7,(J69-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC69" s="29"/>
+      <c r="W69">
+        <f>J69/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X69">
+        <f>H69/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="4"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="5"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC69" s="24"/>
       <c r="AD69" s="11"/>
-      <c r="AF69" s="29"/>
+      <c r="AF69" s="24"/>
       <c r="AG69" s="11"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
@@ -6668,9 +7601,25 @@
         <f>IF(R70="N","N",IF(OR((J70+Constants!D$14)&gt;Constants!F$7,(J70-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC70" s="29"/>
+      <c r="W70">
+        <f>J70/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38</v>
+      </c>
+      <c r="X70">
+        <f>H70/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="4"/>
+        <v>90.000000000000028</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="AC70" s="24"/>
       <c r="AD70" s="11"/>
-      <c r="AF70" s="29"/>
+      <c r="AF70" s="24"/>
       <c r="AG70" s="11"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
@@ -6731,9 +7680,25 @@
         <f>IF(R71="N","N",IF(OR((J71+Constants!D$14)&gt;Constants!F$7,(J71-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC71" s="29"/>
+      <c r="W71">
+        <f>J71/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X71">
+        <f>H71/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="4"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="5"/>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC71" s="24"/>
       <c r="AD71" s="11"/>
-      <c r="AF71" s="29"/>
+      <c r="AF71" s="24"/>
       <c r="AG71" s="11"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
@@ -6794,9 +7759,25 @@
         <f>IF(R72="N","N",IF(OR((J72+Constants!D$14)&gt;Constants!F$7,(J72-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC72" s="29"/>
+      <c r="W72">
+        <f>J72/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X72">
+        <f>H72/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC72" s="24"/>
       <c r="AD72" s="11"/>
-      <c r="AF72" s="29"/>
+      <c r="AF72" s="24"/>
       <c r="AG72" s="11"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
@@ -6857,9 +7838,25 @@
         <f>IF(R73="N","N",IF(OR((J73+Constants!D$14)&gt;Constants!F$7,(J73-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC73" s="29"/>
+      <c r="W73">
+        <f>J73/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="X73">
+        <f>H73/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36449999999999994</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="4"/>
+        <v>91.000000000000028</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="5"/>
+        <v>74.499999999999957</v>
+      </c>
+      <c r="AC73" s="24"/>
       <c r="AD73" s="11"/>
-      <c r="AF73" s="29"/>
+      <c r="AF73" s="24"/>
       <c r="AG73" s="11"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
@@ -6920,9 +7917,25 @@
         <f>IF(R74="N","N",IF(OR((J74+Constants!D$14)&gt;Constants!F$7,(J74-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC74" s="29"/>
+      <c r="W74">
+        <f>J74/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X74">
+        <f>H74/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36249999999999993</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="4"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="5"/>
+        <v>72.499999999999957</v>
+      </c>
+      <c r="AC74" s="24"/>
       <c r="AD74" s="11"/>
-      <c r="AF74" s="29"/>
+      <c r="AF74" s="24"/>
       <c r="AG74" s="11"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
@@ -6983,9 +7996,25 @@
         <f>IF(R75="N","N",IF(OR((J75+Constants!D$14)&gt;Constants!F$7,(J75-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC75" s="29"/>
+      <c r="W75">
+        <f>J75/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38149999999999995</v>
+      </c>
+      <c r="X75">
+        <f>H75/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35949999999999993</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="4"/>
+        <v>91.499999999999972</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="5"/>
+        <v>69.499999999999957</v>
+      </c>
+      <c r="AC75" s="24"/>
       <c r="AD75" s="11"/>
-      <c r="AF75" s="29"/>
+      <c r="AF75" s="24"/>
       <c r="AG75" s="11"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
@@ -7046,9 +8075,25 @@
         <f>IF(R76="N","N",IF(OR((J76+Constants!D$14)&gt;Constants!F$7,(J76-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC76" s="29"/>
+      <c r="W76">
+        <f>J76/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37850000000000006</v>
+      </c>
+      <c r="X76">
+        <f>H76/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36249999999999993</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="4"/>
+        <v>88.500000000000085</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="5"/>
+        <v>72.499999999999957</v>
+      </c>
+      <c r="AC76" s="24"/>
       <c r="AD76" s="11"/>
-      <c r="AF76" s="29"/>
+      <c r="AF76" s="24"/>
       <c r="AG76" s="11"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
@@ -7109,9 +8154,25 @@
         <f>IF(R77="N","N",IF(OR((J77+Constants!D$14)&gt;Constants!F$7,(J77-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC77" s="29"/>
+      <c r="W77">
+        <f>J77/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X77">
+        <f>H77/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="5"/>
+        <v>65.500000000000057</v>
+      </c>
+      <c r="AC77" s="24"/>
       <c r="AD77" s="11"/>
-      <c r="AF77" s="29"/>
+      <c r="AF77" s="24"/>
       <c r="AG77" s="11"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
@@ -7172,9 +8233,25 @@
         <f>IF(R78="N","N",IF(OR((J78+Constants!D$14)&gt;Constants!F$7,(J78-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC78" s="29"/>
+      <c r="W78">
+        <f>J78/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X78">
+        <f>H78/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC78" s="24"/>
       <c r="AD78" s="11"/>
-      <c r="AF78" s="29"/>
+      <c r="AF78" s="24"/>
       <c r="AG78" s="11"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
@@ -7235,9 +8312,25 @@
         <f>IF(R79="N","N",IF(OR((J79+Constants!D$14)&gt;Constants!F$7,(J79-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC79" s="29"/>
+      <c r="W79">
+        <f>J79/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X79">
+        <f>H79/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="AC79" s="24"/>
       <c r="AD79" s="11"/>
-      <c r="AF79" s="29"/>
+      <c r="AF79" s="24"/>
       <c r="AG79" s="11"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
@@ -7298,9 +8391,25 @@
         <f>IF(R80="N","N",IF(OR((J80+Constants!D$14)&gt;Constants!F$7,(J80-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC80" s="29"/>
+      <c r="W80">
+        <f>J80/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X80">
+        <f>H80/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="AC80" s="24"/>
       <c r="AD80" s="11"/>
-      <c r="AF80" s="29"/>
+      <c r="AF80" s="24"/>
       <c r="AG80" s="11"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
@@ -7361,9 +8470,25 @@
         <f>IF(R81="N","N",IF(OR((J81+Constants!D$14)&gt;Constants!F$7,(J81-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC81" s="29"/>
+      <c r="W81">
+        <f>J81/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X81">
+        <f>H81/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36049999999999993</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="4"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="5"/>
+        <v>70.499999999999957</v>
+      </c>
+      <c r="AC81" s="24"/>
       <c r="AD81" s="11"/>
-      <c r="AF81" s="29"/>
+      <c r="AF81" s="24"/>
       <c r="AG81" s="11"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
@@ -7424,9 +8549,25 @@
         <f>IF(R82="N","N",IF(OR((J82+Constants!D$14)&gt;Constants!F$7,(J82-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC82" s="29"/>
+      <c r="W82">
+        <f>J82/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X82">
+        <f>H82/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35949999999999993</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="5"/>
+        <v>69.499999999999957</v>
+      </c>
+      <c r="AC82" s="24"/>
       <c r="AD82" s="11"/>
-      <c r="AF82" s="29"/>
+      <c r="AF82" s="24"/>
       <c r="AG82" s="11"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
@@ -7487,9 +8628,25 @@
         <f>IF(R83="N","N",IF(OR((J83+Constants!D$14)&gt;Constants!F$7,(J83-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC83" s="29"/>
+      <c r="W83">
+        <f>J83/2+Constants!D$9-Constants!D$10</f>
+        <v>0.375</v>
+      </c>
+      <c r="X83">
+        <f>H83/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="4"/>
+        <v>85.000000000000014</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="AC83" s="24"/>
       <c r="AD83" s="11"/>
-      <c r="AF83" s="29"/>
+      <c r="AF83" s="24"/>
       <c r="AG83" s="11"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
@@ -7550,9 +8707,25 @@
         <f>IF(R84="N","N",IF(OR((J84+Constants!D$14)&gt;Constants!F$7,(J84-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC84" s="29"/>
+      <c r="W84">
+        <f>J84/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X84">
+        <f>H84/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="4"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="5"/>
+        <v>76.000000000000014</v>
+      </c>
+      <c r="AC84" s="24"/>
       <c r="AD84" s="11"/>
-      <c r="AF84" s="29"/>
+      <c r="AF84" s="24"/>
       <c r="AG84" s="11"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
@@ -7613,9 +8786,25 @@
         <f>IF(R85="N","N",IF(OR((J85+Constants!D$14)&gt;Constants!F$7,(J85-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC85" s="29"/>
+      <c r="W85">
+        <f>J85/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X85">
+        <f>H85/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="4"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="5"/>
+        <v>62.500000000000057</v>
+      </c>
+      <c r="AC85" s="24"/>
       <c r="AD85" s="11"/>
-      <c r="AF85" s="29"/>
+      <c r="AF85" s="24"/>
       <c r="AG85" s="11"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
@@ -7676,9 +8865,25 @@
         <f>IF(R86="N","N",IF(OR((J86+Constants!D$14)&gt;Constants!F$7,(J86-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC86" s="29"/>
+      <c r="W86">
+        <f>J86/2+Constants!D$9-Constants!D$10</f>
+        <v>0.376</v>
+      </c>
+      <c r="X86">
+        <f>H86/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="4"/>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="AC86" s="24"/>
       <c r="AD86" s="11"/>
-      <c r="AF86" s="29"/>
+      <c r="AF86" s="24"/>
       <c r="AG86" s="11"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
@@ -7739,9 +8944,25 @@
         <f>IF(R87="N","N",IF(OR((J87+Constants!D$14)&gt;Constants!F$7,(J87-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC87" s="29"/>
+      <c r="W87">
+        <f>J87/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X87">
+        <f>H87/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC87" s="24"/>
       <c r="AD87" s="11"/>
-      <c r="AF87" s="29"/>
+      <c r="AF87" s="24"/>
       <c r="AG87" s="11"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
@@ -7802,9 +9023,25 @@
         <f>IF(R88="N","N",IF(OR((J88+Constants!D$14)&gt;Constants!F$7,(J88-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC88" s="29"/>
+      <c r="W88">
+        <f>J88/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37850000000000006</v>
+      </c>
+      <c r="X88">
+        <f>H88/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36549999999999994</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="4"/>
+        <v>88.500000000000085</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="5"/>
+        <v>75.499999999999957</v>
+      </c>
+      <c r="AC88" s="24"/>
       <c r="AD88" s="11"/>
-      <c r="AF88" s="29"/>
+      <c r="AF88" s="24"/>
       <c r="AG88" s="11"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
@@ -7865,9 +9102,25 @@
         <f>IF(R89="N","N",IF(OR((J89+Constants!D$14)&gt;Constants!F$7,(J89-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC89" s="29"/>
+      <c r="W89">
+        <f>J89/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X89">
+        <f>H89/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="4"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="5"/>
+        <v>72.000000000000014</v>
+      </c>
+      <c r="AC89" s="24"/>
       <c r="AD89" s="11"/>
-      <c r="AF89" s="29"/>
+      <c r="AF89" s="24"/>
       <c r="AG89" s="11"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
@@ -7928,9 +9181,25 @@
         <f>IF(R90="N","N",IF(OR((J90+Constants!D$14)&gt;Constants!F$7,(J90-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC90" s="29"/>
+      <c r="W90">
+        <f>J90/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37850000000000006</v>
+      </c>
+      <c r="X90">
+        <f>H90/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35650000000000004</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="4"/>
+        <v>88.500000000000085</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="5"/>
+        <v>66.500000000000057</v>
+      </c>
+      <c r="AC90" s="24"/>
       <c r="AD90" s="11"/>
-      <c r="AF90" s="29"/>
+      <c r="AF90" s="24"/>
       <c r="AG90" s="11"/>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
@@ -7991,9 +9260,25 @@
         <f>IF(R91="N","N",IF(OR((J91+Constants!D$14)&gt;Constants!F$7,(J91-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC91" s="29"/>
+      <c r="W91">
+        <f>J91/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X91">
+        <f>H91/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="4"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="5"/>
+        <v>74.000000000000014</v>
+      </c>
+      <c r="AC91" s="24"/>
       <c r="AD91" s="11"/>
-      <c r="AF91" s="29"/>
+      <c r="AF91" s="24"/>
       <c r="AG91" s="11"/>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
@@ -8054,9 +9339,25 @@
         <f>IF(R92="N","N",IF(OR((J92+Constants!D$14)&gt;Constants!F$7,(J92-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC92" s="29"/>
+      <c r="W92">
+        <f>J92/2+Constants!D$9-Constants!D$10</f>
+        <v>0.372</v>
+      </c>
+      <c r="X92">
+        <f>H92/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="4"/>
+        <v>82.000000000000014</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AC92" s="24"/>
       <c r="AD92" s="11"/>
-      <c r="AF92" s="29"/>
+      <c r="AF92" s="24"/>
       <c r="AG92" s="11"/>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
@@ -8117,9 +9418,25 @@
         <f>IF(R93="N","N",IF(OR((J93+Constants!D$14)&gt;Constants!F$7,(J93-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC93" s="29"/>
+      <c r="W93">
+        <f>J93/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X93">
+        <f>H93/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="4"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="AC93" s="24"/>
       <c r="AD93" s="11"/>
-      <c r="AF93" s="29"/>
+      <c r="AF93" s="24"/>
       <c r="AG93" s="11"/>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
@@ -8180,9 +9497,25 @@
         <f>IF(R94="N","N",IF(OR((J94+Constants!D$14)&gt;Constants!F$7,(J94-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC94" s="29"/>
+      <c r="W94">
+        <f>J94/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X94">
+        <f>H94/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC94" s="24"/>
       <c r="AD94" s="11"/>
-      <c r="AF94" s="29"/>
+      <c r="AF94" s="24"/>
       <c r="AG94" s="11"/>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
@@ -8243,9 +9576,25 @@
         <f>IF(R95="N","N",IF(OR((J95+Constants!D$14)&gt;Constants!F$7,(J95-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC95" s="29"/>
+      <c r="W95">
+        <f>J95/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X95">
+        <f>H95/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AC95" s="24"/>
       <c r="AD95" s="11"/>
-      <c r="AF95" s="29"/>
+      <c r="AF95" s="24"/>
       <c r="AG95" s="11"/>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
@@ -8306,9 +9655,25 @@
         <f>IF(R96="N","N",IF(OR((J96+Constants!D$14)&gt;Constants!F$7,(J96-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC96" s="29"/>
+      <c r="W96">
+        <f>J96/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X96">
+        <f>H96/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="5"/>
+        <v>65.500000000000057</v>
+      </c>
+      <c r="AC96" s="24"/>
       <c r="AD96" s="11"/>
-      <c r="AF96" s="29"/>
+      <c r="AF96" s="24"/>
       <c r="AG96" s="11"/>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
@@ -8369,9 +9734,25 @@
         <f>IF(R97="N","N",IF(OR((J97+Constants!D$14)&gt;Constants!F$7,(J97-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC97" s="29"/>
+      <c r="W97">
+        <f>J97/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X97">
+        <f>H97/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="4"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="5"/>
+        <v>62.500000000000057</v>
+      </c>
+      <c r="AC97" s="24"/>
       <c r="AD97" s="11"/>
-      <c r="AF97" s="29"/>
+      <c r="AF97" s="24"/>
       <c r="AG97" s="11"/>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
@@ -8423,9 +9804,25 @@
         <f>IF(R98="N","N",IF(OR((J98+Constants!D$14)&gt;Constants!F$7,(J98-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC98" s="29"/>
+      <c r="W98">
+        <f>J98/2+Constants!D$9-Constants!D$10</f>
+        <v>0.379</v>
+      </c>
+      <c r="X98">
+        <f>H98/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="4"/>
+        <v>89.000000000000028</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="AC98" s="24"/>
       <c r="AD98" s="11"/>
-      <c r="AF98" s="29"/>
+      <c r="AF98" s="24"/>
       <c r="AG98" s="11"/>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
@@ -8486,9 +9883,25 @@
         <f>IF(R99="N","N",IF(OR((J99+Constants!D$14)&gt;Constants!F$7,(J99-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC99" s="29"/>
+      <c r="W99">
+        <f>J99/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X99">
+        <f>H99/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="4"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="5"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC99" s="24"/>
       <c r="AD99" s="11"/>
-      <c r="AF99" s="29"/>
+      <c r="AF99" s="24"/>
       <c r="AG99" s="11"/>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
@@ -8549,9 +9962,25 @@
         <f>IF(R100="N","N",IF(OR((J100+Constants!D$14)&gt;Constants!F$7,(J100-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC100" s="29"/>
+      <c r="W100">
+        <f>J100/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X100">
+        <f>H100/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35650000000000004</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="5"/>
+        <v>66.500000000000057</v>
+      </c>
+      <c r="AC100" s="24"/>
       <c r="AD100" s="11"/>
-      <c r="AF100" s="29"/>
+      <c r="AF100" s="24"/>
       <c r="AG100" s="11"/>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
@@ -8612,9 +10041,25 @@
         <f>IF(R101="N","N",IF(OR((J101+Constants!D$14)&gt;Constants!F$7,(J101-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC101" s="29"/>
+      <c r="W101">
+        <f>J101/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37850000000000006</v>
+      </c>
+      <c r="X101">
+        <f>H101/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35650000000000004</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="4"/>
+        <v>88.500000000000085</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="5"/>
+        <v>66.500000000000057</v>
+      </c>
+      <c r="AC101" s="24"/>
       <c r="AD101" s="11"/>
-      <c r="AF101" s="29"/>
+      <c r="AF101" s="24"/>
       <c r="AG101" s="11"/>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
@@ -8675,9 +10120,25 @@
         <f>IF(R102="N","N",IF(OR((J102+Constants!D$14)&gt;Constants!F$7,(J102-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC102" s="29"/>
+      <c r="W102">
+        <f>J102/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37350000000000005</v>
+      </c>
+      <c r="X102">
+        <f>H102/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35150000000000003</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="4"/>
+        <v>83.500000000000071</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="5"/>
+        <v>61.500000000000057</v>
+      </c>
+      <c r="AC102" s="24"/>
       <c r="AD102" s="11"/>
-      <c r="AF102" s="29"/>
+      <c r="AF102" s="24"/>
       <c r="AG102" s="11"/>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
@@ -8738,9 +10199,25 @@
         <f>IF(R103="N","N",IF(OR((J103+Constants!D$14)&gt;Constants!F$7,(J103-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC103" s="29"/>
+      <c r="W103">
+        <f>J103/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37</v>
+      </c>
+      <c r="X103">
+        <f>H103/2+Constants!D$9-Constants!D$11</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="4"/>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="5"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="AC103" s="24"/>
       <c r="AD103" s="11"/>
-      <c r="AF103" s="29"/>
+      <c r="AF103" s="24"/>
       <c r="AG103" s="11"/>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
@@ -8801,9 +10278,25 @@
         <f>IF(R104="N","N",IF(OR((J104+Constants!D$14)&gt;Constants!F$7,(J104-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC104" s="29"/>
+      <c r="W104">
+        <f>J104/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X104">
+        <f>H104/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="4"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AC104" s="24"/>
       <c r="AD104" s="11"/>
-      <c r="AF104" s="29"/>
+      <c r="AF104" s="24"/>
       <c r="AG104" s="11"/>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
@@ -8864,9 +10357,25 @@
         <f>IF(R105="N","N",IF(OR((J105+Constants!D$14)&gt;Constants!F$7,(J105-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC105" s="29"/>
+      <c r="W105">
+        <f>J105/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X105">
+        <f>H105/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="4"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="5"/>
+        <v>62.500000000000057</v>
+      </c>
+      <c r="AC105" s="24"/>
       <c r="AD105" s="11"/>
-      <c r="AF105" s="29"/>
+      <c r="AF105" s="24"/>
       <c r="AG105" s="11"/>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
@@ -8927,9 +10436,25 @@
         <f>IF(R106="N","N",IF(OR((J106+Constants!D$14)&gt;Constants!F$7,(J106-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC106" s="29"/>
+      <c r="W106">
+        <f>J106/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37850000000000006</v>
+      </c>
+      <c r="X106">
+        <f>H106/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="4"/>
+        <v>88.500000000000085</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="5"/>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC106" s="24"/>
       <c r="AD106" s="11"/>
-      <c r="AF106" s="29"/>
+      <c r="AF106" s="24"/>
       <c r="AG106" s="11"/>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
@@ -8990,9 +10515,25 @@
         <f>IF(R107="N","N",IF(OR((J107+Constants!D$14)&gt;Constants!F$7,(J107-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC107" s="29"/>
+      <c r="W107">
+        <f>J107/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38049999999999995</v>
+      </c>
+      <c r="X107">
+        <f>H107/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="4"/>
+        <v>90.499999999999972</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="5"/>
+        <v>75.000000000000014</v>
+      </c>
+      <c r="AC107" s="24"/>
       <c r="AD107" s="11"/>
-      <c r="AF107" s="29"/>
+      <c r="AF107" s="24"/>
       <c r="AG107" s="11"/>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
@@ -9053,9 +10594,25 @@
         <f>IF(R108="N","N",IF(OR((J108+Constants!D$14)&gt;Constants!F$7,(J108-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC108" s="29"/>
+      <c r="W108">
+        <f>J108/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X108">
+        <f>H108/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="AC108" s="24"/>
       <c r="AD108" s="11"/>
-      <c r="AF108" s="29"/>
+      <c r="AF108" s="24"/>
       <c r="AG108" s="11"/>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
@@ -9116,9 +10673,25 @@
         <f>IF(R109="N","N",IF(OR((J109+Constants!D$14)&gt;Constants!F$7,(J109-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC109" s="29"/>
+      <c r="W109">
+        <f>J109/2+Constants!D$9-Constants!D$10</f>
+        <v>0.375</v>
+      </c>
+      <c r="X109">
+        <f>H109/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="4"/>
+        <v>85.000000000000014</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="5"/>
+        <v>65.500000000000057</v>
+      </c>
+      <c r="AC109" s="24"/>
       <c r="AD109" s="11"/>
-      <c r="AF109" s="29"/>
+      <c r="AF109" s="24"/>
       <c r="AG109" s="11"/>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
@@ -9179,9 +10752,25 @@
         <f>IF(R110="N","N",IF(OR((J110+Constants!D$14)&gt;Constants!F$7,(J110-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC110" s="29"/>
+      <c r="W110">
+        <f>J110/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X110">
+        <f>H110/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="4"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="5"/>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC110" s="24"/>
       <c r="AD110" s="11"/>
-      <c r="AF110" s="29"/>
+      <c r="AF110" s="24"/>
       <c r="AG110" s="11"/>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
@@ -9242,9 +10831,25 @@
         <f>IF(R111="N","N",IF(OR((J111+Constants!D$14)&gt;Constants!F$7,(J111-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC111" s="29"/>
+      <c r="W111">
+        <f>J111/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X111">
+        <f>H111/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC111" s="24"/>
       <c r="AD111" s="11"/>
-      <c r="AF111" s="29"/>
+      <c r="AF111" s="24"/>
       <c r="AG111" s="11"/>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
@@ -9305,9 +10910,25 @@
         <f>IF(R112="N","N",IF(OR((J112+Constants!D$14)&gt;Constants!F$7,(J112-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC112" s="29"/>
+      <c r="W112">
+        <f>J112/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X112">
+        <f>H112/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="4"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="5"/>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC112" s="24"/>
       <c r="AD112" s="11"/>
-      <c r="AF112" s="29"/>
+      <c r="AF112" s="24"/>
       <c r="AG112" s="11"/>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
@@ -9368,9 +10989,25 @@
         <f>IF(R113="N","N",IF(OR((J113+Constants!D$14)&gt;Constants!F$7,(J113-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC113" s="29"/>
+      <c r="W113">
+        <f>J113/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X113">
+        <f>H113/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="4"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="5"/>
+        <v>67.499999999999943</v>
+      </c>
+      <c r="AC113" s="24"/>
       <c r="AD113" s="11"/>
-      <c r="AF113" s="29"/>
+      <c r="AF113" s="24"/>
       <c r="AG113" s="11"/>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
@@ -9431,9 +11068,25 @@
         <f>IF(R114="N","N",IF(OR((J114+Constants!D$14)&gt;Constants!F$7,(J114-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC114" s="29"/>
+      <c r="W114">
+        <f>J114/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X114">
+        <f>H114/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="4"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="5"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC114" s="24"/>
       <c r="AD114" s="11"/>
-      <c r="AF114" s="29"/>
+      <c r="AF114" s="24"/>
       <c r="AG114" s="11"/>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
@@ -9494,9 +11147,25 @@
         <f>IF(R115="N","N",IF(OR((J115+Constants!D$14)&gt;Constants!F$7,(J115-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC115" s="29"/>
+      <c r="W115">
+        <f>J115/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X115">
+        <f>H115/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="4"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="5"/>
+        <v>72.000000000000014</v>
+      </c>
+      <c r="AC115" s="24"/>
       <c r="AD115" s="11"/>
-      <c r="AF115" s="29"/>
+      <c r="AF115" s="24"/>
       <c r="AG115" s="11"/>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
@@ -9557,9 +11226,25 @@
         <f>IF(R116="N","N",IF(OR((J116+Constants!D$14)&gt;Constants!F$7,(J116-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC116" s="29"/>
+      <c r="W116">
+        <f>J116/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X116">
+        <f>H116/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="4"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AC116" s="24"/>
       <c r="AD116" s="11"/>
-      <c r="AF116" s="29"/>
+      <c r="AF116" s="24"/>
       <c r="AG116" s="11"/>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
@@ -9620,9 +11305,25 @@
         <f>IF(R117="N","N",IF(OR((J117+Constants!D$14)&gt;Constants!F$7,(J117-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC117" s="29"/>
+      <c r="W117">
+        <f>J117/2+Constants!D$9-Constants!D$10</f>
+        <v>0.375</v>
+      </c>
+      <c r="X117">
+        <f>H117/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36549999999999994</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="4"/>
+        <v>85.000000000000014</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="5"/>
+        <v>75.499999999999957</v>
+      </c>
+      <c r="AC117" s="24"/>
       <c r="AD117" s="11"/>
-      <c r="AF117" s="29"/>
+      <c r="AF117" s="24"/>
       <c r="AG117" s="11"/>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
@@ -9683,9 +11384,25 @@
         <f>IF(R118="N","N",IF(OR((J118+Constants!D$14)&gt;Constants!F$7,(J118-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC118" s="29"/>
+      <c r="W118">
+        <f>J118/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X118">
+        <f>H118/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" ref="Z118:Z165" si="6">1000*(W118-0.29)</f>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" ref="AA118:AA165" si="7">1000*(X118-0.29)</f>
+        <v>66</v>
+      </c>
+      <c r="AC118" s="24"/>
       <c r="AD118" s="11"/>
-      <c r="AF118" s="29"/>
+      <c r="AF118" s="24"/>
       <c r="AG118" s="11"/>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.25">
@@ -9746,9 +11463,25 @@
         <f>IF(R119="N","N",IF(OR((J119+Constants!D$14)&gt;Constants!F$7,(J119-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC119" s="29"/>
+      <c r="W119">
+        <f>J119/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X119">
+        <f>H119/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" si="6"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AC119" s="24"/>
       <c r="AD119" s="11"/>
-      <c r="AF119" s="29"/>
+      <c r="AF119" s="24"/>
       <c r="AG119" s="11"/>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.25">
@@ -9809,9 +11542,25 @@
         <f>IF(R120="N","N",IF(OR((J120+Constants!D$14)&gt;Constants!F$7,(J120-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC120" s="29"/>
+      <c r="W120">
+        <f>J120/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X120">
+        <f>H120/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="6"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="7"/>
+        <v>65.500000000000057</v>
+      </c>
+      <c r="AC120" s="24"/>
       <c r="AD120" s="11"/>
-      <c r="AF120" s="29"/>
+      <c r="AF120" s="24"/>
       <c r="AG120" s="11"/>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.25">
@@ -9872,9 +11621,25 @@
         <f>IF(R121="N","N",IF(OR((J121+Constants!D$14)&gt;Constants!F$7,(J121-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC121" s="29"/>
+      <c r="W121">
+        <f>J121/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X121">
+        <f>H121/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AC121" s="24"/>
       <c r="AD121" s="11"/>
-      <c r="AF121" s="29"/>
+      <c r="AF121" s="24"/>
       <c r="AG121" s="11"/>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.25">
@@ -9935,9 +11700,25 @@
         <f>IF(R122="N","N",IF(OR((J122+Constants!D$14)&gt;Constants!F$7,(J122-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC122" s="29"/>
+      <c r="W122">
+        <f>J122/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X122">
+        <f>H122/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="6"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="AC122" s="24"/>
       <c r="AD122" s="11"/>
-      <c r="AF122" s="29"/>
+      <c r="AF122" s="24"/>
       <c r="AG122" s="11"/>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.25">
@@ -9998,9 +11779,25 @@
         <f>IF(R123="N","N",IF(OR((J123+Constants!D$14)&gt;Constants!F$7,(J123-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC123" s="29"/>
+      <c r="W123">
+        <f>J123/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X123">
+        <f>H123/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="6"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="7"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC123" s="24"/>
       <c r="AD123" s="11"/>
-      <c r="AF123" s="29"/>
+      <c r="AF123" s="24"/>
       <c r="AG123" s="11"/>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.25">
@@ -10061,9 +11858,25 @@
         <f>IF(R124="N","N",IF(OR((J124+Constants!D$14)&gt;Constants!F$7,(J124-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC124" s="29"/>
+      <c r="W124">
+        <f>J124/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X124">
+        <f>H124/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="6"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="AC124" s="24"/>
       <c r="AD124" s="11"/>
-      <c r="AF124" s="29"/>
+      <c r="AF124" s="24"/>
       <c r="AG124" s="11"/>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.25">
@@ -10124,9 +11937,25 @@
         <f>IF(R125="N","N",IF(OR((J125+Constants!D$14)&gt;Constants!F$7,(J125-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC125" s="29"/>
+      <c r="W125">
+        <f>J125/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37</v>
+      </c>
+      <c r="X125">
+        <f>H125/2+Constants!D$9-Constants!D$11</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="6"/>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="7"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="AC125" s="24"/>
       <c r="AD125" s="11"/>
-      <c r="AF125" s="29"/>
+      <c r="AF125" s="24"/>
       <c r="AG125" s="11"/>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.25">
@@ -10187,9 +12016,25 @@
         <f>IF(R126="N","N",IF(OR((J126+Constants!D$14)&gt;Constants!F$7,(J126-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC126" s="29"/>
+      <c r="W126">
+        <f>J126/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X126">
+        <f>H126/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="6"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="7"/>
+        <v>62.500000000000057</v>
+      </c>
+      <c r="AC126" s="24"/>
       <c r="AD126" s="11"/>
-      <c r="AF126" s="29"/>
+      <c r="AF126" s="24"/>
       <c r="AG126" s="11"/>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.25">
@@ -10250,9 +12095,25 @@
         <f>IF(R127="N","N",IF(OR((J127+Constants!D$14)&gt;Constants!F$7,(J127-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC127" s="29"/>
+      <c r="W127">
+        <f>J127/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X127">
+        <f>H127/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="6"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="7"/>
+        <v>75.000000000000014</v>
+      </c>
+      <c r="AC127" s="24"/>
       <c r="AD127" s="11"/>
-      <c r="AF127" s="29"/>
+      <c r="AF127" s="24"/>
       <c r="AG127" s="11"/>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.25">
@@ -10313,9 +12174,25 @@
         <f>IF(R128="N","N",IF(OR((J128+Constants!D$14)&gt;Constants!F$7,(J128-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC128" s="29"/>
+      <c r="W128">
+        <f>J128/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X128">
+        <f>H128/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="6"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA128">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AC128" s="24"/>
       <c r="AD128" s="11"/>
-      <c r="AF128" s="29"/>
+      <c r="AF128" s="24"/>
       <c r="AG128" s="11"/>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.25">
@@ -10376,9 +12253,25 @@
         <f>IF(R129="N","N",IF(OR((J129+Constants!D$14)&gt;Constants!F$7,(J129-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC129" s="29"/>
+      <c r="W129">
+        <f>J129/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38</v>
+      </c>
+      <c r="X129">
+        <f>H129/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36449999999999994</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="6"/>
+        <v>90.000000000000028</v>
+      </c>
+      <c r="AA129">
+        <f t="shared" si="7"/>
+        <v>74.499999999999957</v>
+      </c>
+      <c r="AC129" s="24"/>
       <c r="AD129" s="11"/>
-      <c r="AF129" s="29"/>
+      <c r="AF129" s="24"/>
       <c r="AG129" s="11"/>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.25">
@@ -10439,9 +12332,25 @@
         <f>IF(R130="N","N",IF(OR((J130+Constants!D$14)&gt;Constants!F$7,(J130-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC130" s="29"/>
+      <c r="W130">
+        <f>J130/2+Constants!D$9-Constants!D$10</f>
+        <v>0.379</v>
+      </c>
+      <c r="X130">
+        <f>H130/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="6"/>
+        <v>89.000000000000028</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="7"/>
+        <v>72.000000000000014</v>
+      </c>
+      <c r="AC130" s="24"/>
       <c r="AD130" s="11"/>
-      <c r="AF130" s="29"/>
+      <c r="AF130" s="24"/>
       <c r="AG130" s="11"/>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.25">
@@ -10502,270 +12411,2654 @@
         <f>IF(R131="N","N",IF(OR((J131+Constants!D$14)&gt;Constants!F$7,(J131-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
         <v>Good</v>
       </c>
-      <c r="AC131" s="29"/>
+      <c r="W131">
+        <f>J131/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37250000000000005</v>
+      </c>
+      <c r="X131">
+        <f>H131/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35050000000000003</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" si="6"/>
+        <v>82.500000000000071</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" si="7"/>
+        <v>60.500000000000057</v>
+      </c>
+      <c r="AC131" s="24"/>
       <c r="AD131" s="11"/>
-      <c r="AF131" s="29"/>
+      <c r="AF131" s="24"/>
       <c r="AG131" s="11"/>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC132" s="29"/>
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" s="47">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>65</v>
+      </c>
+      <c r="H132" s="48">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I132" s="48">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J132" s="48">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L132" s="48"/>
+      <c r="M132" s="48"/>
+      <c r="N132" s="48"/>
+      <c r="P132" t="str">
+        <f>IF(AND(J132&lt;=Constants!F$5,J132&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q132" t="str">
+        <f>IF(AND(J132&lt;=Constants!F$6,J132&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R132" t="str">
+        <f>IF(AND(J132&lt;=Constants!F$7,J132&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S132" t="str">
+        <f>IF(P132="N","N",IF(OR((J132+Constants!D$14)&gt;Constants!F$5,(J132-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T132" t="str">
+        <f>IF(Q132="N","N",IF(OR((J132+Constants!D$14)&gt;Constants!F$6,(J132-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U132" t="str">
+        <f>IF(R132="N","N",IF(OR((J132+Constants!D$14)&gt;Constants!F$7,(J132-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W132">
+        <f>J132/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37050000000000005</v>
+      </c>
+      <c r="X132">
+        <f>H132/2+Constants!D$9-Constants!D$11</f>
+        <v>0.34850000000000003</v>
+      </c>
+      <c r="Z132">
+        <f t="shared" si="6"/>
+        <v>80.500000000000071</v>
+      </c>
+      <c r="AA132">
+        <f t="shared" si="7"/>
+        <v>58.50000000000005</v>
+      </c>
+      <c r="AC132" s="24"/>
       <c r="AD132" s="11"/>
-      <c r="AF132" s="29"/>
+      <c r="AF132" s="24"/>
       <c r="AG132" s="11"/>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC133" s="29"/>
+      <c r="A133" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" s="47">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>65</v>
+      </c>
+      <c r="H133" s="48">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I133" s="48">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="J133" s="48">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="L133" s="48"/>
+      <c r="M133" s="48"/>
+      <c r="N133" s="48"/>
+      <c r="P133" t="str">
+        <f>IF(AND(J133&lt;=Constants!F$5,J133&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q133" t="str">
+        <f>IF(AND(J133&lt;=Constants!F$6,J133&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R133" t="str">
+        <f>IF(AND(J133&lt;=Constants!F$7,J133&gt;=Constants!E$7),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="S133" t="str">
+        <f>IF(P133="N","N",IF(OR((J133+Constants!D$14)&gt;Constants!F$5,(J133-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T133" t="str">
+        <f>IF(Q133="N","N",IF(OR((J133+Constants!D$14)&gt;Constants!F$6,(J133-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U133" t="str">
+        <f>IF(R133="N","N",IF(OR((J133+Constants!D$14)&gt;Constants!F$7,(J133-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="W133">
+        <f>J133/2+Constants!D$9-Constants!D$10</f>
+        <v>0.36350000000000005</v>
+      </c>
+      <c r="X133">
+        <f>H133/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" si="6"/>
+        <v>73.500000000000071</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="7"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC133" s="24"/>
       <c r="AD133" s="11"/>
-      <c r="AF133" s="29"/>
+      <c r="AF133" s="24"/>
       <c r="AG133" s="11"/>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC134" s="29"/>
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" s="47">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>65</v>
+      </c>
+      <c r="H134" s="48">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I134" s="48">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J134" s="48">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="L134" s="48">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="M134" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="N134" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="P134" t="str">
+        <f>IF(AND(J134&lt;=Constants!F$5,J134&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q134" t="str">
+        <f>IF(AND(J134&lt;=Constants!F$6,J134&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R134" t="str">
+        <f>IF(AND(J134&lt;=Constants!F$7,J134&gt;=Constants!E$7),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="S134" t="str">
+        <f>IF(P134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$5,(J134-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T134" t="str">
+        <f>IF(Q134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$6,(J134-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U134" t="str">
+        <f>IF(R134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$7,(J134-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="W134">
+        <f>J134/2+Constants!D$9-Constants!D$10</f>
+        <v>0.36550000000000005</v>
+      </c>
+      <c r="X134">
+        <f>H134/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36349999999999993</v>
+      </c>
+      <c r="Z134">
+        <f t="shared" si="6"/>
+        <v>75.500000000000071</v>
+      </c>
+      <c r="AA134">
+        <f t="shared" si="7"/>
+        <v>73.499999999999957</v>
+      </c>
+      <c r="AC134" s="24"/>
       <c r="AD134" s="11"/>
-      <c r="AF134" s="29"/>
+      <c r="AF134" s="24"/>
       <c r="AG134" s="11"/>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC135" s="29"/>
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" t="s">
+        <v>174</v>
+      </c>
+      <c r="E135" s="47">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>65</v>
+      </c>
+      <c r="H135" s="48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I135" s="48">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J135" s="48">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L135" s="48">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="M135" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="N135" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="P135" t="str">
+        <f>IF(AND(J135&lt;=Constants!F$5,J135&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q135" t="str">
+        <f>IF(AND(J135&lt;=Constants!F$6,J135&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R135" t="str">
+        <f>IF(AND(J135&lt;=Constants!F$7,J135&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S135" t="str">
+        <f>IF(P135="N","N",IF(OR((J135+Constants!D$14)&gt;Constants!F$5,(J135-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T135" t="str">
+        <f>IF(Q135="N","N",IF(OR((J135+Constants!D$14)&gt;Constants!F$6,(J135-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U135" t="str">
+        <f>IF(R135="N","N",IF(OR((J135+Constants!D$14)&gt;Constants!F$7,(J135-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W135">
+        <f>J135/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X135">
+        <f>H135/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z135">
+        <f t="shared" si="6"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA135">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="AC135" s="24"/>
       <c r="AD135" s="11"/>
-      <c r="AF135" s="29"/>
+      <c r="AF135" s="24"/>
       <c r="AG135" s="11"/>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC136" s="29"/>
+      <c r="A136" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" t="s">
+        <v>82</v>
+      </c>
+      <c r="E136" s="47">
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>65</v>
+      </c>
+      <c r="H136" s="48">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I136" s="48">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J136" s="48">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="L136" s="48">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M136" s="48">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="N136" s="48">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P136" t="str">
+        <f>IF(AND(J136&lt;=Constants!F$5,J136&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q136" t="str">
+        <f>IF(AND(J136&lt;=Constants!F$6,J136&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R136" t="str">
+        <f>IF(AND(J136&lt;=Constants!F$7,J136&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S136" t="str">
+        <f>IF(P136="N","N",IF(OR((J136+Constants!D$14)&gt;Constants!F$5,(J136-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T136" t="str">
+        <f>IF(Q136="N","N",IF(OR((J136+Constants!D$14)&gt;Constants!F$6,(J136-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U136" t="str">
+        <f>IF(R136="N","N",IF(OR((J136+Constants!D$14)&gt;Constants!F$7,(J136-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W136">
+        <f>J136/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X136">
+        <f>H136/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" si="6"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA136">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AC136" s="24"/>
       <c r="AD136" s="11"/>
-      <c r="AF136" s="29"/>
+      <c r="AF136" s="24"/>
       <c r="AG136" s="11"/>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC137" s="29"/>
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="C137" t="s">
+        <v>79</v>
+      </c>
+      <c r="E137" s="47">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>65</v>
+      </c>
+      <c r="H137" s="48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I137" s="48">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J137" s="48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L137" s="48">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="M137" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="N137" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="P137" t="str">
+        <f>IF(AND(J137&lt;=Constants!F$5,J137&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q137" t="str">
+        <f>IF(AND(J137&lt;=Constants!F$6,J137&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R137" t="str">
+        <f>IF(AND(J137&lt;=Constants!F$7,J137&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S137" t="str">
+        <f>IF(P137="N","N",IF(OR((J137+Constants!D$14)&gt;Constants!F$5,(J137-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T137" t="str">
+        <f>IF(Q137="N","N",IF(OR((J137+Constants!D$14)&gt;Constants!F$6,(J137-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U137" t="str">
+        <f>IF(R137="N","N",IF(OR((J137+Constants!D$14)&gt;Constants!F$7,(J137-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W137">
+        <f>J137/2+Constants!D$9-Constants!D$10</f>
+        <v>0.378</v>
+      </c>
+      <c r="X137">
+        <f>H137/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z137">
+        <f t="shared" si="6"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="AA137">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="AC137" s="24"/>
       <c r="AD137" s="11"/>
-      <c r="AF137" s="29"/>
+      <c r="AF137" s="24"/>
       <c r="AG137" s="11"/>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC138" s="29"/>
+      <c r="A138" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="47">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>95</v>
+      </c>
+      <c r="H138" s="48">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I138" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J138" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L138" s="48">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="M138" s="48">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N138" s="48">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="P138" t="str">
+        <f>IF(AND(J138&lt;=Constants!F$5,J138&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q138" t="str">
+        <f>IF(AND(J138&lt;=Constants!F$6,J138&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R138" t="str">
+        <f>IF(AND(J138&lt;=Constants!F$7,J138&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S138" t="str">
+        <f>IF(P138="N","N",IF(OR((J138+Constants!D$14)&gt;Constants!F$5,(J138-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T138" t="str">
+        <f>IF(Q138="N","N",IF(OR((J138+Constants!D$14)&gt;Constants!F$6,(J138-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U138" t="str">
+        <f>IF(R138="N","N",IF(OR((J138+Constants!D$14)&gt;Constants!F$7,(J138-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W138">
+        <f>J138/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X138">
+        <f>H138/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z138">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA138">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AC138" s="24"/>
       <c r="AD138" s="11"/>
-      <c r="AF138" s="29"/>
+      <c r="AF138" s="24"/>
       <c r="AG138" s="11"/>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC139" s="29"/>
+      <c r="A139" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="47">
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>65</v>
+      </c>
+      <c r="H139" s="48">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I139" s="48">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J139" s="48">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="L139" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="M139" s="48">
+        <v>0.438</v>
+      </c>
+      <c r="N139" s="48">
+        <v>0.438</v>
+      </c>
+      <c r="P139" t="str">
+        <f>IF(AND(J139&lt;=Constants!F$5,J139&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q139" t="str">
+        <f>IF(AND(J139&lt;=Constants!F$6,J139&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R139" t="str">
+        <f>IF(AND(J139&lt;=Constants!F$7,J139&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S139" t="str">
+        <f>IF(P139="N","N",IF(OR((J139+Constants!D$14)&gt;Constants!F$5,(J139-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T139" t="str">
+        <f>IF(Q139="N","N",IF(OR((J139+Constants!D$14)&gt;Constants!F$6,(J139-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U139" t="str">
+        <f>IF(R139="N","N",IF(OR((J139+Constants!D$14)&gt;Constants!F$7,(J139-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W139">
+        <f>J139/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X139">
+        <f>H139/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" si="6"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA139">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="AC139" s="24"/>
       <c r="AD139" s="11"/>
-      <c r="AF139" s="29"/>
+      <c r="AF139" s="24"/>
       <c r="AG139" s="11"/>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC140" s="29"/>
+      <c r="A140" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="47">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" s="48">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="I140" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J140" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L140" s="48">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="M140" s="48">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="N140" s="48">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="P140" t="str">
+        <f>IF(AND(J140&lt;=Constants!F$5,J140&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q140" t="str">
+        <f>IF(AND(J140&lt;=Constants!F$6,J140&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R140" t="str">
+        <f>IF(AND(J140&lt;=Constants!F$7,J140&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S140" t="str">
+        <f>IF(P140="N","N",IF(OR((J140+Constants!D$14)&gt;Constants!F$5,(J140-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T140" t="str">
+        <f>IF(Q140="N","N",IF(OR((J140+Constants!D$14)&gt;Constants!F$6,(J140-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U140" t="str">
+        <f>IF(R140="N","N",IF(OR((J140+Constants!D$14)&gt;Constants!F$7,(J140-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W140">
+        <f>J140/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X140">
+        <f>H140/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA140">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="AC140" s="24"/>
       <c r="AD140" s="11"/>
-      <c r="AF140" s="29"/>
+      <c r="AF140" s="24"/>
       <c r="AG140" s="11"/>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC141" s="29"/>
+      <c r="A141" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" s="47">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>65</v>
+      </c>
+      <c r="H141" s="48">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I141" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J141" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L141" s="48">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="M141" s="48">
+        <v>0.439</v>
+      </c>
+      <c r="N141" s="48">
+        <v>0.439</v>
+      </c>
+      <c r="P141" t="str">
+        <f>IF(AND(J141&lt;=Constants!F$5,J141&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q141" t="str">
+        <f>IF(AND(J141&lt;=Constants!F$6,J141&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R141" t="str">
+        <f>IF(AND(J141&lt;=Constants!F$7,J141&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S141" t="str">
+        <f>IF(P141="N","N",IF(OR((J141+Constants!D$14)&gt;Constants!F$5,(J141-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T141" t="str">
+        <f>IF(Q141="N","N",IF(OR((J141+Constants!D$14)&gt;Constants!F$6,(J141-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U141" t="str">
+        <f>IF(R141="N","N",IF(OR((J141+Constants!D$14)&gt;Constants!F$7,(J141-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W141">
+        <f>J141/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X141">
+        <f>H141/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" si="6"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA141">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="AC141" s="24"/>
       <c r="AD141" s="11"/>
-      <c r="AF141" s="29"/>
+      <c r="AF141" s="24"/>
       <c r="AG141" s="11"/>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC142" s="29"/>
+      <c r="A142" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" t="s">
+        <v>179</v>
+      </c>
+      <c r="E142" s="47">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>65</v>
+      </c>
+      <c r="H142" s="48">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I142" s="48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J142" s="48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L142" s="48">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M142" s="48">
+        <v>0.43</v>
+      </c>
+      <c r="N142" s="48">
+        <v>0.43</v>
+      </c>
+      <c r="P142" t="str">
+        <f>IF(AND(J142&lt;=Constants!F$5,J142&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q142" t="str">
+        <f>IF(AND(J142&lt;=Constants!F$6,J142&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R142" t="str">
+        <f>IF(AND(J142&lt;=Constants!F$7,J142&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S142" t="str">
+        <f>IF(P142="N","N",IF(OR((J142+Constants!D$14)&gt;Constants!F$5,(J142-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="T142" t="str">
+        <f>IF(Q142="N","N",IF(OR((J142+Constants!D$14)&gt;Constants!F$6,(J142-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U142" t="str">
+        <f>IF(R142="N","N",IF(OR((J142+Constants!D$14)&gt;Constants!F$7,(J142-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W142">
+        <f>J142/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="X142">
+        <f>H142/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36549999999999994</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="6"/>
+        <v>93.000000000000028</v>
+      </c>
+      <c r="AA142">
+        <f t="shared" si="7"/>
+        <v>75.499999999999957</v>
+      </c>
+      <c r="AC142" s="24"/>
       <c r="AD142" s="11"/>
-      <c r="AF142" s="29"/>
+      <c r="AF142" s="24"/>
       <c r="AG142" s="11"/>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC143" s="29"/>
+      <c r="A143" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" t="s">
+        <v>180</v>
+      </c>
+      <c r="E143" s="47">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>95</v>
+      </c>
+      <c r="H143" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I143" s="48">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="J143" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L143" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="M143" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="N143" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="P143" t="str">
+        <f>IF(AND(J143&lt;=Constants!F$5,J143&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q143" t="str">
+        <f>IF(AND(J143&lt;=Constants!F$6,J143&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R143" t="str">
+        <f>IF(AND(J143&lt;=Constants!F$7,J143&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S143" t="str">
+        <f>IF(P143="N","N",IF(OR((J143+Constants!D$14)&gt;Constants!F$5,(J143-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T143" t="str">
+        <f>IF(Q143="N","N",IF(OR((J143+Constants!D$14)&gt;Constants!F$6,(J143-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U143" t="str">
+        <f>IF(R143="N","N",IF(OR((J143+Constants!D$14)&gt;Constants!F$7,(J143-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W143">
+        <f>J143/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X143">
+        <f>H143/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA143">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AC143" s="24"/>
       <c r="AD143" s="11"/>
-      <c r="AF143" s="29"/>
+      <c r="AF143" s="24"/>
       <c r="AG143" s="11"/>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC144" s="29"/>
+      <c r="A144" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="47">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>95</v>
+      </c>
+      <c r="H144">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I144" s="48">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J144" s="48">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="L144" s="48">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="M144" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="N144" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="P144" t="str">
+        <f>IF(AND(J144&lt;=Constants!F$5,J144&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q144" t="str">
+        <f>IF(AND(J144&lt;=Constants!F$6,J144&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R144" t="str">
+        <f>IF(AND(J144&lt;=Constants!F$7,J144&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S144" t="str">
+        <f>IF(P144="N","N",IF(OR((J144+Constants!D$14)&gt;Constants!F$5,(J144-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T144" t="str">
+        <f>IF(Q144="N","N",IF(OR((J144+Constants!D$14)&gt;Constants!F$6,(J144-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U144" t="str">
+        <f>IF(R144="N","N",IF(OR((J144+Constants!D$14)&gt;Constants!F$7,(J144-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W144">
+        <f>J144/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37150000000000005</v>
+      </c>
+      <c r="X144">
+        <f>H144/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" si="6"/>
+        <v>81.500000000000071</v>
+      </c>
+      <c r="AA144">
+        <f t="shared" si="7"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC144" s="24"/>
       <c r="AD144" s="11"/>
-      <c r="AF144" s="29"/>
+      <c r="AF144" s="24"/>
       <c r="AG144" s="11"/>
     </row>
-    <row r="145" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC145" s="29"/>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" t="s">
+        <v>182</v>
+      </c>
+      <c r="E145" s="47">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>65</v>
+      </c>
+      <c r="H145" s="48">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I145" s="48">
+        <v>0.54</v>
+      </c>
+      <c r="J145" s="48">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="L145" s="48">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="M145" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="N145" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="P145" t="str">
+        <f>IF(AND(J145&lt;=Constants!F$5,J145&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q145" t="str">
+        <f>IF(AND(J145&lt;=Constants!F$6,J145&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R145" t="str">
+        <f>IF(AND(J145&lt;=Constants!F$7,J145&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S145" t="str">
+        <f>IF(P145="N","N",IF(OR((J145+Constants!D$14)&gt;Constants!F$5,(J145-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T145" t="str">
+        <f>IF(Q145="N","N",IF(OR((J145+Constants!D$14)&gt;Constants!F$6,(J145-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U145" t="str">
+        <f>IF(R145="N","N",IF(OR((J145+Constants!D$14)&gt;Constants!F$7,(J145-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W145">
+        <f>J145/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X145">
+        <f>H145/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" si="6"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA145">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="AC145" s="24"/>
       <c r="AD145" s="11"/>
-      <c r="AF145" s="29"/>
+      <c r="AF145" s="24"/>
       <c r="AG145" s="11"/>
     </row>
-    <row r="146" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC146" s="29"/>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="E146" s="47">
+        <v>3</v>
+      </c>
+      <c r="F146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H146" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I146" s="48">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J146" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="L146" s="48">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M146" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="N146" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="P146" t="str">
+        <f>IF(AND(J146&lt;=Constants!F$5,J146&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q146" t="str">
+        <f>IF(AND(J146&lt;=Constants!F$6,J146&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R146" t="str">
+        <f>IF(AND(J146&lt;=Constants!F$7,J146&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S146" t="str">
+        <f>IF(P146="N","N",IF(OR((J146+Constants!D$14)&gt;Constants!F$5,(J146-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T146" t="str">
+        <f>IF(Q146="N","N",IF(OR((J146+Constants!D$14)&gt;Constants!F$6,(J146-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U146" t="str">
+        <f>IF(R146="N","N",IF(OR((J146+Constants!D$14)&gt;Constants!F$7,(J146-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W146">
+        <f>J146/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X146">
+        <f>H146/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" si="6"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA146">
+        <f t="shared" si="7"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC146" s="24"/>
       <c r="AD146" s="11"/>
-      <c r="AF146" s="29"/>
+      <c r="AF146" s="24"/>
       <c r="AG146" s="11"/>
     </row>
-    <row r="147" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC147" s="29"/>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="47">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>95</v>
+      </c>
+      <c r="H147" s="48">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I147" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J147" s="48">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="L147" s="48">
+        <v>0.443</v>
+      </c>
+      <c r="M147" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="N147" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="P147" t="str">
+        <f>IF(AND(J147&lt;=Constants!F$5,J147&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q147" t="str">
+        <f>IF(AND(J147&lt;=Constants!F$6,J147&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R147" t="str">
+        <f>IF(AND(J147&lt;=Constants!F$7,J147&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S147" t="str">
+        <f>IF(P147="N","N",IF(OR((J147+Constants!D$14)&gt;Constants!F$5,(J147-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T147" t="str">
+        <f>IF(Q147="N","N",IF(OR((J147+Constants!D$14)&gt;Constants!F$6,(J147-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U147" t="str">
+        <f>IF(R147="N","N",IF(OR((J147+Constants!D$14)&gt;Constants!F$7,(J147-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W147">
+        <f>J147/2+Constants!D$9-Constants!D$10</f>
+        <v>0.376</v>
+      </c>
+      <c r="X147">
+        <f>H147/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="6"/>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="AA147">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="AC147" s="24"/>
       <c r="AD147" s="11"/>
-      <c r="AF147" s="29"/>
+      <c r="AF147" s="24"/>
       <c r="AG147" s="11"/>
     </row>
-    <row r="148" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC148" s="29"/>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="47">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>95</v>
+      </c>
+      <c r="H148" s="48">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="I148" s="48">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J148" s="48">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L148" s="48">
+        <v>0.46</v>
+      </c>
+      <c r="M148" s="48">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="N148" s="48">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="P148" t="str">
+        <f>IF(AND(J148&lt;=Constants!F$5,J148&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q148" t="str">
+        <f>IF(AND(J148&lt;=Constants!F$6,J148&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R148" t="str">
+        <f>IF(AND(J148&lt;=Constants!F$7,J148&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S148" t="str">
+        <f>IF(P148="N","N",IF(OR((J148+Constants!D$14)&gt;Constants!F$5,(J148-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T148" t="str">
+        <f>IF(Q148="N","N",IF(OR((J148+Constants!D$14)&gt;Constants!F$6,(J148-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U148" t="str">
+        <f>IF(R148="N","N",IF(OR((J148+Constants!D$14)&gt;Constants!F$7,(J148-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W148">
+        <f>J148/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X148">
+        <f>H148/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35949999999999993</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="6"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA148">
+        <f t="shared" si="7"/>
+        <v>69.499999999999957</v>
+      </c>
+      <c r="AC148" s="24"/>
       <c r="AD148" s="11"/>
-      <c r="AF148" s="29"/>
+      <c r="AF148" s="24"/>
       <c r="AG148" s="11"/>
     </row>
-    <row r="149" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC149" s="29"/>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="47">
+        <v>3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>65</v>
+      </c>
+      <c r="H149" s="48">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I149" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J149" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="L149" s="48">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="M149" s="48">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N149" s="48">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P149" t="str">
+        <f>IF(AND(J149&lt;=Constants!F$5,J149&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q149" t="str">
+        <f>IF(AND(J149&lt;=Constants!F$6,J149&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R149" t="str">
+        <f>IF(AND(J149&lt;=Constants!F$7,J149&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S149" t="str">
+        <f>IF(P149="N","N",IF(OR((J149+Constants!D$14)&gt;Constants!F$5,(J149-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T149" t="str">
+        <f>IF(Q149="N","N",IF(OR((J149+Constants!D$14)&gt;Constants!F$6,(J149-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U149" t="str">
+        <f>IF(R149="N","N",IF(OR((J149+Constants!D$14)&gt;Constants!F$7,(J149-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W149">
+        <f>J149/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X149">
+        <f>H149/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35849999999999993</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="6"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA149">
+        <f t="shared" si="7"/>
+        <v>68.499999999999943</v>
+      </c>
+      <c r="AC149" s="24"/>
       <c r="AD149" s="11"/>
-      <c r="AF149" s="29"/>
+      <c r="AF149" s="24"/>
       <c r="AG149" s="11"/>
     </row>
-    <row r="150" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC150" s="29"/>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" t="s">
+        <v>187</v>
+      </c>
+      <c r="E150" s="47">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>95</v>
+      </c>
+      <c r="H150" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I150" s="48">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J150" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L150" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="M150" s="48">
+        <v>0.437</v>
+      </c>
+      <c r="N150" s="48">
+        <v>0.437</v>
+      </c>
+      <c r="P150" t="str">
+        <f>IF(AND(J150&lt;=Constants!F$5,J150&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q150" t="str">
+        <f>IF(AND(J150&lt;=Constants!F$6,J150&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R150" t="str">
+        <f>IF(AND(J150&lt;=Constants!F$7,J150&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S150" t="str">
+        <f>IF(P150="N","N",IF(OR((J150+Constants!D$14)&gt;Constants!F$5,(J150-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T150" t="str">
+        <f>IF(Q150="N","N",IF(OR((J150+Constants!D$14)&gt;Constants!F$6,(J150-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U150" t="str">
+        <f>IF(R150="N","N",IF(OR((J150+Constants!D$14)&gt;Constants!F$7,(J150-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W150">
+        <f>J150/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X150">
+        <f>H150/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA150">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AC150" s="24"/>
       <c r="AD150" s="11"/>
-      <c r="AF150" s="29"/>
+      <c r="AF150" s="24"/>
       <c r="AG150" s="11"/>
     </row>
-    <row r="151" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC151" s="29"/>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="47">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>95</v>
+      </c>
+      <c r="H151" s="48">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I151" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J151" s="48">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="L151" s="48">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M151" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="N151" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="P151" t="str">
+        <f>IF(AND(J151&lt;=Constants!F$5,J151&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q151" t="str">
+        <f>IF(AND(J151&lt;=Constants!F$6,J151&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R151" t="str">
+        <f>IF(AND(J151&lt;=Constants!F$7,J151&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S151" t="str">
+        <f>IF(P151="N","N",IF(OR((J151+Constants!D$14)&gt;Constants!F$5,(J151-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T151" t="str">
+        <f>IF(Q151="N","N",IF(OR((J151+Constants!D$14)&gt;Constants!F$6,(J151-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U151" t="str">
+        <f>IF(R151="N","N",IF(OR((J151+Constants!D$14)&gt;Constants!F$7,(J151-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W151">
+        <f>J151/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38</v>
+      </c>
+      <c r="X151">
+        <f>H151/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z151">
+        <f t="shared" si="6"/>
+        <v>90.000000000000028</v>
+      </c>
+      <c r="AA151">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AC151" s="24"/>
       <c r="AD151" s="11"/>
-      <c r="AF151" s="29"/>
+      <c r="AF151" s="24"/>
       <c r="AG151" s="11"/>
     </row>
-    <row r="152" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC152" s="29"/>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" t="s">
+        <v>189</v>
+      </c>
+      <c r="E152" s="47">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>65</v>
+      </c>
+      <c r="H152" s="48">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I152" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J152" s="48">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="L152" s="48">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M152" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="N152" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="P152" t="str">
+        <f>IF(AND(J152&lt;=Constants!F$5,J152&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q152" t="str">
+        <f>IF(AND(J152&lt;=Constants!F$6,J152&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R152" t="str">
+        <f>IF(AND(J152&lt;=Constants!F$7,J152&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S152" t="str">
+        <f>IF(P152="N","N",IF(OR((J152+Constants!D$14)&gt;Constants!F$5,(J152-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T152" t="str">
+        <f>IF(Q152="N","N",IF(OR((J152+Constants!D$14)&gt;Constants!F$6,(J152-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U152" t="str">
+        <f>IF(R152="N","N",IF(OR((J152+Constants!D$14)&gt;Constants!F$7,(J152-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W152">
+        <f>J152/2+Constants!D$9-Constants!D$10</f>
+        <v>0.375</v>
+      </c>
+      <c r="X152">
+        <f>H152/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" si="6"/>
+        <v>85.000000000000014</v>
+      </c>
+      <c r="AA152">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="AC152" s="24"/>
       <c r="AD152" s="11"/>
-      <c r="AF152" s="29"/>
+      <c r="AF152" s="24"/>
       <c r="AG152" s="11"/>
     </row>
-    <row r="153" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC153" s="29"/>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" t="s">
+        <v>190</v>
+      </c>
+      <c r="E153" s="47">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>65</v>
+      </c>
+      <c r="H153" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I153" s="48">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J153" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="L153" s="48">
+        <v>0.45</v>
+      </c>
+      <c r="M153" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="N153" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="P153" t="str">
+        <f>IF(AND(J153&lt;=Constants!F$5,J153&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q153" t="str">
+        <f>IF(AND(J153&lt;=Constants!F$6,J153&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R153" t="str">
+        <f>IF(AND(J153&lt;=Constants!F$7,J153&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S153" t="str">
+        <f>IF(P153="N","N",IF(OR((J153+Constants!D$14)&gt;Constants!F$5,(J153-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T153" t="str">
+        <f>IF(Q153="N","N",IF(OR((J153+Constants!D$14)&gt;Constants!F$6,(J153-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U153" t="str">
+        <f>IF(R153="N","N",IF(OR((J153+Constants!D$14)&gt;Constants!F$7,(J153-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W153">
+        <f>J153/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X153">
+        <f>H153/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35350000000000004</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="6"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA153">
+        <f t="shared" si="7"/>
+        <v>63.500000000000057</v>
+      </c>
+      <c r="AC153" s="24"/>
       <c r="AD153" s="11"/>
-      <c r="AF153" s="29"/>
+      <c r="AF153" s="24"/>
       <c r="AG153" s="11"/>
     </row>
-    <row r="154" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC154" s="29"/>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>191</v>
+      </c>
+      <c r="E154" s="47">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>65</v>
+      </c>
+      <c r="H154" s="48">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I154" s="48">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J154" s="48">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="L154" s="48">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="M154" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="N154" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="P154" t="str">
+        <f>IF(AND(J154&lt;=Constants!F$5,J154&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q154" t="str">
+        <f>IF(AND(J154&lt;=Constants!F$6,J154&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R154" t="str">
+        <f>IF(AND(J154&lt;=Constants!F$7,J154&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S154" t="str">
+        <f>IF(P154="N","N",IF(OR((J154+Constants!D$14)&gt;Constants!F$5,(J154-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T154" t="str">
+        <f>IF(Q154="N","N",IF(OR((J154+Constants!D$14)&gt;Constants!F$6,(J154-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U154" t="str">
+        <f>IF(R154="N","N",IF(OR((J154+Constants!D$14)&gt;Constants!F$7,(J154-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W154">
+        <f>J154/2+Constants!D$9-Constants!D$10</f>
+        <v>0.374</v>
+      </c>
+      <c r="X154">
+        <f>H154/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="6"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="AA154">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="AC154" s="24"/>
       <c r="AD154" s="11"/>
-      <c r="AF154" s="29"/>
+      <c r="AF154" s="24"/>
       <c r="AG154" s="11"/>
     </row>
-    <row r="155" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC155" s="29"/>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" t="s">
+        <v>192</v>
+      </c>
+      <c r="E155" s="47">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>95</v>
+      </c>
+      <c r="H155" s="48">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I155" s="48">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J155" s="48">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L155" s="48">
+        <v>0.443</v>
+      </c>
+      <c r="M155" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="N155" s="48">
+        <v>0.442</v>
+      </c>
+      <c r="P155" t="str">
+        <f>IF(AND(J155&lt;=Constants!F$5,J155&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q155" t="str">
+        <f>IF(AND(J155&lt;=Constants!F$6,J155&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R155" t="str">
+        <f>IF(AND(J155&lt;=Constants!F$7,J155&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S155" t="str">
+        <f>IF(P155="N","N",IF(OR((J155+Constants!D$14)&gt;Constants!F$5,(J155-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T155" t="str">
+        <f>IF(Q155="N","N",IF(OR((J155+Constants!D$14)&gt;Constants!F$6,(J155-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U155" t="str">
+        <f>IF(R155="N","N",IF(OR((J155+Constants!D$14)&gt;Constants!F$7,(J155-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W155">
+        <f>J155/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X155">
+        <f>H155/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="6"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA155">
+        <f t="shared" si="7"/>
+        <v>64.500000000000057</v>
+      </c>
+      <c r="AC155" s="24"/>
       <c r="AD155" s="11"/>
-      <c r="AF155" s="29"/>
+      <c r="AF155" s="24"/>
       <c r="AG155" s="11"/>
     </row>
-    <row r="156" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC156" s="29"/>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="47">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>65</v>
+      </c>
+      <c r="H156" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I156" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J156" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L156" s="48">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M156" s="48">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N156" s="48">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P156" t="str">
+        <f>IF(AND(J156&lt;=Constants!F$5,J156&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q156" t="str">
+        <f>IF(AND(J156&lt;=Constants!F$6,J156&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R156" t="str">
+        <f>IF(AND(J156&lt;=Constants!F$7,J156&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S156" t="str">
+        <f>IF(P156="N","N",IF(OR((J156+Constants!D$14)&gt;Constants!F$5,(J156-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T156" t="str">
+        <f>IF(Q156="N","N",IF(OR((J156+Constants!D$14)&gt;Constants!F$6,(J156-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U156" t="str">
+        <f>IF(R156="N","N",IF(OR((J156+Constants!D$14)&gt;Constants!F$7,(J156-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W156">
+        <f>J156/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X156">
+        <f>H156/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z156">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA156">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AC156" s="24"/>
       <c r="AD156" s="11"/>
-      <c r="AF156" s="29"/>
+      <c r="AF156" s="24"/>
       <c r="AG156" s="11"/>
     </row>
-    <row r="157" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC157" s="29"/>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" t="s">
+        <v>194</v>
+      </c>
+      <c r="E157" s="47">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>65</v>
+      </c>
+      <c r="H157" s="48">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I157" s="48">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J157" s="48">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="L157" s="48">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M157" s="48">
+        <v>0.432</v>
+      </c>
+      <c r="N157" s="48">
+        <v>0.432</v>
+      </c>
+      <c r="P157" t="str">
+        <f>IF(AND(J157&lt;=Constants!F$5,J157&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q157" t="str">
+        <f>IF(AND(J157&lt;=Constants!F$6,J157&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R157" t="str">
+        <f>IF(AND(J157&lt;=Constants!F$7,J157&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S157" t="str">
+        <f>IF(P157="N","N",IF(OR((J157+Constants!D$14)&gt;Constants!F$5,(J157-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T157" t="str">
+        <f>IF(Q157="N","N",IF(OR((J157+Constants!D$14)&gt;Constants!F$6,(J157-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U157" t="str">
+        <f>IF(R157="N","N",IF(OR((J157+Constants!D$14)&gt;Constants!F$7,(J157-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W157">
+        <f>J157/2+Constants!D$9-Constants!D$10</f>
+        <v>0.376</v>
+      </c>
+      <c r="X157">
+        <f>H157/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z157">
+        <f t="shared" si="6"/>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="AA157">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="AC157" s="24"/>
       <c r="AD157" s="11"/>
-      <c r="AF157" s="29"/>
+      <c r="AF157" s="24"/>
       <c r="AG157" s="11"/>
     </row>
-    <row r="158" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC158" s="29"/>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" t="s">
+        <v>195</v>
+      </c>
+      <c r="E158" s="47">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>65</v>
+      </c>
+      <c r="H158" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I158" s="48">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J158" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L158" s="48">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M158" s="48">
+        <v>0.443</v>
+      </c>
+      <c r="N158" s="48">
+        <v>0.443</v>
+      </c>
+      <c r="P158" t="str">
+        <f>IF(AND(J158&lt;=Constants!F$5,J158&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q158" t="str">
+        <f>IF(AND(J158&lt;=Constants!F$6,J158&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R158" t="str">
+        <f>IF(AND(J158&lt;=Constants!F$7,J158&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S158" t="str">
+        <f>IF(P158="N","N",IF(OR((J158+Constants!D$14)&gt;Constants!F$5,(J158-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T158" t="str">
+        <f>IF(Q158="N","N",IF(OR((J158+Constants!D$14)&gt;Constants!F$6,(J158-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U158" t="str">
+        <f>IF(R158="N","N",IF(OR((J158+Constants!D$14)&gt;Constants!F$7,(J158-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W158">
+        <f>J158/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X158">
+        <f>H158/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z158">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA158">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AC158" s="24"/>
       <c r="AD158" s="11"/>
-      <c r="AF158" s="29"/>
+      <c r="AF158" s="24"/>
       <c r="AG158" s="11"/>
     </row>
-    <row r="159" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC159" s="29"/>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" t="s">
+        <v>196</v>
+      </c>
+      <c r="E159" s="47">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>65</v>
+      </c>
+      <c r="H159" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I159" s="48">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J159" s="48">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="L159" s="48">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M159" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="N159" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="P159" t="str">
+        <f>IF(AND(J159&lt;=Constants!F$5,J159&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q159" t="str">
+        <f>IF(AND(J159&lt;=Constants!F$6,J159&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R159" t="str">
+        <f>IF(AND(J159&lt;=Constants!F$7,J159&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S159" t="str">
+        <f>IF(P159="N","N",IF(OR((J159+Constants!D$14)&gt;Constants!F$5,(J159-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T159" t="str">
+        <f>IF(Q159="N","N",IF(OR((J159+Constants!D$14)&gt;Constants!F$6,(J159-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U159" t="str">
+        <f>IF(R159="N","N",IF(OR((J159+Constants!D$14)&gt;Constants!F$7,(J159-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="W159">
+        <f>J159/2+Constants!D$9-Constants!D$10</f>
+        <v>0.36750000000000005</v>
+      </c>
+      <c r="X159">
+        <f>H159/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z159">
+        <f t="shared" si="6"/>
+        <v>77.500000000000071</v>
+      </c>
+      <c r="AA159">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AC159" s="24"/>
       <c r="AD159" s="11"/>
-      <c r="AF159" s="29"/>
+      <c r="AF159" s="24"/>
       <c r="AG159" s="11"/>
     </row>
-    <row r="160" spans="29:33" x14ac:dyDescent="0.25">
-      <c r="AC160" s="29"/>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" t="s">
+        <v>197</v>
+      </c>
+      <c r="E160" s="47">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>65</v>
+      </c>
+      <c r="H160" s="48">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I160" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J160" s="48">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L160" s="48">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="M160" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="N160" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="P160" t="str">
+        <f>IF(AND(J160&lt;=Constants!F$5,J160&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q160" t="str">
+        <f>IF(AND(J160&lt;=Constants!F$6,J160&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R160" t="str">
+        <f>IF(AND(J160&lt;=Constants!F$7,J160&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S160" t="str">
+        <f>IF(P160="N","N",IF(OR((J160+Constants!D$14)&gt;Constants!F$5,(J160-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T160" t="str">
+        <f>IF(Q160="N","N",IF(OR((J160+Constants!D$14)&gt;Constants!F$6,(J160-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U160" t="str">
+        <f>IF(R160="N","N",IF(OR((J160+Constants!D$14)&gt;Constants!F$7,(J160-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W160">
+        <f>J160/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X160">
+        <f>H160/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="Z160">
+        <f t="shared" si="6"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA160">
+        <f t="shared" si="7"/>
+        <v>65.500000000000057</v>
+      </c>
+      <c r="AC160" s="24"/>
       <c r="AD160" s="11"/>
-      <c r="AF160" s="29"/>
+      <c r="AF160" s="24"/>
       <c r="AG160" s="11"/>
     </row>
-    <row r="161" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC161" s="29"/>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" t="s">
+        <v>198</v>
+      </c>
+      <c r="E161" s="47">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>65</v>
+      </c>
+      <c r="H161" s="48">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="I161" s="48">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="J161" s="48">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L161" s="48">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M161" s="48">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="N161" s="48">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="P161" t="str">
+        <f>IF(AND(J161&lt;=Constants!F$5,J161&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q161" t="str">
+        <f>IF(AND(J161&lt;=Constants!F$6,J161&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R161" t="str">
+        <f>IF(AND(J161&lt;=Constants!F$7,J161&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S161" t="str">
+        <f>IF(P161="N","N",IF(OR((J161+Constants!D$14)&gt;Constants!F$5,(J161-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T161" t="str">
+        <f>IF(Q161="N","N",IF(OR((J161+Constants!D$14)&gt;Constants!F$6,(J161-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U161" t="str">
+        <f>IF(R161="N","N",IF(OR((J161+Constants!D$14)&gt;Constants!F$7,(J161-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W161">
+        <f>J161/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37250000000000005</v>
+      </c>
+      <c r="X161">
+        <f>H161/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="Z161">
+        <f t="shared" si="6"/>
+        <v>82.500000000000071</v>
+      </c>
+      <c r="AA161">
+        <f t="shared" si="7"/>
+        <v>62.500000000000057</v>
+      </c>
+      <c r="AC161" s="24"/>
       <c r="AD161" s="11"/>
-      <c r="AF161" s="29"/>
+      <c r="AF161" s="24"/>
       <c r="AG161" s="11"/>
     </row>
-    <row r="162" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC162" s="29"/>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" t="s">
+        <v>199</v>
+      </c>
+      <c r="E162" s="47">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>65</v>
+      </c>
+      <c r="H162" s="48">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I162" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J162" s="48">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L162" s="48">
+        <v>0.46</v>
+      </c>
+      <c r="M162" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="N162" s="48">
+        <v>0.441</v>
+      </c>
+      <c r="P162" t="str">
+        <f>IF(AND(J162&lt;=Constants!F$5,J162&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q162" t="str">
+        <f>IF(AND(J162&lt;=Constants!F$6,J162&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R162" t="str">
+        <f>IF(AND(J162&lt;=Constants!F$7,J162&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S162" t="str">
+        <f>IF(P162="N","N",IF(OR((J162+Constants!D$14)&gt;Constants!F$5,(J162-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T162" t="str">
+        <f>IF(Q162="N","N",IF(OR((J162+Constants!D$14)&gt;Constants!F$6,(J162-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U162" t="str">
+        <f>IF(R162="N","N",IF(OR((J162+Constants!D$14)&gt;Constants!F$7,(J162-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W162">
+        <f>J162/2+Constants!D$9-Constants!D$10</f>
+        <v>0.377</v>
+      </c>
+      <c r="X162">
+        <f>H162/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z162">
+        <f t="shared" si="6"/>
+        <v>87.000000000000028</v>
+      </c>
+      <c r="AA162">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AC162" s="24"/>
       <c r="AD162" s="11"/>
-      <c r="AF162" s="29"/>
+      <c r="AF162" s="24"/>
       <c r="AG162" s="11"/>
     </row>
-    <row r="163" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC163" s="29"/>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" s="47">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>65</v>
+      </c>
+      <c r="H163" s="48">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I163" s="48">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J163" s="48">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L163" s="48">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="M163" s="48">
+        <v>0.439</v>
+      </c>
+      <c r="N163" s="48">
+        <v>0.439</v>
+      </c>
+      <c r="P163" t="str">
+        <f>IF(AND(J163&lt;=Constants!F$5,J163&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q163" t="str">
+        <f>IF(AND(J163&lt;=Constants!F$6,J163&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R163" t="str">
+        <f>IF(AND(J163&lt;=Constants!F$7,J163&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S163" t="str">
+        <f>IF(P163="N","N",IF(OR((J163+Constants!D$14)&gt;Constants!F$5,(J163-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T163" t="str">
+        <f>IF(Q163="N","N",IF(OR((J163+Constants!D$14)&gt;Constants!F$6,(J163-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U163" t="str">
+        <f>IF(R163="N","N",IF(OR((J163+Constants!D$14)&gt;Constants!F$7,(J163-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W163">
+        <f>J163/2+Constants!D$9-Constants!D$10</f>
+        <v>0.36950000000000005</v>
+      </c>
+      <c r="X163">
+        <f>H163/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35849999999999993</v>
+      </c>
+      <c r="Z163">
+        <f t="shared" si="6"/>
+        <v>79.500000000000071</v>
+      </c>
+      <c r="AA163">
+        <f t="shared" si="7"/>
+        <v>68.499999999999943</v>
+      </c>
+      <c r="AC163" s="24"/>
       <c r="AD163" s="11"/>
-      <c r="AF163" s="29"/>
+      <c r="AF163" s="24"/>
       <c r="AG163" s="11"/>
     </row>
-    <row r="164" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC164" s="29"/>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" s="47">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>65</v>
+      </c>
+      <c r="H164" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I164" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J164" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L164" s="48">
+        <v>0.435</v>
+      </c>
+      <c r="M164" s="48">
+        <v>0.43</v>
+      </c>
+      <c r="N164" s="48">
+        <v>0.43</v>
+      </c>
+      <c r="P164" t="str">
+        <f>IF(AND(J164&lt;=Constants!F$5,J164&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q164" t="str">
+        <f>IF(AND(J164&lt;=Constants!F$6,J164&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R164" t="str">
+        <f>IF(AND(J164&lt;=Constants!F$7,J164&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S164" t="str">
+        <f>IF(P164="N","N",IF(OR((J164+Constants!D$14)&gt;Constants!F$5,(J164-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T164" t="str">
+        <f>IF(Q164="N","N",IF(OR((J164+Constants!D$14)&gt;Constants!F$6,(J164-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U164" t="str">
+        <f>IF(R164="N","N",IF(OR((J164+Constants!D$14)&gt;Constants!F$7,(J164-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W164">
+        <f>J164/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X164">
+        <f>H164/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z164">
+        <f t="shared" si="6"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA164">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="AC164" s="24"/>
       <c r="AD164" s="11"/>
-      <c r="AF164" s="29"/>
+      <c r="AF164" s="24"/>
       <c r="AG164" s="11"/>
     </row>
-    <row r="165" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC165" s="29"/>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" s="47">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>65</v>
+      </c>
+      <c r="H165" s="48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I165" s="48">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J165" s="48">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L165" s="48">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="M165" s="48">
+        <v>0.439</v>
+      </c>
+      <c r="N165" s="48">
+        <v>0.439</v>
+      </c>
+      <c r="P165" t="str">
+        <f>IF(AND(J165&lt;=Constants!F$5,J165&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q165" t="str">
+        <f>IF(AND(J165&lt;=Constants!F$6,J165&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R165" t="str">
+        <f>IF(AND(J165&lt;=Constants!F$7,J165&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S165" t="str">
+        <f>IF(P165="N","N",IF(OR((J165+Constants!D$14)&gt;Constants!F$5,(J165-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T165" t="str">
+        <f>IF(Q165="N","N",IF(OR((J165+Constants!D$14)&gt;Constants!F$6,(J165-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U165" t="str">
+        <f>IF(R165="N","N",IF(OR((J165+Constants!D$14)&gt;Constants!F$7,(J165-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W165">
+        <f>J165/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="X165">
+        <f>H165/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z165">
+        <f t="shared" si="6"/>
+        <v>87.500000000000071</v>
+      </c>
+      <c r="AA165">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="AC165" s="24"/>
       <c r="AD165" s="11"/>
-      <c r="AF165" s="29"/>
+      <c r="AF165" s="24"/>
       <c r="AG165" s="11"/>
     </row>
-    <row r="166" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC166" s="29"/>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC166" s="24"/>
       <c r="AD166" s="11"/>
-      <c r="AF166" s="29"/>
+      <c r="AF166" s="24"/>
       <c r="AG166" s="11"/>
     </row>
-    <row r="167" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC167" s="29"/>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC167" s="24"/>
       <c r="AD167" s="11"/>
-      <c r="AF167" s="29"/>
+      <c r="AF167" s="24"/>
       <c r="AG167" s="11"/>
     </row>
-    <row r="168" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC168" s="29"/>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC168" s="24"/>
       <c r="AD168" s="11"/>
-      <c r="AF168" s="29"/>
+      <c r="AF168" s="24"/>
       <c r="AG168" s="11"/>
     </row>
-    <row r="169" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC169" s="29"/>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC169" s="24"/>
       <c r="AD169" s="11"/>
       <c r="AE169" s="5"/>
-      <c r="AF169" s="29"/>
+      <c r="AF169" s="24"/>
       <c r="AG169" s="11"/>
       <c r="AH169" s="5"/>
       <c r="AI169" s="5"/>
     </row>
-    <row r="170" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC170" s="29"/>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC170" s="24"/>
       <c r="AD170" s="11"/>
       <c r="AE170" s="5"/>
-      <c r="AF170" s="29"/>
+      <c r="AF170" s="24"/>
       <c r="AG170" s="11"/>
       <c r="AH170" s="5"/>
       <c r="AI170" s="5"/>
     </row>
-    <row r="171" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC171" s="11"/>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC171" s="24"/>
       <c r="AD171" s="11"/>
       <c r="AE171" s="5"/>
-      <c r="AF171" s="11"/>
+      <c r="AF171" s="24"/>
       <c r="AG171" s="11"/>
       <c r="AH171" s="5"/>
       <c r="AI171" s="5"/>
     </row>
-    <row r="172" spans="29:35" x14ac:dyDescent="0.25">
-      <c r="AC172" s="5"/>
-      <c r="AD172" s="5"/>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC172" s="11"/>
+      <c r="AD172" s="11"/>
       <c r="AE172" s="5"/>
-      <c r="AF172" s="5"/>
-      <c r="AG172" s="5"/>
+      <c r="AF172" s="11"/>
+      <c r="AG172" s="11"/>
       <c r="AH172" s="5"/>
       <c r="AI172" s="5"/>
     </row>
-    <row r="173" spans="29:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC173" s="5"/>
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
@@ -10774,7 +15067,7 @@
       <c r="AH173" s="5"/>
       <c r="AI173" s="5"/>
     </row>
-    <row r="174" spans="29:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC174" s="5"/>
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
@@ -10783,7 +15076,7 @@
       <c r="AH174" s="5"/>
       <c r="AI174" s="5"/>
     </row>
-    <row r="175" spans="29:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC175" s="5"/>
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
@@ -10792,19 +15085,27 @@
       <c r="AH175" s="5"/>
       <c r="AI175" s="5"/>
     </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="5"/>
+      <c r="AF176" s="5"/>
+      <c r="AG176" s="5"/>
+    </row>
   </sheetData>
   <sortState ref="AC19:AC50">
     <sortCondition ref="AC19"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="S17:U17"/>
     <mergeCell ref="W17:X17"/>
     <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="AC17:AD17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brghena\Dropbox\repos\powerblade\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -973,6 +968,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,37 +993,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,11 +1526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="345737504"/>
-        <c:axId val="345741424"/>
+        <c:axId val="74446336"/>
+        <c:axId val="74448256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345737504"/>
+        <c:axId val="74446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345741424"/>
+        <c:crossAx val="74448256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1572,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345741424"/>
+        <c:axId val="74448256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345737504"/>
+        <c:crossAx val="74446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1701,7 +1696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1736,7 +1731,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1947,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,14 +1959,14 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="J2" s="41" t="s">
+      <c r="F2" s="52"/>
+      <c r="J2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -2069,19 +2064,19 @@
         <v>165</v>
       </c>
       <c r="C7" s="32">
-        <v>0.36599999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D7" s="15">
         <f>C7-0.29</f>
-        <v>7.6000000000000012E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.53600000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,11 +2293,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5">
         <f>COUNTIF(Data!R19:R1000,"Y")</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M19" s="37">
         <f>COUNTIF(Data!R19:R1000,"N")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -2321,11 +2316,11 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39">
         <f>COUNTIF(Data!U19:U1000,"Good")</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="40">
         <f>L9-L20</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -3164,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:AM176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
@@ -3197,57 +3192,57 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45" t="s">
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="45" t="s">
+      <c r="W17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="X17" s="45"/>
+      <c r="X17" s="54"/>
       <c r="Y17" s="13"/>
-      <c r="Z17" s="45" t="s">
+      <c r="Z17" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="AA17" s="45"/>
-      <c r="AC17" s="46" t="s">
+      <c r="AA17" s="54"/>
+      <c r="AC17" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" s="46"/>
-      <c r="AF17" s="44" t="s">
+      <c r="AD17" s="55"/>
+      <c r="AF17" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="AG17" s="44"/>
-      <c r="AI17" s="52" t="s">
+      <c r="AG17" s="58"/>
+      <c r="AI17" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="51" t="s">
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="AL17" s="53" t="s">
+      <c r="AL17" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="AM17" s="53"/>
+      <c r="AM17" s="57"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -3330,17 +3325,17 @@
       <c r="AG18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AI18" s="54" t="s">
+      <c r="AI18" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AJ18" s="54" t="s">
+      <c r="AJ18" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="54" t="s">
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AM18" s="54" t="s">
+      <c r="AM18" s="46" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3401,31 +3396,31 @@
         <f t="shared" ref="AA19:AA53" si="1">1000*(X19-0.29)</f>
         <v>64</v>
       </c>
-      <c r="AC19" s="49" t="s">
+      <c r="AC19" s="43" t="s">
         <v>203</v>
       </c>
       <c r="AD19" s="11">
         <f>COUNTIF($N$19:$N$165, "&lt;0.41")</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="49" t="s">
+      <c r="AF19" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="AG19" s="50">
+      <c r="AG19" s="44">
         <f>COUNTIF($J$19:$J$165, "&lt;0.41")</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="56">
+      <c r="AI19" s="48">
         <v>0.41</v>
       </c>
-      <c r="AJ19" s="57">
+      <c r="AJ19" s="49">
         <v>0</v>
       </c>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="56">
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="48">
         <v>0.41</v>
       </c>
-      <c r="AM19" s="57">
+      <c r="AM19" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3500,17 +3495,17 @@
         <f>COUNTIF($J$19:$J$165, "&gt;="&amp;$AC20)-COUNTIF($J$19:$J$165,"&gt;="&amp;$AC21)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="56">
+      <c r="AI20" s="48">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AJ20" s="57">
+      <c r="AJ20" s="49">
         <v>1</v>
       </c>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="56">
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="48">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AM20" s="57">
+      <c r="AM20" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3585,17 +3580,17 @@
         <f t="shared" ref="AG21:AG50" si="3">COUNTIF($J$19:$J$165, "&gt;="&amp;$AC21)-COUNTIF($J$19:$J$165,"&gt;="&amp;$AC22)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="56">
+      <c r="AI21" s="48">
         <v>0.42</v>
       </c>
-      <c r="AJ21" s="57">
+      <c r="AJ21" s="49">
         <v>0</v>
       </c>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="56">
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="48">
         <v>0.42</v>
       </c>
-      <c r="AM21" s="57">
+      <c r="AM21" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3670,17 +3665,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="56">
+      <c r="AI22" s="48">
         <v>0.42499999999999999</v>
       </c>
-      <c r="AJ22" s="57">
+      <c r="AJ22" s="49">
         <v>1</v>
       </c>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="56">
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="48">
         <v>0.42499999999999999</v>
       </c>
-      <c r="AM22" s="57">
+      <c r="AM22" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3755,17 +3750,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="56">
+      <c r="AI23" s="48">
         <v>0.43</v>
       </c>
-      <c r="AJ23" s="57">
+      <c r="AJ23" s="49">
         <v>9</v>
       </c>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="56">
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="48">
         <v>0.43</v>
       </c>
-      <c r="AM23" s="57">
+      <c r="AM23" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3840,17 +3835,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="56">
+      <c r="AI24" s="48">
         <v>0.435</v>
       </c>
-      <c r="AJ24" s="57">
+      <c r="AJ24" s="49">
         <v>10</v>
       </c>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="56">
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="48">
         <v>0.435</v>
       </c>
-      <c r="AM24" s="57">
+      <c r="AM24" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3925,17 +3920,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="56">
+      <c r="AI25" s="48">
         <v>0.44</v>
       </c>
-      <c r="AJ25" s="57">
+      <c r="AJ25" s="49">
         <v>30</v>
       </c>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="56">
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="48">
         <v>0.44</v>
       </c>
-      <c r="AM25" s="57">
+      <c r="AM25" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4010,17 +4005,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="56">
+      <c r="AI26" s="48">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AJ26" s="57">
+      <c r="AJ26" s="49">
         <v>20</v>
       </c>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="56">
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="48">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AM26" s="57">
+      <c r="AM26" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4095,17 +4090,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="56">
+      <c r="AI27" s="48">
         <v>0.45</v>
       </c>
-      <c r="AJ27" s="57">
+      <c r="AJ27" s="49">
         <v>5</v>
       </c>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="56">
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="48">
         <v>0.45</v>
       </c>
-      <c r="AM27" s="57">
+      <c r="AM27" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4180,17 +4175,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="56">
+      <c r="AI28" s="48">
         <v>0.45500000000000002</v>
       </c>
-      <c r="AJ28" s="57">
+      <c r="AJ28" s="49">
         <v>1</v>
       </c>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="56">
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="48">
         <v>0.45500000000000002</v>
       </c>
-      <c r="AM28" s="57">
+      <c r="AM28" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4265,17 +4260,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="56">
+      <c r="AI29" s="48">
         <v>0.46</v>
       </c>
-      <c r="AJ29" s="57">
+      <c r="AJ29" s="49">
         <v>0</v>
       </c>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="56">
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="48">
         <v>0.46</v>
       </c>
-      <c r="AM29" s="57">
+      <c r="AM29" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4350,17 +4345,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="56">
+      <c r="AI30" s="48">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AJ30" s="57">
+      <c r="AJ30" s="49">
         <v>0</v>
       </c>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="56">
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="48">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AM30" s="57">
+      <c r="AM30" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4435,17 +4430,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="56">
+      <c r="AI31" s="48">
         <v>0.47</v>
       </c>
-      <c r="AJ31" s="57">
+      <c r="AJ31" s="49">
         <v>0</v>
       </c>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="56">
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="48">
         <v>0.47</v>
       </c>
-      <c r="AM31" s="57">
+      <c r="AM31" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4520,17 +4515,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="56">
+      <c r="AI32" s="48">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AJ32" s="57">
+      <c r="AJ32" s="49">
         <v>0</v>
       </c>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="56">
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="48">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AM32" s="57">
+      <c r="AM32" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4605,17 +4600,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="56">
+      <c r="AI33" s="48">
         <v>0.48</v>
       </c>
-      <c r="AJ33" s="57">
+      <c r="AJ33" s="49">
         <v>0</v>
       </c>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="56">
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="48">
         <v>0.48</v>
       </c>
-      <c r="AM33" s="57">
+      <c r="AM33" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4690,17 +4685,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="56">
+      <c r="AI34" s="48">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AJ34" s="57">
+      <c r="AJ34" s="49">
         <v>0</v>
       </c>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="56">
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="48">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AM34" s="57">
+      <c r="AM34" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4775,17 +4770,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="56">
+      <c r="AI35" s="48">
         <v>0.51</v>
       </c>
-      <c r="AJ35" s="57">
+      <c r="AJ35" s="49">
         <v>0</v>
       </c>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="56">
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="48">
         <v>0.51</v>
       </c>
-      <c r="AM35" s="57">
+      <c r="AM35" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4860,17 +4855,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI36" s="56">
+      <c r="AI36" s="48">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AJ36" s="57">
+      <c r="AJ36" s="49">
         <v>0</v>
       </c>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="56">
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="48">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AM36" s="57">
+      <c r="AM36" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4945,17 +4940,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AI37" s="56">
+      <c r="AI37" s="48">
         <v>0.52</v>
       </c>
-      <c r="AJ37" s="57">
+      <c r="AJ37" s="49">
         <v>0</v>
       </c>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="56">
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="48">
         <v>0.52</v>
       </c>
-      <c r="AM37" s="57">
+      <c r="AM37" s="49">
         <v>1</v>
       </c>
     </row>
@@ -5030,17 +5025,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="56">
+      <c r="AI38" s="48">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AJ38" s="57">
+      <c r="AJ38" s="49">
         <v>0</v>
       </c>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="56">
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="48">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AM38" s="57">
+      <c r="AM38" s="49">
         <v>0</v>
       </c>
     </row>
@@ -5115,17 +5110,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="56">
+      <c r="AI39" s="48">
         <v>0.53</v>
       </c>
-      <c r="AJ39" s="57">
+      <c r="AJ39" s="49">
         <v>0</v>
       </c>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="56">
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="48">
         <v>0.53</v>
       </c>
-      <c r="AM39" s="57">
+      <c r="AM39" s="49">
         <v>0</v>
       </c>
     </row>
@@ -5200,17 +5195,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AI40" s="56">
+      <c r="AI40" s="48">
         <v>0.53500000000000003</v>
       </c>
-      <c r="AJ40" s="57">
+      <c r="AJ40" s="49">
         <v>0</v>
       </c>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="56">
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="48">
         <v>0.53500000000000003</v>
       </c>
-      <c r="AM40" s="57">
+      <c r="AM40" s="49">
         <v>0</v>
       </c>
     </row>
@@ -5285,17 +5280,17 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AI41" s="56">
+      <c r="AI41" s="48">
         <v>0.54</v>
       </c>
-      <c r="AJ41" s="57">
+      <c r="AJ41" s="49">
         <v>0</v>
       </c>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="56">
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="48">
         <v>0.54</v>
       </c>
-      <c r="AM41" s="57">
+      <c r="AM41" s="49">
         <v>0</v>
       </c>
     </row>
@@ -5370,17 +5365,17 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AI42" s="56">
+      <c r="AI42" s="48">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AJ42" s="57">
+      <c r="AJ42" s="49">
         <v>0</v>
       </c>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="56">
+      <c r="AK42" s="47"/>
+      <c r="AL42" s="48">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AM42" s="57">
+      <c r="AM42" s="49">
         <v>8</v>
       </c>
     </row>
@@ -5455,17 +5450,17 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AI43" s="56">
+      <c r="AI43" s="48">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AJ43" s="57">
+      <c r="AJ43" s="49">
         <v>0</v>
       </c>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="56">
+      <c r="AK43" s="47"/>
+      <c r="AL43" s="48">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AM43" s="57">
+      <c r="AM43" s="49">
         <v>10</v>
       </c>
     </row>
@@ -5540,17 +5535,17 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="AI44" s="56">
+      <c r="AI44" s="48">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AJ44" s="57">
+      <c r="AJ44" s="49">
         <v>0</v>
       </c>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="56">
+      <c r="AK44" s="47"/>
+      <c r="AL44" s="48">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AM44" s="57">
+      <c r="AM44" s="49">
         <v>36</v>
       </c>
     </row>
@@ -5625,17 +5620,17 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="AI45" s="56">
+      <c r="AI45" s="48">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AJ45" s="57">
+      <c r="AJ45" s="49">
         <v>0</v>
       </c>
-      <c r="AK45" s="55"/>
-      <c r="AL45" s="56">
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="48">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AM45" s="57">
+      <c r="AM45" s="49">
         <v>28</v>
       </c>
     </row>
@@ -5710,17 +5705,17 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="AI46" s="56">
+      <c r="AI46" s="48">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AJ46" s="57">
+      <c r="AJ46" s="49">
         <v>0</v>
       </c>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="56">
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="48">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AM46" s="57">
+      <c r="AM46" s="49">
         <v>24</v>
       </c>
     </row>
@@ -5795,17 +5790,17 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AI47" s="56">
+      <c r="AI47" s="48">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AJ47" s="57">
+      <c r="AJ47" s="49">
         <v>0</v>
       </c>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="56">
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="48">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AM47" s="57">
+      <c r="AM47" s="49">
         <v>6</v>
       </c>
     </row>
@@ -5880,17 +5875,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AI48" s="56">
+      <c r="AI48" s="48">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AJ48" s="57">
+      <c r="AJ48" s="49">
         <v>0</v>
       </c>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="56">
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="48">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AM48" s="57">
+      <c r="AM48" s="49">
         <v>0</v>
       </c>
     </row>
@@ -5965,17 +5960,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI49" s="56">
+      <c r="AI49" s="48">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AJ49" s="57">
+      <c r="AJ49" s="49">
         <v>0</v>
       </c>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="56">
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="48">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AM49" s="57">
+      <c r="AM49" s="49">
         <v>0</v>
       </c>
     </row>
@@ -6049,17 +6044,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="56">
+      <c r="AI50" s="48">
         <v>0.58499999999999996</v>
       </c>
-      <c r="AJ50" s="57">
+      <c r="AJ50" s="49">
         <v>0</v>
       </c>
-      <c r="AK50" s="55"/>
-      <c r="AL50" s="56">
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="48">
         <v>0.58499999999999996</v>
       </c>
-      <c r="AM50" s="57">
+      <c r="AM50" s="49">
         <v>0</v>
       </c>
     </row>
@@ -6133,17 +6128,17 @@
         <f>COUNTIF($J$19:$J$165, "&gt;="&amp;$AC51)-COUNTIF($J$19:$J$165,"&gt;=0.590")</f>
         <v>0</v>
       </c>
-      <c r="AI51" s="58" t="s">
+      <c r="AI51" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="AJ51" s="58">
+      <c r="AJ51" s="50">
         <v>0</v>
       </c>
-      <c r="AK51" s="55"/>
-      <c r="AL51" s="58" t="s">
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="AM51" s="58">
+      <c r="AM51" s="50">
         <v>0</v>
       </c>
     </row>
@@ -12439,24 +12434,24 @@
       <c r="C132" t="s">
         <v>171</v>
       </c>
-      <c r="E132" s="47">
+      <c r="E132" s="41">
         <v>3</v>
       </c>
       <c r="F132" t="s">
         <v>65</v>
       </c>
-      <c r="H132" s="48">
+      <c r="H132" s="42">
         <v>0.54500000000000004</v>
       </c>
-      <c r="I132" s="48">
+      <c r="I132" s="42">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J132" s="48">
+      <c r="J132" s="42">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L132" s="48"/>
-      <c r="M132" s="48"/>
-      <c r="N132" s="48"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
       <c r="P132" t="str">
         <f>IF(AND(J132&lt;=Constants!F$5,J132&gt;=Constants!E$5),"Y","N")</f>
         <v>N</v>
@@ -12509,24 +12504,24 @@
       <c r="C133" t="s">
         <v>172</v>
       </c>
-      <c r="E133" s="47">
+      <c r="E133" s="41">
         <v>3</v>
       </c>
       <c r="F133" t="s">
         <v>65</v>
       </c>
-      <c r="H133" s="48">
+      <c r="H133" s="42">
         <v>0.55700000000000005</v>
       </c>
-      <c r="I133" s="48">
+      <c r="I133" s="42">
         <v>0.53100000000000003</v>
       </c>
-      <c r="J133" s="48">
+      <c r="J133" s="42">
         <v>0.53100000000000003</v>
       </c>
-      <c r="L133" s="48"/>
-      <c r="M133" s="48"/>
-      <c r="N133" s="48"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
       <c r="P133" t="str">
         <f>IF(AND(J133&lt;=Constants!F$5,J133&gt;=Constants!E$5),"Y","N")</f>
         <v>N</v>
@@ -12579,28 +12574,28 @@
       <c r="C134" t="s">
         <v>87</v>
       </c>
-      <c r="E134" s="47">
+      <c r="E134" s="41">
         <v>2</v>
       </c>
       <c r="F134" t="s">
         <v>65</v>
       </c>
-      <c r="H134" s="48">
+      <c r="H134" s="42">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I134" s="48">
+      <c r="I134" s="42">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J134" s="48">
+      <c r="J134" s="42">
         <v>0.53500000000000003</v>
       </c>
-      <c r="L134" s="48">
+      <c r="L134" s="42">
         <v>0.46700000000000003</v>
       </c>
-      <c r="M134" s="48">
+      <c r="M134" s="42">
         <v>0.435</v>
       </c>
-      <c r="N134" s="48">
+      <c r="N134" s="42">
         <v>0.435</v>
       </c>
       <c r="P134" t="str">
@@ -12613,7 +12608,7 @@
       </c>
       <c r="R134" t="str">
         <f>IF(AND(J134&lt;=Constants!F$7,J134&gt;=Constants!E$7),"Y","N")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="S134" t="str">
         <f>IF(P134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$5,(J134-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
@@ -12625,7 +12620,7 @@
       </c>
       <c r="U134" t="str">
         <f>IF(R134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$7,(J134-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="W134">
         <f>J134/2+Constants!D$9-Constants!D$10</f>
@@ -12655,28 +12650,28 @@
       <c r="C135" t="s">
         <v>174</v>
       </c>
-      <c r="E135" s="47">
+      <c r="E135" s="41">
         <v>2</v>
       </c>
       <c r="F135" t="s">
         <v>65</v>
       </c>
-      <c r="H135" s="48">
+      <c r="H135" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I135" s="48">
+      <c r="I135" s="42">
         <v>0.55300000000000005</v>
       </c>
-      <c r="J135" s="48">
+      <c r="J135" s="42">
         <v>0.55300000000000005</v>
       </c>
-      <c r="L135" s="48">
+      <c r="L135" s="42">
         <v>0.45300000000000001</v>
       </c>
-      <c r="M135" s="48">
+      <c r="M135" s="42">
         <v>0.441</v>
       </c>
-      <c r="N135" s="48">
+      <c r="N135" s="42">
         <v>0.441</v>
       </c>
       <c r="P135" t="str">
@@ -12731,28 +12726,28 @@
       <c r="C136" t="s">
         <v>82</v>
       </c>
-      <c r="E136" s="47">
+      <c r="E136" s="41">
         <v>3</v>
       </c>
       <c r="F136" t="s">
         <v>65</v>
       </c>
-      <c r="H136" s="48">
+      <c r="H136" s="42">
         <v>0.56399999999999995</v>
       </c>
-      <c r="I136" s="48">
+      <c r="I136" s="42">
         <v>0.56299999999999994</v>
       </c>
-      <c r="J136" s="48">
+      <c r="J136" s="42">
         <v>0.56299999999999994</v>
       </c>
-      <c r="L136" s="48">
+      <c r="L136" s="42">
         <v>0.47499999999999998</v>
       </c>
-      <c r="M136" s="48">
+      <c r="M136" s="42">
         <v>0.44800000000000001</v>
       </c>
-      <c r="N136" s="48">
+      <c r="N136" s="42">
         <v>0.44800000000000001</v>
       </c>
       <c r="P136" t="str">
@@ -12807,28 +12802,28 @@
       <c r="C137" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="47">
+      <c r="E137" s="41">
         <v>2</v>
       </c>
       <c r="F137" t="s">
         <v>65</v>
       </c>
-      <c r="H137" s="48">
+      <c r="H137" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I137" s="48">
+      <c r="I137" s="42">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J137" s="48">
+      <c r="J137" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L137" s="48">
+      <c r="L137" s="42">
         <v>0.46700000000000003</v>
       </c>
-      <c r="M137" s="48">
+      <c r="M137" s="42">
         <v>0.442</v>
       </c>
-      <c r="N137" s="48">
+      <c r="N137" s="42">
         <v>0.442</v>
       </c>
       <c r="P137" t="str">
@@ -12883,28 +12878,28 @@
       <c r="C138" t="s">
         <v>175</v>
       </c>
-      <c r="E138" s="47">
+      <c r="E138" s="41">
         <v>2</v>
       </c>
       <c r="F138" t="s">
         <v>95</v>
       </c>
-      <c r="H138" s="48">
+      <c r="H138" s="42">
         <v>0.56399999999999995</v>
       </c>
-      <c r="I138" s="48">
+      <c r="I138" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J138" s="48">
+      <c r="J138" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L138" s="48">
+      <c r="L138" s="42">
         <v>0.45600000000000002</v>
       </c>
-      <c r="M138" s="48">
+      <c r="M138" s="42">
         <v>0.44500000000000001</v>
       </c>
-      <c r="N138" s="48">
+      <c r="N138" s="42">
         <v>0.44500000000000001</v>
       </c>
       <c r="P138" t="str">
@@ -12959,28 +12954,28 @@
       <c r="C139" t="s">
         <v>176</v>
       </c>
-      <c r="E139" s="47">
+      <c r="E139" s="41">
         <v>3</v>
       </c>
       <c r="F139" t="s">
         <v>65</v>
       </c>
-      <c r="H139" s="48">
+      <c r="H139" s="42">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I139" s="48">
+      <c r="I139" s="42">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J139" s="48">
+      <c r="J139" s="42">
         <v>0.55200000000000005</v>
       </c>
-      <c r="L139" s="48">
+      <c r="L139" s="42">
         <v>0.44</v>
       </c>
-      <c r="M139" s="48">
+      <c r="M139" s="42">
         <v>0.438</v>
       </c>
-      <c r="N139" s="48">
+      <c r="N139" s="42">
         <v>0.438</v>
       </c>
       <c r="P139" t="str">
@@ -13035,28 +13030,28 @@
       <c r="C140" t="s">
         <v>177</v>
       </c>
-      <c r="E140" s="47">
+      <c r="E140" s="41">
         <v>3</v>
       </c>
       <c r="F140" t="s">
         <v>65</v>
       </c>
-      <c r="H140" s="48">
+      <c r="H140" s="42">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I140" s="48">
+      <c r="I140" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J140" s="48">
+      <c r="J140" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L140" s="48">
+      <c r="L140" s="42">
         <v>0.47399999999999998</v>
       </c>
-      <c r="M140" s="48">
+      <c r="M140" s="42">
         <v>0.44700000000000001</v>
       </c>
-      <c r="N140" s="48">
+      <c r="N140" s="42">
         <v>0.44700000000000001</v>
       </c>
       <c r="P140" t="str">
@@ -13111,28 +13106,28 @@
       <c r="C141" t="s">
         <v>178</v>
       </c>
-      <c r="E141" s="47">
+      <c r="E141" s="41">
         <v>2</v>
       </c>
       <c r="F141" t="s">
         <v>65</v>
       </c>
-      <c r="H141" s="48">
+      <c r="H141" s="42">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I141" s="48">
+      <c r="I141" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J141" s="48">
+      <c r="J141" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L141" s="48">
+      <c r="L141" s="42">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M141" s="48">
+      <c r="M141" s="42">
         <v>0.439</v>
       </c>
-      <c r="N141" s="48">
+      <c r="N141" s="42">
         <v>0.439</v>
       </c>
       <c r="P141" t="str">
@@ -13187,28 +13182,28 @@
       <c r="C142" t="s">
         <v>179</v>
       </c>
-      <c r="E142" s="47">
+      <c r="E142" s="41">
         <v>3</v>
       </c>
       <c r="F142" t="s">
         <v>65</v>
       </c>
-      <c r="H142" s="48">
+      <c r="H142" s="42">
         <v>0.57899999999999996</v>
       </c>
-      <c r="I142" s="48">
+      <c r="I142" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J142" s="48">
+      <c r="J142" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L142" s="48">
+      <c r="L142" s="42">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M142" s="48">
+      <c r="M142" s="42">
         <v>0.43</v>
       </c>
-      <c r="N142" s="48">
+      <c r="N142" s="42">
         <v>0.43</v>
       </c>
       <c r="P142" t="str">
@@ -13263,28 +13258,28 @@
       <c r="C143" t="s">
         <v>180</v>
       </c>
-      <c r="E143" s="47">
+      <c r="E143" s="41">
         <v>2</v>
       </c>
       <c r="F143" t="s">
         <v>95</v>
       </c>
-      <c r="H143" s="48">
+      <c r="H143" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I143" s="48">
+      <c r="I143" s="42">
         <v>0.54900000000000004</v>
       </c>
-      <c r="J143" s="48">
+      <c r="J143" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L143" s="48">
+      <c r="L143" s="42">
         <v>0.442</v>
       </c>
-      <c r="M143" s="48">
+      <c r="M143" s="42">
         <v>0.44</v>
       </c>
-      <c r="N143" s="48">
+      <c r="N143" s="42">
         <v>0.442</v>
       </c>
       <c r="P143" t="str">
@@ -13339,7 +13334,7 @@
       <c r="C144" t="s">
         <v>181</v>
       </c>
-      <c r="E144" s="47">
+      <c r="E144" s="41">
         <v>2</v>
       </c>
       <c r="F144" t="s">
@@ -13348,19 +13343,19 @@
       <c r="H144">
         <v>0.55700000000000005</v>
       </c>
-      <c r="I144" s="48">
+      <c r="I144" s="42">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J144" s="48">
+      <c r="J144" s="42">
         <v>0.54700000000000004</v>
       </c>
-      <c r="L144" s="48">
+      <c r="L144" s="42">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M144" s="48">
+      <c r="M144" s="42">
         <v>0.441</v>
       </c>
-      <c r="N144" s="48">
+      <c r="N144" s="42">
         <v>0.441</v>
       </c>
       <c r="P144" t="str">
@@ -13415,28 +13410,28 @@
       <c r="C145" t="s">
         <v>182</v>
       </c>
-      <c r="E145" s="47">
+      <c r="E145" s="41">
         <v>2</v>
       </c>
       <c r="F145" t="s">
         <v>65</v>
       </c>
-      <c r="H145" s="48">
+      <c r="H145" s="42">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I145" s="48">
+      <c r="I145" s="42">
         <v>0.54</v>
       </c>
-      <c r="J145" s="48">
+      <c r="J145" s="42">
         <v>0.55200000000000005</v>
       </c>
-      <c r="L145" s="48">
+      <c r="L145" s="42">
         <v>0.46300000000000002</v>
       </c>
-      <c r="M145" s="48">
+      <c r="M145" s="42">
         <v>0.44</v>
       </c>
-      <c r="N145" s="48">
+      <c r="N145" s="42">
         <v>0.44</v>
       </c>
       <c r="P145" t="str">
@@ -13491,28 +13486,28 @@
       <c r="C146" t="s">
         <v>183</v>
       </c>
-      <c r="E146" s="47">
+      <c r="E146" s="41">
         <v>3</v>
       </c>
       <c r="F146" t="s">
         <v>65</v>
       </c>
-      <c r="H146" s="48">
+      <c r="H146" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="I146" s="48">
+      <c r="I146" s="42">
         <v>0.54600000000000004</v>
       </c>
-      <c r="J146" s="48">
+      <c r="J146" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="L146" s="48">
+      <c r="L146" s="42">
         <v>0.44500000000000001</v>
       </c>
-      <c r="M146" s="48">
+      <c r="M146" s="42">
         <v>0.442</v>
       </c>
-      <c r="N146" s="48">
+      <c r="N146" s="42">
         <v>0.442</v>
       </c>
       <c r="P146" t="str">
@@ -13567,28 +13562,28 @@
       <c r="C147" t="s">
         <v>184</v>
       </c>
-      <c r="E147" s="47">
+      <c r="E147" s="41">
         <v>3</v>
       </c>
       <c r="F147" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="48">
+      <c r="H147" s="42">
         <v>0.55600000000000005</v>
       </c>
-      <c r="I147" s="48">
+      <c r="I147" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J147" s="48">
+      <c r="J147" s="42">
         <v>0.55600000000000005</v>
       </c>
-      <c r="L147" s="48">
+      <c r="L147" s="42">
         <v>0.443</v>
       </c>
-      <c r="M147" s="48">
+      <c r="M147" s="42">
         <v>0.44</v>
       </c>
-      <c r="N147" s="48">
+      <c r="N147" s="42">
         <v>0.44</v>
       </c>
       <c r="P147" t="str">
@@ -13643,28 +13638,28 @@
       <c r="C148" t="s">
         <v>185</v>
       </c>
-      <c r="E148" s="47">
+      <c r="E148" s="41">
         <v>2</v>
       </c>
       <c r="F148" t="s">
         <v>95</v>
       </c>
-      <c r="H148" s="48">
+      <c r="H148" s="42">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I148" s="48">
+      <c r="I148" s="42">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J148" s="48">
+      <c r="J148" s="42">
         <v>0.55900000000000005</v>
       </c>
-      <c r="L148" s="48">
+      <c r="L148" s="42">
         <v>0.46</v>
       </c>
-      <c r="M148" s="48">
+      <c r="M148" s="42">
         <v>0.44600000000000001</v>
       </c>
-      <c r="N148" s="48">
+      <c r="N148" s="42">
         <v>0.44600000000000001</v>
       </c>
       <c r="P148" t="str">
@@ -13719,28 +13714,28 @@
       <c r="C149" t="s">
         <v>186</v>
       </c>
-      <c r="E149" s="47">
+      <c r="E149" s="41">
         <v>3</v>
       </c>
       <c r="F149" t="s">
         <v>65</v>
       </c>
-      <c r="H149" s="48">
+      <c r="H149" s="42">
         <v>0.56499999999999995</v>
       </c>
-      <c r="I149" s="48">
+      <c r="I149" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="J149" s="48">
+      <c r="J149" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="L149" s="48">
+      <c r="L149" s="42">
         <v>0.47199999999999998</v>
       </c>
-      <c r="M149" s="48">
+      <c r="M149" s="42">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N149" s="48">
+      <c r="N149" s="42">
         <v>0.44400000000000001</v>
       </c>
       <c r="P149" t="str">
@@ -13795,28 +13790,28 @@
       <c r="C150" t="s">
         <v>187</v>
       </c>
-      <c r="E150" s="47">
+      <c r="E150" s="41">
         <v>2</v>
       </c>
       <c r="F150" t="s">
         <v>95</v>
       </c>
-      <c r="H150" s="48">
+      <c r="H150" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I150" s="48">
+      <c r="I150" s="42">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J150" s="48">
+      <c r="J150" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L150" s="48">
+      <c r="L150" s="42">
         <v>0.44</v>
       </c>
-      <c r="M150" s="48">
+      <c r="M150" s="42">
         <v>0.437</v>
       </c>
-      <c r="N150" s="48">
+      <c r="N150" s="42">
         <v>0.437</v>
       </c>
       <c r="P150" t="str">
@@ -13871,28 +13866,28 @@
       <c r="C151" t="s">
         <v>188</v>
       </c>
-      <c r="E151" s="47">
+      <c r="E151" s="41">
         <v>2</v>
       </c>
       <c r="F151" t="s">
         <v>95</v>
       </c>
-      <c r="H151" s="48">
+      <c r="H151" s="42">
         <v>0.56399999999999995</v>
       </c>
-      <c r="I151" s="48">
+      <c r="I151" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="J151" s="48">
+      <c r="J151" s="42">
         <v>0.56399999999999995</v>
       </c>
-      <c r="L151" s="48">
+      <c r="L151" s="42">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M151" s="48">
+      <c r="M151" s="42">
         <v>0.441</v>
       </c>
-      <c r="N151" s="48">
+      <c r="N151" s="42">
         <v>0.441</v>
       </c>
       <c r="P151" t="str">
@@ -13947,28 +13942,28 @@
       <c r="C152" t="s">
         <v>189</v>
       </c>
-      <c r="E152" s="47">
+      <c r="E152" s="41">
         <v>2</v>
       </c>
       <c r="F152" t="s">
         <v>65</v>
       </c>
-      <c r="H152" s="48">
+      <c r="H152" s="42">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I152" s="48">
+      <c r="I152" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J152" s="48">
+      <c r="J152" s="42">
         <v>0.55400000000000005</v>
       </c>
-      <c r="L152" s="48">
+      <c r="L152" s="42">
         <v>0.45100000000000001</v>
       </c>
-      <c r="M152" s="48">
+      <c r="M152" s="42">
         <v>0.441</v>
       </c>
-      <c r="N152" s="48">
+      <c r="N152" s="42">
         <v>0.441</v>
       </c>
       <c r="P152" t="str">
@@ -14023,28 +14018,28 @@
       <c r="C153" t="s">
         <v>190</v>
       </c>
-      <c r="E153" s="47">
+      <c r="E153" s="41">
         <v>3</v>
       </c>
       <c r="F153" t="s">
         <v>65</v>
       </c>
-      <c r="H153" s="48">
+      <c r="H153" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="I153" s="48">
+      <c r="I153" s="42">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J153" s="48">
+      <c r="J153" s="42">
         <v>0.55500000000000005</v>
       </c>
-      <c r="L153" s="48">
+      <c r="L153" s="42">
         <v>0.45</v>
       </c>
-      <c r="M153" s="48">
+      <c r="M153" s="42">
         <v>0.44</v>
       </c>
-      <c r="N153" s="48">
+      <c r="N153" s="42">
         <v>0.44</v>
       </c>
       <c r="P153" t="str">
@@ -14099,28 +14094,28 @@
       <c r="C154" t="s">
         <v>191</v>
       </c>
-      <c r="E154" s="47">
+      <c r="E154" s="41">
         <v>3</v>
       </c>
       <c r="F154" t="s">
         <v>65</v>
       </c>
-      <c r="H154" s="48">
+      <c r="H154" s="42">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I154" s="48">
+      <c r="I154" s="42">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J154" s="48">
+      <c r="J154" s="42">
         <v>0.55200000000000005</v>
       </c>
-      <c r="L154" s="48">
+      <c r="L154" s="42">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M154" s="48">
+      <c r="M154" s="42">
         <v>0.441</v>
       </c>
-      <c r="N154" s="48">
+      <c r="N154" s="42">
         <v>0.441</v>
       </c>
       <c r="P154" t="str">
@@ -14175,28 +14170,28 @@
       <c r="C155" t="s">
         <v>192</v>
       </c>
-      <c r="E155" s="47">
+      <c r="E155" s="41">
         <v>2</v>
       </c>
       <c r="F155" t="s">
         <v>95</v>
       </c>
-      <c r="H155" s="48">
+      <c r="H155" s="42">
         <v>0.55700000000000005</v>
       </c>
-      <c r="I155" s="48">
+      <c r="I155" s="42">
         <v>0.54600000000000004</v>
       </c>
-      <c r="J155" s="48">
+      <c r="J155" s="42">
         <v>0.55700000000000005</v>
       </c>
-      <c r="L155" s="48">
+      <c r="L155" s="42">
         <v>0.443</v>
       </c>
-      <c r="M155" s="48">
+      <c r="M155" s="42">
         <v>0.442</v>
       </c>
-      <c r="N155" s="48">
+      <c r="N155" s="42">
         <v>0.442</v>
       </c>
       <c r="P155" t="str">
@@ -14251,28 +14246,28 @@
       <c r="C156" t="s">
         <v>193</v>
       </c>
-      <c r="E156" s="47">
+      <c r="E156" s="41">
         <v>2</v>
       </c>
       <c r="F156" t="s">
         <v>65</v>
       </c>
-      <c r="H156" s="48">
+      <c r="H156" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I156" s="48">
+      <c r="I156" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J156" s="48">
+      <c r="J156" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L156" s="48">
+      <c r="L156" s="42">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M156" s="48">
+      <c r="M156" s="42">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N156" s="48">
+      <c r="N156" s="42">
         <v>0.44400000000000001</v>
       </c>
       <c r="P156" t="str">
@@ -14327,28 +14322,28 @@
       <c r="C157" t="s">
         <v>194</v>
       </c>
-      <c r="E157" s="47">
+      <c r="E157" s="41">
         <v>2</v>
       </c>
       <c r="F157" t="s">
         <v>65</v>
       </c>
-      <c r="H157" s="48">
+      <c r="H157" s="42">
         <v>0.55600000000000005</v>
       </c>
-      <c r="I157" s="48">
+      <c r="I157" s="42">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J157" s="48">
+      <c r="J157" s="42">
         <v>0.55600000000000005</v>
       </c>
-      <c r="L157" s="48">
+      <c r="L157" s="42">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M157" s="48">
+      <c r="M157" s="42">
         <v>0.432</v>
       </c>
-      <c r="N157" s="48">
+      <c r="N157" s="42">
         <v>0.432</v>
       </c>
       <c r="P157" t="str">
@@ -14403,28 +14398,28 @@
       <c r="C158" t="s">
         <v>195</v>
       </c>
-      <c r="E158" s="47">
+      <c r="E158" s="41">
         <v>2</v>
       </c>
       <c r="F158" t="s">
         <v>65</v>
       </c>
-      <c r="H158" s="48">
+      <c r="H158" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I158" s="48">
+      <c r="I158" s="42">
         <v>0.55400000000000005</v>
       </c>
-      <c r="J158" s="48">
+      <c r="J158" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L158" s="48">
+      <c r="L158" s="42">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M158" s="48">
+      <c r="M158" s="42">
         <v>0.443</v>
       </c>
-      <c r="N158" s="48">
+      <c r="N158" s="42">
         <v>0.443</v>
       </c>
       <c r="P158" t="str">
@@ -14479,28 +14474,28 @@
       <c r="C159" t="s">
         <v>196</v>
       </c>
-      <c r="E159" s="47">
+      <c r="E159" s="41">
         <v>2</v>
       </c>
       <c r="F159" t="s">
         <v>65</v>
       </c>
-      <c r="H159" s="48">
+      <c r="H159" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I159" s="48">
+      <c r="I159" s="42">
         <v>0.53900000000000003</v>
       </c>
-      <c r="J159" s="48">
+      <c r="J159" s="42">
         <v>0.53900000000000003</v>
       </c>
-      <c r="L159" s="48">
+      <c r="L159" s="42">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M159" s="48">
+      <c r="M159" s="42">
         <v>0.435</v>
       </c>
-      <c r="N159" s="48">
+      <c r="N159" s="42">
         <v>0.435</v>
       </c>
       <c r="P159" t="str">
@@ -14525,7 +14520,7 @@
       </c>
       <c r="U159" t="str">
         <f>IF(R159="N","N",IF(OR((J159+Constants!D$14)&gt;Constants!F$7,(J159-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
-        <v>Y</v>
+        <v>Good</v>
       </c>
       <c r="W159">
         <f>J159/2+Constants!D$9-Constants!D$10</f>
@@ -14555,28 +14550,28 @@
       <c r="C160" t="s">
         <v>197</v>
       </c>
-      <c r="E160" s="47">
+      <c r="E160" s="41">
         <v>2</v>
       </c>
       <c r="F160" t="s">
         <v>65</v>
       </c>
-      <c r="H160" s="48">
+      <c r="H160" s="42">
         <v>0.55900000000000005</v>
       </c>
-      <c r="I160" s="48">
+      <c r="I160" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J160" s="48">
+      <c r="J160" s="42">
         <v>0.55900000000000005</v>
       </c>
-      <c r="L160" s="48">
+      <c r="L160" s="42">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M160" s="48">
+      <c r="M160" s="42">
         <v>0.435</v>
       </c>
-      <c r="N160" s="48">
+      <c r="N160" s="42">
         <v>0.435</v>
       </c>
       <c r="P160" t="str">
@@ -14631,28 +14626,28 @@
       <c r="C161" t="s">
         <v>198</v>
       </c>
-      <c r="E161" s="47">
+      <c r="E161" s="41">
         <v>2</v>
       </c>
       <c r="F161" t="s">
         <v>65</v>
       </c>
-      <c r="H161" s="48">
+      <c r="H161" s="42">
         <v>0.55300000000000005</v>
       </c>
-      <c r="I161" s="48">
+      <c r="I161" s="42">
         <v>0.54900000000000004</v>
       </c>
-      <c r="J161" s="48">
+      <c r="J161" s="42">
         <v>0.54900000000000004</v>
       </c>
-      <c r="L161" s="48">
+      <c r="L161" s="42">
         <v>0.46500000000000002</v>
       </c>
-      <c r="M161" s="48">
+      <c r="M161" s="42">
         <v>0.44700000000000001</v>
       </c>
-      <c r="N161" s="48">
+      <c r="N161" s="42">
         <v>0.44700000000000001</v>
       </c>
       <c r="P161" t="str">
@@ -14707,28 +14702,28 @@
       <c r="C162" t="s">
         <v>199</v>
       </c>
-      <c r="E162" s="47">
+      <c r="E162" s="41">
         <v>3</v>
       </c>
       <c r="F162" t="s">
         <v>65</v>
       </c>
-      <c r="H162" s="48">
+      <c r="H162" s="42">
         <v>0.56399999999999995</v>
       </c>
-      <c r="I162" s="48">
+      <c r="I162" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J162" s="48">
+      <c r="J162" s="42">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L162" s="48">
+      <c r="L162" s="42">
         <v>0.46</v>
       </c>
-      <c r="M162" s="48">
+      <c r="M162" s="42">
         <v>0.441</v>
       </c>
-      <c r="N162" s="48">
+      <c r="N162" s="42">
         <v>0.441</v>
       </c>
       <c r="P162" t="str">
@@ -14783,28 +14778,28 @@
       <c r="C163" t="s">
         <v>200</v>
       </c>
-      <c r="E163" s="47">
+      <c r="E163" s="41">
         <v>2</v>
       </c>
       <c r="F163" t="s">
         <v>65</v>
       </c>
-      <c r="H163" s="48">
+      <c r="H163" s="42">
         <v>0.56499999999999995</v>
       </c>
-      <c r="I163" s="48">
+      <c r="I163" s="42">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J163" s="48">
+      <c r="J163" s="42">
         <v>0.54300000000000004</v>
       </c>
-      <c r="L163" s="48">
+      <c r="L163" s="42">
         <v>0.47399999999999998</v>
       </c>
-      <c r="M163" s="48">
+      <c r="M163" s="42">
         <v>0.439</v>
       </c>
-      <c r="N163" s="48">
+      <c r="N163" s="42">
         <v>0.439</v>
       </c>
       <c r="P163" t="str">
@@ -14859,28 +14854,28 @@
       <c r="C164" t="s">
         <v>138</v>
       </c>
-      <c r="E164" s="47">
+      <c r="E164" s="41">
         <v>2</v>
       </c>
       <c r="F164" t="s">
         <v>65</v>
       </c>
-      <c r="H164" s="48">
+      <c r="H164" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I164" s="48">
+      <c r="I164" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J164" s="48">
+      <c r="J164" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L164" s="48">
+      <c r="L164" s="42">
         <v>0.435</v>
       </c>
-      <c r="M164" s="48">
+      <c r="M164" s="42">
         <v>0.43</v>
       </c>
-      <c r="N164" s="48">
+      <c r="N164" s="42">
         <v>0.43</v>
       </c>
       <c r="P164" t="str">
@@ -14935,28 +14930,28 @@
       <c r="C165" t="s">
         <v>201</v>
       </c>
-      <c r="E165" s="47">
+      <c r="E165" s="41">
         <v>2</v>
       </c>
       <c r="F165" t="s">
         <v>65</v>
       </c>
-      <c r="H165" s="48">
+      <c r="H165" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I165" s="48">
+      <c r="I165" s="42">
         <v>0.55900000000000005</v>
       </c>
-      <c r="J165" s="48">
+      <c r="J165" s="42">
         <v>0.55900000000000005</v>
       </c>
-      <c r="L165" s="48">
+      <c r="L165" s="42">
         <v>0.45400000000000001</v>
       </c>
-      <c r="M165" s="48">
+      <c r="M165" s="42">
         <v>0.439</v>
       </c>
-      <c r="N165" s="48">
+      <c r="N165" s="42">
         <v>0.439</v>
       </c>
       <c r="P165" t="str">

--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -1526,11 +1526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74446336"/>
-        <c:axId val="74448256"/>
+        <c:axId val="146535936"/>
+        <c:axId val="146537856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74446336"/>
+        <c:axId val="146535936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74448256"/>
+        <c:crossAx val="146537856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74448256"/>
+        <c:axId val="146537856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74446336"/>
+        <c:crossAx val="146535936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1942,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3159,10 +3159,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:AM176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomLeft" activeCell="U133" sqref="U133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="100" windowWidth="27800" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="233">
   <si>
     <t>Plug</t>
   </si>
@@ -628,6 +633,93 @@
   </si>
   <si>
     <t>Less</t>
+  </si>
+  <si>
+    <t>4312 Leland</t>
+  </si>
+  <si>
+    <t>Lenovo charger</t>
+  </si>
+  <si>
+    <t>Old ass extension cord</t>
+  </si>
+  <si>
+    <t>Grounding plug</t>
+  </si>
+  <si>
+    <t>Macbook charger (bent straight manually)</t>
+  </si>
+  <si>
+    <t>Comcast box</t>
+  </si>
+  <si>
+    <t>Upstairs TV</t>
+  </si>
+  <si>
+    <t>DVD player</t>
+  </si>
+  <si>
+    <t>Amazon fire stick</t>
+  </si>
+  <si>
+    <t>Apple usb wall adapter (1''x 1'' white box)</t>
+  </si>
+  <si>
+    <t>Amazon basics wall adapter</t>
+  </si>
+  <si>
+    <t>Apple usb wall adapter</t>
+  </si>
+  <si>
+    <t>Phillips trimmer charger</t>
+  </si>
+  <si>
+    <t>Bose speakers</t>
+  </si>
+  <si>
+    <t>Philips sunrise alarm clock</t>
+  </si>
+  <si>
+    <t>4313 Leland</t>
+  </si>
+  <si>
+    <t>4314 Leland</t>
+  </si>
+  <si>
+    <t>4315 Leland</t>
+  </si>
+  <si>
+    <t>4316 Leland</t>
+  </si>
+  <si>
+    <t>4317 Leland</t>
+  </si>
+  <si>
+    <t>4318 Leland</t>
+  </si>
+  <si>
+    <t>4319 Leland</t>
+  </si>
+  <si>
+    <t>4320 Leland</t>
+  </si>
+  <si>
+    <t>4321 Leland</t>
+  </si>
+  <si>
+    <t>4322 Leland</t>
+  </si>
+  <si>
+    <t>4323 Leland</t>
+  </si>
+  <si>
+    <t>4324 Leland</t>
+  </si>
+  <si>
+    <t>4325 Leland</t>
+  </si>
+  <si>
+    <t>4326 Leland</t>
   </si>
 </sst>
 </file>
@@ -692,11 +784,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -705,7 +797,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -713,17 +805,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -733,7 +825,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -741,12 +833,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,31 +847,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,23 +879,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,7 +903,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -821,7 +913,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,20 +921,20 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -850,17 +942,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -870,7 +962,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -878,23 +970,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,13 +1182,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -1108,79 +1200,79 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.445</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.455</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.465</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.515</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.535</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56499999999999995</c:v>
+                  <c:v>0.565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,100 +1284,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,13 +1408,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -1334,79 +1426,79 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.445</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.455</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.465</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.515</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.535</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56499999999999995</c:v>
+                  <c:v>0.565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,100 +1510,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,11 +1618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146535936"/>
-        <c:axId val="146537856"/>
+        <c:axId val="2141267128"/>
+        <c:axId val="2141260280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146535936"/>
+        <c:axId val="2141267128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146537856"/>
+        <c:crossAx val="2141260280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146537856"/>
+        <c:axId val="2141260280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146535936"/>
+        <c:crossAx val="2141267128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1942,20 +2034,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
@@ -1968,7 +2060,7 @@
       </c>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -1991,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2019,7 +2111,7 @@
         <v>67.500000000000057</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2039,7 +2131,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -2059,7 +2151,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="31" t="s">
         <v>165</v>
       </c>
@@ -2079,10 +2171,10 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15" thickBot="1">
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -2099,11 +2191,11 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34">
         <f>COUNT(Data!J19:J1000)</f>
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2213,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2142,7 +2234,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="7" t="s">
         <v>152</v>
       </c>
@@ -2159,16 +2251,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5">
         <f>COUNTIF(Data!P19:P1000,"Y")</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M12" s="37">
         <f>COUNTIF(Data!P19:P1000,"N")</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2184,12 +2276,12 @@
       </c>
       <c r="M13" s="37">
         <f>L9-L13</f>
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="20" t="s">
         <v>157</v>
       </c>
@@ -2206,7 +2298,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="H15" s="36"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2216,7 +2308,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2232,16 +2324,16 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5">
         <f>COUNTIF(Data!Q19:Q1000,"Y")</f>
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M16" s="37">
         <f>COUNTIF(Data!Q19:Q1000,"N")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="17">
@@ -2255,16 +2347,16 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5">
         <f>COUNTIF(Data!T19:T1000,"Good")</f>
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M17" s="37">
         <f>L9-L17</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="17">
@@ -2279,7 +2371,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="4"/>
       <c r="C19" s="27"/>
       <c r="D19" s="17">
@@ -2293,7 +2385,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5">
         <f>COUNTIF(Data!R19:R1000,"Y")</f>
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M19" s="37">
         <f>COUNTIF(Data!R19:R1000,"N")</f>
@@ -2302,7 +2394,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15" thickBot="1">
       <c r="B20" s="4"/>
       <c r="C20" s="27"/>
       <c r="D20" s="17">
@@ -2316,7 +2408,7 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39">
         <f>COUNTIF(Data!U19:U1000,"Good")</f>
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M20" s="40">
         <f>L9-L20</f>
@@ -2325,7 +2417,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="4"/>
       <c r="C21" s="27"/>
       <c r="D21" s="17">
@@ -2340,7 +2432,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="4"/>
       <c r="C22" s="27"/>
       <c r="D22" s="17">
@@ -2349,7 +2441,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="17">
@@ -2358,7 +2450,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="17">
@@ -2367,7 +2459,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="17">
@@ -2376,7 +2468,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="17">
@@ -2385,7 +2477,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="17">
@@ -2394,7 +2486,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="17">
@@ -2403,7 +2495,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="17">
@@ -2412,7 +2504,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="17">
@@ -2421,7 +2513,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="17">
@@ -2430,7 +2522,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17">
@@ -2439,7 +2531,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17">
@@ -2448,7 +2540,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17">
@@ -2457,7 +2549,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17">
@@ -2466,681 +2558,681 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17">
         <v>0.53</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17">
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17">
         <v>0.54</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17">
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="17">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="17">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="17">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="17">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="17">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="18">
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="28"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="28"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="28"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="28"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="28"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="28"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="28"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="28"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="28"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="28"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="28"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="28"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="28"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="28"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="28"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="28"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="28"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="28"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="28"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="28"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="28"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="28"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="28"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="28"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="28"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="28"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="28"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="28"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="28"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="28"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="28"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="28"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="28"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="28"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="28"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="28"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="28"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="28"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="28"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="28"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="28"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="28"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="28"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="28"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="28"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="28"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="28"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="28"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="28"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="28"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="28"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="28"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="28"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="28"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="28"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="28"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="28"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="28"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="28"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="28"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="28"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="28"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="28"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="28"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="28"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="28"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="28"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="28"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="28"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="28"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="28"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="28"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="28"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="28"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="28"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="28"/>
@@ -3151,42 +3243,47 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17:AM176"/>
+  <dimension ref="A17:AM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="U133" sqref="U133"/>
+      <selection pane="bottomLeft" activeCell="AC178" sqref="AC178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" customWidth="1"/>
-    <col min="8" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" customWidth="1"/>
-    <col min="16" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="1.42578125" customWidth="1"/>
-    <col min="23" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="1.42578125" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="1.42578125" customWidth="1"/>
-    <col min="31" max="31" width="1.42578125" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.5" customWidth="1"/>
+    <col min="8" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="1.5" customWidth="1"/>
+    <col min="12" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.5" customWidth="1"/>
+    <col min="16" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="1.5" customWidth="1"/>
+    <col min="23" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="1.5" customWidth="1"/>
+    <col min="26" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="1.5" customWidth="1"/>
+    <col min="31" max="31" width="1.5" customWidth="1"/>
+    <col min="37" max="37" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="15" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3244,7 +3341,7 @@
       </c>
       <c r="AM17" s="57"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3339,7 +3436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3400,14 +3497,14 @@
         <v>203</v>
       </c>
       <c r="AD19" s="11">
-        <f>COUNTIF($N$19:$N$165, "&lt;0.41")</f>
+        <f>COUNTIF($N$19:$N$1000, "&lt;0.41")</f>
         <v>0</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>203</v>
       </c>
       <c r="AG19" s="44">
-        <f>COUNTIF($J$19:$J$165, "&lt;0.41")</f>
+        <f>COUNTIF($J$19:$J$1000, "&lt;0.41")</f>
         <v>0</v>
       </c>
       <c r="AI19" s="48">
@@ -3424,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3485,14 +3582,14 @@
         <v>0.41</v>
       </c>
       <c r="AD20" s="11">
-        <f>COUNTIF($N$19:$N$165, "&gt;="&amp;$AC20)-COUNTIF($N$19:$N$165,"&gt;="&amp;$AC21)</f>
+        <f>COUNTIF($N$19:$N$1000, "&gt;="&amp;$AC20)-COUNTIF($N$19:$N$1000,"&gt;="&amp;$AC21)</f>
         <v>1</v>
       </c>
       <c r="AF20" s="24">
         <v>0.41</v>
       </c>
       <c r="AG20" s="11">
-        <f>COUNTIF($J$19:$J$165, "&gt;="&amp;$AC20)-COUNTIF($J$19:$J$165,"&gt;="&amp;$AC21)</f>
+        <f>COUNTIF($J$19:$J$1000, "&gt;="&amp;$AC20)-COUNTIF($J$19:$J$1000,"&gt;="&amp;$AC21)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="48">
@@ -3509,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3570,14 +3667,14 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="AD21" s="11">
-        <f t="shared" ref="AD21:AD50" si="2">COUNTIF($N$19:$N$165, "&gt;="&amp;$AC21)-COUNTIF($N$19:$N$165,"&gt;="&amp;$AC22)</f>
+        <f t="shared" ref="AD21:AD52" si="2">COUNTIF($N$19:$N$1000, "&gt;="&amp;$AC21)-COUNTIF($N$19:$N$1000,"&gt;="&amp;$AC22)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="24">
         <v>0.41499999999999998</v>
       </c>
       <c r="AG21" s="11">
-        <f t="shared" ref="AG21:AG50" si="3">COUNTIF($J$19:$J$165, "&gt;="&amp;$AC21)-COUNTIF($J$19:$J$165,"&gt;="&amp;$AC22)</f>
+        <f t="shared" ref="AG21:AG52" si="3">COUNTIF($J$19:$J$1000, "&gt;="&amp;$AC21)-COUNTIF($J$19:$J$1000,"&gt;="&amp;$AC22)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="48">
@@ -3594,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3656,7 +3753,7 @@
       </c>
       <c r="AD22" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="24">
         <v>0.42</v>
@@ -3679,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3741,7 +3838,7 @@
       </c>
       <c r="AD23" s="11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF23" s="24">
         <v>0.42499999999999999</v>
@@ -3764,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3826,7 +3923,7 @@
       </c>
       <c r="AD24" s="11">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" s="24">
         <v>0.43</v>
@@ -3849,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3911,7 +4008,7 @@
       </c>
       <c r="AD25" s="11">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AF25" s="24">
         <v>0.435</v>
@@ -3934,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3996,7 +4093,7 @@
       </c>
       <c r="AD26" s="11">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AF26" s="24">
         <v>0.44</v>
@@ -4019,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4081,7 +4178,7 @@
       </c>
       <c r="AD27" s="11">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF27" s="24">
         <v>0.44500000000000001</v>
@@ -4104,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4189,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -4251,7 +4348,7 @@
       </c>
       <c r="AD29" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="24">
         <v>0.45500000000000002</v>
@@ -4274,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -4359,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4444,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4529,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4614,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4699,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4784,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4869,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -4954,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -5039,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5124,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5209,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5294,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5363,7 +5460,7 @@
       </c>
       <c r="AG42" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI42" s="48">
         <v>0.54500000000000004</v>
@@ -5379,7 +5476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -5448,7 +5545,7 @@
       </c>
       <c r="AG43" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI43" s="48">
         <v>0.55000000000000004</v>
@@ -5464,7 +5561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -5533,7 +5630,7 @@
       </c>
       <c r="AG44" s="11">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AI44" s="48">
         <v>0.55500000000000005</v>
@@ -5549,7 +5646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5618,7 +5715,7 @@
       </c>
       <c r="AG45" s="11">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AI45" s="48">
         <v>0.56000000000000005</v>
@@ -5634,7 +5731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5703,7 +5800,7 @@
       </c>
       <c r="AG46" s="11">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AI46" s="48">
         <v>0.56499999999999995</v>
@@ -5719,7 +5816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5804,7 +5901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5889,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5974,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6058,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="15" thickBot="1">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -6118,14 +6215,14 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="AD51" s="11">
-        <f>COUNTIF($N$19:$N$165, "&gt;="&amp;$AC51)-COUNTIF($N$19:$N$165,"&gt;=0.590")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF51" s="24">
         <v>0.58499999999999996</v>
       </c>
       <c r="AG51" s="11">
-        <f>COUNTIF($J$19:$J$165, "&gt;="&amp;$AC51)-COUNTIF($J$19:$J$165,"&gt;=0.590")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI51" s="50" t="s">
@@ -6142,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -6202,18 +6299,18 @@
         <v>72</v>
       </c>
       <c r="AD52" s="11">
-        <f>COUNTIF($N$19:$N$165,"&gt;=0.590")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF52" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AG52" s="25">
-        <f>COUNTIF($J$19:$J$165,"&gt;=0.590")</f>
+      <c r="AG52" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6274,7 +6371,7 @@
       <c r="AF53" s="24"/>
       <c r="AG53" s="11"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -6353,7 +6450,7 @@
       <c r="AF54" s="24"/>
       <c r="AG54" s="11"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6432,7 +6529,7 @@
       <c r="AF55" s="24"/>
       <c r="AG55" s="11"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6511,7 +6608,7 @@
       <c r="AF56" s="24"/>
       <c r="AG56" s="11"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6590,7 +6687,7 @@
       <c r="AF57" s="24"/>
       <c r="AG57" s="11"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6669,7 +6766,7 @@
       <c r="AF58" s="24"/>
       <c r="AG58" s="11"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6748,7 +6845,7 @@
       <c r="AF59" s="24"/>
       <c r="AG59" s="11"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6827,7 +6924,7 @@
       <c r="AF60" s="24"/>
       <c r="AG60" s="11"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -6906,7 +7003,7 @@
       <c r="AF61" s="24"/>
       <c r="AG61" s="11"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6985,7 +7082,7 @@
       <c r="AF62" s="24"/>
       <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -7064,7 +7161,7 @@
       <c r="AF63" s="24"/>
       <c r="AG63" s="11"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -7143,7 +7240,7 @@
       <c r="AF64" s="24"/>
       <c r="AG64" s="11"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -7222,7 +7319,7 @@
       <c r="AF65" s="24"/>
       <c r="AG65" s="11"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -7301,7 +7398,7 @@
       <c r="AF66" s="24"/>
       <c r="AG66" s="11"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -7380,7 +7477,7 @@
       <c r="AF67" s="24"/>
       <c r="AG67" s="11"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -7459,7 +7556,7 @@
       <c r="AF68" s="24"/>
       <c r="AG68" s="11"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -7538,7 +7635,7 @@
       <c r="AF69" s="24"/>
       <c r="AG69" s="11"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -7617,7 +7714,7 @@
       <c r="AF70" s="24"/>
       <c r="AG70" s="11"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -7696,7 +7793,7 @@
       <c r="AF71" s="24"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -7775,7 +7872,7 @@
       <c r="AF72" s="24"/>
       <c r="AG72" s="11"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -7854,7 +7951,7 @@
       <c r="AF73" s="24"/>
       <c r="AG73" s="11"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -7933,7 +8030,7 @@
       <c r="AF74" s="24"/>
       <c r="AG74" s="11"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -8012,7 +8109,7 @@
       <c r="AF75" s="24"/>
       <c r="AG75" s="11"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -8091,7 +8188,7 @@
       <c r="AF76" s="24"/>
       <c r="AG76" s="11"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -8170,7 +8267,7 @@
       <c r="AF77" s="24"/>
       <c r="AG77" s="11"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -8249,7 +8346,7 @@
       <c r="AF78" s="24"/>
       <c r="AG78" s="11"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -8328,7 +8425,7 @@
       <c r="AF79" s="24"/>
       <c r="AG79" s="11"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -8407,7 +8504,7 @@
       <c r="AF80" s="24"/>
       <c r="AG80" s="11"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -8486,7 +8583,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="11"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -8565,7 +8662,7 @@
       <c r="AF82" s="24"/>
       <c r="AG82" s="11"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -8644,7 +8741,7 @@
       <c r="AF83" s="24"/>
       <c r="AG83" s="11"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -8723,7 +8820,7 @@
       <c r="AF84" s="24"/>
       <c r="AG84" s="11"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -8802,7 +8899,7 @@
       <c r="AF85" s="24"/>
       <c r="AG85" s="11"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -8881,7 +8978,7 @@
       <c r="AF86" s="24"/>
       <c r="AG86" s="11"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -8960,7 +9057,7 @@
       <c r="AF87" s="24"/>
       <c r="AG87" s="11"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -9039,7 +9136,7 @@
       <c r="AF88" s="24"/>
       <c r="AG88" s="11"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -9118,7 +9215,7 @@
       <c r="AF89" s="24"/>
       <c r="AG89" s="11"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -9197,7 +9294,7 @@
       <c r="AF90" s="24"/>
       <c r="AG90" s="11"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -9276,7 +9373,7 @@
       <c r="AF91" s="24"/>
       <c r="AG91" s="11"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -9355,7 +9452,7 @@
       <c r="AF92" s="24"/>
       <c r="AG92" s="11"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -9434,7 +9531,7 @@
       <c r="AF93" s="24"/>
       <c r="AG93" s="11"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -9513,7 +9610,7 @@
       <c r="AF94" s="24"/>
       <c r="AG94" s="11"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -9592,7 +9689,7 @@
       <c r="AF95" s="24"/>
       <c r="AG95" s="11"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -9671,7 +9768,7 @@
       <c r="AF96" s="24"/>
       <c r="AG96" s="11"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -9750,7 +9847,7 @@
       <c r="AF97" s="24"/>
       <c r="AG97" s="11"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -9820,7 +9917,7 @@
       <c r="AF98" s="24"/>
       <c r="AG98" s="11"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -9899,7 +9996,7 @@
       <c r="AF99" s="24"/>
       <c r="AG99" s="11"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -9978,7 +10075,7 @@
       <c r="AF100" s="24"/>
       <c r="AG100" s="11"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -10057,7 +10154,7 @@
       <c r="AF101" s="24"/>
       <c r="AG101" s="11"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -10136,7 +10233,7 @@
       <c r="AF102" s="24"/>
       <c r="AG102" s="11"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -10215,7 +10312,7 @@
       <c r="AF103" s="24"/>
       <c r="AG103" s="11"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -10294,7 +10391,7 @@
       <c r="AF104" s="24"/>
       <c r="AG104" s="11"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -10373,7 +10470,7 @@
       <c r="AF105" s="24"/>
       <c r="AG105" s="11"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -10452,7 +10549,7 @@
       <c r="AF106" s="24"/>
       <c r="AG106" s="11"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -10531,7 +10628,7 @@
       <c r="AF107" s="24"/>
       <c r="AG107" s="11"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -10610,7 +10707,7 @@
       <c r="AF108" s="24"/>
       <c r="AG108" s="11"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -10689,7 +10786,7 @@
       <c r="AF109" s="24"/>
       <c r="AG109" s="11"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -10768,7 +10865,7 @@
       <c r="AF110" s="24"/>
       <c r="AG110" s="11"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -10847,7 +10944,7 @@
       <c r="AF111" s="24"/>
       <c r="AG111" s="11"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -10926,7 +11023,7 @@
       <c r="AF112" s="24"/>
       <c r="AG112" s="11"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -11005,7 +11102,7 @@
       <c r="AF113" s="24"/>
       <c r="AG113" s="11"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -11084,7 +11181,7 @@
       <c r="AF114" s="24"/>
       <c r="AG114" s="11"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -11163,7 +11260,7 @@
       <c r="AF115" s="24"/>
       <c r="AG115" s="11"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -11242,7 +11339,7 @@
       <c r="AF116" s="24"/>
       <c r="AG116" s="11"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -11321,7 +11418,7 @@
       <c r="AF117" s="24"/>
       <c r="AG117" s="11"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -11400,7 +11497,7 @@
       <c r="AF118" s="24"/>
       <c r="AG118" s="11"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -11479,7 +11576,7 @@
       <c r="AF119" s="24"/>
       <c r="AG119" s="11"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -11558,7 +11655,7 @@
       <c r="AF120" s="24"/>
       <c r="AG120" s="11"/>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -11637,7 +11734,7 @@
       <c r="AF121" s="24"/>
       <c r="AG121" s="11"/>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -11716,7 +11813,7 @@
       <c r="AF122" s="24"/>
       <c r="AG122" s="11"/>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -11795,7 +11892,7 @@
       <c r="AF123" s="24"/>
       <c r="AG123" s="11"/>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -11874,7 +11971,7 @@
       <c r="AF124" s="24"/>
       <c r="AG124" s="11"/>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -11953,7 +12050,7 @@
       <c r="AF125" s="24"/>
       <c r="AG125" s="11"/>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -12032,7 +12129,7 @@
       <c r="AF126" s="24"/>
       <c r="AG126" s="11"/>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -12111,7 +12208,7 @@
       <c r="AF127" s="24"/>
       <c r="AG127" s="11"/>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -12190,7 +12287,7 @@
       <c r="AF128" s="24"/>
       <c r="AG128" s="11"/>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -12269,7 +12366,7 @@
       <c r="AF129" s="24"/>
       <c r="AG129" s="11"/>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -12348,7 +12445,7 @@
       <c r="AF130" s="24"/>
       <c r="AG130" s="11"/>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -12427,7 +12524,7 @@
       <c r="AF131" s="24"/>
       <c r="AG131" s="11"/>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -12497,7 +12594,7 @@
       <c r="AF132" s="24"/>
       <c r="AG132" s="11"/>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
         <v>170</v>
       </c>
@@ -12567,7 +12664,7 @@
       <c r="AF133" s="24"/>
       <c r="AG133" s="11"/>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -12643,7 +12740,7 @@
       <c r="AF134" s="24"/>
       <c r="AG134" s="11"/>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -12719,7 +12816,7 @@
       <c r="AF135" s="24"/>
       <c r="AG135" s="11"/>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -12795,7 +12892,7 @@
       <c r="AF136" s="24"/>
       <c r="AG136" s="11"/>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -12871,7 +12968,7 @@
       <c r="AF137" s="24"/>
       <c r="AG137" s="11"/>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -12947,7 +13044,7 @@
       <c r="AF138" s="24"/>
       <c r="AG138" s="11"/>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -13023,7 +13120,7 @@
       <c r="AF139" s="24"/>
       <c r="AG139" s="11"/>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -13099,7 +13196,7 @@
       <c r="AF140" s="24"/>
       <c r="AG140" s="11"/>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -13175,7 +13272,7 @@
       <c r="AF141" s="24"/>
       <c r="AG141" s="11"/>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -13251,7 +13348,7 @@
       <c r="AF142" s="24"/>
       <c r="AG142" s="11"/>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
         <v>173</v>
       </c>
@@ -13327,7 +13424,7 @@
       <c r="AF143" s="24"/>
       <c r="AG143" s="11"/>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -13403,7 +13500,7 @@
       <c r="AF144" s="24"/>
       <c r="AG144" s="11"/>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -13479,7 +13576,7 @@
       <c r="AF145" s="24"/>
       <c r="AG145" s="11"/>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -13555,7 +13652,7 @@
       <c r="AF146" s="24"/>
       <c r="AG146" s="11"/>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -13631,7 +13728,7 @@
       <c r="AF147" s="24"/>
       <c r="AG147" s="11"/>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -13707,7 +13804,7 @@
       <c r="AF148" s="24"/>
       <c r="AG148" s="11"/>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -13783,7 +13880,7 @@
       <c r="AF149" s="24"/>
       <c r="AG149" s="11"/>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33">
       <c r="A150" t="s">
         <v>173</v>
       </c>
@@ -13859,7 +13956,7 @@
       <c r="AF150" s="24"/>
       <c r="AG150" s="11"/>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33">
       <c r="A151" t="s">
         <v>173</v>
       </c>
@@ -13935,7 +14032,7 @@
       <c r="AF151" s="24"/>
       <c r="AG151" s="11"/>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -14011,7 +14108,7 @@
       <c r="AF152" s="24"/>
       <c r="AG152" s="11"/>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -14087,7 +14184,7 @@
       <c r="AF153" s="24"/>
       <c r="AG153" s="11"/>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -14163,7 +14260,7 @@
       <c r="AF154" s="24"/>
       <c r="AG154" s="11"/>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -14239,7 +14336,7 @@
       <c r="AF155" s="24"/>
       <c r="AG155" s="11"/>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -14315,7 +14412,7 @@
       <c r="AF156" s="24"/>
       <c r="AG156" s="11"/>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -14391,7 +14488,7 @@
       <c r="AF157" s="24"/>
       <c r="AG157" s="11"/>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -14467,7 +14564,7 @@
       <c r="AF158" s="24"/>
       <c r="AG158" s="11"/>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -14543,7 +14640,7 @@
       <c r="AF159" s="24"/>
       <c r="AG159" s="11"/>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -14619,7 +14716,7 @@
       <c r="AF160" s="24"/>
       <c r="AG160" s="11"/>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -14695,7 +14792,7 @@
       <c r="AF161" s="24"/>
       <c r="AG161" s="11"/>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -14771,7 +14868,7 @@
       <c r="AF162" s="24"/>
       <c r="AG162" s="11"/>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -14847,7 +14944,7 @@
       <c r="AF163" s="24"/>
       <c r="AG163" s="11"/>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -14923,7 +15020,7 @@
       <c r="AF164" s="24"/>
       <c r="AG164" s="11"/>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -14999,25 +15096,305 @@
       <c r="AF165" s="24"/>
       <c r="AG165" s="11"/>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35">
+      <c r="A166" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" t="s">
+        <v>205</v>
+      </c>
+      <c r="E166" s="41">
+        <v>3</v>
+      </c>
+      <c r="F166" t="s">
+        <v>65</v>
+      </c>
+      <c r="H166">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I166">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J166">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="L166">
+        <v>0.43</v>
+      </c>
+      <c r="M166">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="N166">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="P166" t="str">
+        <f>IF(AND(J166&lt;=Constants!F$5,J166&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q166" t="str">
+        <f>IF(AND(J166&lt;=Constants!F$6,J166&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R166" t="str">
+        <f>IF(AND(J166&lt;=Constants!F$7,J166&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S166" t="str">
+        <f>IF(P166="N","N",IF(OR((J166+Constants!D$14)&gt;Constants!F$5,(J166-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T166" t="str">
+        <f>IF(Q166="N","N",IF(OR((J166+Constants!D$14)&gt;Constants!F$6,(J166-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U166" t="str">
+        <f>IF(R166="N","N",IF(OR((J166+Constants!D$14)&gt;Constants!F$7,(J166-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W166">
+        <f>J166/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37</v>
+      </c>
+      <c r="X166">
+        <f>H166/2+Constants!D$9-Constants!D$11</f>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Z166">
+        <f t="shared" ref="Z166:Z180" si="8">1000*(W166-0.29)</f>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="AA166">
+        <f t="shared" ref="AA166:AA180" si="9">1000*(X166-0.29)</f>
+        <v>57.999999999999993</v>
+      </c>
       <c r="AC166" s="24"/>
       <c r="AD166" s="11"/>
       <c r="AF166" s="24"/>
       <c r="AG166" s="11"/>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35">
+      <c r="A167" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" t="s">
+        <v>206</v>
+      </c>
+      <c r="E167" s="41">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>65</v>
+      </c>
+      <c r="H167">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I167">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J167">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L167">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M167">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N167">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="P167" t="str">
+        <f>IF(AND(J167&lt;=Constants!F$5,J167&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q167" t="str">
+        <f>IF(AND(J167&lt;=Constants!F$6,J167&gt;=Constants!E$6),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="R167" t="str">
+        <f>IF(AND(J167&lt;=Constants!F$7,J167&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S167" t="str">
+        <f>IF(P167="N","N",IF(OR((J167+Constants!D$14)&gt;Constants!F$5,(J167-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T167" t="str">
+        <f>IF(Q167="N","N",IF(OR((J167+Constants!D$14)&gt;Constants!F$6,(J167-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="U167" t="str">
+        <f>IF(R167="N","N",IF(OR((J167+Constants!D$14)&gt;Constants!F$7,(J167-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W167">
+        <f>J167/2+Constants!D$9-Constants!D$10</f>
+        <v>0.372</v>
+      </c>
+      <c r="X167">
+        <f>H167/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z167">
+        <f t="shared" si="8"/>
+        <v>82.000000000000014</v>
+      </c>
+      <c r="AA167">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
       <c r="AC167" s="24"/>
       <c r="AD167" s="11"/>
       <c r="AF167" s="24"/>
       <c r="AG167" s="11"/>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35">
+      <c r="A168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C168" t="s">
+        <v>207</v>
+      </c>
+      <c r="E168" s="41">
+        <v>3</v>
+      </c>
+      <c r="F168" t="s">
+        <v>65</v>
+      </c>
+      <c r="H168">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I168">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J168">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L168">
+        <v>0.439</v>
+      </c>
+      <c r="M168">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="N168">
+        <v>0.439</v>
+      </c>
+      <c r="P168" t="str">
+        <f>IF(AND(J168&lt;=Constants!F$5,J168&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q168" t="str">
+        <f>IF(AND(J168&lt;=Constants!F$6,J168&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R168" t="str">
+        <f>IF(AND(J168&lt;=Constants!F$7,J168&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S168" t="str">
+        <f>IF(P168="N","N",IF(OR((J168+Constants!D$14)&gt;Constants!F$5,(J168-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T168" t="str">
+        <f>IF(Q168="N","N",IF(OR((J168+Constants!D$14)&gt;Constants!F$6,(J168-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U168" t="str">
+        <f>IF(R168="N","N",IF(OR((J168+Constants!D$14)&gt;Constants!F$7,(J168-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W168">
+        <f>J168/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37350000000000005</v>
+      </c>
+      <c r="X168">
+        <f>H168/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35150000000000003</v>
+      </c>
+      <c r="Z168">
+        <f t="shared" si="8"/>
+        <v>83.500000000000071</v>
+      </c>
+      <c r="AA168">
+        <f t="shared" si="9"/>
+        <v>61.500000000000057</v>
+      </c>
       <c r="AC168" s="24"/>
       <c r="AD168" s="11"/>
       <c r="AF168" s="24"/>
       <c r="AG168" s="11"/>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35">
+      <c r="A169" t="s">
+        <v>221</v>
+      </c>
+      <c r="C169" t="s">
+        <v>208</v>
+      </c>
+      <c r="E169" s="41">
+        <v>3</v>
+      </c>
+      <c r="F169" t="s">
+        <v>65</v>
+      </c>
+      <c r="H169">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I169">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J169">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="L169">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M169">
+        <v>0.439</v>
+      </c>
+      <c r="N169">
+        <v>0.439</v>
+      </c>
+      <c r="P169" t="str">
+        <f>IF(AND(J169&lt;=Constants!F$5,J169&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q169" t="str">
+        <f>IF(AND(J169&lt;=Constants!F$6,J169&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R169" t="str">
+        <f>IF(AND(J169&lt;=Constants!F$7,J169&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S169" t="str">
+        <f>IF(P169="N","N",IF(OR((J169+Constants!D$14)&gt;Constants!F$5,(J169-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T169" t="str">
+        <f>IF(Q169="N","N",IF(OR((J169+Constants!D$14)&gt;Constants!F$6,(J169-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U169" t="str">
+        <f>IF(R169="N","N",IF(OR((J169+Constants!D$14)&gt;Constants!F$7,(J169-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W169">
+        <f>J169/2+Constants!D$9-Constants!D$10</f>
+        <v>0.376</v>
+      </c>
+      <c r="X169">
+        <f>H169/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="8"/>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="AA169">
+        <f t="shared" si="9"/>
+        <v>64.500000000000057</v>
+      </c>
       <c r="AC169" s="24"/>
       <c r="AD169" s="11"/>
       <c r="AE169" s="5"/>
@@ -15026,7 +15403,77 @@
       <c r="AH169" s="5"/>
       <c r="AI169" s="5"/>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35">
+      <c r="A170" t="s">
+        <v>222</v>
+      </c>
+      <c r="C170" t="s">
+        <v>209</v>
+      </c>
+      <c r="E170" s="41">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>65</v>
+      </c>
+      <c r="H170">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I170">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="J170">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="L170">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M170">
+        <v>0.441</v>
+      </c>
+      <c r="N170">
+        <v>0.441</v>
+      </c>
+      <c r="P170" t="str">
+        <f>IF(AND(J170&lt;=Constants!F$5,J170&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q170" t="str">
+        <f>IF(AND(J170&lt;=Constants!F$6,J170&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R170" t="str">
+        <f>IF(AND(J170&lt;=Constants!F$7,J170&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S170" t="str">
+        <f>IF(P170="N","N",IF(OR((J170+Constants!D$14)&gt;Constants!F$5,(J170-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T170" t="str">
+        <f>IF(Q170="N","N",IF(OR((J170+Constants!D$14)&gt;Constants!F$6,(J170-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U170" t="str">
+        <f>IF(R170="N","N",IF(OR((J170+Constants!D$14)&gt;Constants!F$7,(J170-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W170">
+        <f>J170/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37414999999999998</v>
+      </c>
+      <c r="X170">
+        <f>H170/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z170">
+        <f t="shared" si="8"/>
+        <v>84.15</v>
+      </c>
+      <c r="AA170">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
       <c r="AC170" s="24"/>
       <c r="AD170" s="11"/>
       <c r="AE170" s="5"/>
@@ -15035,7 +15482,77 @@
       <c r="AH170" s="5"/>
       <c r="AI170" s="5"/>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35">
+      <c r="A171" t="s">
+        <v>223</v>
+      </c>
+      <c r="C171" t="s">
+        <v>210</v>
+      </c>
+      <c r="E171" s="41">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>65</v>
+      </c>
+      <c r="H171">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I171">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="J171">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L171">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M171">
+        <v>0.439</v>
+      </c>
+      <c r="N171">
+        <v>0.439</v>
+      </c>
+      <c r="P171" t="str">
+        <f>IF(AND(J171&lt;=Constants!F$5,J171&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q171" t="str">
+        <f>IF(AND(J171&lt;=Constants!F$6,J171&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R171" t="str">
+        <f>IF(AND(J171&lt;=Constants!F$7,J171&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S171" t="str">
+        <f>IF(P171="N","N",IF(OR((J171+Constants!D$14)&gt;Constants!F$5,(J171-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T171" t="str">
+        <f>IF(Q171="N","N",IF(OR((J171+Constants!D$14)&gt;Constants!F$6,(J171-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U171" t="str">
+        <f>IF(R171="N","N",IF(OR((J171+Constants!D$14)&gt;Constants!F$7,(J171-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W171">
+        <f>J171/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37650000000000006</v>
+      </c>
+      <c r="X171">
+        <f>H171/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35650000000000004</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" si="8"/>
+        <v>86.500000000000071</v>
+      </c>
+      <c r="AA171">
+        <f t="shared" si="9"/>
+        <v>66.500000000000057</v>
+      </c>
       <c r="AC171" s="24"/>
       <c r="AD171" s="11"/>
       <c r="AE171" s="5"/>
@@ -15044,7 +15561,77 @@
       <c r="AH171" s="5"/>
       <c r="AI171" s="5"/>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35">
+      <c r="A172" t="s">
+        <v>224</v>
+      </c>
+      <c r="C172" t="s">
+        <v>211</v>
+      </c>
+      <c r="E172" s="41">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I172">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="J172">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="L172">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="M172">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="N172">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P172" t="str">
+        <f>IF(AND(J172&lt;=Constants!F$5,J172&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q172" t="str">
+        <f>IF(AND(J172&lt;=Constants!F$6,J172&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R172" t="str">
+        <f>IF(AND(J172&lt;=Constants!F$7,J172&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S172" t="str">
+        <f>IF(P172="N","N",IF(OR((J172+Constants!D$14)&gt;Constants!F$5,(J172-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T172" t="str">
+        <f>IF(Q172="N","N",IF(OR((J172+Constants!D$14)&gt;Constants!F$6,(J172-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U172" t="str">
+        <f>IF(R172="N","N",IF(OR((J172+Constants!D$14)&gt;Constants!F$7,(J172-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W172">
+        <f>J172/2+Constants!D$9-Constants!D$10</f>
+        <v>0.379</v>
+      </c>
+      <c r="X172">
+        <f>H172/2+Constants!D$9-Constants!D$11</f>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="8"/>
+        <v>89.000000000000028</v>
+      </c>
+      <c r="AA172">
+        <f t="shared" si="9"/>
+        <v>71.000000000000014</v>
+      </c>
       <c r="AC172" s="11"/>
       <c r="AD172" s="11"/>
       <c r="AE172" s="5"/>
@@ -15053,7 +15640,77 @@
       <c r="AH172" s="5"/>
       <c r="AI172" s="5"/>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35">
+      <c r="A173" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" t="s">
+        <v>212</v>
+      </c>
+      <c r="E173" s="41">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>95</v>
+      </c>
+      <c r="H173">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I173">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J173">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L173">
+        <v>0.441</v>
+      </c>
+      <c r="M173">
+        <v>0.44</v>
+      </c>
+      <c r="N173">
+        <v>0.441</v>
+      </c>
+      <c r="P173" t="str">
+        <f>IF(AND(J173&lt;=Constants!F$5,J173&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q173" t="str">
+        <f>IF(AND(J173&lt;=Constants!F$6,J173&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R173" t="str">
+        <f>IF(AND(J173&lt;=Constants!F$7,J173&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S173" t="str">
+        <f>IF(P173="N","N",IF(OR((J173+Constants!D$14)&gt;Constants!F$5,(J173-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T173" t="str">
+        <f>IF(Q173="N","N",IF(OR((J173+Constants!D$14)&gt;Constants!F$6,(J173-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U173" t="str">
+        <f>IF(R173="N","N",IF(OR((J173+Constants!D$14)&gt;Constants!F$7,(J173-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W173">
+        <f>J173/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X173">
+        <f>H173/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="8"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA173">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
       <c r="AC173" s="5"/>
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
@@ -15062,7 +15719,77 @@
       <c r="AH173" s="5"/>
       <c r="AI173" s="5"/>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35">
+      <c r="A174" t="s">
+        <v>226</v>
+      </c>
+      <c r="C174" t="s">
+        <v>213</v>
+      </c>
+      <c r="E174" s="41">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>95</v>
+      </c>
+      <c r="H174">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I174">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J174">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="L174">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="M174">
+        <v>0.437</v>
+      </c>
+      <c r="N174">
+        <v>0.437</v>
+      </c>
+      <c r="P174" t="str">
+        <f>IF(AND(J174&lt;=Constants!F$5,J174&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q174" t="str">
+        <f>IF(AND(J174&lt;=Constants!F$6,J174&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R174" t="str">
+        <f>IF(AND(J174&lt;=Constants!F$7,J174&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S174" t="str">
+        <f>IF(P174="N","N",IF(OR((J174+Constants!D$14)&gt;Constants!F$5,(J174-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T174" t="str">
+        <f>IF(Q174="N","N",IF(OR((J174+Constants!D$14)&gt;Constants!F$6,(J174-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U174" t="str">
+        <f>IF(R174="N","N",IF(OR((J174+Constants!D$14)&gt;Constants!F$7,(J174-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W174">
+        <f>J174/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37550000000000006</v>
+      </c>
+      <c r="X174">
+        <f>H174/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="8"/>
+        <v>85.500000000000071</v>
+      </c>
+      <c r="AA174">
+        <f t="shared" si="9"/>
+        <v>65.500000000000057</v>
+      </c>
       <c r="AC174" s="5"/>
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
@@ -15071,7 +15798,77 @@
       <c r="AH174" s="5"/>
       <c r="AI174" s="5"/>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35">
+      <c r="A175" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" t="s">
+        <v>214</v>
+      </c>
+      <c r="E175" s="41">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>95</v>
+      </c>
+      <c r="H175">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I175">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J175">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="L175">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="M175">
+        <v>0.438</v>
+      </c>
+      <c r="N175">
+        <v>0.438</v>
+      </c>
+      <c r="P175" t="str">
+        <f>IF(AND(J175&lt;=Constants!F$5,J175&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q175" t="str">
+        <f>IF(AND(J175&lt;=Constants!F$6,J175&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R175" t="str">
+        <f>IF(AND(J175&lt;=Constants!F$7,J175&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S175" t="str">
+        <f>IF(P175="N","N",IF(OR((J175+Constants!D$14)&gt;Constants!F$5,(J175-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T175" t="str">
+        <f>IF(Q175="N","N",IF(OR((J175+Constants!D$14)&gt;Constants!F$6,(J175-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U175" t="str">
+        <f>IF(R175="N","N",IF(OR((J175+Constants!D$14)&gt;Constants!F$7,(J175-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W175">
+        <f>J175/2+Constants!D$9-Constants!D$10</f>
+        <v>0.375</v>
+      </c>
+      <c r="X175">
+        <f>H175/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35450000000000004</v>
+      </c>
+      <c r="Z175">
+        <f t="shared" si="8"/>
+        <v>85.000000000000014</v>
+      </c>
+      <c r="AA175">
+        <f t="shared" si="9"/>
+        <v>64.500000000000057</v>
+      </c>
       <c r="AC175" s="5"/>
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
@@ -15080,11 +15877,369 @@
       <c r="AH175" s="5"/>
       <c r="AI175" s="5"/>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35">
+      <c r="A176" t="s">
+        <v>228</v>
+      </c>
+      <c r="C176" t="s">
+        <v>215</v>
+      </c>
+      <c r="E176" s="41">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>95</v>
+      </c>
+      <c r="H176">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I176">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J176">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L176">
+        <v>0.443</v>
+      </c>
+      <c r="M176">
+        <v>0.438</v>
+      </c>
+      <c r="N176">
+        <v>0.438</v>
+      </c>
+      <c r="P176" t="str">
+        <f>IF(AND(J176&lt;=Constants!F$5,J176&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q176" t="str">
+        <f>IF(AND(J176&lt;=Constants!F$6,J176&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R176" t="str">
+        <f>IF(AND(J176&lt;=Constants!F$7,J176&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S176" t="str">
+        <f>IF(P176="N","N",IF(OR((J176+Constants!D$14)&gt;Constants!F$5,(J176-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T176" t="str">
+        <f>IF(Q176="N","N",IF(OR((J176+Constants!D$14)&gt;Constants!F$6,(J176-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U176" t="str">
+        <f>IF(R176="N","N",IF(OR((J176+Constants!D$14)&gt;Constants!F$7,(J176-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W176">
+        <f>J176/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X176">
+        <f>H176/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z176">
+        <f t="shared" si="8"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA176">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
       <c r="AC176" s="5"/>
       <c r="AD176" s="5"/>
       <c r="AF176" s="5"/>
       <c r="AG176" s="5"/>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" t="s">
+        <v>229</v>
+      </c>
+      <c r="C177" t="s">
+        <v>215</v>
+      </c>
+      <c r="E177" s="41">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>95</v>
+      </c>
+      <c r="H177">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I177">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J177">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L177">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M177">
+        <v>0.43</v>
+      </c>
+      <c r="N177">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="P177" t="str">
+        <f>IF(AND(J177&lt;=Constants!F$5,J177&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q177" t="str">
+        <f>IF(AND(J177&lt;=Constants!F$6,J177&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R177" t="str">
+        <f>IF(AND(J177&lt;=Constants!F$7,J177&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S177" t="str">
+        <f>IF(P177="N","N",IF(OR((J177+Constants!D$14)&gt;Constants!F$5,(J177-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T177" t="str">
+        <f>IF(Q177="N","N",IF(OR((J177+Constants!D$14)&gt;Constants!F$6,(J177-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U177" t="str">
+        <f>IF(R177="N","N",IF(OR((J177+Constants!D$14)&gt;Constants!F$7,(J177-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W177">
+        <f>J177/2+Constants!D$9-Constants!D$10</f>
+        <v>0.373</v>
+      </c>
+      <c r="X177">
+        <f>H177/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="8"/>
+        <v>83.000000000000014</v>
+      </c>
+      <c r="AA177">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" t="s">
+        <v>230</v>
+      </c>
+      <c r="C178" t="s">
+        <v>216</v>
+      </c>
+      <c r="E178" s="41">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I178">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J178">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="L178">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="M178">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N178">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P178" t="str">
+        <f>IF(AND(J178&lt;=Constants!F$5,J178&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q178" t="str">
+        <f>IF(AND(J178&lt;=Constants!F$6,J178&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R178" t="str">
+        <f>IF(AND(J178&lt;=Constants!F$7,J178&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S178" t="str">
+        <f>IF(P178="N","N",IF(OR((J178+Constants!D$14)&gt;Constants!F$5,(J178-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T178" t="str">
+        <f>IF(Q178="N","N",IF(OR((J178+Constants!D$14)&gt;Constants!F$6,(J178-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U178" t="str">
+        <f>IF(R178="N","N",IF(OR((J178+Constants!D$14)&gt;Constants!F$7,(J178-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W178">
+        <f>J178/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="X178">
+        <f>H178/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="8"/>
+        <v>89.499999999999972</v>
+      </c>
+      <c r="AA178">
+        <f t="shared" si="9"/>
+        <v>67.499999999999943</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" t="s">
+        <v>231</v>
+      </c>
+      <c r="C179" t="s">
+        <v>217</v>
+      </c>
+      <c r="E179" s="41">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I179">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J179">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="L179">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M179">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N179">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P179" t="str">
+        <f>IF(AND(J179&lt;=Constants!F$5,J179&gt;=Constants!E$5),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="Q179" t="str">
+        <f>IF(AND(J179&lt;=Constants!F$6,J179&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R179" t="str">
+        <f>IF(AND(J179&lt;=Constants!F$7,J179&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S179" t="str">
+        <f>IF(P179="N","N",IF(OR((J179+Constants!D$14)&gt;Constants!F$5,(J179-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="T179" t="str">
+        <f>IF(Q179="N","N",IF(OR((J179+Constants!D$14)&gt;Constants!F$6,(J179-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="U179" t="str">
+        <f>IF(R179="N","N",IF(OR((J179+Constants!D$14)&gt;Constants!F$7,(J179-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W179">
+        <f>J179/2+Constants!D$9-Constants!D$10</f>
+        <v>0.38</v>
+      </c>
+      <c r="X179">
+        <f>H179/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="8"/>
+        <v>90.000000000000028</v>
+      </c>
+      <c r="AA179">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="A180" t="s">
+        <v>232</v>
+      </c>
+      <c r="C180" t="s">
+        <v>218</v>
+      </c>
+      <c r="E180" s="41">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>65</v>
+      </c>
+      <c r="H180">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I180">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J180">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L180">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M180">
+        <v>0.433</v>
+      </c>
+      <c r="N180">
+        <v>0.433</v>
+      </c>
+      <c r="P180" t="str">
+        <f>IF(AND(J180&lt;=Constants!F$5,J180&gt;=Constants!E$5),"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="Q180" t="str">
+        <f>IF(AND(J180&lt;=Constants!F$6,J180&gt;=Constants!E$6),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="R180" t="str">
+        <f>IF(AND(J180&lt;=Constants!F$7,J180&gt;=Constants!E$7),"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="S180" t="str">
+        <f>IF(P180="N","N",IF(OR((J180+Constants!D$14)&gt;Constants!F$5,(J180-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
+        <v>N</v>
+      </c>
+      <c r="T180" t="str">
+        <f>IF(Q180="N","N",IF(OR((J180+Constants!D$14)&gt;Constants!F$6,(J180-Constants!D$14)&lt;Constants!E$6),"Y","Good"))</f>
+        <v>Y</v>
+      </c>
+      <c r="U180" t="str">
+        <f>IF(R180="N","N",IF(OR((J180+Constants!D$14)&gt;Constants!F$7,(J180-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
+        <v>Good</v>
+      </c>
+      <c r="W180">
+        <f>J180/2+Constants!D$9-Constants!D$10</f>
+        <v>0.37450000000000006</v>
+      </c>
+      <c r="X180">
+        <f>H180/2+Constants!D$9-Constants!D$11</f>
+        <v>0.35749999999999993</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="8"/>
+        <v>84.500000000000071</v>
+      </c>
+      <c r="AA180">
+        <f t="shared" si="9"/>
+        <v>67.499999999999943</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="AC19:AC50">
@@ -15103,8 +16258,13 @@
     <mergeCell ref="Z17:AA17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15114,8 +16274,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="100" windowWidth="27800" windowHeight="14380"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1182,13 +1182,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.415</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.425</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -1200,79 +1200,79 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.445</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.455</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.465</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.475</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.485</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.515</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.525</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.535</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.545</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.555</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.565</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.575</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.585</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,100 +1284,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,13 +1408,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.415</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.425</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -1426,79 +1426,79 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.445</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.455</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.465</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.475</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.485</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.515</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.525</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.535</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.545</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.555</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.565</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.575</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.585</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,100 +1510,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,11 +1618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141267128"/>
-        <c:axId val="2141260280"/>
+        <c:axId val="75195904"/>
+        <c:axId val="75197824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141267128"/>
+        <c:axId val="75195904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141260280"/>
+        <c:crossAx val="75197824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141260280"/>
+        <c:axId val="75197824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141267128"/>
+        <c:crossAx val="75195904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,19 +2035,19 @@
   <dimension ref="B2:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.1640625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>67.500000000000057</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>165</v>
       </c>
@@ -2171,10 +2171,10 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>152</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2281,7 +2281,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>157</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" s="36"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2308,7 +2308,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="17">
@@ -2356,7 +2356,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="17">
@@ -2371,7 +2371,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="27"/>
       <c r="D19" s="17">
@@ -2394,7 +2394,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="27"/>
       <c r="D20" s="17">
@@ -2417,7 +2417,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="27"/>
       <c r="D21" s="17">
@@ -2432,7 +2432,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="27"/>
       <c r="D22" s="17">
@@ -2441,7 +2441,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="17">
@@ -2450,7 +2450,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="17">
@@ -2459,7 +2459,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="17">
@@ -2468,7 +2468,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="17">
@@ -2477,7 +2477,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="17">
@@ -2486,7 +2486,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="17">
@@ -2495,7 +2495,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="17">
@@ -2504,7 +2504,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="17">
@@ -2513,7 +2513,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="17">
@@ -2522,7 +2522,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17">
@@ -2531,7 +2531,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17">
@@ -2540,7 +2540,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17">
@@ -2549,7 +2549,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17">
@@ -2558,681 +2558,681 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17">
         <v>0.53</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17">
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17">
         <v>0.54</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17">
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="17">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="17">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="17">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="17">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="17">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="18">
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="28"/>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="28"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="28"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="28"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="28"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="28"/>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="28"/>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="28"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="28"/>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="28"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="28"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="28"/>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="28"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="28"/>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="28"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="28"/>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="28"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="28"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="28"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="28"/>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="28"/>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="28"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="28"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="28"/>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="28"/>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="28"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="28"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="28"/>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="28"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="28"/>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="28"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="28"/>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="28"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="28"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="28"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="28"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="28"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="28"/>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="28"/>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="28"/>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="28"/>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="28"/>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="28"/>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="28"/>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="28"/>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="28"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="28"/>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="28"/>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="28"/>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="28"/>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="28"/>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="28"/>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="28"/>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="28"/>
     </row>
-    <row r="145" spans="2:4">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="28"/>
     </row>
-    <row r="146" spans="2:4">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="28"/>
     </row>
-    <row r="147" spans="2:4">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="28"/>
     </row>
-    <row r="148" spans="2:4">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="28"/>
     </row>
-    <row r="149" spans="2:4">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="28"/>
     </row>
-    <row r="150" spans="2:4">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="28"/>
     </row>
-    <row r="151" spans="2:4">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="28"/>
     </row>
-    <row r="152" spans="2:4">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="28"/>
     </row>
-    <row r="153" spans="2:4">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="28"/>
     </row>
-    <row r="154" spans="2:4">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="28"/>
     </row>
-    <row r="155" spans="2:4">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="28"/>
     </row>
-    <row r="156" spans="2:4">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="28"/>
     </row>
-    <row r="157" spans="2:4">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="28"/>
     </row>
-    <row r="158" spans="2:4">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="28"/>
     </row>
-    <row r="159" spans="2:4">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="28"/>
     </row>
-    <row r="160" spans="2:4">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="28"/>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="28"/>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="28"/>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="28"/>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="28"/>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="28"/>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="28"/>
@@ -3259,31 +3259,31 @@
     <sheetView workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="AC178" sqref="AC178"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.5" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="1.5" customWidth="1"/>
-    <col min="8" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="1.5" customWidth="1"/>
-    <col min="12" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.5" customWidth="1"/>
-    <col min="16" max="21" width="8.6640625" customWidth="1"/>
-    <col min="22" max="22" width="1.5" customWidth="1"/>
-    <col min="23" max="24" width="10.6640625" customWidth="1"/>
-    <col min="25" max="25" width="1.5" customWidth="1"/>
-    <col min="26" max="27" width="10.6640625" customWidth="1"/>
-    <col min="28" max="28" width="1.5" customWidth="1"/>
-    <col min="31" max="31" width="1.5" customWidth="1"/>
-    <col min="37" max="37" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
+    <col min="5" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" customWidth="1"/>
+    <col min="16" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="1.42578125" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="1.42578125" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="1.42578125" customWidth="1"/>
+    <col min="31" max="31" width="1.42578125" customWidth="1"/>
+    <col min="37" max="37" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:39" ht="15" thickBot="1">
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="AM17" s="57"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" thickBot="1">
+    <row r="51" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" thickBot="1">
+    <row r="52" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="AF53" s="24"/>
       <c r="AG53" s="11"/>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="AF54" s="24"/>
       <c r="AG54" s="11"/>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="AF55" s="24"/>
       <c r="AG55" s="11"/>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="AF56" s="24"/>
       <c r="AG56" s="11"/>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6687,7 +6687,7 @@
       <c r="AF57" s="24"/>
       <c r="AG57" s="11"/>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="AF58" s="24"/>
       <c r="AG58" s="11"/>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="AF59" s="24"/>
       <c r="AG59" s="11"/>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="AF60" s="24"/>
       <c r="AG60" s="11"/>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="AF61" s="24"/>
       <c r="AG61" s="11"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="AF62" s="24"/>
       <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="AF63" s="24"/>
       <c r="AG63" s="11"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="AF64" s="24"/>
       <c r="AG64" s="11"/>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="AF65" s="24"/>
       <c r="AG65" s="11"/>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="AF66" s="24"/>
       <c r="AG66" s="11"/>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="AF67" s="24"/>
       <c r="AG67" s="11"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -7556,7 +7556,7 @@
       <c r="AF68" s="24"/>
       <c r="AG68" s="11"/>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="AF69" s="24"/>
       <c r="AG69" s="11"/>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="AF70" s="24"/>
       <c r="AG70" s="11"/>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -7793,7 +7793,7 @@
       <c r="AF71" s="24"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -7872,7 +7872,7 @@
       <c r="AF72" s="24"/>
       <c r="AG72" s="11"/>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="AF73" s="24"/>
       <c r="AG73" s="11"/>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="AF74" s="24"/>
       <c r="AG74" s="11"/>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="AF75" s="24"/>
       <c r="AG75" s="11"/>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="AF76" s="24"/>
       <c r="AG76" s="11"/>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="AF77" s="24"/>
       <c r="AG77" s="11"/>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="AF78" s="24"/>
       <c r="AG78" s="11"/>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="AF79" s="24"/>
       <c r="AG79" s="11"/>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="AF80" s="24"/>
       <c r="AG80" s="11"/>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="11"/>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -8662,7 +8662,7 @@
       <c r="AF82" s="24"/>
       <c r="AG82" s="11"/>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="AF83" s="24"/>
       <c r="AG83" s="11"/>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -8820,7 +8820,7 @@
       <c r="AF84" s="24"/>
       <c r="AG84" s="11"/>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="AF85" s="24"/>
       <c r="AG85" s="11"/>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="AF86" s="24"/>
       <c r="AG86" s="11"/>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="AF87" s="24"/>
       <c r="AG87" s="11"/>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="AF88" s="24"/>
       <c r="AG88" s="11"/>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -9215,7 +9215,7 @@
       <c r="AF89" s="24"/>
       <c r="AG89" s="11"/>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="AF90" s="24"/>
       <c r="AG90" s="11"/>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="AF91" s="24"/>
       <c r="AG91" s="11"/>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="AF92" s="24"/>
       <c r="AG92" s="11"/>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="AF93" s="24"/>
       <c r="AG93" s="11"/>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -9610,7 +9610,7 @@
       <c r="AF94" s="24"/>
       <c r="AG94" s="11"/>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="AF95" s="24"/>
       <c r="AG95" s="11"/>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -9768,7 +9768,7 @@
       <c r="AF96" s="24"/>
       <c r="AG96" s="11"/>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="AF97" s="24"/>
       <c r="AG97" s="11"/>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="AF98" s="24"/>
       <c r="AG98" s="11"/>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -9996,7 +9996,7 @@
       <c r="AF99" s="24"/>
       <c r="AG99" s="11"/>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="AF100" s="24"/>
       <c r="AG100" s="11"/>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -10154,7 +10154,7 @@
       <c r="AF101" s="24"/>
       <c r="AG101" s="11"/>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -10233,7 +10233,7 @@
       <c r="AF102" s="24"/>
       <c r="AG102" s="11"/>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -10312,7 +10312,7 @@
       <c r="AF103" s="24"/>
       <c r="AG103" s="11"/>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="AF104" s="24"/>
       <c r="AG104" s="11"/>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="AF105" s="24"/>
       <c r="AG105" s="11"/>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="AF106" s="24"/>
       <c r="AG106" s="11"/>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -10628,7 +10628,7 @@
       <c r="AF107" s="24"/>
       <c r="AG107" s="11"/>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="AF108" s="24"/>
       <c r="AG108" s="11"/>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="AF109" s="24"/>
       <c r="AG109" s="11"/>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="AF110" s="24"/>
       <c r="AG110" s="11"/>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="AF111" s="24"/>
       <c r="AG111" s="11"/>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -11023,7 +11023,7 @@
       <c r="AF112" s="24"/>
       <c r="AG112" s="11"/>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -11102,7 +11102,7 @@
       <c r="AF113" s="24"/>
       <c r="AG113" s="11"/>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="AF114" s="24"/>
       <c r="AG114" s="11"/>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="AF115" s="24"/>
       <c r="AG115" s="11"/>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="AF116" s="24"/>
       <c r="AG116" s="11"/>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="AF117" s="24"/>
       <c r="AG117" s="11"/>
     </row>
-    <row r="118" spans="1:33">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -11497,7 +11497,7 @@
       <c r="AF118" s="24"/>
       <c r="AG118" s="11"/>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="AF119" s="24"/>
       <c r="AG119" s="11"/>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -11655,7 +11655,7 @@
       <c r="AF120" s="24"/>
       <c r="AG120" s="11"/>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="AF121" s="24"/>
       <c r="AG121" s="11"/>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -11813,7 +11813,7 @@
       <c r="AF122" s="24"/>
       <c r="AG122" s="11"/>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -11892,7 +11892,7 @@
       <c r="AF123" s="24"/>
       <c r="AG123" s="11"/>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="AF124" s="24"/>
       <c r="AG124" s="11"/>
     </row>
-    <row r="125" spans="1:33">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="AF125" s="24"/>
       <c r="AG125" s="11"/>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -12129,7 +12129,7 @@
       <c r="AF126" s="24"/>
       <c r="AG126" s="11"/>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="AF127" s="24"/>
       <c r="AG127" s="11"/>
     </row>
-    <row r="128" spans="1:33">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -12287,7 +12287,7 @@
       <c r="AF128" s="24"/>
       <c r="AG128" s="11"/>
     </row>
-    <row r="129" spans="1:33">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -12366,7 +12366,7 @@
       <c r="AF129" s="24"/>
       <c r="AG129" s="11"/>
     </row>
-    <row r="130" spans="1:33">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="AF130" s="24"/>
       <c r="AG130" s="11"/>
     </row>
-    <row r="131" spans="1:33">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -12524,7 +12524,7 @@
       <c r="AF131" s="24"/>
       <c r="AG131" s="11"/>
     </row>
-    <row r="132" spans="1:33">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -12594,7 +12594,7 @@
       <c r="AF132" s="24"/>
       <c r="AG132" s="11"/>
     </row>
-    <row r="133" spans="1:33">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>170</v>
       </c>
@@ -12664,7 +12664,7 @@
       <c r="AF133" s="24"/>
       <c r="AG133" s="11"/>
     </row>
-    <row r="134" spans="1:33">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -12740,7 +12740,7 @@
       <c r="AF134" s="24"/>
       <c r="AG134" s="11"/>
     </row>
-    <row r="135" spans="1:33">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="AF135" s="24"/>
       <c r="AG135" s="11"/>
     </row>
-    <row r="136" spans="1:33">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -12892,7 +12892,7 @@
       <c r="AF136" s="24"/>
       <c r="AG136" s="11"/>
     </row>
-    <row r="137" spans="1:33">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -12968,7 +12968,7 @@
       <c r="AF137" s="24"/>
       <c r="AG137" s="11"/>
     </row>
-    <row r="138" spans="1:33">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -13044,7 +13044,7 @@
       <c r="AF138" s="24"/>
       <c r="AG138" s="11"/>
     </row>
-    <row r="139" spans="1:33">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="AF139" s="24"/>
       <c r="AG139" s="11"/>
     </row>
-    <row r="140" spans="1:33">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="AF140" s="24"/>
       <c r="AG140" s="11"/>
     </row>
-    <row r="141" spans="1:33">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -13272,7 +13272,7 @@
       <c r="AF141" s="24"/>
       <c r="AG141" s="11"/>
     </row>
-    <row r="142" spans="1:33">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -13348,7 +13348,7 @@
       <c r="AF142" s="24"/>
       <c r="AG142" s="11"/>
     </row>
-    <row r="143" spans="1:33">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>173</v>
       </c>
@@ -13424,7 +13424,7 @@
       <c r="AF143" s="24"/>
       <c r="AG143" s="11"/>
     </row>
-    <row r="144" spans="1:33">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -13500,7 +13500,7 @@
       <c r="AF144" s="24"/>
       <c r="AG144" s="11"/>
     </row>
-    <row r="145" spans="1:33">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -13576,7 +13576,7 @@
       <c r="AF145" s="24"/>
       <c r="AG145" s="11"/>
     </row>
-    <row r="146" spans="1:33">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -13652,7 +13652,7 @@
       <c r="AF146" s="24"/>
       <c r="AG146" s="11"/>
     </row>
-    <row r="147" spans="1:33">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -13728,7 +13728,7 @@
       <c r="AF147" s="24"/>
       <c r="AG147" s="11"/>
     </row>
-    <row r="148" spans="1:33">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -13804,7 +13804,7 @@
       <c r="AF148" s="24"/>
       <c r="AG148" s="11"/>
     </row>
-    <row r="149" spans="1:33">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -13880,7 +13880,7 @@
       <c r="AF149" s="24"/>
       <c r="AG149" s="11"/>
     </row>
-    <row r="150" spans="1:33">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>173</v>
       </c>
@@ -13956,7 +13956,7 @@
       <c r="AF150" s="24"/>
       <c r="AG150" s="11"/>
     </row>
-    <row r="151" spans="1:33">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>173</v>
       </c>
@@ -14032,7 +14032,7 @@
       <c r="AF151" s="24"/>
       <c r="AG151" s="11"/>
     </row>
-    <row r="152" spans="1:33">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="AF152" s="24"/>
       <c r="AG152" s="11"/>
     </row>
-    <row r="153" spans="1:33">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -14184,7 +14184,7 @@
       <c r="AF153" s="24"/>
       <c r="AG153" s="11"/>
     </row>
-    <row r="154" spans="1:33">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="AF154" s="24"/>
       <c r="AG154" s="11"/>
     </row>
-    <row r="155" spans="1:33">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="AF155" s="24"/>
       <c r="AG155" s="11"/>
     </row>
-    <row r="156" spans="1:33">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="AF156" s="24"/>
       <c r="AG156" s="11"/>
     </row>
-    <row r="157" spans="1:33">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -14488,7 +14488,7 @@
       <c r="AF157" s="24"/>
       <c r="AG157" s="11"/>
     </row>
-    <row r="158" spans="1:33">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="AF158" s="24"/>
       <c r="AG158" s="11"/>
     </row>
-    <row r="159" spans="1:33">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -14640,7 +14640,7 @@
       <c r="AF159" s="24"/>
       <c r="AG159" s="11"/>
     </row>
-    <row r="160" spans="1:33">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -14716,7 +14716,7 @@
       <c r="AF160" s="24"/>
       <c r="AG160" s="11"/>
     </row>
-    <row r="161" spans="1:35">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="AF161" s="24"/>
       <c r="AG161" s="11"/>
     </row>
-    <row r="162" spans="1:35">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -14868,7 +14868,7 @@
       <c r="AF162" s="24"/>
       <c r="AG162" s="11"/>
     </row>
-    <row r="163" spans="1:35">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -14944,7 +14944,7 @@
       <c r="AF163" s="24"/>
       <c r="AG163" s="11"/>
     </row>
-    <row r="164" spans="1:35">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -15020,7 +15020,7 @@
       <c r="AF164" s="24"/>
       <c r="AG164" s="11"/>
     </row>
-    <row r="165" spans="1:35">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -15096,7 +15096,7 @@
       <c r="AF165" s="24"/>
       <c r="AG165" s="11"/>
     </row>
-    <row r="166" spans="1:35">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="AF166" s="24"/>
       <c r="AG166" s="11"/>
     </row>
-    <row r="167" spans="1:35">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>219</v>
       </c>
@@ -15248,7 +15248,7 @@
       <c r="AF167" s="24"/>
       <c r="AG167" s="11"/>
     </row>
-    <row r="168" spans="1:35">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>220</v>
       </c>
@@ -15324,7 +15324,7 @@
       <c r="AF168" s="24"/>
       <c r="AG168" s="11"/>
     </row>
-    <row r="169" spans="1:35">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>221</v>
       </c>
@@ -15403,7 +15403,7 @@
       <c r="AH169" s="5"/>
       <c r="AI169" s="5"/>
     </row>
-    <row r="170" spans="1:35">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>222</v>
       </c>
@@ -15482,7 +15482,7 @@
       <c r="AH170" s="5"/>
       <c r="AI170" s="5"/>
     </row>
-    <row r="171" spans="1:35">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>223</v>
       </c>
@@ -15561,7 +15561,7 @@
       <c r="AH171" s="5"/>
       <c r="AI171" s="5"/>
     </row>
-    <row r="172" spans="1:35">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>224</v>
       </c>
@@ -15640,7 +15640,7 @@
       <c r="AH172" s="5"/>
       <c r="AI172" s="5"/>
     </row>
-    <row r="173" spans="1:35">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>225</v>
       </c>
@@ -15719,7 +15719,7 @@
       <c r="AH173" s="5"/>
       <c r="AI173" s="5"/>
     </row>
-    <row r="174" spans="1:35">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>226</v>
       </c>
@@ -15798,7 +15798,7 @@
       <c r="AH174" s="5"/>
       <c r="AI174" s="5"/>
     </row>
-    <row r="175" spans="1:35">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -15877,7 +15877,7 @@
       <c r="AH175" s="5"/>
       <c r="AI175" s="5"/>
     </row>
-    <row r="176" spans="1:35">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>228</v>
       </c>
@@ -15953,7 +15953,7 @@
       <c r="AF176" s="5"/>
       <c r="AG176" s="5"/>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>229</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>230</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>67.499999999999943</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>231</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>232</v>
       </c>
@@ -16274,7 +16274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -1147,7 +1147,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1618,11 +1617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="75195904"/>
-        <c:axId val="75197824"/>
+        <c:axId val="138041216"/>
+        <c:axId val="138055680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75195904"/>
+        <c:axId val="138041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,14 +1643,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75197824"/>
+        <c:crossAx val="138055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75197824"/>
+        <c:axId val="138055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,21 +1679,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75195904"/>
+        <c:crossAx val="138041216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2035,7 +2031,7 @@
   <dimension ref="B2:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,19 +2152,19 @@
         <v>165</v>
       </c>
       <c r="C7" s="32">
-        <v>0.36499999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D7" s="15">
         <f>C7-0.29</f>
-        <v>7.5000000000000011E-2</v>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.53400000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.57799999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2385,11 +2381,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5">
         <f>COUNTIF(Data!R19:R1000,"Y")</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M19" s="37">
         <f>COUNTIF(Data!R19:R1000,"N")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -2408,11 +2404,11 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39">
         <f>COUNTIF(Data!U19:U1000,"Good")</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M20" s="40">
         <f>L9-L20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -12705,7 +12701,7 @@
       </c>
       <c r="R134" t="str">
         <f>IF(AND(J134&lt;=Constants!F$7,J134&gt;=Constants!E$7),"Y","N")</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="S134" t="str">
         <f>IF(P134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$5,(J134-Constants!D$14)&lt;Constants!E$5),"Y","Good"))</f>
@@ -12717,7 +12713,7 @@
       </c>
       <c r="U134" t="str">
         <f>IF(R134="N","N",IF(OR((J134+Constants!D$14)&gt;Constants!F$7,(J134-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="W134">
         <f>J134/2+Constants!D$9-Constants!D$10</f>
@@ -14617,7 +14613,7 @@
       </c>
       <c r="U159" t="str">
         <f>IF(R159="N","N",IF(OR((J159+Constants!D$14)&gt;Constants!F$7,(J159-Constants!D$14)&lt;Constants!E$7),"Y","Good"))</f>
-        <v>Good</v>
+        <v>Y</v>
       </c>
       <c r="W159">
         <f>J159/2+Constants!D$9-Constants!D$10</f>

--- a/data/PlugWidthEvaluation.xlsx
+++ b/data/PlugWidthEvaluation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385"/>
+    <workbookView xWindow="480" yWindow="100" windowWidth="27800" windowHeight="14380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="219">
   <si>
     <t>Plug</t>
   </si>
@@ -678,48 +678,6 @@
   </si>
   <si>
     <t>Philips sunrise alarm clock</t>
-  </si>
-  <si>
-    <t>4313 Leland</t>
-  </si>
-  <si>
-    <t>4314 Leland</t>
-  </si>
-  <si>
-    <t>4315 Leland</t>
-  </si>
-  <si>
-    <t>4316 Leland</t>
-  </si>
-  <si>
-    <t>4317 Leland</t>
-  </si>
-  <si>
-    <t>4318 Leland</t>
-  </si>
-  <si>
-    <t>4319 Leland</t>
-  </si>
-  <si>
-    <t>4320 Leland</t>
-  </si>
-  <si>
-    <t>4321 Leland</t>
-  </si>
-  <si>
-    <t>4322 Leland</t>
-  </si>
-  <si>
-    <t>4323 Leland</t>
-  </si>
-  <si>
-    <t>4324 Leland</t>
-  </si>
-  <si>
-    <t>4325 Leland</t>
-  </si>
-  <si>
-    <t>4326 Leland</t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1105,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1181,13 +1140,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -1199,79 +1158,79 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.445</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.455</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.465</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.515</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.535</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56499999999999995</c:v>
+                  <c:v>0.565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,100 +1242,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,13 +1366,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -1425,79 +1384,79 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.445</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.455</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.465</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.515</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.535</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55500000000000005</c:v>
+                  <c:v>0.555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56499999999999995</c:v>
+                  <c:v>0.565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,100 +1468,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,11 +1576,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138041216"/>
-        <c:axId val="138055680"/>
+        <c:axId val="2100214744"/>
+        <c:axId val="2064112312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138041216"/>
+        <c:axId val="2100214744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,13 +1602,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138055680"/>
+        <c:crossAx val="2064112312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1657,7 +1617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138055680"/>
+        <c:axId val="2064112312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,19 +1639,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138041216"/>
+        <c:crossAx val="2100214744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2030,20 +1992,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
@@ -2056,7 +2018,7 @@
       </c>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -2079,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2107,7 +2069,7 @@
         <v>67.500000000000057</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2127,7 +2089,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -2147,7 +2109,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="31" t="s">
         <v>165</v>
       </c>
@@ -2167,10 +2129,10 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15" thickBot="1">
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -2191,7 +2153,7 @@
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2171,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2230,7 +2192,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="7" t="s">
         <v>152</v>
       </c>
@@ -2256,7 +2218,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2277,7 +2239,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="20" t="s">
         <v>157</v>
       </c>
@@ -2294,7 +2256,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="H15" s="36"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2304,7 +2266,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2329,7 +2291,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="17">
@@ -2352,7 +2314,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="17">
@@ -2367,7 +2329,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="4"/>
       <c r="C19" s="27"/>
       <c r="D19" s="17">
@@ -2390,7 +2352,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15" thickBot="1">
       <c r="B20" s="4"/>
       <c r="C20" s="27"/>
       <c r="D20" s="17">
@@ -2413,7 +2375,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="4"/>
       <c r="C21" s="27"/>
       <c r="D21" s="17">
@@ -2428,7 +2390,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="4"/>
       <c r="C22" s="27"/>
       <c r="D22" s="17">
@@ -2437,7 +2399,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="17">
@@ -2446,7 +2408,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="17">
@@ -2455,7 +2417,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="17">
@@ -2464,7 +2426,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="17">
@@ -2473,7 +2435,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="17">
@@ -2482,7 +2444,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="17">
@@ -2491,7 +2453,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="17">
@@ -2500,7 +2462,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="17">
@@ -2509,7 +2471,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="17">
@@ -2518,7 +2480,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17">
@@ -2527,7 +2489,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17">
@@ -2536,7 +2498,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17">
@@ -2545,7 +2507,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17">
@@ -2554,681 +2516,681 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17">
         <v>0.53</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17">
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17">
         <v>0.54</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17">
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="17">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="17">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="17">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="17">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="17">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="18">
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="28"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="28"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="28"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="28"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="28"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="28"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="28"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="28"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="28"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="28"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="28"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="28"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="28"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="28"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="28"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="28"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="28"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="28"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="28"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="28"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="28"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="28"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="28"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="28"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="28"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="28"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="28"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="28"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="28"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="28"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="28"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="28"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="28"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="28"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="28"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="28"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="28"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="28"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="28"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="28"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="28"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="28"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="28"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="28"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="28"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="28"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="28"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="28"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="28"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="28"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="28"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="28"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="28"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="28"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="28"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="28"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="28"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="28"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="28"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="28"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="28"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="28"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="28"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="28"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="28"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="28"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="28"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="28"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="28"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="28"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="28"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="28"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="28"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="28"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="28"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="28"/>
@@ -3252,34 +3214,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:AM180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" customWidth="1"/>
-    <col min="8" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" customWidth="1"/>
-    <col min="16" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="1.42578125" customWidth="1"/>
-    <col min="23" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="1.42578125" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="1.42578125" customWidth="1"/>
-    <col min="31" max="31" width="1.42578125" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.5" customWidth="1"/>
+    <col min="8" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="1.5" customWidth="1"/>
+    <col min="12" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.5" customWidth="1"/>
+    <col min="16" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="1.5" customWidth="1"/>
+    <col min="23" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="1.5" customWidth="1"/>
+    <col min="26" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="1.5" customWidth="1"/>
+    <col min="31" max="31" width="1.5" customWidth="1"/>
+    <col min="37" max="37" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="15" thickBot="1">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3337,7 +3299,7 @@
       </c>
       <c r="AM17" s="57"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3432,7 +3394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3517,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3602,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3687,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3772,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3857,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3942,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -4027,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4112,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4197,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4282,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -4367,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -4452,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4537,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4622,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4707,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4792,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4877,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4962,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -5047,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -5132,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5217,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5302,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5387,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5472,7 +5434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -5557,7 +5519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -5642,7 +5604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5727,7 +5689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5812,7 +5774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5897,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5982,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -6067,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6151,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="15" thickBot="1">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -6235,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -6306,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6367,7 +6329,7 @@
       <c r="AF53" s="24"/>
       <c r="AG53" s="11"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -6446,7 +6408,7 @@
       <c r="AF54" s="24"/>
       <c r="AG54" s="11"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6525,7 +6487,7 @@
       <c r="AF55" s="24"/>
       <c r="AG55" s="11"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6604,7 +6566,7 @@
       <c r="AF56" s="24"/>
       <c r="AG56" s="11"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6683,7 +6645,7 @@
       <c r="AF57" s="24"/>
       <c r="AG57" s="11"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6762,7 +6724,7 @@
       <c r="AF58" s="24"/>
       <c r="AG58" s="11"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6841,7 +6803,7 @@
       <c r="AF59" s="24"/>
       <c r="AG59" s="11"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6920,7 +6882,7 @@
       <c r="AF60" s="24"/>
       <c r="AG60" s="11"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -6999,7 +6961,7 @@
       <c r="AF61" s="24"/>
       <c r="AG61" s="11"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -7078,7 +7040,7 @@
       <c r="AF62" s="24"/>
       <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -7157,7 +7119,7 @@
       <c r="AF63" s="24"/>
       <c r="AG63" s="11"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -7236,7 +7198,7 @@
       <c r="AF64" s="24"/>
       <c r="AG64" s="11"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -7315,7 +7277,7 @@
       <c r="AF65" s="24"/>
       <c r="AG65" s="11"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -7394,7 +7356,7 @@
       <c r="AF66" s="24"/>
       <c r="AG66" s="11"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -7473,7 +7435,7 @@
       <c r="AF67" s="24"/>
       <c r="AG67" s="11"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -7552,7 +7514,7 @@
       <c r="AF68" s="24"/>
       <c r="AG68" s="11"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -7631,7 +7593,7 @@
       <c r="AF69" s="24"/>
       <c r="AG69" s="11"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -7710,7 +7672,7 @@
       <c r="AF70" s="24"/>
       <c r="AG70" s="11"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -7789,7 +7751,7 @@
       <c r="AF71" s="24"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -7868,7 +7830,7 @@
       <c r="AF72" s="24"/>
       <c r="AG72" s="11"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -7947,7 +7909,7 @@
       <c r="AF73" s="24"/>
       <c r="AG73" s="11"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -8026,7 +7988,7 @@
       <c r="AF74" s="24"/>
       <c r="AG74" s="11"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -8105,7 +8067,7 @@
       <c r="AF75" s="24"/>
       <c r="AG75" s="11"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -8184,7 +8146,7 @@
       <c r="AF76" s="24"/>
       <c r="AG76" s="11"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -8263,7 +8225,7 @@
       <c r="AF77" s="24"/>
       <c r="AG77" s="11"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -8342,7 +8304,7 @@
       <c r="AF78" s="24"/>
       <c r="AG78" s="11"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -8421,7 +8383,7 @@
       <c r="AF79" s="24"/>
       <c r="AG79" s="11"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -8500,7 +8462,7 @@
       <c r="AF80" s="24"/>
       <c r="AG80" s="11"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -8579,7 +8541,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="11"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -8658,7 +8620,7 @@
       <c r="AF82" s="24"/>
       <c r="AG82" s="11"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -8737,7 +8699,7 @@
       <c r="AF83" s="24"/>
       <c r="AG83" s="11"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -8816,7 +8778,7 @@
       <c r="AF84" s="24"/>
       <c r="AG84" s="11"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -8895,7 +8857,7 @@
       <c r="AF85" s="24"/>
       <c r="AG85" s="11"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -8974,7 +8936,7 @@
       <c r="AF86" s="24"/>
       <c r="AG86" s="11"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -9053,7 +9015,7 @@
       <c r="AF87" s="24"/>
       <c r="AG87" s="11"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -9132,7 +9094,7 @@
       <c r="AF88" s="24"/>
       <c r="AG88" s="11"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -9211,7 +9173,7 @@
       <c r="AF89" s="24"/>
       <c r="AG89" s="11"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -9290,7 +9252,7 @@
       <c r="AF90" s="24"/>
       <c r="AG90" s="11"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -9369,7 +9331,7 @@
       <c r="AF91" s="24"/>
       <c r="AG91" s="11"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -9448,7 +9410,7 @@
       <c r="AF92" s="24"/>
       <c r="AG92" s="11"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -9527,7 +9489,7 @@
       <c r="AF93" s="24"/>
       <c r="AG93" s="11"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -9606,7 +9568,7 @@
       <c r="AF94" s="24"/>
       <c r="AG94" s="11"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -9685,7 +9647,7 @@
       <c r="AF95" s="24"/>
       <c r="AG95" s="11"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -9764,7 +9726,7 @@
       <c r="AF96" s="24"/>
       <c r="AG96" s="11"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -9843,7 +9805,7 @@
       <c r="AF97" s="24"/>
       <c r="AG97" s="11"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -9913,7 +9875,7 @@
       <c r="AF98" s="24"/>
       <c r="AG98" s="11"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -9992,7 +9954,7 @@
       <c r="AF99" s="24"/>
       <c r="AG99" s="11"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -10071,7 +10033,7 @@
       <c r="AF100" s="24"/>
       <c r="AG100" s="11"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -10150,7 +10112,7 @@
       <c r="AF101" s="24"/>
       <c r="AG101" s="11"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -10229,7 +10191,7 @@
       <c r="AF102" s="24"/>
       <c r="AG102" s="11"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -10308,7 +10270,7 @@
       <c r="AF103" s="24"/>
       <c r="AG103" s="11"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -10387,7 +10349,7 @@
       <c r="AF104" s="24"/>
       <c r="AG104" s="11"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -10466,7 +10428,7 @@
       <c r="AF105" s="24"/>
       <c r="AG105" s="11"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -10545,7 +10507,7 @@
       <c r="AF106" s="24"/>
       <c r="AG106" s="11"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -10624,7 +10586,7 @@
       <c r="AF107" s="24"/>
       <c r="AG107" s="11"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -10703,7 +10665,7 @@
       <c r="AF108" s="24"/>
       <c r="AG108" s="11"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -10782,7 +10744,7 @@
       <c r="AF109" s="24"/>
       <c r="AG109" s="11"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -10861,7 +10823,7 @@
       <c r="AF110" s="24"/>
       <c r="AG110" s="11"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -10940,7 +10902,7 @@
       <c r="AF111" s="24"/>
       <c r="AG111" s="11"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -11019,7 +10981,7 @@
       <c r="AF112" s="24"/>
       <c r="AG112" s="11"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -11098,7 +11060,7 @@
       <c r="AF113" s="24"/>
       <c r="AG113" s="11"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -11177,7 +11139,7 @@
       <c r="AF114" s="24"/>
       <c r="AG114" s="11"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -11256,7 +11218,7 @@
       <c r="AF115" s="24"/>
       <c r="AG115" s="11"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -11335,7 +11297,7 @@
       <c r="AF116" s="24"/>
       <c r="AG116" s="11"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -11414,7 +11376,7 @@
       <c r="AF117" s="24"/>
       <c r="AG117" s="11"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -11493,7 +11455,7 @@
       <c r="AF118" s="24"/>
       <c r="AG118" s="11"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -11572,7 +11534,7 @@
       <c r="AF119" s="24"/>
       <c r="AG119" s="11"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -11651,7 +11613,7 @@
       <c r="AF120" s="24"/>
       <c r="AG120" s="11"/>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -11730,7 +11692,7 @@
       <c r="AF121" s="24"/>
       <c r="AG121" s="11"/>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -11809,7 +11771,7 @@
       <c r="AF122" s="24"/>
       <c r="AG122" s="11"/>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -11888,7 +11850,7 @@
       <c r="AF123" s="24"/>
       <c r="AG123" s="11"/>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -11967,7 +11929,7 @@
       <c r="AF124" s="24"/>
       <c r="AG124" s="11"/>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -12046,7 +12008,7 @@
       <c r="AF125" s="24"/>
       <c r="AG125" s="11"/>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -12125,7 +12087,7 @@
       <c r="AF126" s="24"/>
       <c r="AG126" s="11"/>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -12204,7 +12166,7 @@
       <c r="AF127" s="24"/>
       <c r="AG127" s="11"/>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -12283,7 +12245,7 @@
       <c r="AF128" s="24"/>
       <c r="AG128" s="11"/>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -12362,7 +12324,7 @@
       <c r="AF129" s="24"/>
       <c r="AG129" s="11"/>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -12441,7 +12403,7 @@
       <c r="AF130" s="24"/>
       <c r="AG130" s="11"/>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -12520,7 +12482,7 @@
       <c r="AF131" s="24"/>
       <c r="AG131" s="11"/>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -12590,7 +12552,7 @@
       <c r="AF132" s="24"/>
       <c r="AG132" s="11"/>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
         <v>170</v>
       </c>
@@ -12660,7 +12622,7 @@
       <c r="AF133" s="24"/>
       <c r="AG133" s="11"/>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -12736,7 +12698,7 @@
       <c r="AF134" s="24"/>
       <c r="AG134" s="11"/>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -12812,7 +12774,7 @@
       <c r="AF135" s="24"/>
       <c r="AG135" s="11"/>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -12888,7 +12850,7 @@
       <c r="AF136" s="24"/>
       <c r="AG136" s="11"/>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -12964,7 +12926,7 @@
       <c r="AF137" s="24"/>
       <c r="AG137" s="11"/>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -13040,7 +13002,7 @@
       <c r="AF138" s="24"/>
       <c r="AG138" s="11"/>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -13116,7 +13078,7 @@
       <c r="AF139" s="24"/>
       <c r="AG139" s="11"/>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -13192,7 +13154,7 @@
       <c r="AF140" s="24"/>
       <c r="AG140" s="11"/>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -13268,7 +13230,7 @@
       <c r="AF141" s="24"/>
       <c r="AG141" s="11"/>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -13344,7 +13306,7 @@
       <c r="AF142" s="24"/>
       <c r="AG142" s="11"/>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
         <v>173</v>
       </c>
@@ -13420,7 +13382,7 @@
       <c r="AF143" s="24"/>
       <c r="AG143" s="11"/>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -13496,7 +13458,7 @@
       <c r="AF144" s="24"/>
       <c r="AG144" s="11"/>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -13572,7 +13534,7 @@
       <c r="AF145" s="24"/>
       <c r="AG145" s="11"/>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -13648,7 +13610,7 @@
       <c r="AF146" s="24"/>
       <c r="AG146" s="11"/>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -13724,7 +13686,7 @@
       <c r="AF147" s="24"/>
       <c r="AG147" s="11"/>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -13800,7 +13762,7 @@
       <c r="AF148" s="24"/>
       <c r="AG148" s="11"/>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -13876,7 +13838,7 @@
       <c r="AF149" s="24"/>
       <c r="AG149" s="11"/>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33">
       <c r="A150" t="s">
         <v>173</v>
       </c>
@@ -13952,7 +13914,7 @@
       <c r="AF150" s="24"/>
       <c r="AG150" s="11"/>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33">
       <c r="A151" t="s">
         <v>173</v>
       </c>
@@ -14028,7 +13990,7 @@
       <c r="AF151" s="24"/>
       <c r="AG151" s="11"/>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -14104,7 +14066,7 @@
       <c r="AF152" s="24"/>
       <c r="AG152" s="11"/>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -14180,7 +14142,7 @@
       <c r="AF153" s="24"/>
       <c r="AG153" s="11"/>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -14256,7 +14218,7 @@
       <c r="AF154" s="24"/>
       <c r="AG154" s="11"/>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -14332,7 +14294,7 @@
       <c r="AF155" s="24"/>
       <c r="AG155" s="11"/>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -14408,7 +14370,7 @@
       <c r="AF156" s="24"/>
       <c r="AG156" s="11"/>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -14484,7 +14446,7 @@
       <c r="AF157" s="24"/>
       <c r="AG157" s="11"/>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -14560,7 +14522,7 @@
       <c r="AF158" s="24"/>
       <c r="AG158" s="11"/>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -14636,7 +14598,7 @@
       <c r="AF159" s="24"/>
       <c r="AG159" s="11"/>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -14712,7 +14674,7 @@
       <c r="AF160" s="24"/>
       <c r="AG160" s="11"/>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -14788,7 +14750,7 @@
       <c r="AF161" s="24"/>
       <c r="AG161" s="11"/>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -14864,7 +14826,7 @@
       <c r="AF162" s="24"/>
       <c r="AG162" s="11"/>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -14940,7 +14902,7 @@
       <c r="AF163" s="24"/>
       <c r="AG163" s="11"/>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -15016,7 +14978,7 @@
       <c r="AF164" s="24"/>
       <c r="AG164" s="11"/>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -15092,7 +15054,7 @@
       <c r="AF165" s="24"/>
       <c r="AG165" s="11"/>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -15168,9 +15130,9 @@
       <c r="AF166" s="24"/>
       <c r="AG166" s="11"/>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35">
       <c r="A167" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C167" t="s">
         <v>206</v>
@@ -15244,9 +15206,9 @@
       <c r="AF167" s="24"/>
       <c r="AG167" s="11"/>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C168" t="s">
         <v>207</v>
@@ -15320,9 +15282,9 @@
       <c r="AF168" s="24"/>
       <c r="AG168" s="11"/>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35">
       <c r="A169" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s">
         <v>208</v>
@@ -15399,9 +15361,9 @@
       <c r="AH169" s="5"/>
       <c r="AI169" s="5"/>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35">
       <c r="A170" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s">
         <v>209</v>
@@ -15478,9 +15440,9 @@
       <c r="AH170" s="5"/>
       <c r="AI170" s="5"/>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
         <v>210</v>
@@ -15557,9 +15519,9 @@
       <c r="AH171" s="5"/>
       <c r="AI171" s="5"/>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35">
       <c r="A172" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C172" t="s">
         <v>211</v>
@@ -15636,9 +15598,9 @@
       <c r="AH172" s="5"/>
       <c r="AI172" s="5"/>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35">
       <c r="A173" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C173" t="s">
         <v>212</v>
@@ -15715,9 +15677,9 @@
       <c r="AH173" s="5"/>
       <c r="AI173" s="5"/>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35">
       <c r="A174" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
         <v>213</v>
@@ -15794,9 +15756,9 @@
       <c r="AH174" s="5"/>
       <c r="AI174" s="5"/>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35">
       <c r="A175" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
         <v>214</v>
@@ -15873,9 +15835,9 @@
       <c r="AH175" s="5"/>
       <c r="AI175" s="5"/>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35">
       <c r="A176" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C176" t="s">
         <v>215</v>
@@ -15949,9 +15911,9 @@
       <c r="AF176" s="5"/>
       <c r="AG176" s="5"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C177" t="s">
         <v>215</v>
@@ -16021,9 +15983,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C178" t="s">
         <v>216</v>
@@ -16093,9 +16055,9 @@
         <v>67.499999999999943</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27">
       <c r="A179" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C179" t="s">
         <v>217</v>
@@ -16165,9 +16127,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="A180" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C180" t="s">
         <v>218</v>
@@ -16270,7 +16232,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
